--- a/attachments/Input Merchant Acquisition (1).xlsx
+++ b/attachments/Input Merchant Acquisition (1).xlsx
@@ -8,16 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MerchantAcquisition\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B8D8E8-0951-4922-A91C-7687E7064724}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36E7906-358F-4F4B-A2FB-F14E4ECB600D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Versi 1" sheetId="1" r:id="rId1"/>
     <sheet name="Versi 2" sheetId="2" r:id="rId2"/>
     <sheet name="ASCCEND" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1146,22 +1156,43 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1186,55 +1217,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1467,8 +1477,8 @@
   </sheetPr>
   <dimension ref="A1:R81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1489,10 +1499,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="119" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="103"/>
+      <c r="A1" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="101"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1519,12 +1529,12 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="98"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="105"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -1699,38 +1709,38 @@
       <c r="D20" s="83"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="120" t="s">
+      <c r="A22" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="102"/>
-      <c r="C22" s="102"/>
-      <c r="D22" s="102"/>
-      <c r="E22" s="102"/>
-      <c r="F22" s="102"/>
-      <c r="G22" s="102"/>
-      <c r="H22" s="102"/>
-      <c r="I22" s="103"/>
+      <c r="B22" s="100"/>
+      <c r="C22" s="100"/>
+      <c r="D22" s="100"/>
+      <c r="E22" s="100"/>
+      <c r="F22" s="100"/>
+      <c r="G22" s="100"/>
+      <c r="H22" s="100"/>
+      <c r="I22" s="101"/>
       <c r="J22" s="19"/>
       <c r="K22" s="19"/>
       <c r="L22" s="19"/>
       <c r="M22" s="19"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="121" t="s">
+      <c r="A23" s="114" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="102"/>
-      <c r="C23" s="102"/>
-      <c r="D23" s="121" t="s">
+      <c r="B23" s="100"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="114" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="102"/>
-      <c r="F23" s="102"/>
-      <c r="G23" s="121" t="s">
+      <c r="E23" s="100"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="114" t="s">
         <v>29</v>
       </c>
-      <c r="H23" s="102"/>
-      <c r="I23" s="103"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="101"/>
       <c r="L23" s="19"/>
       <c r="M23" s="19"/>
     </row>
@@ -1738,86 +1748,86 @@
       <c r="A24" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="118"/>
-      <c r="C24" s="98"/>
+      <c r="B24" s="110"/>
+      <c r="C24" s="105"/>
       <c r="D24" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="118"/>
-      <c r="F24" s="98"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="105"/>
       <c r="G24" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H24" s="118"/>
-      <c r="I24" s="98"/>
+      <c r="H24" s="110"/>
+      <c r="I24" s="105"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="116"/>
-      <c r="C25" s="100"/>
+      <c r="B25" s="115"/>
+      <c r="C25" s="98"/>
       <c r="D25" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E25" s="116"/>
-      <c r="F25" s="100"/>
+      <c r="E25" s="115"/>
+      <c r="F25" s="98"/>
       <c r="G25" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H25" s="116"/>
-      <c r="I25" s="100"/>
+      <c r="H25" s="115"/>
+      <c r="I25" s="98"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="116"/>
-      <c r="C26" s="100"/>
+      <c r="B26" s="115"/>
+      <c r="C26" s="98"/>
       <c r="D26" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="116"/>
-      <c r="F26" s="100"/>
+      <c r="E26" s="115"/>
+      <c r="F26" s="98"/>
       <c r="G26" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H26" s="116"/>
-      <c r="I26" s="100"/>
+      <c r="H26" s="115"/>
+      <c r="I26" s="98"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="116"/>
-      <c r="C27" s="100"/>
+      <c r="B27" s="115"/>
+      <c r="C27" s="98"/>
       <c r="D27" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="116"/>
-      <c r="F27" s="100"/>
+      <c r="E27" s="115"/>
+      <c r="F27" s="98"/>
       <c r="G27" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H27" s="116"/>
-      <c r="I27" s="100"/>
+      <c r="H27" s="115"/>
+      <c r="I27" s="98"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="104" t="s">
+      <c r="A28" s="116" t="s">
         <v>32</v>
       </c>
       <c r="B28" s="21" t="s">
         <v>33</v>
       </c>
       <c r="C28" s="11"/>
-      <c r="D28" s="104" t="s">
+      <c r="D28" s="116" t="s">
         <v>32</v>
       </c>
       <c r="E28" s="21" t="s">
         <v>33</v>
       </c>
       <c r="F28" s="11"/>
-      <c r="G28" s="104" t="s">
+      <c r="G28" s="116" t="s">
         <v>32</v>
       </c>
       <c r="H28" s="21" t="s">
@@ -1826,34 +1836,34 @@
       <c r="I28" s="11"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="105"/>
+      <c r="A29" s="107"/>
       <c r="B29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C29" s="2"/>
-      <c r="D29" s="105"/>
+      <c r="D29" s="107"/>
       <c r="E29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F29" s="2"/>
-      <c r="G29" s="105"/>
+      <c r="G29" s="107"/>
       <c r="H29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="105"/>
+      <c r="A30" s="107"/>
       <c r="B30" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C30" s="2"/>
-      <c r="D30" s="105"/>
+      <c r="D30" s="107"/>
       <c r="E30" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F30" s="2"/>
-      <c r="G30" s="105"/>
+      <c r="G30" s="107"/>
       <c r="H30" s="1" t="s">
         <v>35</v>
       </c>
@@ -1861,17 +1871,17 @@
       <c r="M30" s="22"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="105"/>
+      <c r="A31" s="107"/>
       <c r="B31" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C31" s="2"/>
-      <c r="D31" s="105"/>
+      <c r="D31" s="107"/>
       <c r="E31" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F31" s="2"/>
-      <c r="G31" s="105"/>
+      <c r="G31" s="107"/>
       <c r="H31" s="1" t="s">
         <v>36</v>
       </c>
@@ -1879,17 +1889,17 @@
       <c r="M31" s="22"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="105"/>
+      <c r="A32" s="107"/>
       <c r="B32" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C32" s="2"/>
-      <c r="D32" s="105"/>
+      <c r="D32" s="107"/>
       <c r="E32" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F32" s="2"/>
-      <c r="G32" s="105"/>
+      <c r="G32" s="107"/>
       <c r="H32" s="1" t="s">
         <v>37</v>
       </c>
@@ -1897,17 +1907,17 @@
       <c r="M32" s="22"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="105"/>
+      <c r="A33" s="107"/>
       <c r="B33" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C33" s="2"/>
-      <c r="D33" s="105"/>
+      <c r="D33" s="107"/>
       <c r="E33" s="1" t="s">
         <v>38</v>
       </c>
       <c r="F33" s="2"/>
-      <c r="G33" s="105"/>
+      <c r="G33" s="107"/>
       <c r="H33" s="1" t="s">
         <v>38</v>
       </c>
@@ -1915,17 +1925,17 @@
       <c r="M33" s="22"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="105"/>
+      <c r="A34" s="107"/>
       <c r="B34" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C34" s="2"/>
-      <c r="D34" s="105"/>
+      <c r="D34" s="107"/>
       <c r="E34" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F34" s="2"/>
-      <c r="G34" s="105"/>
+      <c r="G34" s="107"/>
       <c r="H34" s="1" t="s">
         <v>39</v>
       </c>
@@ -1933,17 +1943,17 @@
       <c r="M34" s="22"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="106"/>
+      <c r="A35" s="117"/>
       <c r="B35" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C35" s="4"/>
-      <c r="D35" s="106"/>
+      <c r="D35" s="117"/>
       <c r="E35" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F35" s="4"/>
-      <c r="G35" s="106"/>
+      <c r="G35" s="117"/>
       <c r="H35" s="3" t="s">
         <v>40</v>
       </c>
@@ -1954,25 +1964,25 @@
       <c r="A36" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="94"/>
-      <c r="C36" s="95"/>
+      <c r="B36" s="127"/>
+      <c r="C36" s="109"/>
       <c r="D36" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E36" s="94"/>
-      <c r="F36" s="95"/>
+      <c r="E36" s="127"/>
+      <c r="F36" s="109"/>
       <c r="G36" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="H36" s="94"/>
-      <c r="I36" s="95"/>
+      <c r="H36" s="127"/>
+      <c r="I36" s="109"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="96" t="s">
+      <c r="A38" s="112" t="s">
         <v>42</v>
       </c>
-      <c r="B38" s="97"/>
-      <c r="C38" s="98"/>
+      <c r="B38" s="95"/>
+      <c r="C38" s="105"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
@@ -1987,13 +1997,13 @@
       <c r="A40" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="99" t="s">
+      <c r="B40" s="97" t="s">
         <v>219</v>
       </c>
-      <c r="C40" s="100"/>
+      <c r="C40" s="98"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="107" t="s">
+      <c r="A41" s="118" t="s">
         <v>32</v>
       </c>
       <c r="B41" s="10" t="s">
@@ -2004,7 +2014,7 @@
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="108"/>
+      <c r="A42" s="119"/>
       <c r="B42" s="8" t="s">
         <v>34</v>
       </c>
@@ -2013,7 +2023,7 @@
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="108"/>
+      <c r="A43" s="119"/>
       <c r="B43" s="8" t="s">
         <v>35</v>
       </c>
@@ -2022,7 +2032,7 @@
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="108"/>
+      <c r="A44" s="119"/>
       <c r="B44" s="8" t="s">
         <v>36</v>
       </c>
@@ -2031,7 +2041,7 @@
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="108"/>
+      <c r="A45" s="119"/>
       <c r="B45" s="8" t="s">
         <v>37</v>
       </c>
@@ -2040,7 +2050,7 @@
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="108"/>
+      <c r="A46" s="119"/>
       <c r="B46" s="8" t="s">
         <v>38</v>
       </c>
@@ -2049,7 +2059,7 @@
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="108"/>
+      <c r="A47" s="119"/>
       <c r="B47" s="8" t="s">
         <v>39</v>
       </c>
@@ -2058,7 +2068,7 @@
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="109"/>
+      <c r="A48" s="120"/>
       <c r="B48" s="8" t="s">
         <v>40</v>
       </c>
@@ -2070,34 +2080,34 @@
       <c r="A49" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B49" s="110">
+      <c r="B49" s="121">
         <v>23586598</v>
       </c>
-      <c r="C49" s="111"/>
+      <c r="C49" s="122"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B50" s="112">
+      <c r="B50" s="123">
         <v>8123456789</v>
       </c>
-      <c r="C50" s="113"/>
+      <c r="C50" s="124"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B51" s="114" t="s">
+      <c r="B51" s="125" t="s">
         <v>225</v>
       </c>
-      <c r="C51" s="115"/>
+      <c r="C51" s="126"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="96" t="s">
+      <c r="A53" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="B53" s="98"/>
+      <c r="B53" s="105"/>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
@@ -2154,140 +2164,140 @@
       <c r="B60" s="93"/>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A62" s="124" t="s">
+      <c r="A62" s="99" t="s">
         <v>55</v>
       </c>
-      <c r="B62" s="102"/>
-      <c r="C62" s="102"/>
-      <c r="D62" s="102"/>
-      <c r="E62" s="102"/>
-      <c r="F62" s="102"/>
-      <c r="G62" s="102"/>
-      <c r="H62" s="102"/>
-      <c r="I62" s="102"/>
-      <c r="J62" s="102"/>
-      <c r="K62" s="102"/>
-      <c r="L62" s="102"/>
-      <c r="M62" s="102"/>
-      <c r="N62" s="102"/>
-      <c r="O62" s="102"/>
-      <c r="P62" s="102"/>
-      <c r="Q62" s="102"/>
-      <c r="R62" s="103"/>
+      <c r="B62" s="100"/>
+      <c r="C62" s="100"/>
+      <c r="D62" s="100"/>
+      <c r="E62" s="100"/>
+      <c r="F62" s="100"/>
+      <c r="G62" s="100"/>
+      <c r="H62" s="100"/>
+      <c r="I62" s="100"/>
+      <c r="J62" s="100"/>
+      <c r="K62" s="100"/>
+      <c r="L62" s="100"/>
+      <c r="M62" s="100"/>
+      <c r="N62" s="100"/>
+      <c r="O62" s="100"/>
+      <c r="P62" s="100"/>
+      <c r="Q62" s="100"/>
+      <c r="R62" s="101"/>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A63" s="125" t="s">
+      <c r="A63" s="102" t="s">
         <v>56</v>
       </c>
-      <c r="B63" s="102"/>
-      <c r="C63" s="102"/>
-      <c r="D63" s="102"/>
-      <c r="E63" s="102"/>
-      <c r="F63" s="103"/>
-      <c r="G63" s="125" t="s">
+      <c r="B63" s="100"/>
+      <c r="C63" s="100"/>
+      <c r="D63" s="100"/>
+      <c r="E63" s="100"/>
+      <c r="F63" s="101"/>
+      <c r="G63" s="102" t="s">
         <v>57</v>
       </c>
-      <c r="H63" s="102"/>
-      <c r="I63" s="102"/>
-      <c r="J63" s="102"/>
-      <c r="K63" s="102"/>
-      <c r="L63" s="102"/>
-      <c r="M63" s="125" t="s">
+      <c r="H63" s="100"/>
+      <c r="I63" s="100"/>
+      <c r="J63" s="100"/>
+      <c r="K63" s="100"/>
+      <c r="L63" s="100"/>
+      <c r="M63" s="102" t="s">
         <v>58</v>
       </c>
-      <c r="N63" s="102"/>
-      <c r="O63" s="102"/>
-      <c r="P63" s="102"/>
-      <c r="Q63" s="102"/>
-      <c r="R63" s="103"/>
+      <c r="N63" s="100"/>
+      <c r="O63" s="100"/>
+      <c r="P63" s="100"/>
+      <c r="Q63" s="100"/>
+      <c r="R63" s="101"/>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B64" s="101"/>
-      <c r="C64" s="102"/>
-      <c r="D64" s="102"/>
-      <c r="E64" s="102"/>
-      <c r="F64" s="103"/>
+      <c r="B64" s="103"/>
+      <c r="C64" s="100"/>
+      <c r="D64" s="100"/>
+      <c r="E64" s="100"/>
+      <c r="F64" s="101"/>
       <c r="G64" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H64" s="101"/>
-      <c r="I64" s="102"/>
-      <c r="J64" s="102"/>
-      <c r="K64" s="102"/>
-      <c r="L64" s="103"/>
+      <c r="H64" s="103"/>
+      <c r="I64" s="100"/>
+      <c r="J64" s="100"/>
+      <c r="K64" s="100"/>
+      <c r="L64" s="101"/>
       <c r="M64" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="N64" s="101"/>
-      <c r="O64" s="102"/>
-      <c r="P64" s="102"/>
-      <c r="Q64" s="102"/>
-      <c r="R64" s="103"/>
+      <c r="N64" s="103"/>
+      <c r="O64" s="100"/>
+      <c r="P64" s="100"/>
+      <c r="Q64" s="100"/>
+      <c r="R64" s="101"/>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A65" s="104" t="s">
+      <c r="A65" s="116" t="s">
         <v>59</v>
       </c>
       <c r="B65" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="C65" s="122"/>
-      <c r="D65" s="97"/>
-      <c r="E65" s="97"/>
-      <c r="F65" s="97"/>
-      <c r="G65" s="104" t="s">
+      <c r="C65" s="94"/>
+      <c r="D65" s="95"/>
+      <c r="E65" s="95"/>
+      <c r="F65" s="95"/>
+      <c r="G65" s="116" t="s">
         <v>59</v>
       </c>
       <c r="H65" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="I65" s="126"/>
-      <c r="J65" s="97"/>
-      <c r="K65" s="97"/>
-      <c r="L65" s="98"/>
-      <c r="M65" s="127" t="s">
+      <c r="I65" s="104"/>
+      <c r="J65" s="95"/>
+      <c r="K65" s="95"/>
+      <c r="L65" s="105"/>
+      <c r="M65" s="106" t="s">
         <v>59</v>
       </c>
       <c r="N65" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="O65" s="126"/>
-      <c r="P65" s="97"/>
-      <c r="Q65" s="97"/>
-      <c r="R65" s="98"/>
+      <c r="O65" s="104"/>
+      <c r="P65" s="95"/>
+      <c r="Q65" s="95"/>
+      <c r="R65" s="105"/>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A66" s="105"/>
+      <c r="A66" s="107"/>
       <c r="B66" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="C66" s="123"/>
-      <c r="D66" s="123"/>
-      <c r="E66" s="123"/>
-      <c r="F66" s="123"/>
-      <c r="G66" s="105"/>
+      <c r="C66" s="96"/>
+      <c r="D66" s="96"/>
+      <c r="E66" s="96"/>
+      <c r="F66" s="96"/>
+      <c r="G66" s="107"/>
       <c r="H66" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="I66" s="99"/>
-      <c r="J66" s="123"/>
-      <c r="K66" s="123"/>
-      <c r="L66" s="100"/>
-      <c r="M66" s="105"/>
+      <c r="I66" s="97"/>
+      <c r="J66" s="96"/>
+      <c r="K66" s="96"/>
+      <c r="L66" s="98"/>
+      <c r="M66" s="107"/>
       <c r="N66" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="O66" s="99"/>
-      <c r="P66" s="123"/>
-      <c r="Q66" s="123"/>
-      <c r="R66" s="100"/>
+      <c r="O66" s="97"/>
+      <c r="P66" s="96"/>
+      <c r="Q66" s="96"/>
+      <c r="R66" s="98"/>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A67" s="105"/>
-      <c r="B67" s="117" t="s">
+      <c r="A67" s="107"/>
+      <c r="B67" s="108" t="s">
         <v>62</v>
       </c>
       <c r="C67" s="30" t="s">
@@ -2302,8 +2312,8 @@
       <c r="F67" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="G67" s="105"/>
-      <c r="H67" s="117" t="s">
+      <c r="G67" s="107"/>
+      <c r="H67" s="108" t="s">
         <v>62</v>
       </c>
       <c r="I67" s="30" t="s">
@@ -2318,8 +2328,8 @@
       <c r="L67" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="M67" s="105"/>
-      <c r="N67" s="117" t="s">
+      <c r="M67" s="107"/>
+      <c r="N67" s="108" t="s">
         <v>62</v>
       </c>
       <c r="O67" s="30" t="s">
@@ -2336,8 +2346,8 @@
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A68" s="105"/>
-      <c r="B68" s="100"/>
+      <c r="A68" s="107"/>
+      <c r="B68" s="98"/>
       <c r="C68" s="29" t="s">
         <v>66</v>
       </c>
@@ -2345,8 +2355,8 @@
         <v>0</v>
       </c>
       <c r="E68" s="2"/>
-      <c r="G68" s="105"/>
-      <c r="H68" s="100"/>
+      <c r="G68" s="107"/>
+      <c r="H68" s="98"/>
       <c r="I68" s="29" t="s">
         <v>67</v>
       </c>
@@ -2355,8 +2365,8 @@
       </c>
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
-      <c r="M68" s="105"/>
-      <c r="N68" s="100"/>
+      <c r="M68" s="107"/>
+      <c r="N68" s="98"/>
       <c r="O68" s="29" t="s">
         <v>67</v>
       </c>
@@ -2367,8 +2377,8 @@
       <c r="R68" s="2"/>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A69" s="105"/>
-      <c r="B69" s="100"/>
+      <c r="A69" s="107"/>
+      <c r="B69" s="98"/>
       <c r="C69" s="29" t="s">
         <v>68</v>
       </c>
@@ -2376,8 +2386,8 @@
         <v>0</v>
       </c>
       <c r="E69" s="2"/>
-      <c r="G69" s="105"/>
-      <c r="H69" s="100"/>
+      <c r="G69" s="107"/>
+      <c r="H69" s="98"/>
       <c r="I69" s="29" t="s">
         <v>69</v>
       </c>
@@ -2386,8 +2396,8 @@
       </c>
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
-      <c r="M69" s="105"/>
-      <c r="N69" s="100"/>
+      <c r="M69" s="107"/>
+      <c r="N69" s="98"/>
       <c r="O69" s="29" t="s">
         <v>69</v>
       </c>
@@ -2398,8 +2408,8 @@
       <c r="R69" s="2"/>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A70" s="105"/>
-      <c r="B70" s="100"/>
+      <c r="A70" s="107"/>
+      <c r="B70" s="98"/>
       <c r="C70" s="29" t="s">
         <v>70</v>
       </c>
@@ -2407,8 +2417,8 @@
         <v>0</v>
       </c>
       <c r="E70" s="2"/>
-      <c r="G70" s="105"/>
-      <c r="H70" s="100"/>
+      <c r="G70" s="107"/>
+      <c r="H70" s="98"/>
       <c r="I70" s="29" t="s">
         <v>70</v>
       </c>
@@ -2417,8 +2427,8 @@
       </c>
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
-      <c r="M70" s="105"/>
-      <c r="N70" s="100"/>
+      <c r="M70" s="107"/>
+      <c r="N70" s="98"/>
       <c r="O70" s="29" t="s">
         <v>70</v>
       </c>
@@ -2429,8 +2439,8 @@
       <c r="R70" s="2"/>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A71" s="105"/>
-      <c r="B71" s="100"/>
+      <c r="A71" s="107"/>
+      <c r="B71" s="98"/>
       <c r="C71" s="29" t="s">
         <v>71</v>
       </c>
@@ -2438,8 +2448,8 @@
         <v>0</v>
       </c>
       <c r="E71" s="2"/>
-      <c r="G71" s="105"/>
-      <c r="H71" s="100"/>
+      <c r="G71" s="107"/>
+      <c r="H71" s="98"/>
       <c r="I71" s="29" t="s">
         <v>71</v>
       </c>
@@ -2448,8 +2458,8 @@
       </c>
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
-      <c r="M71" s="105"/>
-      <c r="N71" s="100"/>
+      <c r="M71" s="107"/>
+      <c r="N71" s="98"/>
       <c r="O71" s="29" t="s">
         <v>71</v>
       </c>
@@ -2460,8 +2470,8 @@
       <c r="R71" s="2"/>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A72" s="105"/>
-      <c r="B72" s="100"/>
+      <c r="A72" s="107"/>
+      <c r="B72" s="98"/>
       <c r="C72" s="29" t="s">
         <v>72</v>
       </c>
@@ -2469,8 +2479,8 @@
         <v>0</v>
       </c>
       <c r="E72" s="2"/>
-      <c r="G72" s="105"/>
-      <c r="H72" s="100"/>
+      <c r="G72" s="107"/>
+      <c r="H72" s="98"/>
       <c r="I72" s="29" t="s">
         <v>72</v>
       </c>
@@ -2479,8 +2489,8 @@
       </c>
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
-      <c r="M72" s="105"/>
-      <c r="N72" s="100"/>
+      <c r="M72" s="107"/>
+      <c r="N72" s="98"/>
       <c r="O72" s="29" t="s">
         <v>72</v>
       </c>
@@ -2491,8 +2501,8 @@
       <c r="R72" s="2"/>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A73" s="105"/>
-      <c r="B73" s="100"/>
+      <c r="A73" s="107"/>
+      <c r="B73" s="98"/>
       <c r="C73" s="29" t="s">
         <v>73</v>
       </c>
@@ -2500,8 +2510,8 @@
         <v>0</v>
       </c>
       <c r="E73" s="2"/>
-      <c r="G73" s="105"/>
-      <c r="H73" s="100"/>
+      <c r="G73" s="107"/>
+      <c r="H73" s="98"/>
       <c r="I73" s="29" t="s">
         <v>73</v>
       </c>
@@ -2510,8 +2520,8 @@
       </c>
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
-      <c r="M73" s="105"/>
-      <c r="N73" s="100"/>
+      <c r="M73" s="107"/>
+      <c r="N73" s="98"/>
       <c r="O73" s="29" t="s">
         <v>73</v>
       </c>
@@ -2522,8 +2532,8 @@
       <c r="R73" s="2"/>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A74" s="105"/>
-      <c r="B74" s="100"/>
+      <c r="A74" s="107"/>
+      <c r="B74" s="98"/>
       <c r="C74" s="29" t="s">
         <v>74</v>
       </c>
@@ -2531,8 +2541,8 @@
         <v>0</v>
       </c>
       <c r="E74" s="2"/>
-      <c r="G74" s="105"/>
-      <c r="H74" s="100"/>
+      <c r="G74" s="107"/>
+      <c r="H74" s="98"/>
       <c r="I74" s="29" t="s">
         <v>74</v>
       </c>
@@ -2541,8 +2551,8 @@
       </c>
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
-      <c r="M74" s="105"/>
-      <c r="N74" s="100"/>
+      <c r="M74" s="107"/>
+      <c r="N74" s="98"/>
       <c r="O74" s="29" t="s">
         <v>74</v>
       </c>
@@ -2553,8 +2563,8 @@
       <c r="R74" s="2"/>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A75" s="105"/>
-      <c r="B75" s="100"/>
+      <c r="A75" s="107"/>
+      <c r="B75" s="98"/>
       <c r="C75" s="29" t="s">
         <v>75</v>
       </c>
@@ -2562,8 +2572,8 @@
         <v>0</v>
       </c>
       <c r="E75" s="2"/>
-      <c r="G75" s="105"/>
-      <c r="H75" s="100"/>
+      <c r="G75" s="107"/>
+      <c r="H75" s="98"/>
       <c r="I75" s="29" t="s">
         <v>75</v>
       </c>
@@ -2572,8 +2582,8 @@
       </c>
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
-      <c r="M75" s="105"/>
-      <c r="N75" s="100"/>
+      <c r="M75" s="107"/>
+      <c r="N75" s="98"/>
       <c r="O75" s="29" t="s">
         <v>75</v>
       </c>
@@ -2584,8 +2594,8 @@
       <c r="R75" s="2"/>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A76" s="105"/>
-      <c r="B76" s="100"/>
+      <c r="A76" s="107"/>
+      <c r="B76" s="98"/>
       <c r="C76" s="29" t="s">
         <v>76</v>
       </c>
@@ -2593,8 +2603,8 @@
         <v>0</v>
       </c>
       <c r="E76" s="2"/>
-      <c r="G76" s="105"/>
-      <c r="H76" s="100"/>
+      <c r="G76" s="107"/>
+      <c r="H76" s="98"/>
       <c r="I76" s="29" t="s">
         <v>76</v>
       </c>
@@ -2603,8 +2613,8 @@
       </c>
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
-      <c r="M76" s="105"/>
-      <c r="N76" s="100"/>
+      <c r="M76" s="107"/>
+      <c r="N76" s="98"/>
       <c r="O76" s="29" t="s">
         <v>76</v>
       </c>
@@ -2615,8 +2625,8 @@
       <c r="R76" s="2"/>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A77" s="105"/>
-      <c r="B77" s="100"/>
+      <c r="A77" s="107"/>
+      <c r="B77" s="98"/>
       <c r="C77" s="29" t="s">
         <v>77</v>
       </c>
@@ -2624,8 +2634,8 @@
         <v>0</v>
       </c>
       <c r="E77" s="2"/>
-      <c r="G77" s="105"/>
-      <c r="H77" s="100"/>
+      <c r="G77" s="107"/>
+      <c r="H77" s="98"/>
       <c r="I77" s="29" t="s">
         <v>77</v>
       </c>
@@ -2634,8 +2644,8 @@
       </c>
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
-      <c r="M77" s="105"/>
-      <c r="N77" s="100"/>
+      <c r="M77" s="107"/>
+      <c r="N77" s="98"/>
       <c r="O77" s="29" t="s">
         <v>77</v>
       </c>
@@ -2646,8 +2656,8 @@
       <c r="R77" s="2"/>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A78" s="106"/>
-      <c r="B78" s="95"/>
+      <c r="A78" s="117"/>
+      <c r="B78" s="109"/>
       <c r="C78" s="29" t="s">
         <v>78</v>
       </c>
@@ -2655,8 +2665,8 @@
         <v>0</v>
       </c>
       <c r="E78" s="2"/>
-      <c r="G78" s="106"/>
-      <c r="H78" s="95"/>
+      <c r="G78" s="117"/>
+      <c r="H78" s="109"/>
       <c r="I78" s="29" t="s">
         <v>78</v>
       </c>
@@ -2665,8 +2675,8 @@
       </c>
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
-      <c r="M78" s="105"/>
-      <c r="N78" s="95"/>
+      <c r="M78" s="107"/>
+      <c r="N78" s="109"/>
       <c r="O78" s="29" t="s">
         <v>78</v>
       </c>
@@ -2742,29 +2752,17 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="C65:F65"/>
-    <mergeCell ref="C66:F66"/>
-    <mergeCell ref="I66:L66"/>
-    <mergeCell ref="O66:R66"/>
-    <mergeCell ref="A62:R62"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="G63:L63"/>
-    <mergeCell ref="M63:R63"/>
-    <mergeCell ref="B64:F64"/>
-    <mergeCell ref="N64:R64"/>
-    <mergeCell ref="O65:R65"/>
-    <mergeCell ref="I65:L65"/>
-    <mergeCell ref="M65:M78"/>
-    <mergeCell ref="N67:N78"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A22:I22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="H64:L64"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A41:A48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B36:C36"/>
     <mergeCell ref="H26:I26"/>
     <mergeCell ref="H27:I27"/>
     <mergeCell ref="G65:G78"/>
@@ -2781,17 +2779,29 @@
     <mergeCell ref="B67:B78"/>
     <mergeCell ref="D28:D35"/>
     <mergeCell ref="G28:G35"/>
-    <mergeCell ref="A28:A35"/>
-    <mergeCell ref="A41:A48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="H64:L64"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="C65:F65"/>
+    <mergeCell ref="C66:F66"/>
+    <mergeCell ref="I66:L66"/>
+    <mergeCell ref="O66:R66"/>
+    <mergeCell ref="A62:R62"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="G63:L63"/>
+    <mergeCell ref="M63:R63"/>
+    <mergeCell ref="B64:F64"/>
+    <mergeCell ref="N64:R64"/>
+    <mergeCell ref="O65:R65"/>
+    <mergeCell ref="I65:L65"/>
+    <mergeCell ref="M65:M78"/>
+    <mergeCell ref="N67:N78"/>
   </mergeCells>
   <conditionalFormatting sqref="C19">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
@@ -2857,421 +2867,421 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:175" x14ac:dyDescent="0.25">
-      <c r="A1" s="129" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="129" t="s">
+      <c r="A1" s="131" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="100"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
-      <c r="N1" s="102"/>
-      <c r="O1" s="103"/>
-      <c r="P1" s="129" t="s">
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="101"/>
+      <c r="P1" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="Q1" s="102"/>
-      <c r="R1" s="102"/>
-      <c r="S1" s="103"/>
-      <c r="T1" s="130" t="s">
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="101"/>
+      <c r="T1" s="128" t="s">
         <v>83</v>
       </c>
-      <c r="U1" s="102"/>
-      <c r="V1" s="102"/>
-      <c r="W1" s="102"/>
-      <c r="X1" s="102"/>
-      <c r="Y1" s="102"/>
-      <c r="Z1" s="102"/>
-      <c r="AA1" s="102"/>
-      <c r="AB1" s="102"/>
-      <c r="AC1" s="102"/>
-      <c r="AD1" s="102"/>
-      <c r="AE1" s="102"/>
-      <c r="AF1" s="103"/>
-      <c r="AG1" s="130" t="s">
+      <c r="U1" s="100"/>
+      <c r="V1" s="100"/>
+      <c r="W1" s="100"/>
+      <c r="X1" s="100"/>
+      <c r="Y1" s="100"/>
+      <c r="Z1" s="100"/>
+      <c r="AA1" s="100"/>
+      <c r="AB1" s="100"/>
+      <c r="AC1" s="100"/>
+      <c r="AD1" s="100"/>
+      <c r="AE1" s="100"/>
+      <c r="AF1" s="101"/>
+      <c r="AG1" s="128" t="s">
         <v>84</v>
       </c>
-      <c r="AH1" s="102"/>
-      <c r="AI1" s="102"/>
-      <c r="AJ1" s="102"/>
-      <c r="AK1" s="102"/>
-      <c r="AL1" s="102"/>
-      <c r="AM1" s="102"/>
-      <c r="AN1" s="102"/>
-      <c r="AO1" s="102"/>
-      <c r="AP1" s="102"/>
-      <c r="AQ1" s="102"/>
-      <c r="AR1" s="102"/>
-      <c r="AS1" s="103"/>
-      <c r="AT1" s="130" t="s">
+      <c r="AH1" s="100"/>
+      <c r="AI1" s="100"/>
+      <c r="AJ1" s="100"/>
+      <c r="AK1" s="100"/>
+      <c r="AL1" s="100"/>
+      <c r="AM1" s="100"/>
+      <c r="AN1" s="100"/>
+      <c r="AO1" s="100"/>
+      <c r="AP1" s="100"/>
+      <c r="AQ1" s="100"/>
+      <c r="AR1" s="100"/>
+      <c r="AS1" s="101"/>
+      <c r="AT1" s="128" t="s">
         <v>48</v>
       </c>
-      <c r="AU1" s="102"/>
-      <c r="AV1" s="102"/>
-      <c r="AW1" s="102"/>
-      <c r="AX1" s="102"/>
-      <c r="AY1" s="102"/>
-      <c r="AZ1" s="103"/>
-      <c r="BA1" s="130" t="s">
+      <c r="AU1" s="100"/>
+      <c r="AV1" s="100"/>
+      <c r="AW1" s="100"/>
+      <c r="AX1" s="100"/>
+      <c r="AY1" s="100"/>
+      <c r="AZ1" s="101"/>
+      <c r="BA1" s="128" t="s">
         <v>85</v>
       </c>
-      <c r="BB1" s="102"/>
-      <c r="BC1" s="102"/>
-      <c r="BD1" s="102"/>
-      <c r="BE1" s="102"/>
-      <c r="BF1" s="102"/>
-      <c r="BG1" s="102"/>
-      <c r="BH1" s="102"/>
-      <c r="BI1" s="102"/>
-      <c r="BJ1" s="102"/>
-      <c r="BK1" s="102"/>
-      <c r="BL1" s="102"/>
-      <c r="BM1" s="102"/>
-      <c r="BN1" s="102"/>
-      <c r="BO1" s="102"/>
-      <c r="BP1" s="102"/>
-      <c r="BQ1" s="102"/>
-      <c r="BR1" s="102"/>
-      <c r="BS1" s="102"/>
-      <c r="BT1" s="102"/>
-      <c r="BU1" s="102"/>
-      <c r="BV1" s="102"/>
-      <c r="BW1" s="102"/>
-      <c r="BX1" s="102"/>
-      <c r="BY1" s="102"/>
-      <c r="BZ1" s="102"/>
-      <c r="CA1" s="102"/>
-      <c r="CB1" s="102"/>
-      <c r="CC1" s="102"/>
-      <c r="CD1" s="102"/>
-      <c r="CE1" s="102"/>
-      <c r="CF1" s="102"/>
-      <c r="CG1" s="102"/>
-      <c r="CH1" s="102"/>
-      <c r="CI1" s="102"/>
-      <c r="CJ1" s="102"/>
-      <c r="CK1" s="102"/>
-      <c r="CL1" s="102"/>
-      <c r="CM1" s="103"/>
+      <c r="BB1" s="100"/>
+      <c r="BC1" s="100"/>
+      <c r="BD1" s="100"/>
+      <c r="BE1" s="100"/>
+      <c r="BF1" s="100"/>
+      <c r="BG1" s="100"/>
+      <c r="BH1" s="100"/>
+      <c r="BI1" s="100"/>
+      <c r="BJ1" s="100"/>
+      <c r="BK1" s="100"/>
+      <c r="BL1" s="100"/>
+      <c r="BM1" s="100"/>
+      <c r="BN1" s="100"/>
+      <c r="BO1" s="100"/>
+      <c r="BP1" s="100"/>
+      <c r="BQ1" s="100"/>
+      <c r="BR1" s="100"/>
+      <c r="BS1" s="100"/>
+      <c r="BT1" s="100"/>
+      <c r="BU1" s="100"/>
+      <c r="BV1" s="100"/>
+      <c r="BW1" s="100"/>
+      <c r="BX1" s="100"/>
+      <c r="BY1" s="100"/>
+      <c r="BZ1" s="100"/>
+      <c r="CA1" s="100"/>
+      <c r="CB1" s="100"/>
+      <c r="CC1" s="100"/>
+      <c r="CD1" s="100"/>
+      <c r="CE1" s="100"/>
+      <c r="CF1" s="100"/>
+      <c r="CG1" s="100"/>
+      <c r="CH1" s="100"/>
+      <c r="CI1" s="100"/>
+      <c r="CJ1" s="100"/>
+      <c r="CK1" s="100"/>
+      <c r="CL1" s="100"/>
+      <c r="CM1" s="101"/>
     </row>
     <row r="2" spans="1:175" x14ac:dyDescent="0.25">
-      <c r="A2" s="131" t="s">
+      <c r="A2" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="128" t="s">
+      <c r="C2" s="129" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="128" t="s">
+      <c r="D2" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="128" t="s">
+      <c r="E2" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="128" t="s">
+      <c r="F2" s="129" t="s">
         <v>87</v>
       </c>
-      <c r="G2" s="128" t="s">
+      <c r="G2" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="128" t="s">
+      <c r="H2" s="129" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="128" t="s">
+      <c r="I2" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="128" t="s">
+      <c r="J2" s="129" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="128" t="s">
+      <c r="K2" s="129" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="128" t="s">
+      <c r="L2" s="129" t="s">
         <v>88</v>
       </c>
-      <c r="M2" s="128" t="s">
+      <c r="M2" s="129" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="128" t="s">
+      <c r="N2" s="129" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="128" t="s">
+      <c r="O2" s="129" t="s">
         <v>89</v>
       </c>
-      <c r="P2" s="128" t="s">
+      <c r="P2" s="129" t="s">
         <v>90</v>
       </c>
-      <c r="Q2" s="128" t="s">
+      <c r="Q2" s="129" t="s">
         <v>91</v>
       </c>
-      <c r="R2" s="128" t="s">
+      <c r="R2" s="129" t="s">
         <v>23</v>
       </c>
-      <c r="S2" s="128" t="s">
+      <c r="S2" s="129" t="s">
         <v>25</v>
       </c>
-      <c r="T2" s="128" t="s">
+      <c r="T2" s="129" t="s">
         <v>30</v>
       </c>
-      <c r="U2" s="128" t="s">
+      <c r="U2" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="V2" s="128" t="s">
+      <c r="V2" s="129" t="s">
         <v>92</v>
       </c>
-      <c r="W2" s="128" t="s">
+      <c r="W2" s="129" t="s">
         <v>93</v>
       </c>
-      <c r="X2" s="130" t="s">
+      <c r="X2" s="128" t="s">
         <v>32</v>
       </c>
-      <c r="Y2" s="102"/>
-      <c r="Z2" s="102"/>
-      <c r="AA2" s="102"/>
-      <c r="AB2" s="102"/>
-      <c r="AC2" s="102"/>
-      <c r="AD2" s="102"/>
-      <c r="AE2" s="103"/>
-      <c r="AF2" s="128" t="s">
+      <c r="Y2" s="100"/>
+      <c r="Z2" s="100"/>
+      <c r="AA2" s="100"/>
+      <c r="AB2" s="100"/>
+      <c r="AC2" s="100"/>
+      <c r="AD2" s="100"/>
+      <c r="AE2" s="101"/>
+      <c r="AF2" s="129" t="s">
         <v>41</v>
       </c>
-      <c r="AG2" s="128" t="s">
+      <c r="AG2" s="129" t="s">
         <v>94</v>
       </c>
-      <c r="AH2" s="128" t="s">
+      <c r="AH2" s="129" t="s">
         <v>44</v>
       </c>
-      <c r="AI2" s="129" t="s">
+      <c r="AI2" s="131" t="s">
         <v>32</v>
       </c>
-      <c r="AJ2" s="102"/>
-      <c r="AK2" s="102"/>
-      <c r="AL2" s="102"/>
-      <c r="AM2" s="102"/>
-      <c r="AN2" s="102"/>
-      <c r="AO2" s="102"/>
-      <c r="AP2" s="103"/>
-      <c r="AQ2" s="128" t="s">
+      <c r="AJ2" s="100"/>
+      <c r="AK2" s="100"/>
+      <c r="AL2" s="100"/>
+      <c r="AM2" s="100"/>
+      <c r="AN2" s="100"/>
+      <c r="AO2" s="100"/>
+      <c r="AP2" s="101"/>
+      <c r="AQ2" s="129" t="s">
         <v>41</v>
       </c>
-      <c r="AR2" s="128" t="s">
+      <c r="AR2" s="129" t="s">
         <v>46</v>
       </c>
-      <c r="AS2" s="128" t="s">
+      <c r="AS2" s="129" t="s">
         <v>47</v>
       </c>
-      <c r="AT2" s="128" t="s">
+      <c r="AT2" s="129" t="s">
         <v>95</v>
       </c>
-      <c r="AU2" s="128" t="s">
+      <c r="AU2" s="129" t="s">
         <v>50</v>
       </c>
-      <c r="AV2" s="128" t="s">
+      <c r="AV2" s="129" t="s">
         <v>51</v>
       </c>
-      <c r="AW2" s="128" t="s">
+      <c r="AW2" s="129" t="s">
         <v>52</v>
       </c>
-      <c r="AX2" s="128" t="s">
+      <c r="AX2" s="129" t="s">
         <v>22</v>
       </c>
-      <c r="AY2" s="128" t="s">
+      <c r="AY2" s="129" t="s">
         <v>53</v>
       </c>
-      <c r="AZ2" s="128" t="s">
+      <c r="AZ2" s="129" t="s">
         <v>54</v>
       </c>
-      <c r="BA2" s="128" t="s">
+      <c r="BA2" s="129" t="s">
         <v>30</v>
       </c>
-      <c r="BB2" s="130" t="s">
+      <c r="BB2" s="128" t="s">
         <v>59</v>
       </c>
-      <c r="BC2" s="102"/>
-      <c r="BD2" s="102"/>
-      <c r="BE2" s="102"/>
-      <c r="BF2" s="102"/>
-      <c r="BG2" s="102"/>
-      <c r="BH2" s="102"/>
-      <c r="BI2" s="102"/>
-      <c r="BJ2" s="102"/>
-      <c r="BK2" s="102"/>
-      <c r="BL2" s="102"/>
-      <c r="BM2" s="102"/>
-      <c r="BN2" s="102"/>
-      <c r="BO2" s="102"/>
-      <c r="BP2" s="102"/>
-      <c r="BQ2" s="102"/>
-      <c r="BR2" s="102"/>
-      <c r="BS2" s="102"/>
-      <c r="BT2" s="102"/>
-      <c r="BU2" s="102"/>
-      <c r="BV2" s="102"/>
-      <c r="BW2" s="102"/>
-      <c r="BX2" s="102"/>
-      <c r="BY2" s="102"/>
-      <c r="BZ2" s="102"/>
-      <c r="CA2" s="102"/>
-      <c r="CB2" s="102"/>
-      <c r="CC2" s="102"/>
-      <c r="CD2" s="102"/>
-      <c r="CE2" s="102"/>
-      <c r="CF2" s="102"/>
-      <c r="CG2" s="102"/>
-      <c r="CH2" s="102"/>
-      <c r="CI2" s="102"/>
-      <c r="CJ2" s="103"/>
-      <c r="CK2" s="128" t="s">
+      <c r="BC2" s="100"/>
+      <c r="BD2" s="100"/>
+      <c r="BE2" s="100"/>
+      <c r="BF2" s="100"/>
+      <c r="BG2" s="100"/>
+      <c r="BH2" s="100"/>
+      <c r="BI2" s="100"/>
+      <c r="BJ2" s="100"/>
+      <c r="BK2" s="100"/>
+      <c r="BL2" s="100"/>
+      <c r="BM2" s="100"/>
+      <c r="BN2" s="100"/>
+      <c r="BO2" s="100"/>
+      <c r="BP2" s="100"/>
+      <c r="BQ2" s="100"/>
+      <c r="BR2" s="100"/>
+      <c r="BS2" s="100"/>
+      <c r="BT2" s="100"/>
+      <c r="BU2" s="100"/>
+      <c r="BV2" s="100"/>
+      <c r="BW2" s="100"/>
+      <c r="BX2" s="100"/>
+      <c r="BY2" s="100"/>
+      <c r="BZ2" s="100"/>
+      <c r="CA2" s="100"/>
+      <c r="CB2" s="100"/>
+      <c r="CC2" s="100"/>
+      <c r="CD2" s="100"/>
+      <c r="CE2" s="100"/>
+      <c r="CF2" s="100"/>
+      <c r="CG2" s="100"/>
+      <c r="CH2" s="100"/>
+      <c r="CI2" s="100"/>
+      <c r="CJ2" s="101"/>
+      <c r="CK2" s="129" t="s">
         <v>79</v>
       </c>
-      <c r="CL2" s="128" t="s">
+      <c r="CL2" s="129" t="s">
         <v>80</v>
       </c>
-      <c r="CM2" s="128" t="s">
+      <c r="CM2" s="129" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:175" x14ac:dyDescent="0.25">
-      <c r="A3" s="105"/>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="105"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="105"/>
-      <c r="S3" s="105"/>
-      <c r="T3" s="105"/>
-      <c r="U3" s="105"/>
-      <c r="V3" s="105"/>
-      <c r="W3" s="105"/>
-      <c r="X3" s="128" t="s">
+      <c r="A3" s="107"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="107"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="107"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="107"/>
+      <c r="Q3" s="107"/>
+      <c r="R3" s="107"/>
+      <c r="S3" s="107"/>
+      <c r="T3" s="107"/>
+      <c r="U3" s="107"/>
+      <c r="V3" s="107"/>
+      <c r="W3" s="107"/>
+      <c r="X3" s="129" t="s">
         <v>96</v>
       </c>
-      <c r="Y3" s="128" t="s">
+      <c r="Y3" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="Z3" s="128" t="s">
+      <c r="Z3" s="129" t="s">
         <v>35</v>
       </c>
-      <c r="AA3" s="128" t="s">
+      <c r="AA3" s="129" t="s">
         <v>36</v>
       </c>
-      <c r="AB3" s="128" t="s">
+      <c r="AB3" s="129" t="s">
         <v>37</v>
       </c>
-      <c r="AC3" s="128" t="s">
+      <c r="AC3" s="129" t="s">
         <v>38</v>
       </c>
-      <c r="AD3" s="128" t="s">
+      <c r="AD3" s="129" t="s">
         <v>39</v>
       </c>
-      <c r="AE3" s="128" t="s">
+      <c r="AE3" s="129" t="s">
         <v>40</v>
       </c>
-      <c r="AF3" s="105"/>
-      <c r="AG3" s="105"/>
-      <c r="AH3" s="105"/>
-      <c r="AI3" s="128" t="s">
+      <c r="AF3" s="107"/>
+      <c r="AG3" s="107"/>
+      <c r="AH3" s="107"/>
+      <c r="AI3" s="129" t="s">
         <v>97</v>
       </c>
-      <c r="AJ3" s="128" t="s">
+      <c r="AJ3" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="AK3" s="128" t="s">
+      <c r="AK3" s="129" t="s">
         <v>35</v>
       </c>
-      <c r="AL3" s="128" t="s">
+      <c r="AL3" s="129" t="s">
         <v>36</v>
       </c>
-      <c r="AM3" s="128" t="s">
+      <c r="AM3" s="129" t="s">
         <v>37</v>
       </c>
-      <c r="AN3" s="128" t="s">
+      <c r="AN3" s="129" t="s">
         <v>98</v>
       </c>
-      <c r="AO3" s="128" t="s">
+      <c r="AO3" s="129" t="s">
         <v>39</v>
       </c>
-      <c r="AP3" s="128" t="s">
+      <c r="AP3" s="129" t="s">
         <v>40</v>
       </c>
-      <c r="AQ3" s="105"/>
-      <c r="AR3" s="105"/>
-      <c r="AS3" s="105"/>
-      <c r="AT3" s="105"/>
-      <c r="AU3" s="105"/>
-      <c r="AV3" s="105"/>
-      <c r="AW3" s="105"/>
-      <c r="AX3" s="105"/>
-      <c r="AY3" s="105"/>
-      <c r="AZ3" s="105"/>
-      <c r="BA3" s="105"/>
-      <c r="BB3" s="132" t="s">
+      <c r="AQ3" s="107"/>
+      <c r="AR3" s="107"/>
+      <c r="AS3" s="107"/>
+      <c r="AT3" s="107"/>
+      <c r="AU3" s="107"/>
+      <c r="AV3" s="107"/>
+      <c r="AW3" s="107"/>
+      <c r="AX3" s="107"/>
+      <c r="AY3" s="107"/>
+      <c r="AZ3" s="107"/>
+      <c r="BA3" s="107"/>
+      <c r="BB3" s="130" t="s">
         <v>60</v>
       </c>
-      <c r="BC3" s="132" t="s">
+      <c r="BC3" s="130" t="s">
         <v>61</v>
       </c>
       <c r="BD3" s="35"/>
-      <c r="BE3" s="112" t="s">
+      <c r="BE3" s="123" t="s">
         <v>62</v>
       </c>
-      <c r="BF3" s="123"/>
-      <c r="BG3" s="123"/>
-      <c r="BH3" s="123"/>
-      <c r="BI3" s="123"/>
-      <c r="BJ3" s="123"/>
-      <c r="BK3" s="123"/>
-      <c r="BL3" s="123"/>
-      <c r="BM3" s="123"/>
-      <c r="BN3" s="123"/>
-      <c r="BO3" s="123"/>
-      <c r="BP3" s="123"/>
-      <c r="BQ3" s="123"/>
-      <c r="BR3" s="123"/>
-      <c r="BS3" s="123"/>
-      <c r="BT3" s="123"/>
-      <c r="BU3" s="123"/>
-      <c r="BV3" s="123"/>
-      <c r="BW3" s="123"/>
-      <c r="BX3" s="123"/>
-      <c r="BY3" s="123"/>
-      <c r="BZ3" s="123"/>
-      <c r="CA3" s="123"/>
-      <c r="CB3" s="123"/>
-      <c r="CC3" s="123"/>
-      <c r="CD3" s="123"/>
-      <c r="CE3" s="123"/>
-      <c r="CF3" s="123"/>
-      <c r="CG3" s="123"/>
-      <c r="CH3" s="123"/>
-      <c r="CI3" s="123"/>
-      <c r="CJ3" s="123"/>
-      <c r="CK3" s="105"/>
-      <c r="CL3" s="105"/>
-      <c r="CM3" s="105"/>
+      <c r="BF3" s="96"/>
+      <c r="BG3" s="96"/>
+      <c r="BH3" s="96"/>
+      <c r="BI3" s="96"/>
+      <c r="BJ3" s="96"/>
+      <c r="BK3" s="96"/>
+      <c r="BL3" s="96"/>
+      <c r="BM3" s="96"/>
+      <c r="BN3" s="96"/>
+      <c r="BO3" s="96"/>
+      <c r="BP3" s="96"/>
+      <c r="BQ3" s="96"/>
+      <c r="BR3" s="96"/>
+      <c r="BS3" s="96"/>
+      <c r="BT3" s="96"/>
+      <c r="BU3" s="96"/>
+      <c r="BV3" s="96"/>
+      <c r="BW3" s="96"/>
+      <c r="BX3" s="96"/>
+      <c r="BY3" s="96"/>
+      <c r="BZ3" s="96"/>
+      <c r="CA3" s="96"/>
+      <c r="CB3" s="96"/>
+      <c r="CC3" s="96"/>
+      <c r="CD3" s="96"/>
+      <c r="CE3" s="96"/>
+      <c r="CF3" s="96"/>
+      <c r="CG3" s="96"/>
+      <c r="CH3" s="96"/>
+      <c r="CI3" s="96"/>
+      <c r="CJ3" s="96"/>
+      <c r="CK3" s="107"/>
+      <c r="CL3" s="107"/>
+      <c r="CM3" s="107"/>
       <c r="CN3" s="22"/>
       <c r="CO3" s="22"/>
       <c r="CP3" s="22"/>
@@ -3357,176 +3367,176 @@
       <c r="FS3" s="22"/>
     </row>
     <row r="4" spans="1:175" x14ac:dyDescent="0.25">
-      <c r="A4" s="105"/>
-      <c r="B4" s="105"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105"/>
-      <c r="K4" s="105"/>
-      <c r="L4" s="105"/>
-      <c r="M4" s="105"/>
-      <c r="N4" s="105"/>
-      <c r="O4" s="105"/>
-      <c r="P4" s="105"/>
-      <c r="Q4" s="105"/>
-      <c r="R4" s="105"/>
-      <c r="S4" s="105"/>
-      <c r="T4" s="105"/>
-      <c r="U4" s="105"/>
-      <c r="V4" s="105"/>
-      <c r="W4" s="105"/>
-      <c r="X4" s="105"/>
-      <c r="Y4" s="105"/>
-      <c r="Z4" s="105"/>
-      <c r="AA4" s="105"/>
-      <c r="AB4" s="105"/>
-      <c r="AC4" s="105"/>
-      <c r="AD4" s="105"/>
-      <c r="AE4" s="105"/>
-      <c r="AF4" s="105"/>
-      <c r="AG4" s="105"/>
-      <c r="AH4" s="105"/>
-      <c r="AI4" s="105"/>
-      <c r="AJ4" s="105"/>
-      <c r="AK4" s="105"/>
-      <c r="AL4" s="105"/>
-      <c r="AM4" s="105"/>
-      <c r="AN4" s="105"/>
-      <c r="AO4" s="105"/>
-      <c r="AP4" s="105"/>
-      <c r="AQ4" s="105"/>
-      <c r="AR4" s="105"/>
-      <c r="AS4" s="105"/>
-      <c r="AT4" s="105"/>
-      <c r="AU4" s="105"/>
-      <c r="AV4" s="105"/>
-      <c r="AW4" s="105"/>
-      <c r="AX4" s="105"/>
-      <c r="AY4" s="105"/>
-      <c r="AZ4" s="105"/>
-      <c r="BA4" s="105"/>
-      <c r="BB4" s="105"/>
-      <c r="BC4" s="105"/>
-      <c r="BD4" s="130" t="s">
+      <c r="A4" s="107"/>
+      <c r="B4" s="107"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107"/>
+      <c r="K4" s="107"/>
+      <c r="L4" s="107"/>
+      <c r="M4" s="107"/>
+      <c r="N4" s="107"/>
+      <c r="O4" s="107"/>
+      <c r="P4" s="107"/>
+      <c r="Q4" s="107"/>
+      <c r="R4" s="107"/>
+      <c r="S4" s="107"/>
+      <c r="T4" s="107"/>
+      <c r="U4" s="107"/>
+      <c r="V4" s="107"/>
+      <c r="W4" s="107"/>
+      <c r="X4" s="107"/>
+      <c r="Y4" s="107"/>
+      <c r="Z4" s="107"/>
+      <c r="AA4" s="107"/>
+      <c r="AB4" s="107"/>
+      <c r="AC4" s="107"/>
+      <c r="AD4" s="107"/>
+      <c r="AE4" s="107"/>
+      <c r="AF4" s="107"/>
+      <c r="AG4" s="107"/>
+      <c r="AH4" s="107"/>
+      <c r="AI4" s="107"/>
+      <c r="AJ4" s="107"/>
+      <c r="AK4" s="107"/>
+      <c r="AL4" s="107"/>
+      <c r="AM4" s="107"/>
+      <c r="AN4" s="107"/>
+      <c r="AO4" s="107"/>
+      <c r="AP4" s="107"/>
+      <c r="AQ4" s="107"/>
+      <c r="AR4" s="107"/>
+      <c r="AS4" s="107"/>
+      <c r="AT4" s="107"/>
+      <c r="AU4" s="107"/>
+      <c r="AV4" s="107"/>
+      <c r="AW4" s="107"/>
+      <c r="AX4" s="107"/>
+      <c r="AY4" s="107"/>
+      <c r="AZ4" s="107"/>
+      <c r="BA4" s="107"/>
+      <c r="BB4" s="107"/>
+      <c r="BC4" s="107"/>
+      <c r="BD4" s="128" t="s">
         <v>67</v>
       </c>
-      <c r="BE4" s="102"/>
-      <c r="BF4" s="103"/>
-      <c r="BG4" s="130" t="s">
+      <c r="BE4" s="100"/>
+      <c r="BF4" s="101"/>
+      <c r="BG4" s="128" t="s">
         <v>67</v>
       </c>
-      <c r="BH4" s="102"/>
-      <c r="BI4" s="103"/>
-      <c r="BJ4" s="130" t="s">
+      <c r="BH4" s="100"/>
+      <c r="BI4" s="101"/>
+      <c r="BJ4" s="128" t="s">
         <v>70</v>
       </c>
-      <c r="BK4" s="102"/>
-      <c r="BL4" s="103"/>
-      <c r="BM4" s="130" t="s">
+      <c r="BK4" s="100"/>
+      <c r="BL4" s="101"/>
+      <c r="BM4" s="128" t="s">
         <v>71</v>
       </c>
-      <c r="BN4" s="102"/>
-      <c r="BO4" s="103"/>
-      <c r="BP4" s="130" t="s">
+      <c r="BN4" s="100"/>
+      <c r="BO4" s="101"/>
+      <c r="BP4" s="128" t="s">
         <v>72</v>
       </c>
-      <c r="BQ4" s="102"/>
-      <c r="BR4" s="103"/>
-      <c r="BS4" s="130" t="s">
+      <c r="BQ4" s="100"/>
+      <c r="BR4" s="101"/>
+      <c r="BS4" s="128" t="s">
         <v>73</v>
       </c>
-      <c r="BT4" s="102"/>
-      <c r="BU4" s="103"/>
-      <c r="BV4" s="130" t="s">
+      <c r="BT4" s="100"/>
+      <c r="BU4" s="101"/>
+      <c r="BV4" s="128" t="s">
         <v>74</v>
       </c>
-      <c r="BW4" s="102"/>
-      <c r="BX4" s="103"/>
-      <c r="BY4" s="130" t="s">
+      <c r="BW4" s="100"/>
+      <c r="BX4" s="101"/>
+      <c r="BY4" s="128" t="s">
         <v>75</v>
       </c>
-      <c r="BZ4" s="102"/>
-      <c r="CA4" s="103"/>
-      <c r="CB4" s="130" t="s">
+      <c r="BZ4" s="100"/>
+      <c r="CA4" s="101"/>
+      <c r="CB4" s="128" t="s">
         <v>76</v>
       </c>
-      <c r="CC4" s="102"/>
-      <c r="CD4" s="103"/>
-      <c r="CE4" s="130" t="s">
+      <c r="CC4" s="100"/>
+      <c r="CD4" s="101"/>
+      <c r="CE4" s="128" t="s">
         <v>77</v>
       </c>
-      <c r="CF4" s="102"/>
-      <c r="CG4" s="103"/>
-      <c r="CH4" s="130" t="s">
+      <c r="CF4" s="100"/>
+      <c r="CG4" s="101"/>
+      <c r="CH4" s="128" t="s">
         <v>78</v>
       </c>
-      <c r="CI4" s="102"/>
-      <c r="CJ4" s="103"/>
-      <c r="CK4" s="105"/>
-      <c r="CL4" s="105"/>
-      <c r="CM4" s="105"/>
+      <c r="CI4" s="100"/>
+      <c r="CJ4" s="101"/>
+      <c r="CK4" s="107"/>
+      <c r="CL4" s="107"/>
+      <c r="CM4" s="107"/>
     </row>
     <row r="5" spans="1:175" x14ac:dyDescent="0.25">
-      <c r="A5" s="106"/>
-      <c r="B5" s="106"/>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="106"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="106"/>
-      <c r="J5" s="106"/>
-      <c r="K5" s="106"/>
-      <c r="L5" s="106"/>
-      <c r="M5" s="106"/>
-      <c r="N5" s="106"/>
-      <c r="O5" s="106"/>
-      <c r="P5" s="106"/>
-      <c r="Q5" s="106"/>
-      <c r="R5" s="106"/>
-      <c r="S5" s="106"/>
-      <c r="T5" s="106"/>
-      <c r="U5" s="106"/>
-      <c r="V5" s="106"/>
-      <c r="W5" s="106"/>
-      <c r="X5" s="106"/>
-      <c r="Y5" s="106"/>
-      <c r="Z5" s="106"/>
-      <c r="AA5" s="106"/>
-      <c r="AB5" s="106"/>
-      <c r="AC5" s="106"/>
-      <c r="AD5" s="106"/>
-      <c r="AE5" s="106"/>
-      <c r="AF5" s="106"/>
-      <c r="AG5" s="106"/>
-      <c r="AH5" s="106"/>
-      <c r="AI5" s="106"/>
-      <c r="AJ5" s="106"/>
-      <c r="AK5" s="106"/>
-      <c r="AL5" s="106"/>
-      <c r="AM5" s="106"/>
-      <c r="AN5" s="106"/>
-      <c r="AO5" s="106"/>
-      <c r="AP5" s="106"/>
-      <c r="AQ5" s="106"/>
-      <c r="AR5" s="106"/>
-      <c r="AS5" s="106"/>
-      <c r="AT5" s="106"/>
-      <c r="AU5" s="106"/>
-      <c r="AV5" s="106"/>
-      <c r="AW5" s="106"/>
-      <c r="AX5" s="106"/>
-      <c r="AY5" s="106"/>
-      <c r="AZ5" s="106"/>
-      <c r="BA5" s="106"/>
-      <c r="BB5" s="106"/>
-      <c r="BC5" s="106"/>
+      <c r="A5" s="117"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
+      <c r="L5" s="117"/>
+      <c r="M5" s="117"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="117"/>
+      <c r="T5" s="117"/>
+      <c r="U5" s="117"/>
+      <c r="V5" s="117"/>
+      <c r="W5" s="117"/>
+      <c r="X5" s="117"/>
+      <c r="Y5" s="117"/>
+      <c r="Z5" s="117"/>
+      <c r="AA5" s="117"/>
+      <c r="AB5" s="117"/>
+      <c r="AC5" s="117"/>
+      <c r="AD5" s="117"/>
+      <c r="AE5" s="117"/>
+      <c r="AF5" s="117"/>
+      <c r="AG5" s="117"/>
+      <c r="AH5" s="117"/>
+      <c r="AI5" s="117"/>
+      <c r="AJ5" s="117"/>
+      <c r="AK5" s="117"/>
+      <c r="AL5" s="117"/>
+      <c r="AM5" s="117"/>
+      <c r="AN5" s="117"/>
+      <c r="AO5" s="117"/>
+      <c r="AP5" s="117"/>
+      <c r="AQ5" s="117"/>
+      <c r="AR5" s="117"/>
+      <c r="AS5" s="117"/>
+      <c r="AT5" s="117"/>
+      <c r="AU5" s="117"/>
+      <c r="AV5" s="117"/>
+      <c r="AW5" s="117"/>
+      <c r="AX5" s="117"/>
+      <c r="AY5" s="117"/>
+      <c r="AZ5" s="117"/>
+      <c r="BA5" s="117"/>
+      <c r="BB5" s="117"/>
+      <c r="BC5" s="117"/>
       <c r="BD5" s="36" t="s">
         <v>99</v>
       </c>
@@ -3626,9 +3636,9 @@
       <c r="CJ5" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="CK5" s="106"/>
-      <c r="CL5" s="106"/>
-      <c r="CM5" s="106"/>
+      <c r="CK5" s="117"/>
+      <c r="CL5" s="117"/>
+      <c r="CM5" s="117"/>
     </row>
     <row r="6" spans="1:175" x14ac:dyDescent="0.25">
       <c r="A6" s="37"/>
@@ -4207,11 +4217,61 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="BM4:BO4"/>
-    <mergeCell ref="AM3:AM5"/>
-    <mergeCell ref="AN3:AN5"/>
-    <mergeCell ref="AO3:AO5"/>
-    <mergeCell ref="AP3:AP5"/>
+    <mergeCell ref="X3:X5"/>
+    <mergeCell ref="Y3:Y5"/>
+    <mergeCell ref="AL3:AL5"/>
+    <mergeCell ref="Z3:Z5"/>
+    <mergeCell ref="AA3:AA5"/>
+    <mergeCell ref="AB3:AB5"/>
+    <mergeCell ref="AC3:AC5"/>
+    <mergeCell ref="AD3:AD5"/>
+    <mergeCell ref="T2:T5"/>
+    <mergeCell ref="U2:U5"/>
+    <mergeCell ref="AQ2:AQ5"/>
+    <mergeCell ref="AR2:AR5"/>
+    <mergeCell ref="AS2:AS5"/>
+    <mergeCell ref="V2:V5"/>
+    <mergeCell ref="W2:W5"/>
+    <mergeCell ref="X2:AE2"/>
+    <mergeCell ref="AF2:AF5"/>
+    <mergeCell ref="AG2:AG5"/>
+    <mergeCell ref="AH2:AH5"/>
+    <mergeCell ref="AI2:AP2"/>
+    <mergeCell ref="AE3:AE5"/>
+    <mergeCell ref="AI3:AI5"/>
+    <mergeCell ref="AJ3:AJ5"/>
+    <mergeCell ref="AK3:AK5"/>
+    <mergeCell ref="O2:O5"/>
+    <mergeCell ref="P2:P5"/>
+    <mergeCell ref="Q2:Q5"/>
+    <mergeCell ref="R2:R5"/>
+    <mergeCell ref="S2:S5"/>
+    <mergeCell ref="J2:J5"/>
+    <mergeCell ref="K2:K5"/>
+    <mergeCell ref="L2:L5"/>
+    <mergeCell ref="M2:M5"/>
+    <mergeCell ref="N2:N5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="CK2:CK5"/>
+    <mergeCell ref="CL2:CL5"/>
+    <mergeCell ref="CM2:CM5"/>
+    <mergeCell ref="BE3:CJ3"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:O1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="T1:AF1"/>
+    <mergeCell ref="AG1:AS1"/>
+    <mergeCell ref="AT1:AZ1"/>
+    <mergeCell ref="BA1:CM1"/>
+    <mergeCell ref="BB2:CJ2"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:D5"/>
     <mergeCell ref="CE4:CG4"/>
     <mergeCell ref="CH4:CJ4"/>
     <mergeCell ref="AX2:AX5"/>
@@ -4228,65 +4288,15 @@
     <mergeCell ref="BD4:BF4"/>
     <mergeCell ref="BG4:BI4"/>
     <mergeCell ref="BJ4:BL4"/>
-    <mergeCell ref="CK2:CK5"/>
-    <mergeCell ref="CL2:CL5"/>
-    <mergeCell ref="CM2:CM5"/>
-    <mergeCell ref="BE3:CJ3"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:O1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="T1:AF1"/>
-    <mergeCell ref="AG1:AS1"/>
-    <mergeCell ref="AT1:AZ1"/>
-    <mergeCell ref="BA1:CM1"/>
-    <mergeCell ref="BB2:CJ2"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="I2:I5"/>
-    <mergeCell ref="J2:J5"/>
-    <mergeCell ref="K2:K5"/>
-    <mergeCell ref="L2:L5"/>
-    <mergeCell ref="M2:M5"/>
-    <mergeCell ref="N2:N5"/>
-    <mergeCell ref="O2:O5"/>
-    <mergeCell ref="P2:P5"/>
-    <mergeCell ref="Q2:Q5"/>
-    <mergeCell ref="R2:R5"/>
-    <mergeCell ref="S2:S5"/>
-    <mergeCell ref="T2:T5"/>
-    <mergeCell ref="U2:U5"/>
-    <mergeCell ref="AQ2:AQ5"/>
-    <mergeCell ref="AR2:AR5"/>
-    <mergeCell ref="AS2:AS5"/>
-    <mergeCell ref="V2:V5"/>
-    <mergeCell ref="W2:W5"/>
-    <mergeCell ref="X2:AE2"/>
-    <mergeCell ref="AF2:AF5"/>
-    <mergeCell ref="AG2:AG5"/>
-    <mergeCell ref="AH2:AH5"/>
-    <mergeCell ref="AI2:AP2"/>
-    <mergeCell ref="AE3:AE5"/>
-    <mergeCell ref="AI3:AI5"/>
-    <mergeCell ref="AJ3:AJ5"/>
-    <mergeCell ref="AK3:AK5"/>
+    <mergeCell ref="BM4:BO4"/>
+    <mergeCell ref="AM3:AM5"/>
+    <mergeCell ref="AN3:AN5"/>
+    <mergeCell ref="AO3:AO5"/>
+    <mergeCell ref="AP3:AP5"/>
     <mergeCell ref="AT2:AT5"/>
     <mergeCell ref="AU2:AU5"/>
     <mergeCell ref="AV2:AV5"/>
     <mergeCell ref="AW2:AW5"/>
-    <mergeCell ref="X3:X5"/>
-    <mergeCell ref="Y3:Y5"/>
-    <mergeCell ref="AL3:AL5"/>
-    <mergeCell ref="Z3:Z5"/>
-    <mergeCell ref="AA3:AA5"/>
-    <mergeCell ref="AB3:AB5"/>
-    <mergeCell ref="AC3:AC5"/>
-    <mergeCell ref="AD3:AD5"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="BB6:BB10" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -4320,36 +4330,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="133" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
     </row>
     <row r="3" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="134" t="s">
         <v>101</v>
       </c>
-      <c r="B3" s="123"/>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="123"/>
-      <c r="L3" s="123"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
     </row>
     <row r="4" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
@@ -4386,24 +4396,24 @@
       <c r="L5" s="33"/>
     </row>
     <row r="6" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="138" t="s">
+      <c r="A6" s="135" t="s">
         <v>105</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="138" t="s">
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="135" t="s">
         <v>106</v>
       </c>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="138" t="s">
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="135" t="s">
         <v>107</v>
       </c>
-      <c r="J6" s="97"/>
-      <c r="K6" s="97"/>
-      <c r="L6" s="98"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="105"/>
     </row>
     <row r="7" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="39" t="s">
@@ -4601,16 +4611,16 @@
       <c r="A17" s="134" t="s">
         <v>125</v>
       </c>
-      <c r="B17" s="123"/>
-      <c r="C17" s="123"/>
-      <c r="D17" s="123"/>
+      <c r="B17" s="96"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="96"/>
       <c r="E17" s="47"/>
-      <c r="F17" s="135" t="s">
+      <c r="F17" s="136" t="s">
         <v>126</v>
       </c>
-      <c r="G17" s="136"/>
-      <c r="H17" s="136"/>
-      <c r="I17" s="136"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="137"/>
+      <c r="I17" s="137"/>
     </row>
     <row r="18" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="48" t="s">
@@ -4698,16 +4708,16 @@
       <c r="A25" s="134" t="s">
         <v>135</v>
       </c>
-      <c r="B25" s="123"/>
-      <c r="C25" s="123"/>
-      <c r="D25" s="123"/>
+      <c r="B25" s="96"/>
+      <c r="C25" s="96"/>
+      <c r="D25" s="96"/>
       <c r="E25" s="67"/>
       <c r="F25" s="134" t="s">
         <v>136</v>
       </c>
-      <c r="G25" s="123"/>
-      <c r="H25" s="123"/>
-      <c r="I25" s="123"/>
+      <c r="G25" s="96"/>
+      <c r="H25" s="96"/>
+      <c r="I25" s="96"/>
     </row>
     <row r="26" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="39" t="s">
@@ -5043,13 +5053,13 @@
       <c r="A55" s="134" t="s">
         <v>172</v>
       </c>
-      <c r="B55" s="123"/>
-      <c r="C55" s="123"/>
-      <c r="D55" s="123"/>
-      <c r="E55" s="123"/>
-      <c r="F55" s="123"/>
-      <c r="G55" s="123"/>
-      <c r="H55" s="123"/>
+      <c r="B55" s="96"/>
+      <c r="C55" s="96"/>
+      <c r="D55" s="96"/>
+      <c r="E55" s="96"/>
+      <c r="F55" s="96"/>
+      <c r="G55" s="96"/>
+      <c r="H55" s="96"/>
     </row>
     <row r="56" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A56" s="39" t="s">
@@ -5088,18 +5098,18 @@
       <c r="H59" s="33"/>
     </row>
     <row r="60" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A60" s="133" t="s">
+      <c r="A60" s="138" t="s">
         <v>174</v>
       </c>
-      <c r="B60" s="102"/>
-      <c r="C60" s="102"/>
-      <c r="D60" s="103"/>
-      <c r="E60" s="133" t="s">
+      <c r="B60" s="100"/>
+      <c r="C60" s="100"/>
+      <c r="D60" s="101"/>
+      <c r="E60" s="138" t="s">
         <v>175</v>
       </c>
-      <c r="F60" s="102"/>
-      <c r="G60" s="102"/>
-      <c r="H60" s="103"/>
+      <c r="F60" s="100"/>
+      <c r="G60" s="100"/>
+      <c r="H60" s="101"/>
     </row>
     <row r="61" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A61" s="45" t="s">
@@ -5145,16 +5155,16 @@
       <c r="H62" s="33"/>
     </row>
     <row r="63" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A63" s="133" t="s">
+      <c r="A63" s="138" t="s">
         <v>186</v>
       </c>
-      <c r="B63" s="102"/>
-      <c r="C63" s="102"/>
-      <c r="D63" s="102"/>
-      <c r="E63" s="102"/>
-      <c r="F63" s="102"/>
-      <c r="G63" s="102"/>
-      <c r="H63" s="103"/>
+      <c r="B63" s="100"/>
+      <c r="C63" s="100"/>
+      <c r="D63" s="100"/>
+      <c r="E63" s="100"/>
+      <c r="F63" s="100"/>
+      <c r="G63" s="100"/>
+      <c r="H63" s="101"/>
     </row>
     <row r="64" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A64" s="39" t="s">
@@ -5217,18 +5227,18 @@
       <c r="H67" s="7"/>
     </row>
     <row r="68" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A68" s="133" t="s">
+      <c r="A68" s="138" t="s">
         <v>197</v>
       </c>
-      <c r="B68" s="102"/>
-      <c r="C68" s="102"/>
-      <c r="D68" s="103"/>
-      <c r="E68" s="133" t="s">
+      <c r="B68" s="100"/>
+      <c r="C68" s="100"/>
+      <c r="D68" s="101"/>
+      <c r="E68" s="138" t="s">
         <v>198</v>
       </c>
-      <c r="F68" s="102"/>
-      <c r="G68" s="102"/>
-      <c r="H68" s="103"/>
+      <c r="F68" s="100"/>
+      <c r="G68" s="100"/>
+      <c r="H68" s="101"/>
     </row>
     <row r="69" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A69" s="48" t="s">
@@ -5321,18 +5331,18 @@
       <c r="H74" s="33"/>
     </row>
     <row r="75" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A75" s="133" t="s">
+      <c r="A75" s="138" t="s">
         <v>202</v>
       </c>
-      <c r="B75" s="102"/>
-      <c r="C75" s="102"/>
-      <c r="D75" s="103"/>
-      <c r="E75" s="133" t="s">
+      <c r="B75" s="100"/>
+      <c r="C75" s="100"/>
+      <c r="D75" s="101"/>
+      <c r="E75" s="138" t="s">
         <v>203</v>
       </c>
-      <c r="F75" s="102"/>
-      <c r="G75" s="102"/>
-      <c r="H75" s="103"/>
+      <c r="F75" s="100"/>
+      <c r="G75" s="100"/>
+      <c r="H75" s="101"/>
     </row>
     <row r="76" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A76" s="48" t="s">
@@ -5425,18 +5435,18 @@
       <c r="H81" s="33"/>
     </row>
     <row r="82" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A82" s="133" t="s">
+      <c r="A82" s="138" t="s">
         <v>204</v>
       </c>
-      <c r="B82" s="102"/>
-      <c r="C82" s="102"/>
-      <c r="D82" s="103"/>
-      <c r="E82" s="133" t="s">
+      <c r="B82" s="100"/>
+      <c r="C82" s="100"/>
+      <c r="D82" s="101"/>
+      <c r="E82" s="138" t="s">
         <v>205</v>
       </c>
-      <c r="F82" s="102"/>
-      <c r="G82" s="102"/>
-      <c r="H82" s="103"/>
+      <c r="F82" s="100"/>
+      <c r="G82" s="100"/>
+      <c r="H82" s="101"/>
     </row>
     <row r="83" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A83" s="48" t="s">
@@ -5614,16 +5624,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="A75:D75"/>
-    <mergeCell ref="E75:H75"/>
     <mergeCell ref="A82:D82"/>
     <mergeCell ref="E82:H82"/>
     <mergeCell ref="A25:D25"/>
@@ -5633,6 +5633,16 @@
     <mergeCell ref="E60:H60"/>
     <mergeCell ref="A63:H63"/>
     <mergeCell ref="E68:H68"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="E75:H75"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="I6:L6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/attachments/Input Merchant Acquisition (1).xlsx
+++ b/attachments/Input Merchant Acquisition (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MerchantAcquisition\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36E7906-358F-4F4B-A2FB-F14E4ECB600D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E985830-AF09-401B-A44F-3EE1B8A7F129}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="280">
   <si>
     <t>Sales Chanel</t>
   </si>
@@ -731,13 +731,154 @@
   </si>
   <si>
     <t>tersedia</t>
+  </si>
+  <si>
+    <t>hai</t>
+  </si>
+  <si>
+    <t>Kebon Kacang</t>
+  </si>
+  <si>
+    <t>Nama Program</t>
+  </si>
+  <si>
+    <t>Program Start Date</t>
+  </si>
+  <si>
+    <t>Program End Date</t>
+  </si>
+  <si>
+    <t>Keterangan</t>
+  </si>
+  <si>
+    <t>bekasi</t>
+  </si>
+  <si>
+    <t>ande</t>
+  </si>
+  <si>
+    <t>Ruko 123</t>
+  </si>
+  <si>
+    <t>Jalan sehat</t>
+  </si>
+  <si>
+    <t>kelurahan bekasi timur</t>
+  </si>
+  <si>
+    <t>222/321</t>
+  </si>
+  <si>
+    <t>123213212123</t>
+  </si>
+  <si>
+    <t>32123213211</t>
+  </si>
+  <si>
+    <t>321321321123</t>
+  </si>
+  <si>
+    <t>Recommendation Form</t>
+  </si>
+  <si>
+    <t>Kode Transfer</t>
+  </si>
+  <si>
+    <t>Payment Mode</t>
+  </si>
+  <si>
+    <t>Payment Days</t>
+  </si>
+  <si>
+    <t>Periode Program</t>
+  </si>
+  <si>
+    <t>s/d</t>
+  </si>
+  <si>
+    <t>Segment Merchant</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>Card Usage</t>
+  </si>
+  <si>
+    <t>Wellknown</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Resiko Merchant</t>
+  </si>
+  <si>
+    <t>MCC Risk</t>
+  </si>
+  <si>
+    <t>MCC Fraud Ratio</t>
+  </si>
+  <si>
+    <t>NDX</t>
+  </si>
+  <si>
+    <t>Metode Trx</t>
+  </si>
+  <si>
+    <t>Rekomendasi Resiko</t>
+  </si>
+  <si>
+    <t>LAN</t>
+  </si>
+  <si>
+    <t>www.google.com</t>
+  </si>
+  <si>
+    <t>Flash Sale</t>
+  </si>
+  <si>
+    <t>1 agustus</t>
+  </si>
+  <si>
+    <t>30 agustus</t>
+  </si>
+  <si>
+    <t>11 agustus</t>
+  </si>
+  <si>
+    <t>23 agustus</t>
+  </si>
+  <si>
+    <t>15 agustus</t>
+  </si>
+  <si>
+    <t>Transfer</t>
+  </si>
+  <si>
+    <t>test123</t>
+  </si>
+  <si>
+    <t>Fix Test</t>
+  </si>
+  <si>
+    <t>Test NDX</t>
+  </si>
+  <si>
+    <t>Read Metode NDX</t>
+  </si>
+  <si>
+    <t>Rekomendasi Resiko Text</t>
+  </si>
+  <si>
+    <t>Pembayaran Prepaid</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -779,8 +920,20 @@
       <color theme="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -823,8 +976,32 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFF3F3F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF57BB8A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -1008,12 +1185,283 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="196">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1030,7 +1478,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1156,10 +1603,150 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1193,6 +1780,12 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1217,6 +1810,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1246,22 +1840,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1475,10 +2069,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:R81"/>
+  <dimension ref="A1:W99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1498,139 +2092,139 @@
     <col min="15" max="15" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="111" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="101"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A1" s="162" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="152"/>
+    </row>
+    <row r="2" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="84">
+      <c r="B2" s="83">
         <v>123456789</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="83" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="84" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="112" t="s">
+    <row r="6" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="163" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="105"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="145"/>
+      <c r="C6" s="145"/>
+      <c r="D6" s="156"/>
+    </row>
+    <row r="7" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="87" t="s">
+      <c r="B7" s="86" t="s">
         <v>208</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="84" t="s">
+      <c r="B8" s="83" t="s">
         <v>209</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="88" t="s">
+      <c r="D8" s="87" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="84">
+      <c r="B9" s="83">
         <v>987654321</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="82" t="s">
+      <c r="D9" s="81" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="85" t="s">
+      <c r="B10" s="84" t="s">
         <v>211</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="83" t="s">
+      <c r="D10" s="82" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="33" t="s">
         <v>213</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="86" t="s">
+      <c r="D11" s="85" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="84" t="s">
+      <c r="B12" s="83" t="s">
         <v>214</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="82">
+      <c r="D12" s="81">
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="85">
+      <c r="B13" s="84">
         <v>1000</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="83">
+      <c r="D13" s="82">
         <v>7000</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>18</v>
       </c>
@@ -1638,9 +2232,9 @@
         <v>232</v>
       </c>
       <c r="C14" s="14"/>
-      <c r="D14" s="86"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" s="85"/>
+    </row>
+    <row r="15" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>19</v>
       </c>
@@ -1650,11 +2244,11 @@
       <c r="C15" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="82">
+      <c r="D15" s="81">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>21</v>
       </c>
@@ -1664,9 +2258,9 @@
       <c r="C16" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="82"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D16" s="81"/>
+    </row>
+    <row r="17" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>22</v>
       </c>
@@ -1676,647 +2270,681 @@
       <c r="C17" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="82"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D17" s="81"/>
+    </row>
+    <row r="18" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>23</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="82"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C18" s="8"/>
+      <c r="D18" s="81"/>
+    </row>
+    <row r="19" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="82"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C19" s="102" t="s">
+        <v>238</v>
+      </c>
+      <c r="D19" s="101"/>
+    </row>
+    <row r="20" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="83"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="113" t="s">
+      <c r="C20" s="17"/>
+      <c r="D20" s="82"/>
+    </row>
+    <row r="22" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A22" s="164" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="100"/>
-      <c r="C22" s="100"/>
-      <c r="D22" s="100"/>
-      <c r="E22" s="100"/>
-      <c r="F22" s="100"/>
-      <c r="G22" s="100"/>
-      <c r="H22" s="100"/>
-      <c r="I22" s="101"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="114" t="s">
+      <c r="B22" s="151"/>
+      <c r="C22" s="151"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="151"/>
+      <c r="G22" s="151"/>
+      <c r="H22" s="151"/>
+      <c r="I22" s="152"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+    </row>
+    <row r="23" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A23" s="165" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="100"/>
-      <c r="C23" s="100"/>
-      <c r="D23" s="114" t="s">
+      <c r="B23" s="151"/>
+      <c r="C23" s="151"/>
+      <c r="D23" s="165" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="100"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="114" t="s">
+      <c r="E23" s="151"/>
+      <c r="F23" s="151"/>
+      <c r="G23" s="165" t="s">
         <v>29</v>
       </c>
-      <c r="H23" s="100"/>
-      <c r="I23" s="101"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H23" s="151"/>
+      <c r="I23" s="152"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+    </row>
+    <row r="24" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="110"/>
-      <c r="C24" s="105"/>
+      <c r="B24" s="161" t="s">
+        <v>239</v>
+      </c>
+      <c r="C24" s="156"/>
       <c r="D24" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="110"/>
-      <c r="F24" s="105"/>
+      <c r="E24" s="161"/>
+      <c r="F24" s="156"/>
       <c r="G24" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H24" s="110"/>
-      <c r="I24" s="105"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H24" s="161"/>
+      <c r="I24" s="156"/>
+    </row>
+    <row r="25" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="115"/>
-      <c r="C25" s="98"/>
+      <c r="B25" s="166" t="s">
+        <v>240</v>
+      </c>
+      <c r="C25" s="149"/>
       <c r="D25" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E25" s="115"/>
-      <c r="F25" s="98"/>
+      <c r="E25" s="166"/>
+      <c r="F25" s="149"/>
       <c r="G25" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H25" s="115"/>
-      <c r="I25" s="98"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H25" s="166"/>
+      <c r="I25" s="149"/>
+    </row>
+    <row r="26" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="115"/>
-      <c r="C26" s="98"/>
+      <c r="B26" s="168" t="s">
+        <v>247</v>
+      </c>
+      <c r="C26" s="169"/>
       <c r="D26" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="115"/>
-      <c r="F26" s="98"/>
+      <c r="E26" s="166"/>
+      <c r="F26" s="149"/>
       <c r="G26" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H26" s="115"/>
-      <c r="I26" s="98"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H26" s="166"/>
+      <c r="I26" s="149"/>
+    </row>
+    <row r="27" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="115"/>
-      <c r="C27" s="98"/>
+      <c r="B27" s="168" t="s">
+        <v>246</v>
+      </c>
+      <c r="C27" s="169"/>
       <c r="D27" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="115"/>
-      <c r="F27" s="98"/>
+      <c r="E27" s="166"/>
+      <c r="F27" s="149"/>
       <c r="G27" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H27" s="115"/>
-      <c r="I27" s="98"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="116" t="s">
+      <c r="H27" s="166"/>
+      <c r="I27" s="149"/>
+    </row>
+    <row r="28" spans="1:13" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="167" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="116" t="s">
+      <c r="C28" s="103" t="s">
+        <v>241</v>
+      </c>
+      <c r="D28" s="167" t="s">
         <v>32</v>
       </c>
-      <c r="E28" s="21" t="s">
+      <c r="E28" s="20" t="s">
         <v>33</v>
       </c>
       <c r="F28" s="11"/>
-      <c r="G28" s="116" t="s">
+      <c r="G28" s="167" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="21" t="s">
+      <c r="H28" s="20" t="s">
         <v>33</v>
       </c>
       <c r="I28" s="11"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="107"/>
+    <row r="29" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A29" s="158"/>
       <c r="B29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="107"/>
+      <c r="C29" s="90" t="s">
+        <v>242</v>
+      </c>
+      <c r="D29" s="158"/>
       <c r="E29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F29" s="2"/>
-      <c r="G29" s="107"/>
+      <c r="G29" s="158"/>
       <c r="H29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="107"/>
+    <row r="30" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A30" s="158"/>
       <c r="B30" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="107"/>
+      <c r="C30" s="90">
+        <v>123</v>
+      </c>
+      <c r="D30" s="158"/>
       <c r="E30" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F30" s="2"/>
-      <c r="G30" s="107"/>
+      <c r="G30" s="158"/>
       <c r="H30" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I30" s="2"/>
-      <c r="M30" s="22"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="107"/>
+      <c r="M30" s="21"/>
+    </row>
+    <row r="31" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A31" s="158"/>
       <c r="B31" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="107"/>
+      <c r="C31" s="90" t="s">
+        <v>243</v>
+      </c>
+      <c r="D31" s="158"/>
       <c r="E31" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F31" s="2"/>
-      <c r="G31" s="107"/>
+      <c r="G31" s="158"/>
       <c r="H31" s="1" t="s">
         <v>36</v>
       </c>
       <c r="I31" s="2"/>
-      <c r="M31" s="22"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="107"/>
+      <c r="M31" s="21"/>
+    </row>
+    <row r="32" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A32" s="158"/>
       <c r="B32" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="107"/>
+      <c r="C32" s="90">
+        <v>123123</v>
+      </c>
+      <c r="D32" s="158"/>
       <c r="E32" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F32" s="2"/>
-      <c r="G32" s="107"/>
+      <c r="G32" s="158"/>
       <c r="H32" s="1" t="s">
         <v>37</v>
       </c>
       <c r="I32" s="2"/>
-      <c r="M32" s="22"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="107"/>
+      <c r="M32" s="21"/>
+    </row>
+    <row r="33" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A33" s="158"/>
       <c r="B33" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="107"/>
+      <c r="C33" s="90" t="s">
+        <v>244</v>
+      </c>
+      <c r="D33" s="158"/>
       <c r="E33" s="1" t="s">
         <v>38</v>
       </c>
       <c r="F33" s="2"/>
-      <c r="G33" s="107"/>
+      <c r="G33" s="158"/>
       <c r="H33" s="1" t="s">
         <v>38</v>
       </c>
       <c r="I33" s="2"/>
-      <c r="M33" s="22"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="107"/>
+      <c r="M33" s="21"/>
+    </row>
+    <row r="34" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A34" s="158"/>
       <c r="B34" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="107"/>
+      <c r="C34" s="90">
+        <v>111</v>
+      </c>
+      <c r="D34" s="158"/>
       <c r="E34" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F34" s="2"/>
-      <c r="G34" s="107"/>
+      <c r="G34" s="158"/>
       <c r="H34" s="1" t="s">
         <v>39</v>
       </c>
       <c r="I34" s="2"/>
-      <c r="M34" s="22"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="117"/>
+      <c r="M34" s="21"/>
+    </row>
+    <row r="35" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A35" s="170"/>
       <c r="B35" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="117"/>
+      <c r="C35" s="92">
+        <v>32231</v>
+      </c>
+      <c r="D35" s="170"/>
       <c r="E35" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F35" s="4"/>
-      <c r="G35" s="117"/>
+      <c r="G35" s="170"/>
       <c r="H35" s="3" t="s">
         <v>40</v>
       </c>
       <c r="I35" s="4"/>
-      <c r="M35" s="22"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M35" s="21"/>
+    </row>
+    <row r="36" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="127"/>
-      <c r="C36" s="109"/>
+      <c r="B36" s="180" t="s">
+        <v>245</v>
+      </c>
+      <c r="C36" s="160"/>
       <c r="D36" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E36" s="127"/>
-      <c r="F36" s="109"/>
+      <c r="E36" s="181"/>
+      <c r="F36" s="160"/>
       <c r="G36" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="H36" s="127"/>
-      <c r="I36" s="109"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="112" t="s">
+      <c r="H36" s="181"/>
+      <c r="I36" s="160"/>
+    </row>
+    <row r="38" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A38" s="163" t="s">
         <v>42</v>
       </c>
-      <c r="B38" s="95"/>
-      <c r="C38" s="105"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B38" s="145"/>
+      <c r="C38" s="156"/>
+    </row>
+    <row r="39" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="C39" s="24"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C39" s="23"/>
+    </row>
+    <row r="40" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="97" t="s">
+      <c r="B40" s="147" t="s">
         <v>219</v>
       </c>
-      <c r="C40" s="98"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="118" t="s">
+      <c r="C40" s="149"/>
+    </row>
+    <row r="41" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A41" s="171" t="s">
         <v>32</v>
       </c>
       <c r="B41" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="86" t="s">
+      <c r="C41" s="85" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="119"/>
+    <row r="42" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A42" s="172"/>
       <c r="B42" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="82" t="s">
+      <c r="C42" s="81" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="119"/>
+    <row r="43" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A43" s="172"/>
       <c r="B43" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C43" s="82">
+      <c r="C43" s="81">
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="119"/>
+    <row r="44" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A44" s="172"/>
       <c r="B44" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="82" t="s">
+      <c r="C44" s="81" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="119"/>
+    <row r="45" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A45" s="172"/>
       <c r="B45" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C45" s="82">
+      <c r="C45" s="81">
         <v>12345</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="119"/>
+    <row r="46" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A46" s="172"/>
       <c r="B46" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C46" s="82" t="s">
+      <c r="C46" s="81" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="119"/>
+    <row r="47" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A47" s="172"/>
       <c r="B47" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C47" s="82" t="s">
+      <c r="C47" s="81" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="120"/>
+    <row r="48" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A48" s="173"/>
       <c r="B48" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C48" s="82" t="s">
+      <c r="C48" s="81" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B49" s="121">
+      <c r="B49" s="174">
         <v>23586598</v>
       </c>
-      <c r="C49" s="122"/>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C49" s="175"/>
+    </row>
+    <row r="50" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B50" s="123">
+      <c r="B50" s="176">
         <v>8123456789</v>
       </c>
-      <c r="C50" s="124"/>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C50" s="177"/>
+    </row>
+    <row r="51" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B51" s="125" t="s">
+      <c r="B51" s="178" t="s">
         <v>225</v>
       </c>
-      <c r="C51" s="126"/>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="112" t="s">
+      <c r="C51" s="179"/>
+    </row>
+    <row r="53" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A53" s="163" t="s">
         <v>48</v>
       </c>
-      <c r="B53" s="105"/>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B53" s="156"/>
+    </row>
+    <row r="54" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B54" s="89" t="s">
+      <c r="B54" s="88" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B55" s="90" t="s">
+      <c r="B55" s="89" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B56" s="90" t="s">
+      <c r="B56" s="89" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B57" s="90" t="s">
+      <c r="B57" s="89" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B58" s="91" t="s">
+      <c r="B58" s="90" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B59" s="92">
+      <c r="B59" s="91">
         <v>1.23</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B60" s="93"/>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A62" s="99" t="s">
+      <c r="B60" s="92"/>
+    </row>
+    <row r="62" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A62" s="150" t="s">
         <v>55</v>
       </c>
-      <c r="B62" s="100"/>
-      <c r="C62" s="100"/>
-      <c r="D62" s="100"/>
-      <c r="E62" s="100"/>
-      <c r="F62" s="100"/>
-      <c r="G62" s="100"/>
-      <c r="H62" s="100"/>
-      <c r="I62" s="100"/>
-      <c r="J62" s="100"/>
-      <c r="K62" s="100"/>
-      <c r="L62" s="100"/>
-      <c r="M62" s="100"/>
-      <c r="N62" s="100"/>
-      <c r="O62" s="100"/>
-      <c r="P62" s="100"/>
-      <c r="Q62" s="100"/>
-      <c r="R62" s="101"/>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A63" s="102" t="s">
+      <c r="B62" s="151"/>
+      <c r="C62" s="151"/>
+      <c r="D62" s="151"/>
+      <c r="E62" s="151"/>
+      <c r="F62" s="151"/>
+      <c r="G62" s="151"/>
+      <c r="H62" s="151"/>
+      <c r="I62" s="151"/>
+      <c r="J62" s="151"/>
+      <c r="K62" s="151"/>
+      <c r="L62" s="151"/>
+      <c r="M62" s="151"/>
+      <c r="N62" s="151"/>
+      <c r="O62" s="151"/>
+      <c r="P62" s="151"/>
+      <c r="Q62" s="151"/>
+      <c r="R62" s="152"/>
+    </row>
+    <row r="63" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A63" s="153" t="s">
         <v>56</v>
       </c>
-      <c r="B63" s="100"/>
-      <c r="C63" s="100"/>
-      <c r="D63" s="100"/>
-      <c r="E63" s="100"/>
-      <c r="F63" s="101"/>
-      <c r="G63" s="102" t="s">
+      <c r="B63" s="151"/>
+      <c r="C63" s="151"/>
+      <c r="D63" s="151"/>
+      <c r="E63" s="151"/>
+      <c r="F63" s="152"/>
+      <c r="G63" s="153" t="s">
         <v>57</v>
       </c>
-      <c r="H63" s="100"/>
-      <c r="I63" s="100"/>
-      <c r="J63" s="100"/>
-      <c r="K63" s="100"/>
-      <c r="L63" s="100"/>
-      <c r="M63" s="102" t="s">
+      <c r="H63" s="151"/>
+      <c r="I63" s="151"/>
+      <c r="J63" s="151"/>
+      <c r="K63" s="151"/>
+      <c r="L63" s="151"/>
+      <c r="M63" s="153" t="s">
         <v>58</v>
       </c>
-      <c r="N63" s="100"/>
-      <c r="O63" s="100"/>
-      <c r="P63" s="100"/>
-      <c r="Q63" s="100"/>
-      <c r="R63" s="101"/>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N63" s="151"/>
+      <c r="O63" s="151"/>
+      <c r="P63" s="151"/>
+      <c r="Q63" s="151"/>
+      <c r="R63" s="152"/>
+    </row>
+    <row r="64" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B64" s="103"/>
-      <c r="C64" s="100"/>
-      <c r="D64" s="100"/>
-      <c r="E64" s="100"/>
-      <c r="F64" s="101"/>
+      <c r="B64" s="154" t="s">
+        <v>234</v>
+      </c>
+      <c r="C64" s="151"/>
+      <c r="D64" s="151"/>
+      <c r="E64" s="151"/>
+      <c r="F64" s="152"/>
       <c r="G64" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H64" s="103"/>
-      <c r="I64" s="100"/>
-      <c r="J64" s="100"/>
-      <c r="K64" s="100"/>
-      <c r="L64" s="101"/>
+      <c r="H64" s="154"/>
+      <c r="I64" s="151"/>
+      <c r="J64" s="151"/>
+      <c r="K64" s="151"/>
+      <c r="L64" s="152"/>
       <c r="M64" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="N64" s="103"/>
-      <c r="O64" s="100"/>
-      <c r="P64" s="100"/>
-      <c r="Q64" s="100"/>
-      <c r="R64" s="101"/>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A65" s="116" t="s">
+      <c r="N64" s="154"/>
+      <c r="O64" s="151"/>
+      <c r="P64" s="151"/>
+      <c r="Q64" s="151"/>
+      <c r="R64" s="152"/>
+    </row>
+    <row r="65" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A65" s="167" t="s">
         <v>59</v>
       </c>
-      <c r="B65" s="27" t="s">
+      <c r="B65" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="C65" s="94"/>
-      <c r="D65" s="95"/>
-      <c r="E65" s="95"/>
-      <c r="F65" s="95"/>
-      <c r="G65" s="116" t="s">
+      <c r="C65" s="144" t="s">
+        <v>265</v>
+      </c>
+      <c r="D65" s="145"/>
+      <c r="E65" s="145"/>
+      <c r="F65" s="145"/>
+      <c r="G65" s="167" t="s">
         <v>59</v>
       </c>
-      <c r="H65" s="27" t="s">
+      <c r="H65" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="I65" s="104"/>
-      <c r="J65" s="95"/>
-      <c r="K65" s="95"/>
-      <c r="L65" s="105"/>
-      <c r="M65" s="106" t="s">
+      <c r="I65" s="155"/>
+      <c r="J65" s="145"/>
+      <c r="K65" s="145"/>
+      <c r="L65" s="156"/>
+      <c r="M65" s="157" t="s">
         <v>59</v>
       </c>
-      <c r="N65" s="27" t="s">
+      <c r="N65" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="O65" s="104"/>
-      <c r="P65" s="95"/>
-      <c r="Q65" s="95"/>
-      <c r="R65" s="105"/>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A66" s="107"/>
-      <c r="B66" s="29" t="s">
+      <c r="O65" s="155"/>
+      <c r="P65" s="145"/>
+      <c r="Q65" s="145"/>
+      <c r="R65" s="156"/>
+    </row>
+    <row r="66" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="158"/>
+      <c r="B66" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="C66" s="96"/>
-      <c r="D66" s="96"/>
-      <c r="E66" s="96"/>
-      <c r="F66" s="96"/>
-      <c r="G66" s="107"/>
-      <c r="H66" s="29" t="s">
+      <c r="C66" s="146">
+        <v>12</v>
+      </c>
+      <c r="D66" s="146"/>
+      <c r="E66" s="146"/>
+      <c r="F66" s="146"/>
+      <c r="G66" s="158"/>
+      <c r="H66" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="I66" s="97"/>
-      <c r="J66" s="96"/>
-      <c r="K66" s="96"/>
-      <c r="L66" s="98"/>
-      <c r="M66" s="107"/>
-      <c r="N66" s="29" t="s">
+      <c r="I66" s="147"/>
+      <c r="J66" s="148"/>
+      <c r="K66" s="148"/>
+      <c r="L66" s="149"/>
+      <c r="M66" s="158"/>
+      <c r="N66" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="O66" s="97"/>
-      <c r="P66" s="96"/>
-      <c r="Q66" s="96"/>
-      <c r="R66" s="98"/>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A67" s="107"/>
-      <c r="B67" s="108" t="s">
+      <c r="O66" s="147"/>
+      <c r="P66" s="148"/>
+      <c r="Q66" s="148"/>
+      <c r="R66" s="149"/>
+    </row>
+    <row r="67" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A67" s="158"/>
+      <c r="B67" s="159" t="s">
         <v>62</v>
       </c>
-      <c r="C67" s="30" t="s">
+      <c r="C67" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="D67" s="31" t="s">
+      <c r="D67" s="30" t="s">
         <v>64</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F67" s="30" t="s">
+      <c r="F67" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="G67" s="107"/>
-      <c r="H67" s="108" t="s">
+      <c r="G67" s="158"/>
+      <c r="H67" s="159" t="s">
         <v>62</v>
       </c>
-      <c r="I67" s="30" t="s">
+      <c r="I67" s="29" t="s">
         <v>63</v>
       </c>
       <c r="J67" s="5" t="s">
@@ -2328,11 +2956,11 @@
       <c r="L67" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="M67" s="107"/>
-      <c r="N67" s="108" t="s">
+      <c r="M67" s="158"/>
+      <c r="N67" s="159" t="s">
         <v>62</v>
       </c>
-      <c r="O67" s="30" t="s">
+      <c r="O67" s="29" t="s">
         <v>63</v>
       </c>
       <c r="P67" s="5" t="s">
@@ -2345,19 +2973,24 @@
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A68" s="107"/>
-      <c r="B68" s="98"/>
-      <c r="C68" s="29" t="s">
+    <row r="68" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A68" s="158"/>
+      <c r="B68" s="149"/>
+      <c r="C68" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="D68" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="E68" s="2"/>
-      <c r="G68" s="107"/>
-      <c r="H68" s="98"/>
-      <c r="I68" s="29" t="s">
+      <c r="D68" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="E68" s="2">
+        <v>23</v>
+      </c>
+      <c r="F68" t="s">
+        <v>233</v>
+      </c>
+      <c r="G68" s="158"/>
+      <c r="H68" s="149"/>
+      <c r="I68" s="28" t="s">
         <v>67</v>
       </c>
       <c r="J68" s="2" t="b">
@@ -2365,9 +2998,9 @@
       </c>
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
-      <c r="M68" s="107"/>
-      <c r="N68" s="98"/>
-      <c r="O68" s="29" t="s">
+      <c r="M68" s="158"/>
+      <c r="N68" s="149"/>
+      <c r="O68" s="28" t="s">
         <v>67</v>
       </c>
       <c r="P68" s="2" t="b">
@@ -2376,19 +3009,21 @@
       <c r="Q68" s="2"/>
       <c r="R68" s="2"/>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A69" s="107"/>
-      <c r="B69" s="98"/>
-      <c r="C69" s="29" t="s">
+    <row r="69" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A69" s="158"/>
+      <c r="B69" s="149"/>
+      <c r="C69" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="D69" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="E69" s="2"/>
-      <c r="G69" s="107"/>
-      <c r="H69" s="98"/>
-      <c r="I69" s="29" t="s">
+      <c r="D69" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E69" s="2">
+        <v>2231</v>
+      </c>
+      <c r="G69" s="158"/>
+      <c r="H69" s="149"/>
+      <c r="I69" s="28" t="s">
         <v>69</v>
       </c>
       <c r="J69" s="2" t="b">
@@ -2396,9 +3031,9 @@
       </c>
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
-      <c r="M69" s="107"/>
-      <c r="N69" s="98"/>
-      <c r="O69" s="29" t="s">
+      <c r="M69" s="158"/>
+      <c r="N69" s="149"/>
+      <c r="O69" s="28" t="s">
         <v>69</v>
       </c>
       <c r="P69" s="2" t="b">
@@ -2407,19 +3042,19 @@
       <c r="Q69" s="2"/>
       <c r="R69" s="2"/>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A70" s="107"/>
-      <c r="B70" s="98"/>
-      <c r="C70" s="29" t="s">
+    <row r="70" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A70" s="158"/>
+      <c r="B70" s="149"/>
+      <c r="C70" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="D70" s="22" t="b">
+      <c r="D70" s="21" t="b">
         <v>0</v>
       </c>
       <c r="E70" s="2"/>
-      <c r="G70" s="107"/>
-      <c r="H70" s="98"/>
-      <c r="I70" s="29" t="s">
+      <c r="G70" s="158"/>
+      <c r="H70" s="149"/>
+      <c r="I70" s="28" t="s">
         <v>70</v>
       </c>
       <c r="J70" s="2" t="b">
@@ -2427,9 +3062,9 @@
       </c>
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
-      <c r="M70" s="107"/>
-      <c r="N70" s="98"/>
-      <c r="O70" s="29" t="s">
+      <c r="M70" s="158"/>
+      <c r="N70" s="149"/>
+      <c r="O70" s="28" t="s">
         <v>70</v>
       </c>
       <c r="P70" s="2" t="b">
@@ -2438,19 +3073,19 @@
       <c r="Q70" s="2"/>
       <c r="R70" s="2"/>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A71" s="107"/>
-      <c r="B71" s="98"/>
-      <c r="C71" s="29" t="s">
+    <row r="71" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A71" s="158"/>
+      <c r="B71" s="149"/>
+      <c r="C71" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="D71" s="22" t="b">
+      <c r="D71" s="21" t="b">
         <v>0</v>
       </c>
       <c r="E71" s="2"/>
-      <c r="G71" s="107"/>
-      <c r="H71" s="98"/>
-      <c r="I71" s="29" t="s">
+      <c r="G71" s="158"/>
+      <c r="H71" s="149"/>
+      <c r="I71" s="28" t="s">
         <v>71</v>
       </c>
       <c r="J71" s="2" t="b">
@@ -2458,9 +3093,9 @@
       </c>
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
-      <c r="M71" s="107"/>
-      <c r="N71" s="98"/>
-      <c r="O71" s="29" t="s">
+      <c r="M71" s="158"/>
+      <c r="N71" s="149"/>
+      <c r="O71" s="28" t="s">
         <v>71</v>
       </c>
       <c r="P71" s="2" t="b">
@@ -2469,19 +3104,21 @@
       <c r="Q71" s="2"/>
       <c r="R71" s="2"/>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A72" s="107"/>
-      <c r="B72" s="98"/>
-      <c r="C72" s="29" t="s">
+    <row r="72" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A72" s="158"/>
+      <c r="B72" s="149"/>
+      <c r="C72" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="D72" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="E72" s="2"/>
-      <c r="G72" s="107"/>
-      <c r="H72" s="98"/>
-      <c r="I72" s="29" t="s">
+      <c r="D72" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E72" s="2">
+        <v>232</v>
+      </c>
+      <c r="G72" s="158"/>
+      <c r="H72" s="149"/>
+      <c r="I72" s="28" t="s">
         <v>72</v>
       </c>
       <c r="J72" s="2" t="b">
@@ -2489,9 +3126,9 @@
       </c>
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
-      <c r="M72" s="107"/>
-      <c r="N72" s="98"/>
-      <c r="O72" s="29" t="s">
+      <c r="M72" s="158"/>
+      <c r="N72" s="149"/>
+      <c r="O72" s="28" t="s">
         <v>72</v>
       </c>
       <c r="P72" s="2" t="b">
@@ -2500,19 +3137,21 @@
       <c r="Q72" s="2"/>
       <c r="R72" s="2"/>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A73" s="107"/>
-      <c r="B73" s="98"/>
-      <c r="C73" s="29" t="s">
+    <row r="73" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A73" s="158"/>
+      <c r="B73" s="149"/>
+      <c r="C73" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="D73" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="E73" s="2"/>
-      <c r="G73" s="107"/>
-      <c r="H73" s="98"/>
-      <c r="I73" s="29" t="s">
+      <c r="D73" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="E73" s="2">
+        <v>53</v>
+      </c>
+      <c r="G73" s="158"/>
+      <c r="H73" s="149"/>
+      <c r="I73" s="28" t="s">
         <v>73</v>
       </c>
       <c r="J73" s="2" t="b">
@@ -2520,9 +3159,9 @@
       </c>
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
-      <c r="M73" s="107"/>
-      <c r="N73" s="98"/>
-      <c r="O73" s="29" t="s">
+      <c r="M73" s="158"/>
+      <c r="N73" s="149"/>
+      <c r="O73" s="28" t="s">
         <v>73</v>
       </c>
       <c r="P73" s="2" t="b">
@@ -2531,19 +3170,19 @@
       <c r="Q73" s="2"/>
       <c r="R73" s="2"/>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A74" s="107"/>
-      <c r="B74" s="98"/>
-      <c r="C74" s="29" t="s">
+    <row r="74" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A74" s="158"/>
+      <c r="B74" s="149"/>
+      <c r="C74" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="D74" s="22" t="b">
+      <c r="D74" s="21" t="b">
         <v>0</v>
       </c>
       <c r="E74" s="2"/>
-      <c r="G74" s="107"/>
-      <c r="H74" s="98"/>
-      <c r="I74" s="29" t="s">
+      <c r="G74" s="158"/>
+      <c r="H74" s="149"/>
+      <c r="I74" s="28" t="s">
         <v>74</v>
       </c>
       <c r="J74" s="2" t="b">
@@ -2551,9 +3190,9 @@
       </c>
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
-      <c r="M74" s="107"/>
-      <c r="N74" s="98"/>
-      <c r="O74" s="29" t="s">
+      <c r="M74" s="158"/>
+      <c r="N74" s="149"/>
+      <c r="O74" s="28" t="s">
         <v>74</v>
       </c>
       <c r="P74" s="2" t="b">
@@ -2562,19 +3201,19 @@
       <c r="Q74" s="2"/>
       <c r="R74" s="2"/>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A75" s="107"/>
-      <c r="B75" s="98"/>
-      <c r="C75" s="29" t="s">
+    <row r="75" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A75" s="158"/>
+      <c r="B75" s="149"/>
+      <c r="C75" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="D75" s="22" t="b">
+      <c r="D75" s="21" t="b">
         <v>0</v>
       </c>
       <c r="E75" s="2"/>
-      <c r="G75" s="107"/>
-      <c r="H75" s="98"/>
-      <c r="I75" s="29" t="s">
+      <c r="G75" s="158"/>
+      <c r="H75" s="149"/>
+      <c r="I75" s="28" t="s">
         <v>75</v>
       </c>
       <c r="J75" s="2" t="b">
@@ -2582,9 +3221,9 @@
       </c>
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
-      <c r="M75" s="107"/>
-      <c r="N75" s="98"/>
-      <c r="O75" s="29" t="s">
+      <c r="M75" s="158"/>
+      <c r="N75" s="149"/>
+      <c r="O75" s="28" t="s">
         <v>75</v>
       </c>
       <c r="P75" s="2" t="b">
@@ -2593,19 +3232,19 @@
       <c r="Q75" s="2"/>
       <c r="R75" s="2"/>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A76" s="107"/>
-      <c r="B76" s="98"/>
-      <c r="C76" s="29" t="s">
+    <row r="76" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A76" s="158"/>
+      <c r="B76" s="149"/>
+      <c r="C76" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="D76" s="22" t="b">
+      <c r="D76" s="21" t="b">
         <v>0</v>
       </c>
       <c r="E76" s="2"/>
-      <c r="G76" s="107"/>
-      <c r="H76" s="98"/>
-      <c r="I76" s="29" t="s">
+      <c r="G76" s="158"/>
+      <c r="H76" s="149"/>
+      <c r="I76" s="28" t="s">
         <v>76</v>
       </c>
       <c r="J76" s="2" t="b">
@@ -2613,9 +3252,9 @@
       </c>
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
-      <c r="M76" s="107"/>
-      <c r="N76" s="98"/>
-      <c r="O76" s="29" t="s">
+      <c r="M76" s="158"/>
+      <c r="N76" s="149"/>
+      <c r="O76" s="28" t="s">
         <v>76</v>
       </c>
       <c r="P76" s="2" t="b">
@@ -2624,19 +3263,19 @@
       <c r="Q76" s="2"/>
       <c r="R76" s="2"/>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A77" s="107"/>
-      <c r="B77" s="98"/>
-      <c r="C77" s="29" t="s">
+    <row r="77" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A77" s="158"/>
+      <c r="B77" s="149"/>
+      <c r="C77" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="D77" s="25" t="b">
+      <c r="D77" s="24" t="b">
         <v>0</v>
       </c>
       <c r="E77" s="2"/>
-      <c r="G77" s="107"/>
-      <c r="H77" s="98"/>
-      <c r="I77" s="29" t="s">
+      <c r="G77" s="158"/>
+      <c r="H77" s="149"/>
+      <c r="I77" s="28" t="s">
         <v>77</v>
       </c>
       <c r="J77" s="2" t="b">
@@ -2644,9 +3283,9 @@
       </c>
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
-      <c r="M77" s="107"/>
-      <c r="N77" s="98"/>
-      <c r="O77" s="29" t="s">
+      <c r="M77" s="158"/>
+      <c r="N77" s="149"/>
+      <c r="O77" s="28" t="s">
         <v>77</v>
       </c>
       <c r="P77" s="2" t="b">
@@ -2655,19 +3294,19 @@
       <c r="Q77" s="2"/>
       <c r="R77" s="2"/>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A78" s="117"/>
-      <c r="B78" s="109"/>
-      <c r="C78" s="29" t="s">
+    <row r="78" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A78" s="158"/>
+      <c r="B78" s="149"/>
+      <c r="C78" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="D78" s="25" t="b">
+      <c r="D78" s="24" t="b">
         <v>0</v>
       </c>
       <c r="E78" s="2"/>
-      <c r="G78" s="117"/>
-      <c r="H78" s="109"/>
-      <c r="I78" s="29" t="s">
+      <c r="G78" s="158"/>
+      <c r="H78" s="160"/>
+      <c r="I78" s="28" t="s">
         <v>78</v>
       </c>
       <c r="J78" s="2" t="b">
@@ -2675,9 +3314,9 @@
       </c>
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
-      <c r="M78" s="107"/>
-      <c r="N78" s="109"/>
-      <c r="O78" s="29" t="s">
+      <c r="M78" s="158"/>
+      <c r="N78" s="160"/>
+      <c r="O78" s="28" t="s">
         <v>78</v>
       </c>
       <c r="P78" s="2" t="b">
@@ -2686,72 +3325,403 @@
       <c r="Q78" s="2"/>
       <c r="R78" s="2"/>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A79" s="10" t="s">
+    <row r="79" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A79" s="95" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79" s="193" t="s">
+        <v>279</v>
+      </c>
+      <c r="C79" s="194"/>
+      <c r="D79" s="194"/>
+      <c r="E79" s="194"/>
+      <c r="F79" s="195"/>
+      <c r="G79" s="95" t="s">
+        <v>80</v>
+      </c>
+      <c r="H79" s="134"/>
+      <c r="I79" s="135"/>
+      <c r="J79" s="135"/>
+      <c r="K79" s="135"/>
+      <c r="L79" s="136"/>
+      <c r="M79" s="95" t="s">
+        <v>80</v>
+      </c>
+      <c r="N79" s="134"/>
+      <c r="O79" s="135"/>
+      <c r="P79" s="135"/>
+      <c r="Q79" s="135"/>
+      <c r="R79" s="136"/>
+    </row>
+    <row r="80" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A80" s="95" t="s">
         <v>79</v>
       </c>
-      <c r="B79" s="23"/>
-      <c r="C79" s="23"/>
-      <c r="D79" s="23"/>
-      <c r="E79" s="23"/>
-      <c r="F79" s="23"/>
-      <c r="G79" s="10" t="s">
+      <c r="B80" s="96" t="b">
+        <v>1</v>
+      </c>
+      <c r="C80" s="97" t="s">
+        <v>238</v>
+      </c>
+      <c r="D80" s="132" t="s">
+        <v>266</v>
+      </c>
+      <c r="E80" s="133"/>
+      <c r="F80" s="133"/>
+      <c r="G80" s="95" t="s">
         <v>79</v>
       </c>
-      <c r="H79" s="23"/>
-      <c r="I79" s="23"/>
-      <c r="J79" s="23"/>
-      <c r="K79" s="23"/>
-      <c r="L79" s="23"/>
-      <c r="M79" s="10" t="s">
+      <c r="H80" s="96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" s="97" t="s">
+        <v>238</v>
+      </c>
+      <c r="J80" s="130"/>
+      <c r="K80" s="130"/>
+      <c r="L80" s="130"/>
+      <c r="M80" s="95" t="s">
         <v>79</v>
       </c>
-      <c r="N79" s="23"/>
-      <c r="O79" s="23"/>
-      <c r="P79" s="23"/>
-      <c r="Q79" s="23"/>
-      <c r="R79" s="24"/>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A80" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="G80" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="M80" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="R80" s="32"/>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A81" s="9" t="s">
+      <c r="N80" s="96" t="b">
+        <v>0</v>
+      </c>
+      <c r="O80" s="97" t="s">
+        <v>238</v>
+      </c>
+      <c r="P80" s="130"/>
+      <c r="Q80" s="130"/>
+      <c r="R80" s="130"/>
+    </row>
+    <row r="81" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A81" s="143" t="s">
         <v>81</v>
       </c>
-      <c r="B81" s="26"/>
-      <c r="C81" s="26"/>
-      <c r="D81" s="26"/>
-      <c r="E81" s="26"/>
-      <c r="F81" s="26"/>
-      <c r="G81" s="9" t="s">
+      <c r="B81" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="C81" s="98" t="s">
+        <v>235</v>
+      </c>
+      <c r="D81" s="140" t="s">
+        <v>267</v>
+      </c>
+      <c r="E81" s="133"/>
+      <c r="F81" s="133"/>
+      <c r="G81" s="143" t="s">
         <v>81</v>
       </c>
-      <c r="H81" s="26"/>
-      <c r="I81" s="26"/>
-      <c r="J81" s="26"/>
-      <c r="K81" s="26"/>
-      <c r="L81" s="26"/>
-      <c r="M81" s="9" t="s">
+      <c r="H81" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" s="98" t="s">
+        <v>235</v>
+      </c>
+      <c r="J81" s="130"/>
+      <c r="K81" s="130"/>
+      <c r="L81" s="130"/>
+      <c r="M81" s="143" t="s">
         <v>81</v>
       </c>
-      <c r="N81" s="26"/>
-      <c r="O81" s="26"/>
-      <c r="P81" s="26"/>
-      <c r="Q81" s="26"/>
-      <c r="R81" s="33"/>
+      <c r="N81" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="O81" s="98" t="s">
+        <v>235</v>
+      </c>
+      <c r="P81" s="130"/>
+      <c r="Q81" s="130"/>
+      <c r="R81" s="130"/>
+      <c r="S81" s="93"/>
+      <c r="T81" s="93"/>
+      <c r="U81" s="93"/>
+      <c r="V81" s="93"/>
+      <c r="W81" s="93"/>
+    </row>
+    <row r="82" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="143"/>
+      <c r="B82" s="138"/>
+      <c r="C82" s="99" t="s">
+        <v>236</v>
+      </c>
+      <c r="D82" s="141" t="s">
+        <v>268</v>
+      </c>
+      <c r="E82" s="142"/>
+      <c r="F82" s="142"/>
+      <c r="G82" s="143"/>
+      <c r="H82" s="138"/>
+      <c r="I82" s="99" t="s">
+        <v>236</v>
+      </c>
+      <c r="J82" s="131"/>
+      <c r="K82" s="131"/>
+      <c r="L82" s="131"/>
+      <c r="M82" s="143"/>
+      <c r="N82" s="138"/>
+      <c r="O82" s="99" t="s">
+        <v>236</v>
+      </c>
+      <c r="P82" s="131"/>
+      <c r="Q82" s="131"/>
+      <c r="R82" s="131"/>
+      <c r="S82" s="93"/>
+      <c r="T82" s="93"/>
+      <c r="U82" s="93"/>
+      <c r="V82" s="93"/>
+      <c r="W82" s="93"/>
+    </row>
+    <row r="83" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="143"/>
+      <c r="B83" s="139"/>
+      <c r="C83" s="100" t="s">
+        <v>237</v>
+      </c>
+      <c r="D83" s="141" t="s">
+        <v>269</v>
+      </c>
+      <c r="E83" s="142"/>
+      <c r="F83" s="142"/>
+      <c r="G83" s="143"/>
+      <c r="H83" s="139"/>
+      <c r="I83" s="100" t="s">
+        <v>237</v>
+      </c>
+      <c r="J83" s="131"/>
+      <c r="K83" s="131"/>
+      <c r="L83" s="131"/>
+      <c r="M83" s="143"/>
+      <c r="N83" s="139"/>
+      <c r="O83" s="100" t="s">
+        <v>237</v>
+      </c>
+      <c r="P83" s="131"/>
+      <c r="Q83" s="131"/>
+      <c r="R83" s="131"/>
+      <c r="S83" s="93"/>
+      <c r="T83" s="93"/>
+      <c r="U83" s="93"/>
+      <c r="V83" s="93"/>
+      <c r="W83" s="93"/>
+    </row>
+    <row r="84" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="93"/>
+      <c r="B84" s="94"/>
+      <c r="C84" s="93"/>
+      <c r="D84" s="93"/>
+      <c r="E84" s="93"/>
+      <c r="F84" s="93"/>
+      <c r="G84" s="93"/>
+      <c r="H84" s="94"/>
+      <c r="I84" s="93"/>
+      <c r="J84" s="93"/>
+      <c r="K84" s="93"/>
+      <c r="L84" s="93"/>
+      <c r="M84" s="93"/>
+      <c r="N84" s="94"/>
+    </row>
+    <row r="85" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="127" t="s">
+        <v>248</v>
+      </c>
+      <c r="B85" s="128"/>
+      <c r="C85" s="128"/>
+      <c r="D85" s="128"/>
+      <c r="E85" s="129"/>
+      <c r="F85" s="93"/>
+      <c r="G85" s="93"/>
+      <c r="H85" s="93"/>
+      <c r="I85" s="93"/>
+      <c r="J85" s="93"/>
+      <c r="K85" s="93"/>
+      <c r="L85" s="93"/>
+      <c r="M85" s="93"/>
+      <c r="N85" s="93"/>
+    </row>
+    <row r="86" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="104" t="s">
+        <v>146</v>
+      </c>
+      <c r="B86" s="107">
+        <v>1231</v>
+      </c>
+      <c r="C86" s="108"/>
+      <c r="D86" s="108"/>
+      <c r="E86" s="109"/>
+      <c r="F86" s="93"/>
+      <c r="G86" s="93"/>
+      <c r="H86" s="93"/>
+      <c r="I86" s="93"/>
+      <c r="J86" s="93"/>
+      <c r="K86" s="93"/>
+      <c r="L86" s="93"/>
+      <c r="M86" s="93"/>
+      <c r="N86" s="93"/>
+    </row>
+    <row r="87" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="110" t="s">
+        <v>249</v>
+      </c>
+      <c r="B87" s="105" t="s">
+        <v>250</v>
+      </c>
+      <c r="C87" s="107" t="s">
+        <v>273</v>
+      </c>
+      <c r="D87" s="108"/>
+      <c r="E87" s="109"/>
+      <c r="F87" s="93"/>
+      <c r="G87" s="93"/>
+      <c r="H87" s="93"/>
+      <c r="I87" s="93"/>
+      <c r="J87" s="93"/>
+      <c r="K87" s="93"/>
+      <c r="L87" s="93"/>
+      <c r="M87" s="93"/>
+      <c r="N87" s="93"/>
+    </row>
+    <row r="88" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="112"/>
+      <c r="B88" s="105" t="s">
+        <v>251</v>
+      </c>
+      <c r="C88" s="107" t="s">
+        <v>272</v>
+      </c>
+      <c r="D88" s="108"/>
+      <c r="E88" s="109"/>
+    </row>
+    <row r="89" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="104" t="s">
+        <v>252</v>
+      </c>
+      <c r="B89" s="106" t="s">
+        <v>270</v>
+      </c>
+      <c r="C89" s="106" t="s">
+        <v>253</v>
+      </c>
+      <c r="D89" s="119" t="s">
+        <v>271</v>
+      </c>
+      <c r="E89" s="120"/>
+    </row>
+    <row r="90" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="110" t="s">
+        <v>254</v>
+      </c>
+      <c r="B90" s="113" t="s">
+        <v>255</v>
+      </c>
+      <c r="C90" s="114"/>
+      <c r="D90" s="121" t="b">
+        <v>0</v>
+      </c>
+      <c r="E90" s="122"/>
+    </row>
+    <row r="91" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="111"/>
+      <c r="B91" s="115" t="s">
+        <v>256</v>
+      </c>
+      <c r="C91" s="116"/>
+      <c r="D91" s="123" t="b">
+        <v>1</v>
+      </c>
+      <c r="E91" s="124"/>
+    </row>
+    <row r="92" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="111"/>
+      <c r="B92" s="115" t="s">
+        <v>257</v>
+      </c>
+      <c r="C92" s="116"/>
+      <c r="D92" s="123" t="b">
+        <v>0</v>
+      </c>
+      <c r="E92" s="124"/>
+    </row>
+    <row r="93" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="111"/>
+      <c r="B93" s="115" t="s">
+        <v>73</v>
+      </c>
+      <c r="C93" s="116"/>
+      <c r="D93" s="123" t="b">
+        <v>0</v>
+      </c>
+      <c r="E93" s="124"/>
+    </row>
+    <row r="94" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="112"/>
+      <c r="B94" s="117" t="s">
+        <v>258</v>
+      </c>
+      <c r="C94" s="118"/>
+      <c r="D94" s="125" t="b">
+        <v>0</v>
+      </c>
+      <c r="E94" s="126"/>
+    </row>
+    <row r="95" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="110" t="s">
+        <v>259</v>
+      </c>
+      <c r="B95" s="113" t="s">
+        <v>260</v>
+      </c>
+      <c r="C95" s="114"/>
+      <c r="D95" s="107" t="s">
+        <v>274</v>
+      </c>
+      <c r="E95" s="109"/>
+    </row>
+    <row r="96" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="111"/>
+      <c r="B96" s="115" t="s">
+        <v>261</v>
+      </c>
+      <c r="C96" s="116"/>
+      <c r="D96" s="107" t="s">
+        <v>275</v>
+      </c>
+      <c r="E96" s="109"/>
+    </row>
+    <row r="97" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="111"/>
+      <c r="B97" s="115" t="s">
+        <v>262</v>
+      </c>
+      <c r="C97" s="116"/>
+      <c r="D97" s="107" t="s">
+        <v>276</v>
+      </c>
+      <c r="E97" s="109"/>
+    </row>
+    <row r="98" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="112"/>
+      <c r="B98" s="117" t="s">
+        <v>263</v>
+      </c>
+      <c r="C98" s="118"/>
+      <c r="D98" s="107" t="s">
+        <v>277</v>
+      </c>
+      <c r="E98" s="109"/>
+    </row>
+    <row r="99" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="104" t="s">
+        <v>264</v>
+      </c>
+      <c r="B99" s="107" t="s">
+        <v>278</v>
+      </c>
+      <c r="C99" s="108"/>
+      <c r="D99" s="108"/>
+      <c r="E99" s="109"/>
     </row>
   </sheetData>
-  <mergeCells count="50">
+  <mergeCells count="98">
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="H36:I36"/>
     <mergeCell ref="A38:C38"/>
@@ -2802,22 +3772,55 @@
     <mergeCell ref="I65:L65"/>
     <mergeCell ref="M65:M78"/>
     <mergeCell ref="N67:N78"/>
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="G81:G83"/>
+    <mergeCell ref="H81:H83"/>
+    <mergeCell ref="M81:M83"/>
+    <mergeCell ref="P81:R81"/>
+    <mergeCell ref="P82:R82"/>
+    <mergeCell ref="P83:R83"/>
+    <mergeCell ref="D80:F80"/>
+    <mergeCell ref="B79:F79"/>
+    <mergeCell ref="J80:L80"/>
+    <mergeCell ref="H79:L79"/>
+    <mergeCell ref="P80:R80"/>
+    <mergeCell ref="N79:R79"/>
+    <mergeCell ref="N81:N83"/>
+    <mergeCell ref="D81:F81"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="J81:L81"/>
+    <mergeCell ref="J82:L82"/>
+    <mergeCell ref="J83:L83"/>
+    <mergeCell ref="A85:E85"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="C87:E87"/>
+    <mergeCell ref="C88:E88"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="A90:A94"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="B99:E99"/>
+    <mergeCell ref="A95:A98"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="D98:E98"/>
   </mergeCells>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(C19))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF57BB8A"/>
-        <color rgb="FFFFFFFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B20" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"langsung,1 - 30 hari,&gt; 30 hari"</formula1>
@@ -2831,8 +3834,10 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="B51" r:id="rId1" xr:uid="{1BE8FA3C-9096-4637-8D9C-79752A524208}"/>
+    <hyperlink ref="D80" r:id="rId2" xr:uid="{B36ACA3E-2A54-458B-9938-7CA4168B8B30}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -2867,1353 +3872,1353 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:175" x14ac:dyDescent="0.25">
-      <c r="A1" s="131" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="131" t="s">
+      <c r="A1" s="185" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="151"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="185" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="131" t="s">
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
+      <c r="J1" s="151"/>
+      <c r="K1" s="151"/>
+      <c r="L1" s="151"/>
+      <c r="M1" s="151"/>
+      <c r="N1" s="151"/>
+      <c r="O1" s="152"/>
+      <c r="P1" s="185" t="s">
         <v>82</v>
       </c>
-      <c r="Q1" s="100"/>
-      <c r="R1" s="100"/>
-      <c r="S1" s="101"/>
-      <c r="T1" s="128" t="s">
+      <c r="Q1" s="151"/>
+      <c r="R1" s="151"/>
+      <c r="S1" s="152"/>
+      <c r="T1" s="182" t="s">
         <v>83</v>
       </c>
-      <c r="U1" s="100"/>
-      <c r="V1" s="100"/>
-      <c r="W1" s="100"/>
-      <c r="X1" s="100"/>
-      <c r="Y1" s="100"/>
-      <c r="Z1" s="100"/>
-      <c r="AA1" s="100"/>
-      <c r="AB1" s="100"/>
-      <c r="AC1" s="100"/>
-      <c r="AD1" s="100"/>
-      <c r="AE1" s="100"/>
-      <c r="AF1" s="101"/>
-      <c r="AG1" s="128" t="s">
+      <c r="U1" s="151"/>
+      <c r="V1" s="151"/>
+      <c r="W1" s="151"/>
+      <c r="X1" s="151"/>
+      <c r="Y1" s="151"/>
+      <c r="Z1" s="151"/>
+      <c r="AA1" s="151"/>
+      <c r="AB1" s="151"/>
+      <c r="AC1" s="151"/>
+      <c r="AD1" s="151"/>
+      <c r="AE1" s="151"/>
+      <c r="AF1" s="152"/>
+      <c r="AG1" s="182" t="s">
         <v>84</v>
       </c>
-      <c r="AH1" s="100"/>
-      <c r="AI1" s="100"/>
-      <c r="AJ1" s="100"/>
-      <c r="AK1" s="100"/>
-      <c r="AL1" s="100"/>
-      <c r="AM1" s="100"/>
-      <c r="AN1" s="100"/>
-      <c r="AO1" s="100"/>
-      <c r="AP1" s="100"/>
-      <c r="AQ1" s="100"/>
-      <c r="AR1" s="100"/>
-      <c r="AS1" s="101"/>
-      <c r="AT1" s="128" t="s">
+      <c r="AH1" s="151"/>
+      <c r="AI1" s="151"/>
+      <c r="AJ1" s="151"/>
+      <c r="AK1" s="151"/>
+      <c r="AL1" s="151"/>
+      <c r="AM1" s="151"/>
+      <c r="AN1" s="151"/>
+      <c r="AO1" s="151"/>
+      <c r="AP1" s="151"/>
+      <c r="AQ1" s="151"/>
+      <c r="AR1" s="151"/>
+      <c r="AS1" s="152"/>
+      <c r="AT1" s="182" t="s">
         <v>48</v>
       </c>
-      <c r="AU1" s="100"/>
-      <c r="AV1" s="100"/>
-      <c r="AW1" s="100"/>
-      <c r="AX1" s="100"/>
-      <c r="AY1" s="100"/>
-      <c r="AZ1" s="101"/>
-      <c r="BA1" s="128" t="s">
+      <c r="AU1" s="151"/>
+      <c r="AV1" s="151"/>
+      <c r="AW1" s="151"/>
+      <c r="AX1" s="151"/>
+      <c r="AY1" s="151"/>
+      <c r="AZ1" s="152"/>
+      <c r="BA1" s="182" t="s">
         <v>85</v>
       </c>
-      <c r="BB1" s="100"/>
-      <c r="BC1" s="100"/>
-      <c r="BD1" s="100"/>
-      <c r="BE1" s="100"/>
-      <c r="BF1" s="100"/>
-      <c r="BG1" s="100"/>
-      <c r="BH1" s="100"/>
-      <c r="BI1" s="100"/>
-      <c r="BJ1" s="100"/>
-      <c r="BK1" s="100"/>
-      <c r="BL1" s="100"/>
-      <c r="BM1" s="100"/>
-      <c r="BN1" s="100"/>
-      <c r="BO1" s="100"/>
-      <c r="BP1" s="100"/>
-      <c r="BQ1" s="100"/>
-      <c r="BR1" s="100"/>
-      <c r="BS1" s="100"/>
-      <c r="BT1" s="100"/>
-      <c r="BU1" s="100"/>
-      <c r="BV1" s="100"/>
-      <c r="BW1" s="100"/>
-      <c r="BX1" s="100"/>
-      <c r="BY1" s="100"/>
-      <c r="BZ1" s="100"/>
-      <c r="CA1" s="100"/>
-      <c r="CB1" s="100"/>
-      <c r="CC1" s="100"/>
-      <c r="CD1" s="100"/>
-      <c r="CE1" s="100"/>
-      <c r="CF1" s="100"/>
-      <c r="CG1" s="100"/>
-      <c r="CH1" s="100"/>
-      <c r="CI1" s="100"/>
-      <c r="CJ1" s="100"/>
-      <c r="CK1" s="100"/>
-      <c r="CL1" s="100"/>
-      <c r="CM1" s="101"/>
+      <c r="BB1" s="151"/>
+      <c r="BC1" s="151"/>
+      <c r="BD1" s="151"/>
+      <c r="BE1" s="151"/>
+      <c r="BF1" s="151"/>
+      <c r="BG1" s="151"/>
+      <c r="BH1" s="151"/>
+      <c r="BI1" s="151"/>
+      <c r="BJ1" s="151"/>
+      <c r="BK1" s="151"/>
+      <c r="BL1" s="151"/>
+      <c r="BM1" s="151"/>
+      <c r="BN1" s="151"/>
+      <c r="BO1" s="151"/>
+      <c r="BP1" s="151"/>
+      <c r="BQ1" s="151"/>
+      <c r="BR1" s="151"/>
+      <c r="BS1" s="151"/>
+      <c r="BT1" s="151"/>
+      <c r="BU1" s="151"/>
+      <c r="BV1" s="151"/>
+      <c r="BW1" s="151"/>
+      <c r="BX1" s="151"/>
+      <c r="BY1" s="151"/>
+      <c r="BZ1" s="151"/>
+      <c r="CA1" s="151"/>
+      <c r="CB1" s="151"/>
+      <c r="CC1" s="151"/>
+      <c r="CD1" s="151"/>
+      <c r="CE1" s="151"/>
+      <c r="CF1" s="151"/>
+      <c r="CG1" s="151"/>
+      <c r="CH1" s="151"/>
+      <c r="CI1" s="151"/>
+      <c r="CJ1" s="151"/>
+      <c r="CK1" s="151"/>
+      <c r="CL1" s="151"/>
+      <c r="CM1" s="152"/>
     </row>
     <row r="2" spans="1:175" x14ac:dyDescent="0.25">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="186" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="183" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="129" t="s">
+      <c r="C2" s="183" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="129" t="s">
+      <c r="D2" s="183" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="129" t="s">
+      <c r="E2" s="183" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="129" t="s">
+      <c r="F2" s="183" t="s">
         <v>87</v>
       </c>
-      <c r="G2" s="129" t="s">
+      <c r="G2" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="129" t="s">
+      <c r="H2" s="183" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="129" t="s">
+      <c r="I2" s="183" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="129" t="s">
+      <c r="J2" s="183" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="129" t="s">
+      <c r="K2" s="183" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="129" t="s">
+      <c r="L2" s="183" t="s">
         <v>88</v>
       </c>
-      <c r="M2" s="129" t="s">
+      <c r="M2" s="183" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="129" t="s">
+      <c r="N2" s="183" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="129" t="s">
+      <c r="O2" s="183" t="s">
         <v>89</v>
       </c>
-      <c r="P2" s="129" t="s">
+      <c r="P2" s="183" t="s">
         <v>90</v>
       </c>
-      <c r="Q2" s="129" t="s">
+      <c r="Q2" s="183" t="s">
         <v>91</v>
       </c>
-      <c r="R2" s="129" t="s">
+      <c r="R2" s="183" t="s">
         <v>23</v>
       </c>
-      <c r="S2" s="129" t="s">
+      <c r="S2" s="183" t="s">
         <v>25</v>
       </c>
-      <c r="T2" s="129" t="s">
+      <c r="T2" s="183" t="s">
         <v>30</v>
       </c>
-      <c r="U2" s="129" t="s">
+      <c r="U2" s="183" t="s">
         <v>6</v>
       </c>
-      <c r="V2" s="129" t="s">
+      <c r="V2" s="183" t="s">
         <v>92</v>
       </c>
-      <c r="W2" s="129" t="s">
+      <c r="W2" s="183" t="s">
         <v>93</v>
       </c>
-      <c r="X2" s="128" t="s">
+      <c r="X2" s="182" t="s">
         <v>32</v>
       </c>
-      <c r="Y2" s="100"/>
-      <c r="Z2" s="100"/>
-      <c r="AA2" s="100"/>
-      <c r="AB2" s="100"/>
-      <c r="AC2" s="100"/>
-      <c r="AD2" s="100"/>
-      <c r="AE2" s="101"/>
-      <c r="AF2" s="129" t="s">
+      <c r="Y2" s="151"/>
+      <c r="Z2" s="151"/>
+      <c r="AA2" s="151"/>
+      <c r="AB2" s="151"/>
+      <c r="AC2" s="151"/>
+      <c r="AD2" s="151"/>
+      <c r="AE2" s="152"/>
+      <c r="AF2" s="183" t="s">
         <v>41</v>
       </c>
-      <c r="AG2" s="129" t="s">
+      <c r="AG2" s="183" t="s">
         <v>94</v>
       </c>
-      <c r="AH2" s="129" t="s">
+      <c r="AH2" s="183" t="s">
         <v>44</v>
       </c>
-      <c r="AI2" s="131" t="s">
+      <c r="AI2" s="185" t="s">
         <v>32</v>
       </c>
-      <c r="AJ2" s="100"/>
-      <c r="AK2" s="100"/>
-      <c r="AL2" s="100"/>
-      <c r="AM2" s="100"/>
-      <c r="AN2" s="100"/>
-      <c r="AO2" s="100"/>
-      <c r="AP2" s="101"/>
-      <c r="AQ2" s="129" t="s">
+      <c r="AJ2" s="151"/>
+      <c r="AK2" s="151"/>
+      <c r="AL2" s="151"/>
+      <c r="AM2" s="151"/>
+      <c r="AN2" s="151"/>
+      <c r="AO2" s="151"/>
+      <c r="AP2" s="152"/>
+      <c r="AQ2" s="183" t="s">
         <v>41</v>
       </c>
-      <c r="AR2" s="129" t="s">
+      <c r="AR2" s="183" t="s">
         <v>46</v>
       </c>
-      <c r="AS2" s="129" t="s">
+      <c r="AS2" s="183" t="s">
         <v>47</v>
       </c>
-      <c r="AT2" s="129" t="s">
+      <c r="AT2" s="183" t="s">
         <v>95</v>
       </c>
-      <c r="AU2" s="129" t="s">
+      <c r="AU2" s="183" t="s">
         <v>50</v>
       </c>
-      <c r="AV2" s="129" t="s">
+      <c r="AV2" s="183" t="s">
         <v>51</v>
       </c>
-      <c r="AW2" s="129" t="s">
+      <c r="AW2" s="183" t="s">
         <v>52</v>
       </c>
-      <c r="AX2" s="129" t="s">
+      <c r="AX2" s="183" t="s">
         <v>22</v>
       </c>
-      <c r="AY2" s="129" t="s">
+      <c r="AY2" s="183" t="s">
         <v>53</v>
       </c>
-      <c r="AZ2" s="129" t="s">
+      <c r="AZ2" s="183" t="s">
         <v>54</v>
       </c>
-      <c r="BA2" s="129" t="s">
+      <c r="BA2" s="183" t="s">
         <v>30</v>
       </c>
-      <c r="BB2" s="128" t="s">
+      <c r="BB2" s="182" t="s">
         <v>59</v>
       </c>
-      <c r="BC2" s="100"/>
-      <c r="BD2" s="100"/>
-      <c r="BE2" s="100"/>
-      <c r="BF2" s="100"/>
-      <c r="BG2" s="100"/>
-      <c r="BH2" s="100"/>
-      <c r="BI2" s="100"/>
-      <c r="BJ2" s="100"/>
-      <c r="BK2" s="100"/>
-      <c r="BL2" s="100"/>
-      <c r="BM2" s="100"/>
-      <c r="BN2" s="100"/>
-      <c r="BO2" s="100"/>
-      <c r="BP2" s="100"/>
-      <c r="BQ2" s="100"/>
-      <c r="BR2" s="100"/>
-      <c r="BS2" s="100"/>
-      <c r="BT2" s="100"/>
-      <c r="BU2" s="100"/>
-      <c r="BV2" s="100"/>
-      <c r="BW2" s="100"/>
-      <c r="BX2" s="100"/>
-      <c r="BY2" s="100"/>
-      <c r="BZ2" s="100"/>
-      <c r="CA2" s="100"/>
-      <c r="CB2" s="100"/>
-      <c r="CC2" s="100"/>
-      <c r="CD2" s="100"/>
-      <c r="CE2" s="100"/>
-      <c r="CF2" s="100"/>
-      <c r="CG2" s="100"/>
-      <c r="CH2" s="100"/>
-      <c r="CI2" s="100"/>
-      <c r="CJ2" s="101"/>
-      <c r="CK2" s="129" t="s">
+      <c r="BC2" s="151"/>
+      <c r="BD2" s="151"/>
+      <c r="BE2" s="151"/>
+      <c r="BF2" s="151"/>
+      <c r="BG2" s="151"/>
+      <c r="BH2" s="151"/>
+      <c r="BI2" s="151"/>
+      <c r="BJ2" s="151"/>
+      <c r="BK2" s="151"/>
+      <c r="BL2" s="151"/>
+      <c r="BM2" s="151"/>
+      <c r="BN2" s="151"/>
+      <c r="BO2" s="151"/>
+      <c r="BP2" s="151"/>
+      <c r="BQ2" s="151"/>
+      <c r="BR2" s="151"/>
+      <c r="BS2" s="151"/>
+      <c r="BT2" s="151"/>
+      <c r="BU2" s="151"/>
+      <c r="BV2" s="151"/>
+      <c r="BW2" s="151"/>
+      <c r="BX2" s="151"/>
+      <c r="BY2" s="151"/>
+      <c r="BZ2" s="151"/>
+      <c r="CA2" s="151"/>
+      <c r="CB2" s="151"/>
+      <c r="CC2" s="151"/>
+      <c r="CD2" s="151"/>
+      <c r="CE2" s="151"/>
+      <c r="CF2" s="151"/>
+      <c r="CG2" s="151"/>
+      <c r="CH2" s="151"/>
+      <c r="CI2" s="151"/>
+      <c r="CJ2" s="152"/>
+      <c r="CK2" s="183" t="s">
         <v>79</v>
       </c>
-      <c r="CL2" s="129" t="s">
+      <c r="CL2" s="183" t="s">
         <v>80</v>
       </c>
-      <c r="CM2" s="129" t="s">
+      <c r="CM2" s="183" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:175" x14ac:dyDescent="0.25">
-      <c r="A3" s="107"/>
-      <c r="B3" s="107"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="107"/>
-      <c r="K3" s="107"/>
-      <c r="L3" s="107"/>
-      <c r="M3" s="107"/>
-      <c r="N3" s="107"/>
-      <c r="O3" s="107"/>
-      <c r="P3" s="107"/>
-      <c r="Q3" s="107"/>
-      <c r="R3" s="107"/>
-      <c r="S3" s="107"/>
-      <c r="T3" s="107"/>
-      <c r="U3" s="107"/>
-      <c r="V3" s="107"/>
-      <c r="W3" s="107"/>
-      <c r="X3" s="129" t="s">
+      <c r="A3" s="158"/>
+      <c r="B3" s="158"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="158"/>
+      <c r="F3" s="158"/>
+      <c r="G3" s="158"/>
+      <c r="H3" s="158"/>
+      <c r="I3" s="158"/>
+      <c r="J3" s="158"/>
+      <c r="K3" s="158"/>
+      <c r="L3" s="158"/>
+      <c r="M3" s="158"/>
+      <c r="N3" s="158"/>
+      <c r="O3" s="158"/>
+      <c r="P3" s="158"/>
+      <c r="Q3" s="158"/>
+      <c r="R3" s="158"/>
+      <c r="S3" s="158"/>
+      <c r="T3" s="158"/>
+      <c r="U3" s="158"/>
+      <c r="V3" s="158"/>
+      <c r="W3" s="158"/>
+      <c r="X3" s="183" t="s">
         <v>96</v>
       </c>
-      <c r="Y3" s="129" t="s">
+      <c r="Y3" s="183" t="s">
         <v>34</v>
       </c>
-      <c r="Z3" s="129" t="s">
+      <c r="Z3" s="183" t="s">
         <v>35</v>
       </c>
-      <c r="AA3" s="129" t="s">
+      <c r="AA3" s="183" t="s">
         <v>36</v>
       </c>
-      <c r="AB3" s="129" t="s">
+      <c r="AB3" s="183" t="s">
         <v>37</v>
       </c>
-      <c r="AC3" s="129" t="s">
+      <c r="AC3" s="183" t="s">
         <v>38</v>
       </c>
-      <c r="AD3" s="129" t="s">
+      <c r="AD3" s="183" t="s">
         <v>39</v>
       </c>
-      <c r="AE3" s="129" t="s">
+      <c r="AE3" s="183" t="s">
         <v>40</v>
       </c>
-      <c r="AF3" s="107"/>
-      <c r="AG3" s="107"/>
-      <c r="AH3" s="107"/>
-      <c r="AI3" s="129" t="s">
+      <c r="AF3" s="158"/>
+      <c r="AG3" s="158"/>
+      <c r="AH3" s="158"/>
+      <c r="AI3" s="183" t="s">
         <v>97</v>
       </c>
-      <c r="AJ3" s="129" t="s">
+      <c r="AJ3" s="183" t="s">
         <v>34</v>
       </c>
-      <c r="AK3" s="129" t="s">
+      <c r="AK3" s="183" t="s">
         <v>35</v>
       </c>
-      <c r="AL3" s="129" t="s">
+      <c r="AL3" s="183" t="s">
         <v>36</v>
       </c>
-      <c r="AM3" s="129" t="s">
+      <c r="AM3" s="183" t="s">
         <v>37</v>
       </c>
-      <c r="AN3" s="129" t="s">
+      <c r="AN3" s="183" t="s">
         <v>98</v>
       </c>
-      <c r="AO3" s="129" t="s">
+      <c r="AO3" s="183" t="s">
         <v>39</v>
       </c>
-      <c r="AP3" s="129" t="s">
+      <c r="AP3" s="183" t="s">
         <v>40</v>
       </c>
-      <c r="AQ3" s="107"/>
-      <c r="AR3" s="107"/>
-      <c r="AS3" s="107"/>
-      <c r="AT3" s="107"/>
-      <c r="AU3" s="107"/>
-      <c r="AV3" s="107"/>
-      <c r="AW3" s="107"/>
-      <c r="AX3" s="107"/>
-      <c r="AY3" s="107"/>
-      <c r="AZ3" s="107"/>
-      <c r="BA3" s="107"/>
-      <c r="BB3" s="130" t="s">
+      <c r="AQ3" s="158"/>
+      <c r="AR3" s="158"/>
+      <c r="AS3" s="158"/>
+      <c r="AT3" s="158"/>
+      <c r="AU3" s="158"/>
+      <c r="AV3" s="158"/>
+      <c r="AW3" s="158"/>
+      <c r="AX3" s="158"/>
+      <c r="AY3" s="158"/>
+      <c r="AZ3" s="158"/>
+      <c r="BA3" s="158"/>
+      <c r="BB3" s="184" t="s">
         <v>60</v>
       </c>
-      <c r="BC3" s="130" t="s">
+      <c r="BC3" s="184" t="s">
         <v>61</v>
       </c>
-      <c r="BD3" s="35"/>
-      <c r="BE3" s="123" t="s">
+      <c r="BD3" s="34"/>
+      <c r="BE3" s="176" t="s">
         <v>62</v>
       </c>
-      <c r="BF3" s="96"/>
-      <c r="BG3" s="96"/>
-      <c r="BH3" s="96"/>
-      <c r="BI3" s="96"/>
-      <c r="BJ3" s="96"/>
-      <c r="BK3" s="96"/>
-      <c r="BL3" s="96"/>
-      <c r="BM3" s="96"/>
-      <c r="BN3" s="96"/>
-      <c r="BO3" s="96"/>
-      <c r="BP3" s="96"/>
-      <c r="BQ3" s="96"/>
-      <c r="BR3" s="96"/>
-      <c r="BS3" s="96"/>
-      <c r="BT3" s="96"/>
-      <c r="BU3" s="96"/>
-      <c r="BV3" s="96"/>
-      <c r="BW3" s="96"/>
-      <c r="BX3" s="96"/>
-      <c r="BY3" s="96"/>
-      <c r="BZ3" s="96"/>
-      <c r="CA3" s="96"/>
-      <c r="CB3" s="96"/>
-      <c r="CC3" s="96"/>
-      <c r="CD3" s="96"/>
-      <c r="CE3" s="96"/>
-      <c r="CF3" s="96"/>
-      <c r="CG3" s="96"/>
-      <c r="CH3" s="96"/>
-      <c r="CI3" s="96"/>
-      <c r="CJ3" s="96"/>
-      <c r="CK3" s="107"/>
-      <c r="CL3" s="107"/>
-      <c r="CM3" s="107"/>
-      <c r="CN3" s="22"/>
-      <c r="CO3" s="22"/>
-      <c r="CP3" s="22"/>
-      <c r="CQ3" s="22"/>
-      <c r="CR3" s="22"/>
-      <c r="CS3" s="22"/>
-      <c r="CT3" s="22"/>
-      <c r="CU3" s="22"/>
-      <c r="CV3" s="22"/>
-      <c r="CW3" s="22"/>
-      <c r="CX3" s="22"/>
-      <c r="CY3" s="22"/>
-      <c r="CZ3" s="22"/>
-      <c r="DA3" s="22"/>
-      <c r="DB3" s="22"/>
-      <c r="DC3" s="22"/>
-      <c r="DD3" s="22"/>
-      <c r="DE3" s="22"/>
-      <c r="DF3" s="22"/>
-      <c r="DG3" s="22"/>
-      <c r="DH3" s="22"/>
-      <c r="DI3" s="22"/>
-      <c r="DJ3" s="22"/>
-      <c r="DK3" s="22"/>
-      <c r="DL3" s="22"/>
-      <c r="DM3" s="22"/>
-      <c r="DN3" s="22"/>
-      <c r="DO3" s="22"/>
-      <c r="DP3" s="22"/>
-      <c r="DQ3" s="22"/>
-      <c r="DR3" s="22"/>
-      <c r="DS3" s="22"/>
-      <c r="DT3" s="22"/>
-      <c r="DU3" s="22"/>
-      <c r="DV3" s="22"/>
-      <c r="DW3" s="22"/>
-      <c r="DX3" s="22"/>
-      <c r="DY3" s="22"/>
-      <c r="DZ3" s="22"/>
-      <c r="EA3" s="22"/>
-      <c r="EB3" s="22"/>
-      <c r="EC3" s="22"/>
-      <c r="ED3" s="22"/>
-      <c r="EE3" s="22"/>
-      <c r="EF3" s="22"/>
-      <c r="EG3" s="22"/>
-      <c r="EH3" s="22"/>
-      <c r="EI3" s="22"/>
-      <c r="EJ3" s="22"/>
-      <c r="EK3" s="22"/>
-      <c r="EL3" s="22"/>
-      <c r="EM3" s="22"/>
-      <c r="EN3" s="22"/>
-      <c r="EO3" s="22"/>
-      <c r="EP3" s="22"/>
-      <c r="EQ3" s="22"/>
-      <c r="ER3" s="22"/>
-      <c r="ES3" s="22"/>
-      <c r="ET3" s="22"/>
-      <c r="EU3" s="22"/>
-      <c r="EV3" s="22"/>
-      <c r="EW3" s="22"/>
-      <c r="EX3" s="22"/>
-      <c r="EY3" s="22"/>
-      <c r="EZ3" s="22"/>
-      <c r="FA3" s="22"/>
-      <c r="FB3" s="22"/>
-      <c r="FC3" s="22"/>
-      <c r="FD3" s="22"/>
-      <c r="FE3" s="22"/>
-      <c r="FF3" s="22"/>
-      <c r="FG3" s="22"/>
-      <c r="FH3" s="22"/>
-      <c r="FI3" s="22"/>
-      <c r="FJ3" s="22"/>
-      <c r="FK3" s="22"/>
-      <c r="FL3" s="22"/>
-      <c r="FM3" s="22"/>
-      <c r="FN3" s="22"/>
-      <c r="FO3" s="22"/>
-      <c r="FQ3" s="22"/>
-      <c r="FR3" s="22"/>
-      <c r="FS3" s="22"/>
+      <c r="BF3" s="148"/>
+      <c r="BG3" s="148"/>
+      <c r="BH3" s="148"/>
+      <c r="BI3" s="148"/>
+      <c r="BJ3" s="148"/>
+      <c r="BK3" s="148"/>
+      <c r="BL3" s="148"/>
+      <c r="BM3" s="148"/>
+      <c r="BN3" s="148"/>
+      <c r="BO3" s="148"/>
+      <c r="BP3" s="148"/>
+      <c r="BQ3" s="148"/>
+      <c r="BR3" s="148"/>
+      <c r="BS3" s="148"/>
+      <c r="BT3" s="148"/>
+      <c r="BU3" s="148"/>
+      <c r="BV3" s="148"/>
+      <c r="BW3" s="148"/>
+      <c r="BX3" s="148"/>
+      <c r="BY3" s="148"/>
+      <c r="BZ3" s="148"/>
+      <c r="CA3" s="148"/>
+      <c r="CB3" s="148"/>
+      <c r="CC3" s="148"/>
+      <c r="CD3" s="148"/>
+      <c r="CE3" s="148"/>
+      <c r="CF3" s="148"/>
+      <c r="CG3" s="148"/>
+      <c r="CH3" s="148"/>
+      <c r="CI3" s="148"/>
+      <c r="CJ3" s="148"/>
+      <c r="CK3" s="158"/>
+      <c r="CL3" s="158"/>
+      <c r="CM3" s="158"/>
+      <c r="CN3" s="21"/>
+      <c r="CO3" s="21"/>
+      <c r="CP3" s="21"/>
+      <c r="CQ3" s="21"/>
+      <c r="CR3" s="21"/>
+      <c r="CS3" s="21"/>
+      <c r="CT3" s="21"/>
+      <c r="CU3" s="21"/>
+      <c r="CV3" s="21"/>
+      <c r="CW3" s="21"/>
+      <c r="CX3" s="21"/>
+      <c r="CY3" s="21"/>
+      <c r="CZ3" s="21"/>
+      <c r="DA3" s="21"/>
+      <c r="DB3" s="21"/>
+      <c r="DC3" s="21"/>
+      <c r="DD3" s="21"/>
+      <c r="DE3" s="21"/>
+      <c r="DF3" s="21"/>
+      <c r="DG3" s="21"/>
+      <c r="DH3" s="21"/>
+      <c r="DI3" s="21"/>
+      <c r="DJ3" s="21"/>
+      <c r="DK3" s="21"/>
+      <c r="DL3" s="21"/>
+      <c r="DM3" s="21"/>
+      <c r="DN3" s="21"/>
+      <c r="DO3" s="21"/>
+      <c r="DP3" s="21"/>
+      <c r="DQ3" s="21"/>
+      <c r="DR3" s="21"/>
+      <c r="DS3" s="21"/>
+      <c r="DT3" s="21"/>
+      <c r="DU3" s="21"/>
+      <c r="DV3" s="21"/>
+      <c r="DW3" s="21"/>
+      <c r="DX3" s="21"/>
+      <c r="DY3" s="21"/>
+      <c r="DZ3" s="21"/>
+      <c r="EA3" s="21"/>
+      <c r="EB3" s="21"/>
+      <c r="EC3" s="21"/>
+      <c r="ED3" s="21"/>
+      <c r="EE3" s="21"/>
+      <c r="EF3" s="21"/>
+      <c r="EG3" s="21"/>
+      <c r="EH3" s="21"/>
+      <c r="EI3" s="21"/>
+      <c r="EJ3" s="21"/>
+      <c r="EK3" s="21"/>
+      <c r="EL3" s="21"/>
+      <c r="EM3" s="21"/>
+      <c r="EN3" s="21"/>
+      <c r="EO3" s="21"/>
+      <c r="EP3" s="21"/>
+      <c r="EQ3" s="21"/>
+      <c r="ER3" s="21"/>
+      <c r="ES3" s="21"/>
+      <c r="ET3" s="21"/>
+      <c r="EU3" s="21"/>
+      <c r="EV3" s="21"/>
+      <c r="EW3" s="21"/>
+      <c r="EX3" s="21"/>
+      <c r="EY3" s="21"/>
+      <c r="EZ3" s="21"/>
+      <c r="FA3" s="21"/>
+      <c r="FB3" s="21"/>
+      <c r="FC3" s="21"/>
+      <c r="FD3" s="21"/>
+      <c r="FE3" s="21"/>
+      <c r="FF3" s="21"/>
+      <c r="FG3" s="21"/>
+      <c r="FH3" s="21"/>
+      <c r="FI3" s="21"/>
+      <c r="FJ3" s="21"/>
+      <c r="FK3" s="21"/>
+      <c r="FL3" s="21"/>
+      <c r="FM3" s="21"/>
+      <c r="FN3" s="21"/>
+      <c r="FO3" s="21"/>
+      <c r="FQ3" s="21"/>
+      <c r="FR3" s="21"/>
+      <c r="FS3" s="21"/>
     </row>
     <row r="4" spans="1:175" x14ac:dyDescent="0.25">
-      <c r="A4" s="107"/>
-      <c r="B4" s="107"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="107"/>
-      <c r="K4" s="107"/>
-      <c r="L4" s="107"/>
-      <c r="M4" s="107"/>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="107"/>
-      <c r="R4" s="107"/>
-      <c r="S4" s="107"/>
-      <c r="T4" s="107"/>
-      <c r="U4" s="107"/>
-      <c r="V4" s="107"/>
-      <c r="W4" s="107"/>
-      <c r="X4" s="107"/>
-      <c r="Y4" s="107"/>
-      <c r="Z4" s="107"/>
-      <c r="AA4" s="107"/>
-      <c r="AB4" s="107"/>
-      <c r="AC4" s="107"/>
-      <c r="AD4" s="107"/>
-      <c r="AE4" s="107"/>
-      <c r="AF4" s="107"/>
-      <c r="AG4" s="107"/>
-      <c r="AH4" s="107"/>
-      <c r="AI4" s="107"/>
-      <c r="AJ4" s="107"/>
-      <c r="AK4" s="107"/>
-      <c r="AL4" s="107"/>
-      <c r="AM4" s="107"/>
-      <c r="AN4" s="107"/>
-      <c r="AO4" s="107"/>
-      <c r="AP4" s="107"/>
-      <c r="AQ4" s="107"/>
-      <c r="AR4" s="107"/>
-      <c r="AS4" s="107"/>
-      <c r="AT4" s="107"/>
-      <c r="AU4" s="107"/>
-      <c r="AV4" s="107"/>
-      <c r="AW4" s="107"/>
-      <c r="AX4" s="107"/>
-      <c r="AY4" s="107"/>
-      <c r="AZ4" s="107"/>
-      <c r="BA4" s="107"/>
-      <c r="BB4" s="107"/>
-      <c r="BC4" s="107"/>
-      <c r="BD4" s="128" t="s">
+      <c r="A4" s="158"/>
+      <c r="B4" s="158"/>
+      <c r="C4" s="158"/>
+      <c r="D4" s="158"/>
+      <c r="E4" s="158"/>
+      <c r="F4" s="158"/>
+      <c r="G4" s="158"/>
+      <c r="H4" s="158"/>
+      <c r="I4" s="158"/>
+      <c r="J4" s="158"/>
+      <c r="K4" s="158"/>
+      <c r="L4" s="158"/>
+      <c r="M4" s="158"/>
+      <c r="N4" s="158"/>
+      <c r="O4" s="158"/>
+      <c r="P4" s="158"/>
+      <c r="Q4" s="158"/>
+      <c r="R4" s="158"/>
+      <c r="S4" s="158"/>
+      <c r="T4" s="158"/>
+      <c r="U4" s="158"/>
+      <c r="V4" s="158"/>
+      <c r="W4" s="158"/>
+      <c r="X4" s="158"/>
+      <c r="Y4" s="158"/>
+      <c r="Z4" s="158"/>
+      <c r="AA4" s="158"/>
+      <c r="AB4" s="158"/>
+      <c r="AC4" s="158"/>
+      <c r="AD4" s="158"/>
+      <c r="AE4" s="158"/>
+      <c r="AF4" s="158"/>
+      <c r="AG4" s="158"/>
+      <c r="AH4" s="158"/>
+      <c r="AI4" s="158"/>
+      <c r="AJ4" s="158"/>
+      <c r="AK4" s="158"/>
+      <c r="AL4" s="158"/>
+      <c r="AM4" s="158"/>
+      <c r="AN4" s="158"/>
+      <c r="AO4" s="158"/>
+      <c r="AP4" s="158"/>
+      <c r="AQ4" s="158"/>
+      <c r="AR4" s="158"/>
+      <c r="AS4" s="158"/>
+      <c r="AT4" s="158"/>
+      <c r="AU4" s="158"/>
+      <c r="AV4" s="158"/>
+      <c r="AW4" s="158"/>
+      <c r="AX4" s="158"/>
+      <c r="AY4" s="158"/>
+      <c r="AZ4" s="158"/>
+      <c r="BA4" s="158"/>
+      <c r="BB4" s="158"/>
+      <c r="BC4" s="158"/>
+      <c r="BD4" s="182" t="s">
         <v>67</v>
       </c>
-      <c r="BE4" s="100"/>
-      <c r="BF4" s="101"/>
-      <c r="BG4" s="128" t="s">
+      <c r="BE4" s="151"/>
+      <c r="BF4" s="152"/>
+      <c r="BG4" s="182" t="s">
         <v>67</v>
       </c>
-      <c r="BH4" s="100"/>
-      <c r="BI4" s="101"/>
-      <c r="BJ4" s="128" t="s">
+      <c r="BH4" s="151"/>
+      <c r="BI4" s="152"/>
+      <c r="BJ4" s="182" t="s">
         <v>70</v>
       </c>
-      <c r="BK4" s="100"/>
-      <c r="BL4" s="101"/>
-      <c r="BM4" s="128" t="s">
+      <c r="BK4" s="151"/>
+      <c r="BL4" s="152"/>
+      <c r="BM4" s="182" t="s">
         <v>71</v>
       </c>
-      <c r="BN4" s="100"/>
-      <c r="BO4" s="101"/>
-      <c r="BP4" s="128" t="s">
+      <c r="BN4" s="151"/>
+      <c r="BO4" s="152"/>
+      <c r="BP4" s="182" t="s">
         <v>72</v>
       </c>
-      <c r="BQ4" s="100"/>
-      <c r="BR4" s="101"/>
-      <c r="BS4" s="128" t="s">
+      <c r="BQ4" s="151"/>
+      <c r="BR4" s="152"/>
+      <c r="BS4" s="182" t="s">
         <v>73</v>
       </c>
-      <c r="BT4" s="100"/>
-      <c r="BU4" s="101"/>
-      <c r="BV4" s="128" t="s">
+      <c r="BT4" s="151"/>
+      <c r="BU4" s="152"/>
+      <c r="BV4" s="182" t="s">
         <v>74</v>
       </c>
-      <c r="BW4" s="100"/>
-      <c r="BX4" s="101"/>
-      <c r="BY4" s="128" t="s">
+      <c r="BW4" s="151"/>
+      <c r="BX4" s="152"/>
+      <c r="BY4" s="182" t="s">
         <v>75</v>
       </c>
-      <c r="BZ4" s="100"/>
-      <c r="CA4" s="101"/>
-      <c r="CB4" s="128" t="s">
+      <c r="BZ4" s="151"/>
+      <c r="CA4" s="152"/>
+      <c r="CB4" s="182" t="s">
         <v>76</v>
       </c>
-      <c r="CC4" s="100"/>
-      <c r="CD4" s="101"/>
-      <c r="CE4" s="128" t="s">
+      <c r="CC4" s="151"/>
+      <c r="CD4" s="152"/>
+      <c r="CE4" s="182" t="s">
         <v>77</v>
       </c>
-      <c r="CF4" s="100"/>
-      <c r="CG4" s="101"/>
-      <c r="CH4" s="128" t="s">
+      <c r="CF4" s="151"/>
+      <c r="CG4" s="152"/>
+      <c r="CH4" s="182" t="s">
         <v>78</v>
       </c>
-      <c r="CI4" s="100"/>
-      <c r="CJ4" s="101"/>
-      <c r="CK4" s="107"/>
-      <c r="CL4" s="107"/>
-      <c r="CM4" s="107"/>
+      <c r="CI4" s="151"/>
+      <c r="CJ4" s="152"/>
+      <c r="CK4" s="158"/>
+      <c r="CL4" s="158"/>
+      <c r="CM4" s="158"/>
     </row>
     <row r="5" spans="1:175" x14ac:dyDescent="0.25">
-      <c r="A5" s="117"/>
-      <c r="B5" s="117"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="117"/>
-      <c r="K5" s="117"/>
-      <c r="L5" s="117"/>
-      <c r="M5" s="117"/>
-      <c r="N5" s="117"/>
-      <c r="O5" s="117"/>
-      <c r="P5" s="117"/>
-      <c r="Q5" s="117"/>
-      <c r="R5" s="117"/>
-      <c r="S5" s="117"/>
-      <c r="T5" s="117"/>
-      <c r="U5" s="117"/>
-      <c r="V5" s="117"/>
-      <c r="W5" s="117"/>
-      <c r="X5" s="117"/>
-      <c r="Y5" s="117"/>
-      <c r="Z5" s="117"/>
-      <c r="AA5" s="117"/>
-      <c r="AB5" s="117"/>
-      <c r="AC5" s="117"/>
-      <c r="AD5" s="117"/>
-      <c r="AE5" s="117"/>
-      <c r="AF5" s="117"/>
-      <c r="AG5" s="117"/>
-      <c r="AH5" s="117"/>
-      <c r="AI5" s="117"/>
-      <c r="AJ5" s="117"/>
-      <c r="AK5" s="117"/>
-      <c r="AL5" s="117"/>
-      <c r="AM5" s="117"/>
-      <c r="AN5" s="117"/>
-      <c r="AO5" s="117"/>
-      <c r="AP5" s="117"/>
-      <c r="AQ5" s="117"/>
-      <c r="AR5" s="117"/>
-      <c r="AS5" s="117"/>
-      <c r="AT5" s="117"/>
-      <c r="AU5" s="117"/>
-      <c r="AV5" s="117"/>
-      <c r="AW5" s="117"/>
-      <c r="AX5" s="117"/>
-      <c r="AY5" s="117"/>
-      <c r="AZ5" s="117"/>
-      <c r="BA5" s="117"/>
-      <c r="BB5" s="117"/>
-      <c r="BC5" s="117"/>
-      <c r="BD5" s="36" t="s">
+      <c r="A5" s="170"/>
+      <c r="B5" s="170"/>
+      <c r="C5" s="170"/>
+      <c r="D5" s="170"/>
+      <c r="E5" s="170"/>
+      <c r="F5" s="170"/>
+      <c r="G5" s="170"/>
+      <c r="H5" s="170"/>
+      <c r="I5" s="170"/>
+      <c r="J5" s="170"/>
+      <c r="K5" s="170"/>
+      <c r="L5" s="170"/>
+      <c r="M5" s="170"/>
+      <c r="N5" s="170"/>
+      <c r="O5" s="170"/>
+      <c r="P5" s="170"/>
+      <c r="Q5" s="170"/>
+      <c r="R5" s="170"/>
+      <c r="S5" s="170"/>
+      <c r="T5" s="170"/>
+      <c r="U5" s="170"/>
+      <c r="V5" s="170"/>
+      <c r="W5" s="170"/>
+      <c r="X5" s="170"/>
+      <c r="Y5" s="170"/>
+      <c r="Z5" s="170"/>
+      <c r="AA5" s="170"/>
+      <c r="AB5" s="170"/>
+      <c r="AC5" s="170"/>
+      <c r="AD5" s="170"/>
+      <c r="AE5" s="170"/>
+      <c r="AF5" s="170"/>
+      <c r="AG5" s="170"/>
+      <c r="AH5" s="170"/>
+      <c r="AI5" s="170"/>
+      <c r="AJ5" s="170"/>
+      <c r="AK5" s="170"/>
+      <c r="AL5" s="170"/>
+      <c r="AM5" s="170"/>
+      <c r="AN5" s="170"/>
+      <c r="AO5" s="170"/>
+      <c r="AP5" s="170"/>
+      <c r="AQ5" s="170"/>
+      <c r="AR5" s="170"/>
+      <c r="AS5" s="170"/>
+      <c r="AT5" s="170"/>
+      <c r="AU5" s="170"/>
+      <c r="AV5" s="170"/>
+      <c r="AW5" s="170"/>
+      <c r="AX5" s="170"/>
+      <c r="AY5" s="170"/>
+      <c r="AZ5" s="170"/>
+      <c r="BA5" s="170"/>
+      <c r="BB5" s="170"/>
+      <c r="BC5" s="170"/>
+      <c r="BD5" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="BE5" s="36" t="s">
+      <c r="BE5" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="BF5" s="36" t="s">
+      <c r="BF5" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="BG5" s="36" t="s">
+      <c r="BG5" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="BH5" s="36" t="s">
+      <c r="BH5" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="BI5" s="36" t="s">
+      <c r="BI5" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="BJ5" s="36" t="s">
+      <c r="BJ5" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="BK5" s="36" t="s">
+      <c r="BK5" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="BL5" s="36" t="s">
+      <c r="BL5" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="BM5" s="36" t="s">
+      <c r="BM5" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="BN5" s="36" t="s">
+      <c r="BN5" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="BO5" s="36" t="s">
+      <c r="BO5" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="BP5" s="36" t="s">
+      <c r="BP5" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="BQ5" s="36" t="s">
+      <c r="BQ5" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="BR5" s="36" t="s">
+      <c r="BR5" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="BS5" s="36" t="s">
+      <c r="BS5" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="BT5" s="36" t="s">
+      <c r="BT5" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="BU5" s="36" t="s">
+      <c r="BU5" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="BV5" s="36" t="s">
+      <c r="BV5" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="BW5" s="36" t="s">
+      <c r="BW5" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="BX5" s="36" t="s">
+      <c r="BX5" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="BY5" s="36" t="s">
+      <c r="BY5" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="BZ5" s="36" t="s">
+      <c r="BZ5" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="CA5" s="36" t="s">
+      <c r="CA5" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="CB5" s="36" t="s">
+      <c r="CB5" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="CC5" s="36" t="s">
+      <c r="CC5" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="CD5" s="36" t="s">
+      <c r="CD5" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="CE5" s="36" t="s">
+      <c r="CE5" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="CF5" s="36" t="s">
+      <c r="CF5" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="CG5" s="36" t="s">
+      <c r="CG5" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="CH5" s="36" t="s">
+      <c r="CH5" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="CI5" s="36" t="s">
+      <c r="CI5" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="CJ5" s="36" t="s">
+      <c r="CJ5" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="CK5" s="117"/>
-      <c r="CL5" s="117"/>
-      <c r="CM5" s="117"/>
+      <c r="CK5" s="170"/>
+      <c r="CL5" s="170"/>
+      <c r="CM5" s="170"/>
     </row>
     <row r="6" spans="1:175" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="37"/>
-      <c r="S6" s="37"/>
-      <c r="T6" s="37"/>
-      <c r="U6" s="37"/>
-      <c r="V6" s="37"/>
-      <c r="W6" s="37"/>
-      <c r="X6" s="37"/>
-      <c r="Y6" s="37"/>
-      <c r="Z6" s="37"/>
-      <c r="AA6" s="37"/>
-      <c r="AB6" s="37"/>
-      <c r="AC6" s="37"/>
-      <c r="AD6" s="37"/>
-      <c r="AE6" s="37"/>
-      <c r="AF6" s="37"/>
-      <c r="AG6" s="37"/>
-      <c r="AH6" s="37"/>
-      <c r="AI6" s="37"/>
-      <c r="AJ6" s="37"/>
-      <c r="AK6" s="37"/>
-      <c r="AL6" s="37"/>
-      <c r="AM6" s="37"/>
-      <c r="AN6" s="37"/>
-      <c r="AO6" s="37"/>
-      <c r="AP6" s="37"/>
-      <c r="AQ6" s="37"/>
-      <c r="AR6" s="37"/>
-      <c r="AS6" s="37"/>
-      <c r="AT6" s="37"/>
-      <c r="AU6" s="37"/>
-      <c r="AV6" s="37"/>
-      <c r="AW6" s="37"/>
-      <c r="AX6" s="37"/>
-      <c r="AY6" s="37"/>
-      <c r="AZ6" s="37"/>
-      <c r="BA6" s="37"/>
-      <c r="BB6" s="38"/>
-      <c r="BC6" s="37"/>
-      <c r="BD6" s="38" t="b">
-        <v>0</v>
-      </c>
-      <c r="BE6" s="37"/>
-      <c r="BF6" s="37"/>
-      <c r="BG6" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="BH6" s="37"/>
-      <c r="BI6" s="37"/>
-      <c r="BJ6" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="BK6" s="37"/>
-      <c r="BL6" s="37"/>
-      <c r="BM6" s="38" t="b">
-        <v>0</v>
-      </c>
-      <c r="BN6" s="37"/>
-      <c r="BO6" s="37"/>
-      <c r="BP6" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="BQ6" s="37"/>
-      <c r="BR6" s="37"/>
-      <c r="BS6" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="BT6" s="37"/>
-      <c r="BU6" s="37"/>
-      <c r="BV6" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="BW6" s="37"/>
-      <c r="BX6" s="37"/>
-      <c r="BY6" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="BZ6" s="37"/>
-      <c r="CA6" s="37"/>
-      <c r="CB6" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="CC6" s="37"/>
-      <c r="CD6" s="37"/>
-      <c r="CE6" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="CF6" s="37"/>
-      <c r="CG6" s="37"/>
-      <c r="CH6" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="CI6" s="37"/>
-      <c r="CJ6" s="37"/>
-      <c r="CK6" s="37"/>
-      <c r="CL6" s="37"/>
-      <c r="CM6" s="37"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="36"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="36"/>
+      <c r="X6" s="36"/>
+      <c r="Y6" s="36"/>
+      <c r="Z6" s="36"/>
+      <c r="AA6" s="36"/>
+      <c r="AB6" s="36"/>
+      <c r="AC6" s="36"/>
+      <c r="AD6" s="36"/>
+      <c r="AE6" s="36"/>
+      <c r="AF6" s="36"/>
+      <c r="AG6" s="36"/>
+      <c r="AH6" s="36"/>
+      <c r="AI6" s="36"/>
+      <c r="AJ6" s="36"/>
+      <c r="AK6" s="36"/>
+      <c r="AL6" s="36"/>
+      <c r="AM6" s="36"/>
+      <c r="AN6" s="36"/>
+      <c r="AO6" s="36"/>
+      <c r="AP6" s="36"/>
+      <c r="AQ6" s="36"/>
+      <c r="AR6" s="36"/>
+      <c r="AS6" s="36"/>
+      <c r="AT6" s="36"/>
+      <c r="AU6" s="36"/>
+      <c r="AV6" s="36"/>
+      <c r="AW6" s="36"/>
+      <c r="AX6" s="36"/>
+      <c r="AY6" s="36"/>
+      <c r="AZ6" s="36"/>
+      <c r="BA6" s="36"/>
+      <c r="BB6" s="37"/>
+      <c r="BC6" s="36"/>
+      <c r="BD6" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE6" s="36"/>
+      <c r="BF6" s="36"/>
+      <c r="BG6" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="BH6" s="36"/>
+      <c r="BI6" s="36"/>
+      <c r="BJ6" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="BK6" s="36"/>
+      <c r="BL6" s="36"/>
+      <c r="BM6" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="BN6" s="36"/>
+      <c r="BO6" s="36"/>
+      <c r="BP6" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="BQ6" s="36"/>
+      <c r="BR6" s="36"/>
+      <c r="BS6" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="BT6" s="36"/>
+      <c r="BU6" s="36"/>
+      <c r="BV6" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="BW6" s="36"/>
+      <c r="BX6" s="36"/>
+      <c r="BY6" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="BZ6" s="36"/>
+      <c r="CA6" s="36"/>
+      <c r="CB6" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="CC6" s="36"/>
+      <c r="CD6" s="36"/>
+      <c r="CE6" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="CF6" s="36"/>
+      <c r="CG6" s="36"/>
+      <c r="CH6" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="CI6" s="36"/>
+      <c r="CJ6" s="36"/>
+      <c r="CK6" s="36"/>
+      <c r="CL6" s="36"/>
+      <c r="CM6" s="36"/>
     </row>
     <row r="7" spans="1:175" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="37"/>
-      <c r="R7" s="37"/>
-      <c r="S7" s="37"/>
-      <c r="T7" s="37"/>
-      <c r="U7" s="37"/>
-      <c r="V7" s="37"/>
-      <c r="W7" s="37"/>
-      <c r="X7" s="37"/>
-      <c r="Y7" s="37"/>
-      <c r="Z7" s="37"/>
-      <c r="AA7" s="37"/>
-      <c r="AB7" s="37"/>
-      <c r="AC7" s="37"/>
-      <c r="AD7" s="37"/>
-      <c r="AE7" s="37"/>
-      <c r="AF7" s="37"/>
-      <c r="AG7" s="37"/>
-      <c r="AH7" s="37"/>
-      <c r="AI7" s="37"/>
-      <c r="AJ7" s="37"/>
-      <c r="AK7" s="37"/>
-      <c r="AL7" s="37"/>
-      <c r="AM7" s="37"/>
-      <c r="AN7" s="37"/>
-      <c r="AO7" s="37"/>
-      <c r="AP7" s="37"/>
-      <c r="AQ7" s="37"/>
-      <c r="AR7" s="37"/>
-      <c r="AS7" s="37"/>
-      <c r="AT7" s="37"/>
-      <c r="AU7" s="37"/>
-      <c r="AV7" s="37"/>
-      <c r="AW7" s="37"/>
-      <c r="AX7" s="37"/>
-      <c r="AY7" s="37"/>
-      <c r="AZ7" s="37"/>
-      <c r="BA7" s="37"/>
-      <c r="BB7" s="37"/>
-      <c r="BC7" s="37"/>
-      <c r="BD7" s="38" t="b">
-        <v>0</v>
-      </c>
-      <c r="BE7" s="37"/>
-      <c r="BF7" s="37"/>
-      <c r="BG7" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="BH7" s="37"/>
-      <c r="BI7" s="37"/>
-      <c r="BJ7" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="BK7" s="37"/>
-      <c r="BL7" s="37"/>
-      <c r="BM7" s="38" t="b">
-        <v>0</v>
-      </c>
-      <c r="BN7" s="37"/>
-      <c r="BO7" s="37"/>
-      <c r="BP7" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="BQ7" s="37"/>
-      <c r="BR7" s="37"/>
-      <c r="BS7" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="BT7" s="37"/>
-      <c r="BU7" s="37"/>
-      <c r="BV7" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="BW7" s="37"/>
-      <c r="BX7" s="37"/>
-      <c r="BY7" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="BZ7" s="37"/>
-      <c r="CA7" s="37"/>
-      <c r="CB7" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="CC7" s="37"/>
-      <c r="CD7" s="37"/>
-      <c r="CE7" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="CF7" s="37"/>
-      <c r="CG7" s="37"/>
-      <c r="CH7" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="CI7" s="37"/>
-      <c r="CJ7" s="37"/>
-      <c r="CK7" s="37"/>
-      <c r="CL7" s="37"/>
-      <c r="CM7" s="37"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="36"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="36"/>
+      <c r="W7" s="36"/>
+      <c r="X7" s="36"/>
+      <c r="Y7" s="36"/>
+      <c r="Z7" s="36"/>
+      <c r="AA7" s="36"/>
+      <c r="AB7" s="36"/>
+      <c r="AC7" s="36"/>
+      <c r="AD7" s="36"/>
+      <c r="AE7" s="36"/>
+      <c r="AF7" s="36"/>
+      <c r="AG7" s="36"/>
+      <c r="AH7" s="36"/>
+      <c r="AI7" s="36"/>
+      <c r="AJ7" s="36"/>
+      <c r="AK7" s="36"/>
+      <c r="AL7" s="36"/>
+      <c r="AM7" s="36"/>
+      <c r="AN7" s="36"/>
+      <c r="AO7" s="36"/>
+      <c r="AP7" s="36"/>
+      <c r="AQ7" s="36"/>
+      <c r="AR7" s="36"/>
+      <c r="AS7" s="36"/>
+      <c r="AT7" s="36"/>
+      <c r="AU7" s="36"/>
+      <c r="AV7" s="36"/>
+      <c r="AW7" s="36"/>
+      <c r="AX7" s="36"/>
+      <c r="AY7" s="36"/>
+      <c r="AZ7" s="36"/>
+      <c r="BA7" s="36"/>
+      <c r="BB7" s="36"/>
+      <c r="BC7" s="36"/>
+      <c r="BD7" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE7" s="36"/>
+      <c r="BF7" s="36"/>
+      <c r="BG7" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="BH7" s="36"/>
+      <c r="BI7" s="36"/>
+      <c r="BJ7" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="BK7" s="36"/>
+      <c r="BL7" s="36"/>
+      <c r="BM7" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="BN7" s="36"/>
+      <c r="BO7" s="36"/>
+      <c r="BP7" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="BQ7" s="36"/>
+      <c r="BR7" s="36"/>
+      <c r="BS7" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="BT7" s="36"/>
+      <c r="BU7" s="36"/>
+      <c r="BV7" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="BW7" s="36"/>
+      <c r="BX7" s="36"/>
+      <c r="BY7" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="BZ7" s="36"/>
+      <c r="CA7" s="36"/>
+      <c r="CB7" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="CC7" s="36"/>
+      <c r="CD7" s="36"/>
+      <c r="CE7" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="CF7" s="36"/>
+      <c r="CG7" s="36"/>
+      <c r="CH7" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="CI7" s="36"/>
+      <c r="CJ7" s="36"/>
+      <c r="CK7" s="36"/>
+      <c r="CL7" s="36"/>
+      <c r="CM7" s="36"/>
     </row>
     <row r="8" spans="1:175" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="37"/>
-      <c r="S8" s="37"/>
-      <c r="T8" s="37"/>
-      <c r="U8" s="37"/>
-      <c r="V8" s="37"/>
-      <c r="W8" s="37"/>
-      <c r="X8" s="37"/>
-      <c r="Y8" s="37"/>
-      <c r="Z8" s="37"/>
-      <c r="AA8" s="37"/>
-      <c r="AB8" s="37"/>
-      <c r="AC8" s="37"/>
-      <c r="AD8" s="37"/>
-      <c r="AE8" s="37"/>
-      <c r="AF8" s="37"/>
-      <c r="AG8" s="37"/>
-      <c r="AH8" s="37"/>
-      <c r="AI8" s="37"/>
-      <c r="AJ8" s="37"/>
-      <c r="AK8" s="37"/>
-      <c r="AL8" s="37"/>
-      <c r="AM8" s="37"/>
-      <c r="AN8" s="37"/>
-      <c r="AO8" s="37"/>
-      <c r="AP8" s="37"/>
-      <c r="AQ8" s="37"/>
-      <c r="AR8" s="37"/>
-      <c r="AS8" s="37"/>
-      <c r="AT8" s="37"/>
-      <c r="AU8" s="37"/>
-      <c r="AV8" s="37"/>
-      <c r="AW8" s="37"/>
-      <c r="AX8" s="37"/>
-      <c r="AY8" s="37"/>
-      <c r="AZ8" s="37"/>
-      <c r="BA8" s="37"/>
-      <c r="BB8" s="37"/>
-      <c r="BC8" s="37"/>
-      <c r="BD8" s="38" t="b">
-        <v>0</v>
-      </c>
-      <c r="BE8" s="37"/>
-      <c r="BF8" s="37"/>
-      <c r="BG8" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="BH8" s="37"/>
-      <c r="BI8" s="37"/>
-      <c r="BJ8" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="BK8" s="37"/>
-      <c r="BL8" s="37"/>
-      <c r="BM8" s="38" t="b">
-        <v>0</v>
-      </c>
-      <c r="BN8" s="37"/>
-      <c r="BO8" s="37"/>
-      <c r="BP8" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="BQ8" s="37"/>
-      <c r="BR8" s="37"/>
-      <c r="BS8" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="BT8" s="37"/>
-      <c r="BU8" s="37"/>
-      <c r="BV8" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="BW8" s="37"/>
-      <c r="BX8" s="37"/>
-      <c r="BY8" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="BZ8" s="37"/>
-      <c r="CA8" s="37"/>
-      <c r="CB8" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="CC8" s="37"/>
-      <c r="CD8" s="37"/>
-      <c r="CE8" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="CF8" s="37"/>
-      <c r="CG8" s="37"/>
-      <c r="CH8" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="CI8" s="37"/>
-      <c r="CJ8" s="37"/>
-      <c r="CK8" s="37"/>
-      <c r="CL8" s="37"/>
-      <c r="CM8" s="37"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="36"/>
+      <c r="T8" s="36"/>
+      <c r="U8" s="36"/>
+      <c r="V8" s="36"/>
+      <c r="W8" s="36"/>
+      <c r="X8" s="36"/>
+      <c r="Y8" s="36"/>
+      <c r="Z8" s="36"/>
+      <c r="AA8" s="36"/>
+      <c r="AB8" s="36"/>
+      <c r="AC8" s="36"/>
+      <c r="AD8" s="36"/>
+      <c r="AE8" s="36"/>
+      <c r="AF8" s="36"/>
+      <c r="AG8" s="36"/>
+      <c r="AH8" s="36"/>
+      <c r="AI8" s="36"/>
+      <c r="AJ8" s="36"/>
+      <c r="AK8" s="36"/>
+      <c r="AL8" s="36"/>
+      <c r="AM8" s="36"/>
+      <c r="AN8" s="36"/>
+      <c r="AO8" s="36"/>
+      <c r="AP8" s="36"/>
+      <c r="AQ8" s="36"/>
+      <c r="AR8" s="36"/>
+      <c r="AS8" s="36"/>
+      <c r="AT8" s="36"/>
+      <c r="AU8" s="36"/>
+      <c r="AV8" s="36"/>
+      <c r="AW8" s="36"/>
+      <c r="AX8" s="36"/>
+      <c r="AY8" s="36"/>
+      <c r="AZ8" s="36"/>
+      <c r="BA8" s="36"/>
+      <c r="BB8" s="36"/>
+      <c r="BC8" s="36"/>
+      <c r="BD8" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE8" s="36"/>
+      <c r="BF8" s="36"/>
+      <c r="BG8" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="BH8" s="36"/>
+      <c r="BI8" s="36"/>
+      <c r="BJ8" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="BK8" s="36"/>
+      <c r="BL8" s="36"/>
+      <c r="BM8" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="BN8" s="36"/>
+      <c r="BO8" s="36"/>
+      <c r="BP8" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="BQ8" s="36"/>
+      <c r="BR8" s="36"/>
+      <c r="BS8" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="BT8" s="36"/>
+      <c r="BU8" s="36"/>
+      <c r="BV8" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="BW8" s="36"/>
+      <c r="BX8" s="36"/>
+      <c r="BY8" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="BZ8" s="36"/>
+      <c r="CA8" s="36"/>
+      <c r="CB8" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="CC8" s="36"/>
+      <c r="CD8" s="36"/>
+      <c r="CE8" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="CF8" s="36"/>
+      <c r="CG8" s="36"/>
+      <c r="CH8" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="CI8" s="36"/>
+      <c r="CJ8" s="36"/>
+      <c r="CK8" s="36"/>
+      <c r="CL8" s="36"/>
+      <c r="CM8" s="36"/>
     </row>
     <row r="9" spans="1:175" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="37"/>
-      <c r="S9" s="37"/>
-      <c r="T9" s="37"/>
-      <c r="U9" s="37"/>
-      <c r="V9" s="37"/>
-      <c r="W9" s="37"/>
-      <c r="X9" s="37"/>
-      <c r="Y9" s="37"/>
-      <c r="Z9" s="37"/>
-      <c r="AA9" s="37"/>
-      <c r="AB9" s="37"/>
-      <c r="AC9" s="37"/>
-      <c r="AD9" s="37"/>
-      <c r="AE9" s="37"/>
-      <c r="AF9" s="37"/>
-      <c r="AG9" s="37"/>
-      <c r="AH9" s="37"/>
-      <c r="AI9" s="37"/>
-      <c r="AJ9" s="37"/>
-      <c r="AK9" s="37"/>
-      <c r="AL9" s="37"/>
-      <c r="AM9" s="37"/>
-      <c r="AN9" s="37"/>
-      <c r="AO9" s="37"/>
-      <c r="AP9" s="37"/>
-      <c r="AQ9" s="37"/>
-      <c r="AR9" s="37"/>
-      <c r="AS9" s="37"/>
-      <c r="AT9" s="37"/>
-      <c r="AU9" s="37"/>
-      <c r="AV9" s="37"/>
-      <c r="AW9" s="37"/>
-      <c r="AX9" s="37"/>
-      <c r="AY9" s="37"/>
-      <c r="AZ9" s="37"/>
-      <c r="BA9" s="37"/>
-      <c r="BB9" s="37"/>
-      <c r="BC9" s="37"/>
-      <c r="BD9" s="38" t="b">
-        <v>0</v>
-      </c>
-      <c r="BE9" s="37"/>
-      <c r="BF9" s="37"/>
-      <c r="BG9" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="BH9" s="37"/>
-      <c r="BI9" s="37"/>
-      <c r="BJ9" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="BK9" s="37"/>
-      <c r="BL9" s="37"/>
-      <c r="BM9" s="38" t="b">
-        <v>0</v>
-      </c>
-      <c r="BN9" s="37"/>
-      <c r="BO9" s="37"/>
-      <c r="BP9" s="38" t="b">
-        <v>0</v>
-      </c>
-      <c r="BQ9" s="37"/>
-      <c r="BR9" s="37"/>
-      <c r="BS9" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="BT9" s="37"/>
-      <c r="BU9" s="37"/>
-      <c r="BV9" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="BW9" s="37"/>
-      <c r="BX9" s="37"/>
-      <c r="BY9" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="BZ9" s="37"/>
-      <c r="CA9" s="37"/>
-      <c r="CB9" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="CC9" s="37"/>
-      <c r="CD9" s="37"/>
-      <c r="CE9" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="CF9" s="37"/>
-      <c r="CG9" s="37"/>
-      <c r="CH9" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="CI9" s="37"/>
-      <c r="CJ9" s="37"/>
-      <c r="CK9" s="37"/>
-      <c r="CL9" s="37"/>
-      <c r="CM9" s="37"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="36"/>
+      <c r="V9" s="36"/>
+      <c r="W9" s="36"/>
+      <c r="X9" s="36"/>
+      <c r="Y9" s="36"/>
+      <c r="Z9" s="36"/>
+      <c r="AA9" s="36"/>
+      <c r="AB9" s="36"/>
+      <c r="AC9" s="36"/>
+      <c r="AD9" s="36"/>
+      <c r="AE9" s="36"/>
+      <c r="AF9" s="36"/>
+      <c r="AG9" s="36"/>
+      <c r="AH9" s="36"/>
+      <c r="AI9" s="36"/>
+      <c r="AJ9" s="36"/>
+      <c r="AK9" s="36"/>
+      <c r="AL9" s="36"/>
+      <c r="AM9" s="36"/>
+      <c r="AN9" s="36"/>
+      <c r="AO9" s="36"/>
+      <c r="AP9" s="36"/>
+      <c r="AQ9" s="36"/>
+      <c r="AR9" s="36"/>
+      <c r="AS9" s="36"/>
+      <c r="AT9" s="36"/>
+      <c r="AU9" s="36"/>
+      <c r="AV9" s="36"/>
+      <c r="AW9" s="36"/>
+      <c r="AX9" s="36"/>
+      <c r="AY9" s="36"/>
+      <c r="AZ9" s="36"/>
+      <c r="BA9" s="36"/>
+      <c r="BB9" s="36"/>
+      <c r="BC9" s="36"/>
+      <c r="BD9" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE9" s="36"/>
+      <c r="BF9" s="36"/>
+      <c r="BG9" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="BH9" s="36"/>
+      <c r="BI9" s="36"/>
+      <c r="BJ9" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="BK9" s="36"/>
+      <c r="BL9" s="36"/>
+      <c r="BM9" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="BN9" s="36"/>
+      <c r="BO9" s="36"/>
+      <c r="BP9" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="BQ9" s="36"/>
+      <c r="BR9" s="36"/>
+      <c r="BS9" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="BT9" s="36"/>
+      <c r="BU9" s="36"/>
+      <c r="BV9" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="BW9" s="36"/>
+      <c r="BX9" s="36"/>
+      <c r="BY9" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="BZ9" s="36"/>
+      <c r="CA9" s="36"/>
+      <c r="CB9" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="CC9" s="36"/>
+      <c r="CD9" s="36"/>
+      <c r="CE9" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="CF9" s="36"/>
+      <c r="CG9" s="36"/>
+      <c r="CH9" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="CI9" s="36"/>
+      <c r="CJ9" s="36"/>
+      <c r="CK9" s="36"/>
+      <c r="CL9" s="36"/>
+      <c r="CM9" s="36"/>
     </row>
     <row r="10" spans="1:175" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="37"/>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="37"/>
-      <c r="S10" s="37"/>
-      <c r="T10" s="37"/>
-      <c r="U10" s="37"/>
-      <c r="V10" s="37"/>
-      <c r="W10" s="37"/>
-      <c r="X10" s="37"/>
-      <c r="Y10" s="37"/>
-      <c r="Z10" s="37"/>
-      <c r="AA10" s="37"/>
-      <c r="AB10" s="37"/>
-      <c r="AC10" s="37"/>
-      <c r="AD10" s="37"/>
-      <c r="AE10" s="37"/>
-      <c r="AF10" s="37"/>
-      <c r="AG10" s="37"/>
-      <c r="AH10" s="37"/>
-      <c r="AI10" s="37"/>
-      <c r="AJ10" s="37"/>
-      <c r="AK10" s="37"/>
-      <c r="AL10" s="37"/>
-      <c r="AM10" s="37"/>
-      <c r="AN10" s="37"/>
-      <c r="AO10" s="37"/>
-      <c r="AP10" s="37"/>
-      <c r="AQ10" s="37"/>
-      <c r="AR10" s="37"/>
-      <c r="AS10" s="37"/>
-      <c r="AT10" s="37"/>
-      <c r="AU10" s="37"/>
-      <c r="AV10" s="37"/>
-      <c r="AW10" s="37"/>
-      <c r="AX10" s="37"/>
-      <c r="AY10" s="37"/>
-      <c r="AZ10" s="37"/>
-      <c r="BA10" s="37"/>
-      <c r="BB10" s="37"/>
-      <c r="BC10" s="37"/>
-      <c r="BD10" s="38" t="b">
-        <v>0</v>
-      </c>
-      <c r="BE10" s="37"/>
-      <c r="BF10" s="37"/>
-      <c r="BG10" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="BH10" s="37"/>
-      <c r="BI10" s="37"/>
-      <c r="BJ10" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="BK10" s="37"/>
-      <c r="BL10" s="37"/>
-      <c r="BM10" s="38" t="b">
-        <v>0</v>
-      </c>
-      <c r="BN10" s="37"/>
-      <c r="BO10" s="37"/>
-      <c r="BP10" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="BQ10" s="37"/>
-      <c r="BR10" s="37"/>
-      <c r="BS10" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="BT10" s="37"/>
-      <c r="BU10" s="37"/>
-      <c r="BV10" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="BW10" s="37"/>
-      <c r="BX10" s="37"/>
-      <c r="BY10" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="BZ10" s="37"/>
-      <c r="CA10" s="37"/>
-      <c r="CB10" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="CC10" s="37"/>
-      <c r="CD10" s="37"/>
-      <c r="CE10" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="CF10" s="37"/>
-      <c r="CG10" s="37"/>
-      <c r="CH10" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="CI10" s="37"/>
-      <c r="CJ10" s="37"/>
-      <c r="CK10" s="37"/>
-      <c r="CL10" s="37"/>
-      <c r="CM10" s="37"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="36"/>
+      <c r="T10" s="36"/>
+      <c r="U10" s="36"/>
+      <c r="V10" s="36"/>
+      <c r="W10" s="36"/>
+      <c r="X10" s="36"/>
+      <c r="Y10" s="36"/>
+      <c r="Z10" s="36"/>
+      <c r="AA10" s="36"/>
+      <c r="AB10" s="36"/>
+      <c r="AC10" s="36"/>
+      <c r="AD10" s="36"/>
+      <c r="AE10" s="36"/>
+      <c r="AF10" s="36"/>
+      <c r="AG10" s="36"/>
+      <c r="AH10" s="36"/>
+      <c r="AI10" s="36"/>
+      <c r="AJ10" s="36"/>
+      <c r="AK10" s="36"/>
+      <c r="AL10" s="36"/>
+      <c r="AM10" s="36"/>
+      <c r="AN10" s="36"/>
+      <c r="AO10" s="36"/>
+      <c r="AP10" s="36"/>
+      <c r="AQ10" s="36"/>
+      <c r="AR10" s="36"/>
+      <c r="AS10" s="36"/>
+      <c r="AT10" s="36"/>
+      <c r="AU10" s="36"/>
+      <c r="AV10" s="36"/>
+      <c r="AW10" s="36"/>
+      <c r="AX10" s="36"/>
+      <c r="AY10" s="36"/>
+      <c r="AZ10" s="36"/>
+      <c r="BA10" s="36"/>
+      <c r="BB10" s="36"/>
+      <c r="BC10" s="36"/>
+      <c r="BD10" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE10" s="36"/>
+      <c r="BF10" s="36"/>
+      <c r="BG10" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="BH10" s="36"/>
+      <c r="BI10" s="36"/>
+      <c r="BJ10" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="BK10" s="36"/>
+      <c r="BL10" s="36"/>
+      <c r="BM10" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="BN10" s="36"/>
+      <c r="BO10" s="36"/>
+      <c r="BP10" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="BQ10" s="36"/>
+      <c r="BR10" s="36"/>
+      <c r="BS10" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="BT10" s="36"/>
+      <c r="BU10" s="36"/>
+      <c r="BV10" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="BW10" s="36"/>
+      <c r="BX10" s="36"/>
+      <c r="BY10" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="BZ10" s="36"/>
+      <c r="CA10" s="36"/>
+      <c r="CB10" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="CC10" s="36"/>
+      <c r="CD10" s="36"/>
+      <c r="CE10" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="CF10" s="36"/>
+      <c r="CG10" s="36"/>
+      <c r="CH10" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="CI10" s="36"/>
+      <c r="CJ10" s="36"/>
+      <c r="CK10" s="36"/>
+      <c r="CL10" s="36"/>
+      <c r="CM10" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="80">
@@ -4315,7 +5320,7 @@
   <dimension ref="A1:L102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4330,636 +5335,636 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="187" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="148"/>
+      <c r="I1" s="148"/>
+      <c r="J1" s="148"/>
+      <c r="K1" s="148"/>
+      <c r="L1" s="148"/>
     </row>
     <row r="3" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="134" t="s">
+      <c r="A3" s="188" t="s">
         <v>101</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
+      <c r="B3" s="148"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
+      <c r="L3" s="148"/>
     </row>
     <row r="4" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="24"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="23"/>
     </row>
     <row r="5" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="33"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="32"/>
     </row>
     <row r="6" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="135" t="s">
+      <c r="A6" s="189" t="s">
         <v>105</v>
       </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="135" t="s">
+      <c r="B6" s="145"/>
+      <c r="C6" s="145"/>
+      <c r="D6" s="156"/>
+      <c r="E6" s="189" t="s">
         <v>106</v>
       </c>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="135" t="s">
+      <c r="F6" s="145"/>
+      <c r="G6" s="145"/>
+      <c r="H6" s="156"/>
+      <c r="I6" s="189" t="s">
         <v>107</v>
       </c>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="105"/>
+      <c r="J6" s="145"/>
+      <c r="K6" s="145"/>
+      <c r="L6" s="156"/>
     </row>
     <row r="7" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="39" t="s">
+      <c r="B7" s="22"/>
+      <c r="C7" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="42" t="s">
+      <c r="D7" s="23"/>
+      <c r="E7" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="F7" s="43"/>
-      <c r="G7" s="44"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="43"/>
       <c r="H7" s="7"/>
-      <c r="I7" s="42" t="s">
+      <c r="I7" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="J7" s="43"/>
-      <c r="K7" s="44"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="43"/>
       <c r="L7" s="7"/>
     </row>
     <row r="8" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="40" t="s">
+      <c r="B8" s="25"/>
+      <c r="C8" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="33"/>
-      <c r="E8" s="40" t="s">
+      <c r="D8" s="32"/>
+      <c r="E8" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="F8" s="26"/>
-      <c r="G8" s="40" t="s">
+      <c r="F8" s="25"/>
+      <c r="G8" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="H8" s="33"/>
-      <c r="I8" s="40" t="s">
+      <c r="H8" s="32"/>
+      <c r="I8" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="J8" s="26"/>
-      <c r="K8" s="40" t="s">
+      <c r="J8" s="25"/>
+      <c r="K8" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="L8" s="33"/>
+      <c r="L8" s="32"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="D9" s="46"/>
-      <c r="E9" s="45" t="s">
+      <c r="D9" s="45"/>
+      <c r="E9" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="G9" s="45" t="s">
+      <c r="G9" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="H9" s="32"/>
-      <c r="I9" s="45" t="s">
+      <c r="H9" s="31"/>
+      <c r="I9" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="K9" s="45" t="s">
+      <c r="K9" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="L9" s="32"/>
+      <c r="L9" s="31"/>
     </row>
     <row r="10" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="45" t="s">
+      <c r="D10" s="31"/>
+      <c r="E10" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="G10" s="45" t="s">
+      <c r="G10" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="H10" s="32"/>
-      <c r="I10" s="45" t="s">
+      <c r="H10" s="31"/>
+      <c r="I10" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="K10" s="45" t="s">
+      <c r="K10" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="L10" s="32"/>
+      <c r="L10" s="31"/>
     </row>
     <row r="11" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="45" t="s">
+      <c r="D11" s="31"/>
+      <c r="E11" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="G11" s="45" t="s">
+      <c r="G11" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="H11" s="32"/>
-      <c r="I11" s="45" t="s">
+      <c r="H11" s="31"/>
+      <c r="I11" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="K11" s="45" t="s">
+      <c r="K11" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="L11" s="32"/>
+      <c r="L11" s="31"/>
     </row>
     <row r="12" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="40" t="s">
+      <c r="D12" s="31"/>
+      <c r="E12" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="G12" s="40" t="s">
+      <c r="G12" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="H12" s="32"/>
-      <c r="I12" s="40" t="s">
+      <c r="H12" s="31"/>
+      <c r="I12" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="K12" s="40" t="s">
+      <c r="K12" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="L12" s="32"/>
+      <c r="L12" s="31"/>
     </row>
     <row r="13" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="39" t="s">
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="39" t="s">
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="24"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="23"/>
     </row>
     <row r="14" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="40" t="s">
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="40" t="s">
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="33"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="32"/>
     </row>
     <row r="15" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
     </row>
     <row r="16" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
     </row>
     <row r="17" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="134" t="s">
+      <c r="A17" s="188" t="s">
         <v>125</v>
       </c>
-      <c r="B17" s="96"/>
-      <c r="C17" s="96"/>
-      <c r="D17" s="96"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="136" t="s">
+      <c r="B17" s="148"/>
+      <c r="C17" s="148"/>
+      <c r="D17" s="148"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="190" t="s">
         <v>126</v>
       </c>
-      <c r="G17" s="137"/>
-      <c r="H17" s="137"/>
-      <c r="I17" s="137"/>
+      <c r="G17" s="191"/>
+      <c r="H17" s="191"/>
+      <c r="I17" s="191"/>
     </row>
     <row r="18" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="50" t="s">
+      <c r="B18" s="22"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="G18" s="51" t="s">
+      <c r="G18" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="H18" s="52"/>
-      <c r="I18" s="53"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="52"/>
     </row>
     <row r="19" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="54" t="s">
+      <c r="A19" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="55" t="s">
+      <c r="D19" s="31"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="53"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="52"/>
     </row>
     <row r="20" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="56" t="s">
+      <c r="A20" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="57" t="s">
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="59"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="58"/>
     </row>
     <row r="21" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="E21" s="49"/>
-      <c r="F21" s="55" t="s">
+      <c r="E21" s="48"/>
+      <c r="F21" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="G21" s="60"/>
-      <c r="H21" s="61" t="s">
+      <c r="G21" s="59"/>
+      <c r="H21" s="60" t="s">
         <v>132</v>
       </c>
-      <c r="I21" s="53"/>
+      <c r="I21" s="52"/>
     </row>
     <row r="22" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A22" s="62"/>
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="57" t="s">
+      <c r="A22" s="61"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="56" t="s">
         <v>133</v>
       </c>
-      <c r="G22" s="63"/>
-      <c r="H22" s="64" t="s">
+      <c r="G22" s="62"/>
+      <c r="H22" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="I22" s="59"/>
+      <c r="I22" s="58"/>
     </row>
     <row r="23" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A23" s="65"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
+      <c r="A23" s="64"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
     </row>
     <row r="24" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A24" s="65"/>
-      <c r="B24" s="65"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
+      <c r="A24" s="64"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
     </row>
     <row r="25" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="134" t="s">
+      <c r="A25" s="188" t="s">
         <v>135</v>
       </c>
-      <c r="B25" s="96"/>
-      <c r="C25" s="96"/>
-      <c r="D25" s="96"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="134" t="s">
+      <c r="B25" s="148"/>
+      <c r="C25" s="148"/>
+      <c r="D25" s="148"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="188" t="s">
         <v>136</v>
       </c>
-      <c r="G25" s="96"/>
-      <c r="H25" s="96"/>
-      <c r="I25" s="96"/>
+      <c r="G25" s="148"/>
+      <c r="H25" s="148"/>
+      <c r="I25" s="148"/>
     </row>
     <row r="26" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A26" s="39" t="s">
+      <c r="A26" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="39" t="s">
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="24"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="23"/>
     </row>
     <row r="27" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="40" t="s">
+      <c r="A27" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="45" t="s">
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="I27" s="32"/>
+      <c r="I27" s="31"/>
     </row>
     <row r="28" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A28" s="39" t="s">
+      <c r="A28" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="39" t="s">
+      <c r="B28" s="22"/>
+      <c r="C28" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="D28" s="24"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="40" t="s">
+      <c r="D28" s="23"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="G28" s="26"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="33"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="32"/>
     </row>
     <row r="29" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A29" s="40" t="s">
+      <c r="A29" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="40" t="s">
+      <c r="B29" s="25"/>
+      <c r="C29" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="D29" s="70"/>
-      <c r="E29" s="68"/>
-      <c r="F29" s="39" t="s">
+      <c r="D29" s="69"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="G29" s="23"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="24"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="23"/>
     </row>
     <row r="30" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A30" s="39" t="s">
+      <c r="A30" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="39" t="s">
+      <c r="B30" s="22"/>
+      <c r="C30" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="D30" s="24"/>
-      <c r="E30" s="68"/>
-      <c r="F30" s="45" t="s">
+      <c r="D30" s="23"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="44" t="s">
         <v>142</v>
       </c>
-      <c r="H30" s="22"/>
-      <c r="I30" s="32"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="31"/>
     </row>
     <row r="31" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="40" t="s">
+      <c r="A31" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="B31" s="26"/>
-      <c r="C31" s="40" t="s">
+      <c r="B31" s="25"/>
+      <c r="C31" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="D31" s="33"/>
-      <c r="E31" s="68"/>
-      <c r="F31" s="71" t="s">
+      <c r="D31" s="32"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="70" t="s">
         <v>144</v>
       </c>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
-      <c r="I31" s="73"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="71"/>
+      <c r="I31" s="72"/>
     </row>
     <row r="32" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="74" t="s">
+      <c r="A32" s="73" t="s">
         <v>145</v>
       </c>
-      <c r="B32" s="74" t="s">
+      <c r="B32" s="73" t="s">
         <v>146</v>
       </c>
-      <c r="C32" s="74" t="s">
+      <c r="C32" s="73" t="s">
         <v>147</v>
       </c>
-      <c r="D32" s="74" t="s">
+      <c r="D32" s="73" t="s">
         <v>148</v>
       </c>
-      <c r="E32" s="68"/>
-      <c r="F32" s="39" t="s">
+      <c r="E32" s="67"/>
+      <c r="F32" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="G32" s="23"/>
-      <c r="H32" s="39" t="s">
+      <c r="G32" s="22"/>
+      <c r="H32" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="I32" s="24"/>
+      <c r="I32" s="23"/>
     </row>
     <row r="33" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="15"/>
       <c r="C33" s="15"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="68"/>
-      <c r="F33" s="45" t="s">
+      <c r="D33" s="31"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="H33" s="45" t="s">
+      <c r="H33" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="I33" s="32"/>
+      <c r="I33" s="31"/>
     </row>
     <row r="34" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="15"/>
       <c r="C34" s="15"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="68"/>
-      <c r="F34" s="45" t="s">
+      <c r="D34" s="31"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="H34" s="45" t="s">
+      <c r="H34" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="I34" s="32"/>
+      <c r="I34" s="31"/>
     </row>
     <row r="35" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="15"/>
       <c r="C35" s="15"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="68"/>
-      <c r="F35" s="71" t="s">
+      <c r="D35" s="31"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="G35" s="72"/>
-      <c r="H35" s="40" t="s">
+      <c r="G35" s="71"/>
+      <c r="H35" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="I35" s="73"/>
+      <c r="I35" s="72"/>
     </row>
     <row r="36" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="15"/>
       <c r="C36" s="15"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="68"/>
-      <c r="F36" s="45" t="s">
+      <c r="D36" s="31"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="H36" s="22"/>
-      <c r="I36" s="32"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="31"/>
     </row>
     <row r="37" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="15"/>
       <c r="C37" s="15"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="68"/>
-      <c r="F37" s="40" t="s">
+      <c r="D37" s="31"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="G37" s="26"/>
-      <c r="H37" s="69"/>
-      <c r="I37" s="33"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="68"/>
+      <c r="I37" s="32"/>
     </row>
     <row r="38" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
+      <c r="A38" s="16"/>
       <c r="C38" s="15"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="68"/>
-      <c r="F38" s="66"/>
-      <c r="G38" s="66"/>
-      <c r="H38" s="66"/>
-      <c r="I38" s="66"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="65"/>
+      <c r="H38" s="65"/>
+      <c r="I38" s="65"/>
     </row>
     <row r="39" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A39" s="75" t="s">
+      <c r="A39" s="74" t="s">
         <v>149</v>
       </c>
-      <c r="B39" s="23"/>
-      <c r="C39" s="39" t="s">
+      <c r="B39" s="22"/>
+      <c r="C39" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="D39" s="24"/>
-      <c r="E39" s="68"/>
-      <c r="F39" s="66"/>
-      <c r="G39" s="66"/>
-      <c r="H39" s="66"/>
-      <c r="I39" s="66"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="67"/>
+      <c r="F39" s="65"/>
+      <c r="G39" s="65"/>
+      <c r="H39" s="65"/>
+      <c r="I39" s="65"/>
     </row>
     <row r="40" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A40" s="45" t="s">
+      <c r="A40" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="C40" s="76" t="s">
+      <c r="C40" s="75" t="s">
         <v>152</v>
       </c>
-      <c r="D40" s="32"/>
-      <c r="E40" s="66"/>
-      <c r="F40" s="66"/>
-      <c r="G40" s="66"/>
-      <c r="H40" s="66"/>
-      <c r="I40" s="66"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="65"/>
+      <c r="H40" s="65"/>
+      <c r="I40" s="65"/>
     </row>
     <row r="41" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A41" s="45" t="s">
+      <c r="A41" s="44" t="s">
         <v>153</v>
       </c>
-      <c r="C41" s="45" t="s">
+      <c r="C41" s="44" t="s">
         <v>154</v>
       </c>
-      <c r="D41" s="32"/>
+      <c r="D41" s="31"/>
     </row>
     <row r="42" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A42" s="40" t="s">
+      <c r="A42" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="B42" s="26"/>
-      <c r="C42" s="40" t="s">
+      <c r="B42" s="25"/>
+      <c r="C42" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="D42" s="33"/>
+      <c r="D42" s="32"/>
     </row>
     <row r="43" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A43" s="74" t="s">
+      <c r="A43" s="73" t="s">
         <v>157</v>
       </c>
       <c r="B43" s="6"/>
@@ -4967,247 +5972,247 @@
       <c r="D43" s="7"/>
     </row>
     <row r="44" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A44" s="39" t="s">
+      <c r="A44" s="38" t="s">
         <v>158</v>
       </c>
-      <c r="B44" s="23"/>
-      <c r="C44" s="39" t="s">
+      <c r="B44" s="22"/>
+      <c r="C44" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="D44" s="24"/>
+      <c r="D44" s="23"/>
     </row>
     <row r="45" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A45" s="45" t="s">
+      <c r="A45" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="C45" s="45" t="s">
+      <c r="C45" s="44" t="s">
         <v>161</v>
       </c>
-      <c r="D45" s="32"/>
+      <c r="D45" s="31"/>
     </row>
     <row r="46" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A46" s="40" t="s">
+      <c r="A46" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="B46" s="26"/>
-      <c r="C46" s="40" t="s">
+      <c r="B46" s="25"/>
+      <c r="C46" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="D46" s="33"/>
+      <c r="D46" s="32"/>
     </row>
     <row r="47" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A47" s="39" t="s">
+      <c r="A47" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="B47" s="23"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="24"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="23"/>
     </row>
     <row r="48" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A48" s="45" t="s">
+      <c r="A48" s="44" t="s">
         <v>165</v>
       </c>
-      <c r="D48" s="32"/>
+      <c r="D48" s="31"/>
     </row>
     <row r="49" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A49" s="45" t="s">
+      <c r="A49" s="44" t="s">
         <v>166</v>
       </c>
-      <c r="D49" s="32"/>
+      <c r="D49" s="31"/>
     </row>
     <row r="50" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A50" s="39" t="s">
+      <c r="A50" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="B50" s="23"/>
-      <c r="C50" s="39" t="s">
+      <c r="B50" s="22"/>
+      <c r="C50" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="D50" s="24"/>
+      <c r="D50" s="23"/>
     </row>
     <row r="51" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A51" s="40" t="s">
+      <c r="A51" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="B51" s="26"/>
-      <c r="C51" s="40" t="s">
+      <c r="B51" s="25"/>
+      <c r="C51" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="D51" s="33"/>
+      <c r="D51" s="32"/>
     </row>
     <row r="52" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A52" s="45" t="s">
+      <c r="A52" s="44" t="s">
         <v>170</v>
       </c>
-      <c r="D52" s="32"/>
+      <c r="D52" s="31"/>
     </row>
     <row r="53" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A53" s="40" t="s">
+      <c r="A53" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="B53" s="26"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="33"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="32"/>
     </row>
     <row r="55" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A55" s="134" t="s">
+      <c r="A55" s="188" t="s">
         <v>172</v>
       </c>
-      <c r="B55" s="96"/>
-      <c r="C55" s="96"/>
-      <c r="D55" s="96"/>
-      <c r="E55" s="96"/>
-      <c r="F55" s="96"/>
-      <c r="G55" s="96"/>
-      <c r="H55" s="96"/>
+      <c r="B55" s="148"/>
+      <c r="C55" s="148"/>
+      <c r="D55" s="148"/>
+      <c r="E55" s="148"/>
+      <c r="F55" s="148"/>
+      <c r="G55" s="148"/>
+      <c r="H55" s="148"/>
     </row>
     <row r="56" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A56" s="39" t="s">
+      <c r="A56" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="B56" s="23"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="23"/>
-      <c r="H56" s="24"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="23"/>
     </row>
     <row r="57" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A57" s="45" t="s">
+      <c r="A57" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="H57" s="32"/>
+      <c r="H57" s="31"/>
     </row>
     <row r="58" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A58" s="45" t="s">
+      <c r="A58" s="44" t="s">
         <v>173</v>
       </c>
-      <c r="H58" s="32"/>
+      <c r="H58" s="31"/>
     </row>
     <row r="59" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A59" s="40" t="s">
+      <c r="A59" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="B59" s="26"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="26"/>
-      <c r="H59" s="33"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="32"/>
     </row>
     <row r="60" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A60" s="138" t="s">
+      <c r="A60" s="192" t="s">
         <v>174</v>
       </c>
-      <c r="B60" s="100"/>
-      <c r="C60" s="100"/>
-      <c r="D60" s="101"/>
-      <c r="E60" s="138" t="s">
+      <c r="B60" s="151"/>
+      <c r="C60" s="151"/>
+      <c r="D60" s="152"/>
+      <c r="E60" s="192" t="s">
         <v>175</v>
       </c>
-      <c r="F60" s="100"/>
-      <c r="G60" s="100"/>
-      <c r="H60" s="101"/>
+      <c r="F60" s="151"/>
+      <c r="G60" s="151"/>
+      <c r="H60" s="152"/>
     </row>
     <row r="61" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A61" s="45" t="s">
+      <c r="A61" s="44" t="s">
         <v>176</v>
       </c>
-      <c r="B61" s="22" t="s">
+      <c r="B61" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="C61" s="77" t="s">
+      <c r="C61" s="76" t="s">
         <v>178</v>
       </c>
-      <c r="D61" s="78" t="s">
+      <c r="D61" s="77" t="s">
         <v>179</v>
       </c>
-      <c r="E61" s="45" t="s">
+      <c r="E61" s="44" t="s">
         <v>180</v>
       </c>
-      <c r="G61" s="79" t="s">
+      <c r="G61" s="78" t="s">
         <v>181</v>
       </c>
-      <c r="H61" s="32"/>
+      <c r="H61" s="31"/>
     </row>
     <row r="62" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A62" s="40" t="s">
+      <c r="A62" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="B62" s="69" t="s">
+      <c r="B62" s="68" t="s">
         <v>179</v>
       </c>
-      <c r="C62" s="80" t="s">
+      <c r="C62" s="79" t="s">
         <v>183</v>
       </c>
-      <c r="D62" s="70" t="s">
+      <c r="D62" s="69" t="s">
         <v>179</v>
       </c>
-      <c r="E62" s="40" t="s">
+      <c r="E62" s="39" t="s">
         <v>184</v>
       </c>
-      <c r="F62" s="26"/>
-      <c r="G62" s="81" t="s">
+      <c r="F62" s="25"/>
+      <c r="G62" s="80" t="s">
         <v>185</v>
       </c>
-      <c r="H62" s="33"/>
+      <c r="H62" s="32"/>
     </row>
     <row r="63" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A63" s="138" t="s">
+      <c r="A63" s="192" t="s">
         <v>186</v>
       </c>
-      <c r="B63" s="100"/>
-      <c r="C63" s="100"/>
-      <c r="D63" s="100"/>
-      <c r="E63" s="100"/>
-      <c r="F63" s="100"/>
-      <c r="G63" s="100"/>
-      <c r="H63" s="101"/>
+      <c r="B63" s="151"/>
+      <c r="C63" s="151"/>
+      <c r="D63" s="151"/>
+      <c r="E63" s="151"/>
+      <c r="F63" s="151"/>
+      <c r="G63" s="151"/>
+      <c r="H63" s="152"/>
     </row>
     <row r="64" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A64" s="39" t="s">
+      <c r="A64" s="38" t="s">
         <v>187</v>
       </c>
-      <c r="B64" s="28" t="s">
+      <c r="B64" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="C64" s="28"/>
-      <c r="D64" s="28"/>
-      <c r="E64" s="39" t="s">
+      <c r="C64" s="27"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="38" t="s">
         <v>189</v>
       </c>
-      <c r="F64" s="28" t="s">
+      <c r="F64" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="G64" s="23"/>
-      <c r="H64" s="24"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="23"/>
     </row>
     <row r="65" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A65" s="40" t="s">
+      <c r="A65" s="39" t="s">
         <v>191</v>
       </c>
-      <c r="B65" s="69" t="s">
+      <c r="B65" s="68" t="s">
         <v>192</v>
       </c>
-      <c r="C65" s="69"/>
-      <c r="D65" s="69"/>
-      <c r="E65" s="45" t="s">
+      <c r="C65" s="68"/>
+      <c r="D65" s="68"/>
+      <c r="E65" s="44" t="s">
         <v>193</v>
       </c>
-      <c r="F65" s="22" t="s">
+      <c r="F65" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="H65" s="32"/>
+      <c r="H65" s="31"/>
     </row>
     <row r="66" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A66" s="40" t="s">
+      <c r="A66" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="B66" s="26"/>
-      <c r="C66" s="69"/>
-      <c r="E66" s="74" t="s">
+      <c r="B66" s="25"/>
+      <c r="C66" s="68"/>
+      <c r="E66" s="73" t="s">
         <v>195</v>
       </c>
       <c r="F66" s="6"/>
@@ -5215,7 +6220,7 @@
       <c r="H66" s="7"/>
     </row>
     <row r="67" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A67" s="74" t="s">
+      <c r="A67" s="73" t="s">
         <v>196</v>
       </c>
       <c r="B67" s="6"/>
@@ -5227,400 +6232,400 @@
       <c r="H67" s="7"/>
     </row>
     <row r="68" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A68" s="138" t="s">
+      <c r="A68" s="192" t="s">
         <v>197</v>
       </c>
-      <c r="B68" s="100"/>
-      <c r="C68" s="100"/>
-      <c r="D68" s="101"/>
-      <c r="E68" s="138" t="s">
+      <c r="B68" s="151"/>
+      <c r="C68" s="151"/>
+      <c r="D68" s="152"/>
+      <c r="E68" s="192" t="s">
         <v>198</v>
       </c>
-      <c r="F68" s="100"/>
-      <c r="G68" s="100"/>
-      <c r="H68" s="101"/>
+      <c r="F68" s="151"/>
+      <c r="G68" s="151"/>
+      <c r="H68" s="152"/>
     </row>
     <row r="69" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A69" s="48" t="s">
+      <c r="A69" s="47" t="s">
         <v>199</v>
       </c>
-      <c r="B69" s="23"/>
-      <c r="C69" s="23"/>
-      <c r="D69" s="24"/>
-      <c r="E69" s="48" t="s">
+      <c r="B69" s="22"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="23"/>
+      <c r="E69" s="47" t="s">
         <v>199</v>
       </c>
-      <c r="F69" s="23"/>
-      <c r="G69" s="23"/>
-      <c r="H69" s="24"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="23"/>
     </row>
     <row r="70" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A70" s="54" t="s">
+      <c r="A70" s="53" t="s">
         <v>187</v>
       </c>
-      <c r="D70" s="32"/>
-      <c r="E70" s="54" t="s">
+      <c r="D70" s="31"/>
+      <c r="E70" s="53" t="s">
         <v>187</v>
       </c>
-      <c r="H70" s="32"/>
+      <c r="H70" s="31"/>
     </row>
     <row r="71" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A71" s="56" t="s">
+      <c r="A71" s="55" t="s">
         <v>191</v>
       </c>
-      <c r="B71" s="26"/>
-      <c r="C71" s="26"/>
-      <c r="D71" s="33"/>
-      <c r="E71" s="56" t="s">
+      <c r="B71" s="25"/>
+      <c r="C71" s="25"/>
+      <c r="D71" s="32"/>
+      <c r="E71" s="55" t="s">
         <v>191</v>
       </c>
-      <c r="F71" s="26"/>
-      <c r="G71" s="26"/>
-      <c r="H71" s="33"/>
+      <c r="F71" s="25"/>
+      <c r="G71" s="25"/>
+      <c r="H71" s="32"/>
     </row>
     <row r="72" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A72" s="48" t="s">
+      <c r="A72" s="47" t="s">
         <v>200</v>
       </c>
-      <c r="B72" s="23"/>
-      <c r="C72" s="48" t="s">
+      <c r="B72" s="22"/>
+      <c r="C72" s="47" t="s">
         <v>201</v>
       </c>
-      <c r="D72" s="24"/>
-      <c r="E72" s="48" t="s">
+      <c r="D72" s="23"/>
+      <c r="E72" s="47" t="s">
         <v>200</v>
       </c>
-      <c r="F72" s="23"/>
-      <c r="G72" s="48" t="s">
+      <c r="F72" s="22"/>
+      <c r="G72" s="47" t="s">
         <v>201</v>
       </c>
-      <c r="H72" s="24"/>
+      <c r="H72" s="23"/>
     </row>
     <row r="73" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A73" s="54" t="s">
+      <c r="A73" s="53" t="s">
         <v>195</v>
       </c>
-      <c r="C73" s="54" t="s">
+      <c r="C73" s="53" t="s">
         <v>195</v>
       </c>
-      <c r="D73" s="32"/>
-      <c r="E73" s="54" t="s">
+      <c r="D73" s="31"/>
+      <c r="E73" s="53" t="s">
         <v>195</v>
       </c>
-      <c r="G73" s="54" t="s">
+      <c r="G73" s="53" t="s">
         <v>195</v>
       </c>
-      <c r="H73" s="32"/>
+      <c r="H73" s="31"/>
     </row>
     <row r="74" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A74" s="56" t="s">
+      <c r="A74" s="55" t="s">
         <v>196</v>
       </c>
-      <c r="B74" s="26"/>
-      <c r="C74" s="56" t="s">
+      <c r="B74" s="25"/>
+      <c r="C74" s="55" t="s">
         <v>196</v>
       </c>
-      <c r="D74" s="33"/>
-      <c r="E74" s="56" t="s">
+      <c r="D74" s="32"/>
+      <c r="E74" s="55" t="s">
         <v>196</v>
       </c>
-      <c r="F74" s="26"/>
-      <c r="G74" s="56" t="s">
+      <c r="F74" s="25"/>
+      <c r="G74" s="55" t="s">
         <v>196</v>
       </c>
-      <c r="H74" s="33"/>
+      <c r="H74" s="32"/>
     </row>
     <row r="75" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A75" s="138" t="s">
+      <c r="A75" s="192" t="s">
         <v>202</v>
       </c>
-      <c r="B75" s="100"/>
-      <c r="C75" s="100"/>
-      <c r="D75" s="101"/>
-      <c r="E75" s="138" t="s">
+      <c r="B75" s="151"/>
+      <c r="C75" s="151"/>
+      <c r="D75" s="152"/>
+      <c r="E75" s="192" t="s">
         <v>203</v>
       </c>
-      <c r="F75" s="100"/>
-      <c r="G75" s="100"/>
-      <c r="H75" s="101"/>
+      <c r="F75" s="151"/>
+      <c r="G75" s="151"/>
+      <c r="H75" s="152"/>
     </row>
     <row r="76" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A76" s="48" t="s">
+      <c r="A76" s="47" t="s">
         <v>199</v>
       </c>
-      <c r="B76" s="23"/>
-      <c r="C76" s="23"/>
-      <c r="D76" s="24"/>
-      <c r="E76" s="48" t="s">
+      <c r="B76" s="22"/>
+      <c r="C76" s="22"/>
+      <c r="D76" s="23"/>
+      <c r="E76" s="47" t="s">
         <v>199</v>
       </c>
-      <c r="F76" s="23"/>
-      <c r="G76" s="23"/>
-      <c r="H76" s="24"/>
+      <c r="F76" s="22"/>
+      <c r="G76" s="22"/>
+      <c r="H76" s="23"/>
     </row>
     <row r="77" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A77" s="54" t="s">
+      <c r="A77" s="53" t="s">
         <v>187</v>
       </c>
-      <c r="D77" s="32"/>
-      <c r="E77" s="54" t="s">
+      <c r="D77" s="31"/>
+      <c r="E77" s="53" t="s">
         <v>187</v>
       </c>
-      <c r="H77" s="32"/>
+      <c r="H77" s="31"/>
     </row>
     <row r="78" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A78" s="56" t="s">
+      <c r="A78" s="55" t="s">
         <v>191</v>
       </c>
-      <c r="B78" s="26"/>
-      <c r="C78" s="26"/>
-      <c r="D78" s="33"/>
-      <c r="E78" s="56" t="s">
+      <c r="B78" s="25"/>
+      <c r="C78" s="25"/>
+      <c r="D78" s="32"/>
+      <c r="E78" s="55" t="s">
         <v>191</v>
       </c>
-      <c r="F78" s="26"/>
-      <c r="G78" s="26"/>
-      <c r="H78" s="33"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="32"/>
     </row>
     <row r="79" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A79" s="48" t="s">
+      <c r="A79" s="47" t="s">
         <v>200</v>
       </c>
-      <c r="B79" s="23"/>
-      <c r="C79" s="48" t="s">
+      <c r="B79" s="22"/>
+      <c r="C79" s="47" t="s">
         <v>201</v>
       </c>
-      <c r="D79" s="24"/>
-      <c r="E79" s="48" t="s">
+      <c r="D79" s="23"/>
+      <c r="E79" s="47" t="s">
         <v>200</v>
       </c>
-      <c r="F79" s="23"/>
-      <c r="G79" s="48" t="s">
+      <c r="F79" s="22"/>
+      <c r="G79" s="47" t="s">
         <v>201</v>
       </c>
-      <c r="H79" s="24"/>
+      <c r="H79" s="23"/>
     </row>
     <row r="80" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A80" s="54" t="s">
+      <c r="A80" s="53" t="s">
         <v>195</v>
       </c>
-      <c r="C80" s="54" t="s">
+      <c r="C80" s="53" t="s">
         <v>195</v>
       </c>
-      <c r="D80" s="32"/>
-      <c r="E80" s="54" t="s">
+      <c r="D80" s="31"/>
+      <c r="E80" s="53" t="s">
         <v>195</v>
       </c>
-      <c r="G80" s="54" t="s">
+      <c r="G80" s="53" t="s">
         <v>195</v>
       </c>
-      <c r="H80" s="32"/>
+      <c r="H80" s="31"/>
     </row>
     <row r="81" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A81" s="56" t="s">
+      <c r="A81" s="55" t="s">
         <v>196</v>
       </c>
-      <c r="B81" s="26"/>
-      <c r="C81" s="56" t="s">
+      <c r="B81" s="25"/>
+      <c r="C81" s="55" t="s">
         <v>196</v>
       </c>
-      <c r="D81" s="33"/>
-      <c r="E81" s="56" t="s">
+      <c r="D81" s="32"/>
+      <c r="E81" s="55" t="s">
         <v>196</v>
       </c>
-      <c r="F81" s="26"/>
-      <c r="G81" s="56" t="s">
+      <c r="F81" s="25"/>
+      <c r="G81" s="55" t="s">
         <v>196</v>
       </c>
-      <c r="H81" s="33"/>
+      <c r="H81" s="32"/>
     </row>
     <row r="82" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A82" s="138" t="s">
+      <c r="A82" s="192" t="s">
         <v>204</v>
       </c>
-      <c r="B82" s="100"/>
-      <c r="C82" s="100"/>
-      <c r="D82" s="101"/>
-      <c r="E82" s="138" t="s">
+      <c r="B82" s="151"/>
+      <c r="C82" s="151"/>
+      <c r="D82" s="152"/>
+      <c r="E82" s="192" t="s">
         <v>205</v>
       </c>
-      <c r="F82" s="100"/>
-      <c r="G82" s="100"/>
-      <c r="H82" s="101"/>
+      <c r="F82" s="151"/>
+      <c r="G82" s="151"/>
+      <c r="H82" s="152"/>
     </row>
     <row r="83" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A83" s="48" t="s">
+      <c r="A83" s="47" t="s">
         <v>199</v>
       </c>
-      <c r="B83" s="23"/>
-      <c r="C83" s="23"/>
-      <c r="D83" s="24"/>
-      <c r="E83" s="48" t="s">
+      <c r="B83" s="22"/>
+      <c r="C83" s="22"/>
+      <c r="D83" s="23"/>
+      <c r="E83" s="47" t="s">
         <v>199</v>
       </c>
-      <c r="F83" s="23"/>
-      <c r="G83" s="23"/>
-      <c r="H83" s="24"/>
+      <c r="F83" s="22"/>
+      <c r="G83" s="22"/>
+      <c r="H83" s="23"/>
     </row>
     <row r="84" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A84" s="54" t="s">
+      <c r="A84" s="53" t="s">
         <v>187</v>
       </c>
-      <c r="D84" s="32"/>
-      <c r="E84" s="54" t="s">
+      <c r="D84" s="31"/>
+      <c r="E84" s="53" t="s">
         <v>187</v>
       </c>
-      <c r="H84" s="32"/>
+      <c r="H84" s="31"/>
     </row>
     <row r="85" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A85" s="56" t="s">
+      <c r="A85" s="55" t="s">
         <v>191</v>
       </c>
-      <c r="B85" s="26"/>
-      <c r="C85" s="26"/>
-      <c r="D85" s="33"/>
-      <c r="E85" s="56" t="s">
+      <c r="B85" s="25"/>
+      <c r="C85" s="25"/>
+      <c r="D85" s="32"/>
+      <c r="E85" s="55" t="s">
         <v>191</v>
       </c>
-      <c r="F85" s="26"/>
-      <c r="G85" s="26"/>
-      <c r="H85" s="33"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="25"/>
+      <c r="H85" s="32"/>
     </row>
     <row r="86" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A86" s="48" t="s">
+      <c r="A86" s="47" t="s">
         <v>200</v>
       </c>
-      <c r="B86" s="23"/>
-      <c r="C86" s="48" t="s">
+      <c r="B86" s="22"/>
+      <c r="C86" s="47" t="s">
         <v>201</v>
       </c>
-      <c r="D86" s="24"/>
-      <c r="E86" s="48" t="s">
+      <c r="D86" s="23"/>
+      <c r="E86" s="47" t="s">
         <v>200</v>
       </c>
-      <c r="F86" s="23"/>
-      <c r="G86" s="48" t="s">
+      <c r="F86" s="22"/>
+      <c r="G86" s="47" t="s">
         <v>201</v>
       </c>
-      <c r="H86" s="24"/>
+      <c r="H86" s="23"/>
     </row>
     <row r="87" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A87" s="54" t="s">
+      <c r="A87" s="53" t="s">
         <v>195</v>
       </c>
-      <c r="C87" s="54" t="s">
+      <c r="C87" s="53" t="s">
         <v>195</v>
       </c>
-      <c r="D87" s="32"/>
-      <c r="E87" s="54" t="s">
+      <c r="D87" s="31"/>
+      <c r="E87" s="53" t="s">
         <v>195</v>
       </c>
-      <c r="G87" s="54" t="s">
+      <c r="G87" s="53" t="s">
         <v>195</v>
       </c>
-      <c r="H87" s="32"/>
+      <c r="H87" s="31"/>
     </row>
     <row r="88" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A88" s="56" t="s">
+      <c r="A88" s="55" t="s">
         <v>196</v>
       </c>
-      <c r="B88" s="26"/>
-      <c r="C88" s="56" t="s">
+      <c r="B88" s="25"/>
+      <c r="C88" s="55" t="s">
         <v>196</v>
       </c>
-      <c r="D88" s="33"/>
-      <c r="E88" s="56" t="s">
+      <c r="D88" s="32"/>
+      <c r="E88" s="55" t="s">
         <v>196</v>
       </c>
-      <c r="F88" s="26"/>
-      <c r="G88" s="56" t="s">
+      <c r="F88" s="25"/>
+      <c r="G88" s="55" t="s">
         <v>196</v>
       </c>
-      <c r="H88" s="33"/>
+      <c r="H88" s="32"/>
     </row>
     <row r="89" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A89" s="35"/>
-      <c r="B89" s="35"/>
-      <c r="C89" s="35"/>
-      <c r="D89" s="35"/>
+      <c r="A89" s="34"/>
+      <c r="B89" s="34"/>
+      <c r="C89" s="34"/>
+      <c r="D89" s="34"/>
     </row>
     <row r="90" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A90" s="62"/>
-      <c r="B90" s="62"/>
-      <c r="C90" s="62"/>
-      <c r="D90" s="62"/>
+      <c r="A90" s="61"/>
+      <c r="B90" s="61"/>
+      <c r="C90" s="61"/>
+      <c r="D90" s="61"/>
     </row>
     <row r="91" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A91" s="62"/>
-      <c r="B91" s="62"/>
-      <c r="C91" s="62"/>
-      <c r="D91" s="62"/>
+      <c r="A91" s="61"/>
+      <c r="B91" s="61"/>
+      <c r="C91" s="61"/>
+      <c r="D91" s="61"/>
     </row>
     <row r="92" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A92" s="62"/>
-      <c r="B92" s="62"/>
-      <c r="C92" s="62"/>
-      <c r="D92" s="62"/>
+      <c r="A92" s="61"/>
+      <c r="B92" s="61"/>
+      <c r="C92" s="61"/>
+      <c r="D92" s="61"/>
     </row>
     <row r="93" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A93" s="62"/>
-      <c r="B93" s="62"/>
-      <c r="C93" s="62"/>
-      <c r="D93" s="62"/>
+      <c r="A93" s="61"/>
+      <c r="B93" s="61"/>
+      <c r="C93" s="61"/>
+      <c r="D93" s="61"/>
     </row>
     <row r="94" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A94" s="62"/>
-      <c r="B94" s="62"/>
-      <c r="C94" s="62"/>
-      <c r="D94" s="62"/>
+      <c r="A94" s="61"/>
+      <c r="B94" s="61"/>
+      <c r="C94" s="61"/>
+      <c r="D94" s="61"/>
     </row>
     <row r="95" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A95" s="62"/>
-      <c r="B95" s="62"/>
-      <c r="C95" s="62"/>
-      <c r="D95" s="62"/>
+      <c r="A95" s="61"/>
+      <c r="B95" s="61"/>
+      <c r="C95" s="61"/>
+      <c r="D95" s="61"/>
     </row>
     <row r="96" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A96" s="62"/>
-      <c r="B96" s="62"/>
-      <c r="C96" s="62"/>
-      <c r="D96" s="62"/>
+      <c r="A96" s="61"/>
+      <c r="B96" s="61"/>
+      <c r="C96" s="61"/>
+      <c r="D96" s="61"/>
     </row>
     <row r="97" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A97" s="62"/>
-      <c r="B97" s="62"/>
-      <c r="C97" s="62"/>
-      <c r="D97" s="62"/>
+      <c r="A97" s="61"/>
+      <c r="B97" s="61"/>
+      <c r="C97" s="61"/>
+      <c r="D97" s="61"/>
     </row>
     <row r="98" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A98" s="62"/>
-      <c r="B98" s="62"/>
-      <c r="C98" s="62"/>
-      <c r="D98" s="62"/>
+      <c r="A98" s="61"/>
+      <c r="B98" s="61"/>
+      <c r="C98" s="61"/>
+      <c r="D98" s="61"/>
     </row>
     <row r="99" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A99" s="62"/>
-      <c r="B99" s="62"/>
-      <c r="C99" s="62"/>
-      <c r="D99" s="62"/>
+      <c r="A99" s="61"/>
+      <c r="B99" s="61"/>
+      <c r="C99" s="61"/>
+      <c r="D99" s="61"/>
     </row>
     <row r="100" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A100" s="62"/>
-      <c r="B100" s="62"/>
-      <c r="C100" s="62"/>
-      <c r="D100" s="62"/>
+      <c r="A100" s="61"/>
+      <c r="B100" s="61"/>
+      <c r="C100" s="61"/>
+      <c r="D100" s="61"/>
     </row>
     <row r="101" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A101" s="62"/>
-      <c r="B101" s="62"/>
-      <c r="C101" s="62"/>
-      <c r="D101" s="62"/>
+      <c r="A101" s="61"/>
+      <c r="B101" s="61"/>
+      <c r="C101" s="61"/>
+      <c r="D101" s="61"/>
     </row>
     <row r="102" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A102" s="62"/>
-      <c r="B102" s="62"/>
-      <c r="C102" s="62"/>
-      <c r="D102" s="62"/>
+      <c r="A102" s="61"/>
+      <c r="B102" s="61"/>
+      <c r="C102" s="61"/>
+      <c r="D102" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="19">

--- a/attachments/Input Merchant Acquisition (1).xlsx
+++ b/attachments/Input Merchant Acquisition (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MerchantAcquisition\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E985830-AF09-401B-A44F-3EE1B8A7F129}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6014E4E-3A7A-4AD9-8A4F-0FB97E6CAC1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="281">
   <si>
     <t>Sales Chanel</t>
   </si>
@@ -872,6 +872,9 @@
   </si>
   <si>
     <t>Pembayaran Prepaid</t>
+  </si>
+  <si>
+    <t>this is prepaid</t>
   </si>
 </sst>
 </file>
@@ -1001,7 +1004,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -1282,9 +1285,7 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1293,9 +1294,7 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1306,153 +1305,86 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1461,7 +1393,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="196">
+  <cellXfs count="194">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1620,172 +1552,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1811,44 +1593,188 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2071,8 +1997,8 @@
   </sheetPr>
   <dimension ref="A1:W99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="F74" sqref="F74"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2093,10 +2019,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="162" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="152"/>
+      <c r="A1" s="132" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="113"/>
     </row>
     <row r="2" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -2123,12 +2049,12 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="163" t="s">
+      <c r="A6" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="145"/>
-      <c r="C6" s="145"/>
-      <c r="D6" s="156"/>
+      <c r="B6" s="107"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="108"/>
     </row>
     <row r="7" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -2305,38 +2231,38 @@
       <c r="D20" s="82"/>
     </row>
     <row r="22" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A22" s="164" t="s">
+      <c r="A22" s="133" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="151"/>
-      <c r="C22" s="151"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="151"/>
-      <c r="G22" s="151"/>
-      <c r="H22" s="151"/>
-      <c r="I22" s="152"/>
+      <c r="B22" s="112"/>
+      <c r="C22" s="112"/>
+      <c r="D22" s="112"/>
+      <c r="E22" s="112"/>
+      <c r="F22" s="112"/>
+      <c r="G22" s="112"/>
+      <c r="H22" s="112"/>
+      <c r="I22" s="113"/>
       <c r="J22" s="18"/>
       <c r="K22" s="18"/>
       <c r="L22" s="18"/>
       <c r="M22" s="18"/>
     </row>
     <row r="23" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A23" s="165" t="s">
+      <c r="A23" s="134" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="151"/>
-      <c r="C23" s="151"/>
-      <c r="D23" s="165" t="s">
+      <c r="B23" s="112"/>
+      <c r="C23" s="112"/>
+      <c r="D23" s="134" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="151"/>
-      <c r="F23" s="151"/>
-      <c r="G23" s="165" t="s">
+      <c r="E23" s="112"/>
+      <c r="F23" s="112"/>
+      <c r="G23" s="134" t="s">
         <v>29</v>
       </c>
-      <c r="H23" s="151"/>
-      <c r="I23" s="152"/>
+      <c r="H23" s="112"/>
+      <c r="I23" s="113"/>
       <c r="L23" s="18"/>
       <c r="M23" s="18"/>
     </row>
@@ -2344,80 +2270,80 @@
       <c r="A24" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="161" t="s">
+      <c r="B24" s="131" t="s">
         <v>239</v>
       </c>
-      <c r="C24" s="156"/>
+      <c r="C24" s="108"/>
       <c r="D24" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="161"/>
-      <c r="F24" s="156"/>
+      <c r="E24" s="131"/>
+      <c r="F24" s="108"/>
       <c r="G24" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H24" s="161"/>
-      <c r="I24" s="156"/>
+      <c r="H24" s="131"/>
+      <c r="I24" s="108"/>
     </row>
     <row r="25" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="166" t="s">
+      <c r="B25" s="127" t="s">
         <v>240</v>
       </c>
-      <c r="C25" s="149"/>
+      <c r="C25" s="110"/>
       <c r="D25" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E25" s="166"/>
-      <c r="F25" s="149"/>
+      <c r="E25" s="127"/>
+      <c r="F25" s="110"/>
       <c r="G25" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H25" s="166"/>
-      <c r="I25" s="149"/>
+      <c r="H25" s="127"/>
+      <c r="I25" s="110"/>
     </row>
     <row r="26" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="168" t="s">
+      <c r="B26" s="129" t="s">
         <v>247</v>
       </c>
-      <c r="C26" s="169"/>
+      <c r="C26" s="130"/>
       <c r="D26" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="166"/>
-      <c r="F26" s="149"/>
+      <c r="E26" s="127"/>
+      <c r="F26" s="110"/>
       <c r="G26" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H26" s="166"/>
-      <c r="I26" s="149"/>
+      <c r="H26" s="127"/>
+      <c r="I26" s="110"/>
     </row>
     <row r="27" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="168" t="s">
+      <c r="B27" s="129" t="s">
         <v>246</v>
       </c>
-      <c r="C27" s="169"/>
+      <c r="C27" s="130"/>
       <c r="D27" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="166"/>
-      <c r="F27" s="149"/>
+      <c r="E27" s="127"/>
+      <c r="F27" s="110"/>
       <c r="G27" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H27" s="166"/>
-      <c r="I27" s="149"/>
+      <c r="H27" s="127"/>
+      <c r="I27" s="110"/>
     </row>
     <row r="28" spans="1:13" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="167" t="s">
+      <c r="A28" s="114" t="s">
         <v>32</v>
       </c>
       <c r="B28" s="20" t="s">
@@ -2426,14 +2352,14 @@
       <c r="C28" s="103" t="s">
         <v>241</v>
       </c>
-      <c r="D28" s="167" t="s">
+      <c r="D28" s="114" t="s">
         <v>32</v>
       </c>
       <c r="E28" s="20" t="s">
         <v>33</v>
       </c>
       <c r="F28" s="11"/>
-      <c r="G28" s="167" t="s">
+      <c r="G28" s="114" t="s">
         <v>32</v>
       </c>
       <c r="H28" s="20" t="s">
@@ -2442,38 +2368,38 @@
       <c r="I28" s="11"/>
     </row>
     <row r="29" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A29" s="158"/>
+      <c r="A29" s="115"/>
       <c r="B29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C29" s="90" t="s">
         <v>242</v>
       </c>
-      <c r="D29" s="158"/>
+      <c r="D29" s="115"/>
       <c r="E29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F29" s="2"/>
-      <c r="G29" s="158"/>
+      <c r="G29" s="115"/>
       <c r="H29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A30" s="158"/>
+      <c r="A30" s="115"/>
       <c r="B30" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C30" s="90">
         <v>123</v>
       </c>
-      <c r="D30" s="158"/>
+      <c r="D30" s="115"/>
       <c r="E30" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F30" s="2"/>
-      <c r="G30" s="158"/>
+      <c r="G30" s="115"/>
       <c r="H30" s="1" t="s">
         <v>35</v>
       </c>
@@ -2481,19 +2407,19 @@
       <c r="M30" s="21"/>
     </row>
     <row r="31" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="158"/>
+      <c r="A31" s="115"/>
       <c r="B31" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C31" s="90" t="s">
         <v>243</v>
       </c>
-      <c r="D31" s="158"/>
+      <c r="D31" s="115"/>
       <c r="E31" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F31" s="2"/>
-      <c r="G31" s="158"/>
+      <c r="G31" s="115"/>
       <c r="H31" s="1" t="s">
         <v>36</v>
       </c>
@@ -2501,19 +2427,19 @@
       <c r="M31" s="21"/>
     </row>
     <row r="32" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="158"/>
+      <c r="A32" s="115"/>
       <c r="B32" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C32" s="90">
         <v>123123</v>
       </c>
-      <c r="D32" s="158"/>
+      <c r="D32" s="115"/>
       <c r="E32" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F32" s="2"/>
-      <c r="G32" s="158"/>
+      <c r="G32" s="115"/>
       <c r="H32" s="1" t="s">
         <v>37</v>
       </c>
@@ -2521,19 +2447,19 @@
       <c r="M32" s="21"/>
     </row>
     <row r="33" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A33" s="158"/>
+      <c r="A33" s="115"/>
       <c r="B33" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C33" s="90" t="s">
         <v>244</v>
       </c>
-      <c r="D33" s="158"/>
+      <c r="D33" s="115"/>
       <c r="E33" s="1" t="s">
         <v>38</v>
       </c>
       <c r="F33" s="2"/>
-      <c r="G33" s="158"/>
+      <c r="G33" s="115"/>
       <c r="H33" s="1" t="s">
         <v>38</v>
       </c>
@@ -2541,19 +2467,19 @@
       <c r="M33" s="21"/>
     </row>
     <row r="34" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A34" s="158"/>
+      <c r="A34" s="115"/>
       <c r="B34" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C34" s="90">
         <v>111</v>
       </c>
-      <c r="D34" s="158"/>
+      <c r="D34" s="115"/>
       <c r="E34" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F34" s="2"/>
-      <c r="G34" s="158"/>
+      <c r="G34" s="115"/>
       <c r="H34" s="1" t="s">
         <v>39</v>
       </c>
@@ -2561,19 +2487,19 @@
       <c r="M34" s="21"/>
     </row>
     <row r="35" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A35" s="170"/>
+      <c r="A35" s="116"/>
       <c r="B35" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C35" s="92">
         <v>32231</v>
       </c>
-      <c r="D35" s="170"/>
+      <c r="D35" s="116"/>
       <c r="E35" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F35" s="4"/>
-      <c r="G35" s="170"/>
+      <c r="G35" s="116"/>
       <c r="H35" s="3" t="s">
         <v>40</v>
       </c>
@@ -2584,27 +2510,27 @@
       <c r="A36" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="180" t="s">
+      <c r="B36" s="126" t="s">
         <v>245</v>
       </c>
-      <c r="C36" s="160"/>
+      <c r="C36" s="105"/>
       <c r="D36" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E36" s="181"/>
-      <c r="F36" s="160"/>
+      <c r="E36" s="104"/>
+      <c r="F36" s="105"/>
       <c r="G36" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="H36" s="181"/>
-      <c r="I36" s="160"/>
+      <c r="H36" s="104"/>
+      <c r="I36" s="105"/>
     </row>
     <row r="38" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A38" s="163" t="s">
+      <c r="A38" s="106" t="s">
         <v>42</v>
       </c>
-      <c r="B38" s="145"/>
-      <c r="C38" s="156"/>
+      <c r="B38" s="107"/>
+      <c r="C38" s="108"/>
     </row>
     <row r="39" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
@@ -2619,13 +2545,13 @@
       <c r="A40" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="147" t="s">
+      <c r="B40" s="109" t="s">
         <v>219</v>
       </c>
-      <c r="C40" s="149"/>
+      <c r="C40" s="110"/>
     </row>
     <row r="41" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A41" s="171" t="s">
+      <c r="A41" s="117" t="s">
         <v>32</v>
       </c>
       <c r="B41" s="10" t="s">
@@ -2636,7 +2562,7 @@
       </c>
     </row>
     <row r="42" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A42" s="172"/>
+      <c r="A42" s="118"/>
       <c r="B42" s="8" t="s">
         <v>34</v>
       </c>
@@ -2645,7 +2571,7 @@
       </c>
     </row>
     <row r="43" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A43" s="172"/>
+      <c r="A43" s="118"/>
       <c r="B43" s="8" t="s">
         <v>35</v>
       </c>
@@ -2654,7 +2580,7 @@
       </c>
     </row>
     <row r="44" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A44" s="172"/>
+      <c r="A44" s="118"/>
       <c r="B44" s="8" t="s">
         <v>36</v>
       </c>
@@ -2663,7 +2589,7 @@
       </c>
     </row>
     <row r="45" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A45" s="172"/>
+      <c r="A45" s="118"/>
       <c r="B45" s="8" t="s">
         <v>37</v>
       </c>
@@ -2672,7 +2598,7 @@
       </c>
     </row>
     <row r="46" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A46" s="172"/>
+      <c r="A46" s="118"/>
       <c r="B46" s="8" t="s">
         <v>38</v>
       </c>
@@ -2681,7 +2607,7 @@
       </c>
     </row>
     <row r="47" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A47" s="172"/>
+      <c r="A47" s="118"/>
       <c r="B47" s="8" t="s">
         <v>39</v>
       </c>
@@ -2690,7 +2616,7 @@
       </c>
     </row>
     <row r="48" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A48" s="173"/>
+      <c r="A48" s="119"/>
       <c r="B48" s="8" t="s">
         <v>40</v>
       </c>
@@ -2702,34 +2628,34 @@
       <c r="A49" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B49" s="174">
+      <c r="B49" s="120">
         <v>23586598</v>
       </c>
-      <c r="C49" s="175"/>
+      <c r="C49" s="121"/>
     </row>
     <row r="50" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B50" s="176">
+      <c r="B50" s="122">
         <v>8123456789</v>
       </c>
-      <c r="C50" s="177"/>
+      <c r="C50" s="123"/>
     </row>
     <row r="51" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B51" s="178" t="s">
+      <c r="B51" s="124" t="s">
         <v>225</v>
       </c>
-      <c r="C51" s="179"/>
+      <c r="C51" s="125"/>
     </row>
     <row r="53" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A53" s="163" t="s">
+      <c r="A53" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="B53" s="156"/>
+      <c r="B53" s="108"/>
     </row>
     <row r="54" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
@@ -2786,146 +2712,146 @@
       <c r="B60" s="92"/>
     </row>
     <row r="62" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A62" s="150" t="s">
+      <c r="A62" s="138" t="s">
         <v>55</v>
       </c>
-      <c r="B62" s="151"/>
-      <c r="C62" s="151"/>
-      <c r="D62" s="151"/>
-      <c r="E62" s="151"/>
-      <c r="F62" s="151"/>
-      <c r="G62" s="151"/>
-      <c r="H62" s="151"/>
-      <c r="I62" s="151"/>
-      <c r="J62" s="151"/>
-      <c r="K62" s="151"/>
-      <c r="L62" s="151"/>
-      <c r="M62" s="151"/>
-      <c r="N62" s="151"/>
-      <c r="O62" s="151"/>
-      <c r="P62" s="151"/>
-      <c r="Q62" s="151"/>
-      <c r="R62" s="152"/>
+      <c r="B62" s="112"/>
+      <c r="C62" s="112"/>
+      <c r="D62" s="112"/>
+      <c r="E62" s="112"/>
+      <c r="F62" s="112"/>
+      <c r="G62" s="112"/>
+      <c r="H62" s="112"/>
+      <c r="I62" s="112"/>
+      <c r="J62" s="112"/>
+      <c r="K62" s="112"/>
+      <c r="L62" s="112"/>
+      <c r="M62" s="112"/>
+      <c r="N62" s="112"/>
+      <c r="O62" s="112"/>
+      <c r="P62" s="112"/>
+      <c r="Q62" s="112"/>
+      <c r="R62" s="113"/>
     </row>
     <row r="63" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A63" s="153" t="s">
+      <c r="A63" s="139" t="s">
         <v>56</v>
       </c>
-      <c r="B63" s="151"/>
-      <c r="C63" s="151"/>
-      <c r="D63" s="151"/>
-      <c r="E63" s="151"/>
-      <c r="F63" s="152"/>
-      <c r="G63" s="153" t="s">
+      <c r="B63" s="112"/>
+      <c r="C63" s="112"/>
+      <c r="D63" s="112"/>
+      <c r="E63" s="112"/>
+      <c r="F63" s="113"/>
+      <c r="G63" s="139" t="s">
         <v>57</v>
       </c>
-      <c r="H63" s="151"/>
-      <c r="I63" s="151"/>
-      <c r="J63" s="151"/>
-      <c r="K63" s="151"/>
-      <c r="L63" s="151"/>
-      <c r="M63" s="153" t="s">
+      <c r="H63" s="112"/>
+      <c r="I63" s="112"/>
+      <c r="J63" s="112"/>
+      <c r="K63" s="112"/>
+      <c r="L63" s="112"/>
+      <c r="M63" s="139" t="s">
         <v>58</v>
       </c>
-      <c r="N63" s="151"/>
-      <c r="O63" s="151"/>
-      <c r="P63" s="151"/>
-      <c r="Q63" s="151"/>
-      <c r="R63" s="152"/>
+      <c r="N63" s="112"/>
+      <c r="O63" s="112"/>
+      <c r="P63" s="112"/>
+      <c r="Q63" s="112"/>
+      <c r="R63" s="113"/>
     </row>
     <row r="64" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B64" s="154" t="s">
+      <c r="B64" s="111" t="s">
         <v>234</v>
       </c>
-      <c r="C64" s="151"/>
-      <c r="D64" s="151"/>
-      <c r="E64" s="151"/>
-      <c r="F64" s="152"/>
+      <c r="C64" s="112"/>
+      <c r="D64" s="112"/>
+      <c r="E64" s="112"/>
+      <c r="F64" s="113"/>
       <c r="G64" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H64" s="154"/>
-      <c r="I64" s="151"/>
-      <c r="J64" s="151"/>
-      <c r="K64" s="151"/>
-      <c r="L64" s="152"/>
+      <c r="H64" s="111"/>
+      <c r="I64" s="112"/>
+      <c r="J64" s="112"/>
+      <c r="K64" s="112"/>
+      <c r="L64" s="113"/>
       <c r="M64" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="N64" s="154"/>
-      <c r="O64" s="151"/>
-      <c r="P64" s="151"/>
-      <c r="Q64" s="151"/>
-      <c r="R64" s="152"/>
+      <c r="N64" s="111"/>
+      <c r="O64" s="112"/>
+      <c r="P64" s="112"/>
+      <c r="Q64" s="112"/>
+      <c r="R64" s="113"/>
     </row>
     <row r="65" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A65" s="167" t="s">
+      <c r="A65" s="114" t="s">
         <v>59</v>
       </c>
       <c r="B65" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="C65" s="144" t="s">
+      <c r="C65" s="135" t="s">
         <v>265</v>
       </c>
-      <c r="D65" s="145"/>
-      <c r="E65" s="145"/>
-      <c r="F65" s="145"/>
-      <c r="G65" s="167" t="s">
+      <c r="D65" s="107"/>
+      <c r="E65" s="107"/>
+      <c r="F65" s="107"/>
+      <c r="G65" s="114" t="s">
         <v>59</v>
       </c>
       <c r="H65" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="I65" s="155"/>
-      <c r="J65" s="145"/>
-      <c r="K65" s="145"/>
-      <c r="L65" s="156"/>
-      <c r="M65" s="157" t="s">
+      <c r="I65" s="140"/>
+      <c r="J65" s="107"/>
+      <c r="K65" s="107"/>
+      <c r="L65" s="108"/>
+      <c r="M65" s="141" t="s">
         <v>59</v>
       </c>
       <c r="N65" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="O65" s="155"/>
-      <c r="P65" s="145"/>
-      <c r="Q65" s="145"/>
-      <c r="R65" s="156"/>
+      <c r="O65" s="140"/>
+      <c r="P65" s="107"/>
+      <c r="Q65" s="107"/>
+      <c r="R65" s="108"/>
     </row>
     <row r="66" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="158"/>
+      <c r="A66" s="115"/>
       <c r="B66" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="C66" s="146">
+      <c r="C66" s="136">
         <v>12</v>
       </c>
-      <c r="D66" s="146"/>
-      <c r="E66" s="146"/>
-      <c r="F66" s="146"/>
-      <c r="G66" s="158"/>
+      <c r="D66" s="136"/>
+      <c r="E66" s="136"/>
+      <c r="F66" s="136"/>
+      <c r="G66" s="115"/>
       <c r="H66" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="I66" s="147"/>
-      <c r="J66" s="148"/>
-      <c r="K66" s="148"/>
-      <c r="L66" s="149"/>
-      <c r="M66" s="158"/>
+      <c r="I66" s="109"/>
+      <c r="J66" s="137"/>
+      <c r="K66" s="137"/>
+      <c r="L66" s="110"/>
+      <c r="M66" s="115"/>
       <c r="N66" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="O66" s="147"/>
-      <c r="P66" s="148"/>
-      <c r="Q66" s="148"/>
-      <c r="R66" s="149"/>
+      <c r="O66" s="109"/>
+      <c r="P66" s="137"/>
+      <c r="Q66" s="137"/>
+      <c r="R66" s="110"/>
     </row>
     <row r="67" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A67" s="158"/>
-      <c r="B67" s="159" t="s">
+      <c r="A67" s="115"/>
+      <c r="B67" s="128" t="s">
         <v>62</v>
       </c>
       <c r="C67" s="29" t="s">
@@ -2940,8 +2866,8 @@
       <c r="F67" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="G67" s="158"/>
-      <c r="H67" s="159" t="s">
+      <c r="G67" s="115"/>
+      <c r="H67" s="128" t="s">
         <v>62</v>
       </c>
       <c r="I67" s="29" t="s">
@@ -2956,8 +2882,8 @@
       <c r="L67" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="M67" s="158"/>
-      <c r="N67" s="159" t="s">
+      <c r="M67" s="115"/>
+      <c r="N67" s="128" t="s">
         <v>62</v>
       </c>
       <c r="O67" s="29" t="s">
@@ -2974,8 +2900,8 @@
       </c>
     </row>
     <row r="68" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A68" s="158"/>
-      <c r="B68" s="149"/>
+      <c r="A68" s="115"/>
+      <c r="B68" s="110"/>
       <c r="C68" s="28" t="s">
         <v>66</v>
       </c>
@@ -2988,8 +2914,8 @@
       <c r="F68" t="s">
         <v>233</v>
       </c>
-      <c r="G68" s="158"/>
-      <c r="H68" s="149"/>
+      <c r="G68" s="115"/>
+      <c r="H68" s="110"/>
       <c r="I68" s="28" t="s">
         <v>67</v>
       </c>
@@ -2998,8 +2924,8 @@
       </c>
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
-      <c r="M68" s="158"/>
-      <c r="N68" s="149"/>
+      <c r="M68" s="115"/>
+      <c r="N68" s="110"/>
       <c r="O68" s="28" t="s">
         <v>67</v>
       </c>
@@ -3010,8 +2936,8 @@
       <c r="R68" s="2"/>
     </row>
     <row r="69" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A69" s="158"/>
-      <c r="B69" s="149"/>
+      <c r="A69" s="115"/>
+      <c r="B69" s="110"/>
       <c r="C69" s="28" t="s">
         <v>68</v>
       </c>
@@ -3021,8 +2947,8 @@
       <c r="E69" s="2">
         <v>2231</v>
       </c>
-      <c r="G69" s="158"/>
-      <c r="H69" s="149"/>
+      <c r="G69" s="115"/>
+      <c r="H69" s="110"/>
       <c r="I69" s="28" t="s">
         <v>69</v>
       </c>
@@ -3031,8 +2957,8 @@
       </c>
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
-      <c r="M69" s="158"/>
-      <c r="N69" s="149"/>
+      <c r="M69" s="115"/>
+      <c r="N69" s="110"/>
       <c r="O69" s="28" t="s">
         <v>69</v>
       </c>
@@ -3043,8 +2969,8 @@
       <c r="R69" s="2"/>
     </row>
     <row r="70" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A70" s="158"/>
-      <c r="B70" s="149"/>
+      <c r="A70" s="115"/>
+      <c r="B70" s="110"/>
       <c r="C70" s="28" t="s">
         <v>70</v>
       </c>
@@ -3052,8 +2978,8 @@
         <v>0</v>
       </c>
       <c r="E70" s="2"/>
-      <c r="G70" s="158"/>
-      <c r="H70" s="149"/>
+      <c r="G70" s="115"/>
+      <c r="H70" s="110"/>
       <c r="I70" s="28" t="s">
         <v>70</v>
       </c>
@@ -3062,8 +2988,8 @@
       </c>
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
-      <c r="M70" s="158"/>
-      <c r="N70" s="149"/>
+      <c r="M70" s="115"/>
+      <c r="N70" s="110"/>
       <c r="O70" s="28" t="s">
         <v>70</v>
       </c>
@@ -3074,8 +3000,8 @@
       <c r="R70" s="2"/>
     </row>
     <row r="71" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A71" s="158"/>
-      <c r="B71" s="149"/>
+      <c r="A71" s="115"/>
+      <c r="B71" s="110"/>
       <c r="C71" s="28" t="s">
         <v>71</v>
       </c>
@@ -3083,8 +3009,8 @@
         <v>0</v>
       </c>
       <c r="E71" s="2"/>
-      <c r="G71" s="158"/>
-      <c r="H71" s="149"/>
+      <c r="G71" s="115"/>
+      <c r="H71" s="110"/>
       <c r="I71" s="28" t="s">
         <v>71</v>
       </c>
@@ -3093,8 +3019,8 @@
       </c>
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
-      <c r="M71" s="158"/>
-      <c r="N71" s="149"/>
+      <c r="M71" s="115"/>
+      <c r="N71" s="110"/>
       <c r="O71" s="28" t="s">
         <v>71</v>
       </c>
@@ -3105,8 +3031,8 @@
       <c r="R71" s="2"/>
     </row>
     <row r="72" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A72" s="158"/>
-      <c r="B72" s="149"/>
+      <c r="A72" s="115"/>
+      <c r="B72" s="110"/>
       <c r="C72" s="28" t="s">
         <v>72</v>
       </c>
@@ -3116,8 +3042,8 @@
       <c r="E72" s="2">
         <v>232</v>
       </c>
-      <c r="G72" s="158"/>
-      <c r="H72" s="149"/>
+      <c r="G72" s="115"/>
+      <c r="H72" s="110"/>
       <c r="I72" s="28" t="s">
         <v>72</v>
       </c>
@@ -3126,8 +3052,8 @@
       </c>
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
-      <c r="M72" s="158"/>
-      <c r="N72" s="149"/>
+      <c r="M72" s="115"/>
+      <c r="N72" s="110"/>
       <c r="O72" s="28" t="s">
         <v>72</v>
       </c>
@@ -3138,8 +3064,8 @@
       <c r="R72" s="2"/>
     </row>
     <row r="73" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A73" s="158"/>
-      <c r="B73" s="149"/>
+      <c r="A73" s="115"/>
+      <c r="B73" s="110"/>
       <c r="C73" s="28" t="s">
         <v>73</v>
       </c>
@@ -3149,8 +3075,11 @@
       <c r="E73" s="2">
         <v>53</v>
       </c>
-      <c r="G73" s="158"/>
-      <c r="H73" s="149"/>
+      <c r="F73" t="s">
+        <v>280</v>
+      </c>
+      <c r="G73" s="115"/>
+      <c r="H73" s="110"/>
       <c r="I73" s="28" t="s">
         <v>73</v>
       </c>
@@ -3159,8 +3088,8 @@
       </c>
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
-      <c r="M73" s="158"/>
-      <c r="N73" s="149"/>
+      <c r="M73" s="115"/>
+      <c r="N73" s="110"/>
       <c r="O73" s="28" t="s">
         <v>73</v>
       </c>
@@ -3171,8 +3100,8 @@
       <c r="R73" s="2"/>
     </row>
     <row r="74" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A74" s="158"/>
-      <c r="B74" s="149"/>
+      <c r="A74" s="115"/>
+      <c r="B74" s="110"/>
       <c r="C74" s="28" t="s">
         <v>74</v>
       </c>
@@ -3180,8 +3109,8 @@
         <v>0</v>
       </c>
       <c r="E74" s="2"/>
-      <c r="G74" s="158"/>
-      <c r="H74" s="149"/>
+      <c r="G74" s="115"/>
+      <c r="H74" s="110"/>
       <c r="I74" s="28" t="s">
         <v>74</v>
       </c>
@@ -3190,8 +3119,8 @@
       </c>
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
-      <c r="M74" s="158"/>
-      <c r="N74" s="149"/>
+      <c r="M74" s="115"/>
+      <c r="N74" s="110"/>
       <c r="O74" s="28" t="s">
         <v>74</v>
       </c>
@@ -3202,8 +3131,8 @@
       <c r="R74" s="2"/>
     </row>
     <row r="75" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A75" s="158"/>
-      <c r="B75" s="149"/>
+      <c r="A75" s="115"/>
+      <c r="B75" s="110"/>
       <c r="C75" s="28" t="s">
         <v>75</v>
       </c>
@@ -3211,8 +3140,8 @@
         <v>0</v>
       </c>
       <c r="E75" s="2"/>
-      <c r="G75" s="158"/>
-      <c r="H75" s="149"/>
+      <c r="G75" s="115"/>
+      <c r="H75" s="110"/>
       <c r="I75" s="28" t="s">
         <v>75</v>
       </c>
@@ -3221,8 +3150,8 @@
       </c>
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
-      <c r="M75" s="158"/>
-      <c r="N75" s="149"/>
+      <c r="M75" s="115"/>
+      <c r="N75" s="110"/>
       <c r="O75" s="28" t="s">
         <v>75</v>
       </c>
@@ -3233,8 +3162,8 @@
       <c r="R75" s="2"/>
     </row>
     <row r="76" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A76" s="158"/>
-      <c r="B76" s="149"/>
+      <c r="A76" s="115"/>
+      <c r="B76" s="110"/>
       <c r="C76" s="28" t="s">
         <v>76</v>
       </c>
@@ -3242,8 +3171,8 @@
         <v>0</v>
       </c>
       <c r="E76" s="2"/>
-      <c r="G76" s="158"/>
-      <c r="H76" s="149"/>
+      <c r="G76" s="115"/>
+      <c r="H76" s="110"/>
       <c r="I76" s="28" t="s">
         <v>76</v>
       </c>
@@ -3252,8 +3181,8 @@
       </c>
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
-      <c r="M76" s="158"/>
-      <c r="N76" s="149"/>
+      <c r="M76" s="115"/>
+      <c r="N76" s="110"/>
       <c r="O76" s="28" t="s">
         <v>76</v>
       </c>
@@ -3264,8 +3193,8 @@
       <c r="R76" s="2"/>
     </row>
     <row r="77" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A77" s="158"/>
-      <c r="B77" s="149"/>
+      <c r="A77" s="115"/>
+      <c r="B77" s="110"/>
       <c r="C77" s="28" t="s">
         <v>77</v>
       </c>
@@ -3273,8 +3202,8 @@
         <v>0</v>
       </c>
       <c r="E77" s="2"/>
-      <c r="G77" s="158"/>
-      <c r="H77" s="149"/>
+      <c r="G77" s="115"/>
+      <c r="H77" s="110"/>
       <c r="I77" s="28" t="s">
         <v>77</v>
       </c>
@@ -3283,8 +3212,8 @@
       </c>
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
-      <c r="M77" s="158"/>
-      <c r="N77" s="149"/>
+      <c r="M77" s="115"/>
+      <c r="N77" s="110"/>
       <c r="O77" s="28" t="s">
         <v>77</v>
       </c>
@@ -3295,8 +3224,8 @@
       <c r="R77" s="2"/>
     </row>
     <row r="78" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A78" s="158"/>
-      <c r="B78" s="149"/>
+      <c r="A78" s="115"/>
+      <c r="B78" s="110"/>
       <c r="C78" s="28" t="s">
         <v>78</v>
       </c>
@@ -3304,8 +3233,8 @@
         <v>0</v>
       </c>
       <c r="E78" s="2"/>
-      <c r="G78" s="158"/>
-      <c r="H78" s="160"/>
+      <c r="G78" s="115"/>
+      <c r="H78" s="105"/>
       <c r="I78" s="28" t="s">
         <v>78</v>
       </c>
@@ -3314,8 +3243,8 @@
       </c>
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
-      <c r="M78" s="158"/>
-      <c r="N78" s="160"/>
+      <c r="M78" s="115"/>
+      <c r="N78" s="105"/>
       <c r="O78" s="28" t="s">
         <v>78</v>
       </c>
@@ -3329,29 +3258,29 @@
       <c r="A79" s="95" t="s">
         <v>80</v>
       </c>
-      <c r="B79" s="193" t="s">
+      <c r="B79" s="150" t="s">
         <v>279</v>
       </c>
-      <c r="C79" s="194"/>
-      <c r="D79" s="194"/>
-      <c r="E79" s="194"/>
-      <c r="F79" s="195"/>
+      <c r="C79" s="151"/>
+      <c r="D79" s="151"/>
+      <c r="E79" s="151"/>
+      <c r="F79" s="152"/>
       <c r="G79" s="95" t="s">
         <v>80</v>
       </c>
-      <c r="H79" s="134"/>
-      <c r="I79" s="135"/>
-      <c r="J79" s="135"/>
-      <c r="K79" s="135"/>
-      <c r="L79" s="136"/>
+      <c r="H79" s="153"/>
+      <c r="I79" s="154"/>
+      <c r="J79" s="154"/>
+      <c r="K79" s="154"/>
+      <c r="L79" s="155"/>
       <c r="M79" s="95" t="s">
         <v>80</v>
       </c>
-      <c r="N79" s="134"/>
-      <c r="O79" s="135"/>
-      <c r="P79" s="135"/>
-      <c r="Q79" s="135"/>
-      <c r="R79" s="136"/>
+      <c r="N79" s="153"/>
+      <c r="O79" s="154"/>
+      <c r="P79" s="154"/>
+      <c r="Q79" s="154"/>
+      <c r="R79" s="155"/>
     </row>
     <row r="80" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A80" s="95" t="s">
@@ -3363,11 +3292,11 @@
       <c r="C80" s="97" t="s">
         <v>238</v>
       </c>
-      <c r="D80" s="132" t="s">
+      <c r="D80" s="148" t="s">
         <v>266</v>
       </c>
-      <c r="E80" s="133"/>
-      <c r="F80" s="133"/>
+      <c r="E80" s="149"/>
+      <c r="F80" s="149"/>
       <c r="G80" s="95" t="s">
         <v>79</v>
       </c>
@@ -3377,9 +3306,9 @@
       <c r="I80" s="97" t="s">
         <v>238</v>
       </c>
-      <c r="J80" s="130"/>
-      <c r="K80" s="130"/>
-      <c r="L80" s="130"/>
+      <c r="J80" s="146"/>
+      <c r="K80" s="146"/>
+      <c r="L80" s="146"/>
       <c r="M80" s="95" t="s">
         <v>79</v>
       </c>
@@ -3389,49 +3318,49 @@
       <c r="O80" s="97" t="s">
         <v>238</v>
       </c>
-      <c r="P80" s="130"/>
-      <c r="Q80" s="130"/>
-      <c r="R80" s="130"/>
+      <c r="P80" s="146"/>
+      <c r="Q80" s="146"/>
+      <c r="R80" s="146"/>
     </row>
     <row r="81" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A81" s="143" t="s">
+      <c r="A81" s="142" t="s">
         <v>81</v>
       </c>
-      <c r="B81" s="137" t="b">
+      <c r="B81" s="143" t="b">
         <v>1</v>
       </c>
       <c r="C81" s="98" t="s">
         <v>235</v>
       </c>
-      <c r="D81" s="140" t="s">
+      <c r="D81" s="156" t="s">
         <v>267</v>
       </c>
-      <c r="E81" s="133"/>
-      <c r="F81" s="133"/>
-      <c r="G81" s="143" t="s">
+      <c r="E81" s="149"/>
+      <c r="F81" s="149"/>
+      <c r="G81" s="142" t="s">
         <v>81</v>
       </c>
-      <c r="H81" s="137" t="b">
+      <c r="H81" s="143" t="b">
         <v>0</v>
       </c>
       <c r="I81" s="98" t="s">
         <v>235</v>
       </c>
-      <c r="J81" s="130"/>
-      <c r="K81" s="130"/>
-      <c r="L81" s="130"/>
-      <c r="M81" s="143" t="s">
+      <c r="J81" s="146"/>
+      <c r="K81" s="146"/>
+      <c r="L81" s="146"/>
+      <c r="M81" s="142" t="s">
         <v>81</v>
       </c>
-      <c r="N81" s="137" t="b">
+      <c r="N81" s="143" t="b">
         <v>0</v>
       </c>
       <c r="O81" s="98" t="s">
         <v>235</v>
       </c>
-      <c r="P81" s="130"/>
-      <c r="Q81" s="130"/>
-      <c r="R81" s="130"/>
+      <c r="P81" s="146"/>
+      <c r="Q81" s="146"/>
+      <c r="R81" s="146"/>
       <c r="S81" s="93"/>
       <c r="T81" s="93"/>
       <c r="U81" s="93"/>
@@ -3439,32 +3368,32 @@
       <c r="W81" s="93"/>
     </row>
     <row r="82" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="143"/>
-      <c r="B82" s="138"/>
+      <c r="A82" s="142"/>
+      <c r="B82" s="144"/>
       <c r="C82" s="99" t="s">
         <v>236</v>
       </c>
-      <c r="D82" s="141" t="s">
+      <c r="D82" s="157" t="s">
         <v>268</v>
       </c>
-      <c r="E82" s="142"/>
-      <c r="F82" s="142"/>
-      <c r="G82" s="143"/>
-      <c r="H82" s="138"/>
+      <c r="E82" s="158"/>
+      <c r="F82" s="158"/>
+      <c r="G82" s="142"/>
+      <c r="H82" s="144"/>
       <c r="I82" s="99" t="s">
         <v>236</v>
       </c>
-      <c r="J82" s="131"/>
-      <c r="K82" s="131"/>
-      <c r="L82" s="131"/>
-      <c r="M82" s="143"/>
-      <c r="N82" s="138"/>
+      <c r="J82" s="147"/>
+      <c r="K82" s="147"/>
+      <c r="L82" s="147"/>
+      <c r="M82" s="142"/>
+      <c r="N82" s="144"/>
       <c r="O82" s="99" t="s">
         <v>236</v>
       </c>
-      <c r="P82" s="131"/>
-      <c r="Q82" s="131"/>
-      <c r="R82" s="131"/>
+      <c r="P82" s="147"/>
+      <c r="Q82" s="147"/>
+      <c r="R82" s="147"/>
       <c r="S82" s="93"/>
       <c r="T82" s="93"/>
       <c r="U82" s="93"/>
@@ -3472,32 +3401,32 @@
       <c r="W82" s="93"/>
     </row>
     <row r="83" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="143"/>
-      <c r="B83" s="139"/>
+      <c r="A83" s="142"/>
+      <c r="B83" s="145"/>
       <c r="C83" s="100" t="s">
         <v>237</v>
       </c>
-      <c r="D83" s="141" t="s">
+      <c r="D83" s="157" t="s">
         <v>269</v>
       </c>
-      <c r="E83" s="142"/>
-      <c r="F83" s="142"/>
-      <c r="G83" s="143"/>
-      <c r="H83" s="139"/>
+      <c r="E83" s="158"/>
+      <c r="F83" s="158"/>
+      <c r="G83" s="142"/>
+      <c r="H83" s="145"/>
       <c r="I83" s="100" t="s">
         <v>237</v>
       </c>
-      <c r="J83" s="131"/>
-      <c r="K83" s="131"/>
-      <c r="L83" s="131"/>
-      <c r="M83" s="143"/>
-      <c r="N83" s="139"/>
+      <c r="J83" s="147"/>
+      <c r="K83" s="147"/>
+      <c r="L83" s="147"/>
+      <c r="M83" s="142"/>
+      <c r="N83" s="145"/>
       <c r="O83" s="100" t="s">
         <v>237</v>
       </c>
-      <c r="P83" s="131"/>
-      <c r="Q83" s="131"/>
-      <c r="R83" s="131"/>
+      <c r="P83" s="147"/>
+      <c r="Q83" s="147"/>
+      <c r="R83" s="147"/>
       <c r="S83" s="93"/>
       <c r="T83" s="93"/>
       <c r="U83" s="93"/>
@@ -3520,14 +3449,14 @@
       <c r="M84" s="93"/>
       <c r="N84" s="94"/>
     </row>
-    <row r="85" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="127" t="s">
+    <row r="85" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="171" t="s">
         <v>248</v>
       </c>
-      <c r="B85" s="128"/>
-      <c r="C85" s="128"/>
-      <c r="D85" s="128"/>
-      <c r="E85" s="129"/>
+      <c r="B85" s="172"/>
+      <c r="C85" s="172"/>
+      <c r="D85" s="172"/>
+      <c r="E85" s="173"/>
       <c r="F85" s="93"/>
       <c r="G85" s="93"/>
       <c r="H85" s="93"/>
@@ -3538,16 +3467,16 @@
       <c r="M85" s="93"/>
       <c r="N85" s="93"/>
     </row>
-    <row r="86" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="104" t="s">
+    <row r="86" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="187" t="s">
         <v>146</v>
       </c>
-      <c r="B86" s="107">
+      <c r="B86" s="178">
         <v>1231</v>
       </c>
-      <c r="C86" s="108"/>
-      <c r="D86" s="108"/>
-      <c r="E86" s="109"/>
+      <c r="C86" s="178"/>
+      <c r="D86" s="178"/>
+      <c r="E86" s="179"/>
       <c r="F86" s="93"/>
       <c r="G86" s="93"/>
       <c r="H86" s="93"/>
@@ -3558,18 +3487,18 @@
       <c r="M86" s="93"/>
       <c r="N86" s="93"/>
     </row>
-    <row r="87" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="110" t="s">
+    <row r="87" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="170" t="s">
         <v>249</v>
       </c>
-      <c r="B87" s="105" t="s">
+      <c r="B87" s="185" t="s">
         <v>250</v>
       </c>
-      <c r="C87" s="107" t="s">
+      <c r="C87" s="174" t="s">
         <v>273</v>
       </c>
-      <c r="D87" s="108"/>
-      <c r="E87" s="109"/>
+      <c r="D87" s="174"/>
+      <c r="E87" s="180"/>
       <c r="F87" s="93"/>
       <c r="G87" s="93"/>
       <c r="H87" s="93"/>
@@ -3580,159 +3509,219 @@
       <c r="M87" s="93"/>
       <c r="N87" s="93"/>
     </row>
-    <row r="88" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="112"/>
-      <c r="B88" s="105" t="s">
+    <row r="88" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="170"/>
+      <c r="B88" s="186" t="s">
         <v>251</v>
       </c>
-      <c r="C88" s="107" t="s">
+      <c r="C88" s="174" t="s">
         <v>272</v>
       </c>
-      <c r="D88" s="108"/>
-      <c r="E88" s="109"/>
-    </row>
-    <row r="89" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="104" t="s">
+      <c r="D88" s="174"/>
+      <c r="E88" s="180"/>
+    </row>
+    <row r="89" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="187" t="s">
         <v>252</v>
       </c>
-      <c r="B89" s="106" t="s">
+      <c r="B89" s="175" t="s">
         <v>270</v>
       </c>
-      <c r="C89" s="106" t="s">
+      <c r="C89" s="175" t="s">
         <v>253</v>
       </c>
-      <c r="D89" s="119" t="s">
+      <c r="D89" s="176" t="s">
         <v>271</v>
       </c>
-      <c r="E89" s="120"/>
-    </row>
-    <row r="90" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="110" t="s">
+      <c r="E89" s="181"/>
+    </row>
+    <row r="90" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="170" t="s">
         <v>254</v>
       </c>
-      <c r="B90" s="113" t="s">
+      <c r="B90" s="188" t="s">
         <v>255</v>
       </c>
-      <c r="C90" s="114"/>
-      <c r="D90" s="121" t="b">
-        <v>0</v>
-      </c>
-      <c r="E90" s="122"/>
-    </row>
-    <row r="91" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="111"/>
-      <c r="B91" s="115" t="s">
+      <c r="C90" s="189"/>
+      <c r="D90" s="177" t="b">
+        <v>0</v>
+      </c>
+      <c r="E90" s="182"/>
+    </row>
+    <row r="91" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="170"/>
+      <c r="B91" s="190" t="s">
         <v>256</v>
       </c>
-      <c r="C91" s="116"/>
-      <c r="D91" s="123" t="b">
+      <c r="C91" s="191"/>
+      <c r="D91" s="177" t="b">
         <v>1</v>
       </c>
-      <c r="E91" s="124"/>
-    </row>
-    <row r="92" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="111"/>
-      <c r="B92" s="115" t="s">
+      <c r="E91" s="182"/>
+    </row>
+    <row r="92" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="170"/>
+      <c r="B92" s="190" t="s">
         <v>257</v>
       </c>
-      <c r="C92" s="116"/>
-      <c r="D92" s="123" t="b">
-        <v>0</v>
-      </c>
-      <c r="E92" s="124"/>
-    </row>
-    <row r="93" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="111"/>
-      <c r="B93" s="115" t="s">
+      <c r="C92" s="191"/>
+      <c r="D92" s="177" t="b">
+        <v>0</v>
+      </c>
+      <c r="E92" s="182"/>
+    </row>
+    <row r="93" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="170"/>
+      <c r="B93" s="190" t="s">
         <v>73</v>
       </c>
-      <c r="C93" s="116"/>
-      <c r="D93" s="123" t="b">
-        <v>0</v>
-      </c>
-      <c r="E93" s="124"/>
-    </row>
-    <row r="94" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="112"/>
-      <c r="B94" s="117" t="s">
+      <c r="C93" s="191"/>
+      <c r="D93" s="177" t="b">
+        <v>0</v>
+      </c>
+      <c r="E93" s="182"/>
+    </row>
+    <row r="94" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="170"/>
+      <c r="B94" s="192" t="s">
         <v>258</v>
       </c>
-      <c r="C94" s="118"/>
-      <c r="D94" s="125" t="b">
-        <v>0</v>
-      </c>
-      <c r="E94" s="126"/>
-    </row>
-    <row r="95" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="110" t="s">
+      <c r="C94" s="193"/>
+      <c r="D94" s="177" t="b">
+        <v>0</v>
+      </c>
+      <c r="E94" s="182"/>
+    </row>
+    <row r="95" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="170" t="s">
         <v>259</v>
       </c>
-      <c r="B95" s="113" t="s">
+      <c r="B95" s="188" t="s">
         <v>260</v>
       </c>
-      <c r="C95" s="114"/>
-      <c r="D95" s="107" t="s">
+      <c r="C95" s="189"/>
+      <c r="D95" s="174" t="s">
         <v>274</v>
       </c>
-      <c r="E95" s="109"/>
-    </row>
-    <row r="96" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="111"/>
-      <c r="B96" s="115" t="s">
+      <c r="E95" s="180"/>
+    </row>
+    <row r="96" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="170"/>
+      <c r="B96" s="190" t="s">
         <v>261</v>
       </c>
-      <c r="C96" s="116"/>
-      <c r="D96" s="107" t="s">
+      <c r="C96" s="191"/>
+      <c r="D96" s="174" t="s">
         <v>275</v>
       </c>
-      <c r="E96" s="109"/>
-    </row>
-    <row r="97" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="111"/>
-      <c r="B97" s="115" t="s">
+      <c r="E96" s="180"/>
+    </row>
+    <row r="97" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="170"/>
+      <c r="B97" s="190" t="s">
         <v>262</v>
       </c>
-      <c r="C97" s="116"/>
-      <c r="D97" s="107" t="s">
+      <c r="C97" s="191"/>
+      <c r="D97" s="174" t="s">
         <v>276</v>
       </c>
-      <c r="E97" s="109"/>
-    </row>
-    <row r="98" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="112"/>
-      <c r="B98" s="117" t="s">
+      <c r="E97" s="180"/>
+    </row>
+    <row r="98" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="170"/>
+      <c r="B98" s="192" t="s">
         <v>263</v>
       </c>
-      <c r="C98" s="118"/>
-      <c r="D98" s="107" t="s">
+      <c r="C98" s="193"/>
+      <c r="D98" s="174" t="s">
         <v>277</v>
       </c>
-      <c r="E98" s="109"/>
-    </row>
-    <row r="99" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="104" t="s">
+      <c r="E98" s="180"/>
+    </row>
+    <row r="99" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="187" t="s">
         <v>264</v>
       </c>
-      <c r="B99" s="107" t="s">
+      <c r="B99" s="183" t="s">
         <v>278</v>
       </c>
-      <c r="C99" s="108"/>
-      <c r="D99" s="108"/>
-      <c r="E99" s="109"/>
+      <c r="C99" s="183"/>
+      <c r="D99" s="183"/>
+      <c r="E99" s="184"/>
     </row>
   </sheetData>
   <mergeCells count="98">
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="H64:L64"/>
-    <mergeCell ref="A28:A35"/>
-    <mergeCell ref="A41:A48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B99:E99"/>
+    <mergeCell ref="A95:A98"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="A90:A94"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="A85:E85"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="C87:E87"/>
+    <mergeCell ref="C88:E88"/>
+    <mergeCell ref="P81:R81"/>
+    <mergeCell ref="P82:R82"/>
+    <mergeCell ref="P83:R83"/>
+    <mergeCell ref="D80:F80"/>
+    <mergeCell ref="B79:F79"/>
+    <mergeCell ref="J80:L80"/>
+    <mergeCell ref="H79:L79"/>
+    <mergeCell ref="P80:R80"/>
+    <mergeCell ref="N79:R79"/>
+    <mergeCell ref="N81:N83"/>
+    <mergeCell ref="D81:F81"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="J81:L81"/>
+    <mergeCell ref="J82:L82"/>
+    <mergeCell ref="J83:L83"/>
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="G81:G83"/>
+    <mergeCell ref="H81:H83"/>
+    <mergeCell ref="M81:M83"/>
+    <mergeCell ref="C65:F65"/>
+    <mergeCell ref="C66:F66"/>
+    <mergeCell ref="I66:L66"/>
+    <mergeCell ref="O66:R66"/>
+    <mergeCell ref="A62:R62"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="G63:L63"/>
+    <mergeCell ref="M63:R63"/>
+    <mergeCell ref="B64:F64"/>
+    <mergeCell ref="N64:R64"/>
+    <mergeCell ref="O65:R65"/>
+    <mergeCell ref="I65:L65"/>
+    <mergeCell ref="M65:M78"/>
+    <mergeCell ref="N67:N78"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="B24:C24"/>
     <mergeCell ref="H26:I26"/>
     <mergeCell ref="H27:I27"/>
     <mergeCell ref="G65:G78"/>
@@ -3749,77 +3738,17 @@
     <mergeCell ref="B67:B78"/>
     <mergeCell ref="D28:D35"/>
     <mergeCell ref="G28:G35"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A22:I22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="C65:F65"/>
-    <mergeCell ref="C66:F66"/>
-    <mergeCell ref="I66:L66"/>
-    <mergeCell ref="O66:R66"/>
-    <mergeCell ref="A62:R62"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="G63:L63"/>
-    <mergeCell ref="M63:R63"/>
-    <mergeCell ref="B64:F64"/>
-    <mergeCell ref="N64:R64"/>
-    <mergeCell ref="O65:R65"/>
-    <mergeCell ref="I65:L65"/>
-    <mergeCell ref="M65:M78"/>
-    <mergeCell ref="N67:N78"/>
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="G81:G83"/>
-    <mergeCell ref="H81:H83"/>
-    <mergeCell ref="M81:M83"/>
-    <mergeCell ref="P81:R81"/>
-    <mergeCell ref="P82:R82"/>
-    <mergeCell ref="P83:R83"/>
-    <mergeCell ref="D80:F80"/>
-    <mergeCell ref="B79:F79"/>
-    <mergeCell ref="J80:L80"/>
-    <mergeCell ref="H79:L79"/>
-    <mergeCell ref="P80:R80"/>
-    <mergeCell ref="N79:R79"/>
-    <mergeCell ref="N81:N83"/>
-    <mergeCell ref="D81:F81"/>
-    <mergeCell ref="D82:F82"/>
-    <mergeCell ref="D83:F83"/>
-    <mergeCell ref="J81:L81"/>
-    <mergeCell ref="J82:L82"/>
-    <mergeCell ref="J83:L83"/>
-    <mergeCell ref="A85:E85"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="C87:E87"/>
-    <mergeCell ref="C88:E88"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="A90:A94"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="B99:E99"/>
-    <mergeCell ref="A95:A98"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A41:A48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="H64:L64"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B20" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -3872,421 +3801,421 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:175" x14ac:dyDescent="0.25">
-      <c r="A1" s="185" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="152"/>
-      <c r="D1" s="185" t="s">
+      <c r="A1" s="161" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="112"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="161" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
-      <c r="J1" s="151"/>
-      <c r="K1" s="151"/>
-      <c r="L1" s="151"/>
-      <c r="M1" s="151"/>
-      <c r="N1" s="151"/>
-      <c r="O1" s="152"/>
-      <c r="P1" s="185" t="s">
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="113"/>
+      <c r="P1" s="161" t="s">
         <v>82</v>
       </c>
-      <c r="Q1" s="151"/>
-      <c r="R1" s="151"/>
-      <c r="S1" s="152"/>
-      <c r="T1" s="182" t="s">
+      <c r="Q1" s="112"/>
+      <c r="R1" s="112"/>
+      <c r="S1" s="113"/>
+      <c r="T1" s="160" t="s">
         <v>83</v>
       </c>
-      <c r="U1" s="151"/>
-      <c r="V1" s="151"/>
-      <c r="W1" s="151"/>
-      <c r="X1" s="151"/>
-      <c r="Y1" s="151"/>
-      <c r="Z1" s="151"/>
-      <c r="AA1" s="151"/>
-      <c r="AB1" s="151"/>
-      <c r="AC1" s="151"/>
-      <c r="AD1" s="151"/>
-      <c r="AE1" s="151"/>
-      <c r="AF1" s="152"/>
-      <c r="AG1" s="182" t="s">
+      <c r="U1" s="112"/>
+      <c r="V1" s="112"/>
+      <c r="W1" s="112"/>
+      <c r="X1" s="112"/>
+      <c r="Y1" s="112"/>
+      <c r="Z1" s="112"/>
+      <c r="AA1" s="112"/>
+      <c r="AB1" s="112"/>
+      <c r="AC1" s="112"/>
+      <c r="AD1" s="112"/>
+      <c r="AE1" s="112"/>
+      <c r="AF1" s="113"/>
+      <c r="AG1" s="160" t="s">
         <v>84</v>
       </c>
-      <c r="AH1" s="151"/>
-      <c r="AI1" s="151"/>
-      <c r="AJ1" s="151"/>
-      <c r="AK1" s="151"/>
-      <c r="AL1" s="151"/>
-      <c r="AM1" s="151"/>
-      <c r="AN1" s="151"/>
-      <c r="AO1" s="151"/>
-      <c r="AP1" s="151"/>
-      <c r="AQ1" s="151"/>
-      <c r="AR1" s="151"/>
-      <c r="AS1" s="152"/>
-      <c r="AT1" s="182" t="s">
+      <c r="AH1" s="112"/>
+      <c r="AI1" s="112"/>
+      <c r="AJ1" s="112"/>
+      <c r="AK1" s="112"/>
+      <c r="AL1" s="112"/>
+      <c r="AM1" s="112"/>
+      <c r="AN1" s="112"/>
+      <c r="AO1" s="112"/>
+      <c r="AP1" s="112"/>
+      <c r="AQ1" s="112"/>
+      <c r="AR1" s="112"/>
+      <c r="AS1" s="113"/>
+      <c r="AT1" s="160" t="s">
         <v>48</v>
       </c>
-      <c r="AU1" s="151"/>
-      <c r="AV1" s="151"/>
-      <c r="AW1" s="151"/>
-      <c r="AX1" s="151"/>
-      <c r="AY1" s="151"/>
-      <c r="AZ1" s="152"/>
-      <c r="BA1" s="182" t="s">
+      <c r="AU1" s="112"/>
+      <c r="AV1" s="112"/>
+      <c r="AW1" s="112"/>
+      <c r="AX1" s="112"/>
+      <c r="AY1" s="112"/>
+      <c r="AZ1" s="113"/>
+      <c r="BA1" s="160" t="s">
         <v>85</v>
       </c>
-      <c r="BB1" s="151"/>
-      <c r="BC1" s="151"/>
-      <c r="BD1" s="151"/>
-      <c r="BE1" s="151"/>
-      <c r="BF1" s="151"/>
-      <c r="BG1" s="151"/>
-      <c r="BH1" s="151"/>
-      <c r="BI1" s="151"/>
-      <c r="BJ1" s="151"/>
-      <c r="BK1" s="151"/>
-      <c r="BL1" s="151"/>
-      <c r="BM1" s="151"/>
-      <c r="BN1" s="151"/>
-      <c r="BO1" s="151"/>
-      <c r="BP1" s="151"/>
-      <c r="BQ1" s="151"/>
-      <c r="BR1" s="151"/>
-      <c r="BS1" s="151"/>
-      <c r="BT1" s="151"/>
-      <c r="BU1" s="151"/>
-      <c r="BV1" s="151"/>
-      <c r="BW1" s="151"/>
-      <c r="BX1" s="151"/>
-      <c r="BY1" s="151"/>
-      <c r="BZ1" s="151"/>
-      <c r="CA1" s="151"/>
-      <c r="CB1" s="151"/>
-      <c r="CC1" s="151"/>
-      <c r="CD1" s="151"/>
-      <c r="CE1" s="151"/>
-      <c r="CF1" s="151"/>
-      <c r="CG1" s="151"/>
-      <c r="CH1" s="151"/>
-      <c r="CI1" s="151"/>
-      <c r="CJ1" s="151"/>
-      <c r="CK1" s="151"/>
-      <c r="CL1" s="151"/>
-      <c r="CM1" s="152"/>
+      <c r="BB1" s="112"/>
+      <c r="BC1" s="112"/>
+      <c r="BD1" s="112"/>
+      <c r="BE1" s="112"/>
+      <c r="BF1" s="112"/>
+      <c r="BG1" s="112"/>
+      <c r="BH1" s="112"/>
+      <c r="BI1" s="112"/>
+      <c r="BJ1" s="112"/>
+      <c r="BK1" s="112"/>
+      <c r="BL1" s="112"/>
+      <c r="BM1" s="112"/>
+      <c r="BN1" s="112"/>
+      <c r="BO1" s="112"/>
+      <c r="BP1" s="112"/>
+      <c r="BQ1" s="112"/>
+      <c r="BR1" s="112"/>
+      <c r="BS1" s="112"/>
+      <c r="BT1" s="112"/>
+      <c r="BU1" s="112"/>
+      <c r="BV1" s="112"/>
+      <c r="BW1" s="112"/>
+      <c r="BX1" s="112"/>
+      <c r="BY1" s="112"/>
+      <c r="BZ1" s="112"/>
+      <c r="CA1" s="112"/>
+      <c r="CB1" s="112"/>
+      <c r="CC1" s="112"/>
+      <c r="CD1" s="112"/>
+      <c r="CE1" s="112"/>
+      <c r="CF1" s="112"/>
+      <c r="CG1" s="112"/>
+      <c r="CH1" s="112"/>
+      <c r="CI1" s="112"/>
+      <c r="CJ1" s="112"/>
+      <c r="CK1" s="112"/>
+      <c r="CL1" s="112"/>
+      <c r="CM1" s="113"/>
     </row>
     <row r="2" spans="1:175" x14ac:dyDescent="0.25">
-      <c r="A2" s="186" t="s">
+      <c r="A2" s="162" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="183" t="s">
+      <c r="B2" s="159" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="183" t="s">
+      <c r="C2" s="159" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="183" t="s">
+      <c r="D2" s="159" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="183" t="s">
+      <c r="E2" s="159" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="183" t="s">
+      <c r="F2" s="159" t="s">
         <v>87</v>
       </c>
-      <c r="G2" s="183" t="s">
+      <c r="G2" s="159" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="183" t="s">
+      <c r="H2" s="159" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="183" t="s">
+      <c r="I2" s="159" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="183" t="s">
+      <c r="J2" s="159" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="183" t="s">
+      <c r="K2" s="159" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="183" t="s">
+      <c r="L2" s="159" t="s">
         <v>88</v>
       </c>
-      <c r="M2" s="183" t="s">
+      <c r="M2" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="183" t="s">
+      <c r="N2" s="159" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="183" t="s">
+      <c r="O2" s="159" t="s">
         <v>89</v>
       </c>
-      <c r="P2" s="183" t="s">
+      <c r="P2" s="159" t="s">
         <v>90</v>
       </c>
-      <c r="Q2" s="183" t="s">
+      <c r="Q2" s="159" t="s">
         <v>91</v>
       </c>
-      <c r="R2" s="183" t="s">
+      <c r="R2" s="159" t="s">
         <v>23</v>
       </c>
-      <c r="S2" s="183" t="s">
+      <c r="S2" s="159" t="s">
         <v>25</v>
       </c>
-      <c r="T2" s="183" t="s">
+      <c r="T2" s="159" t="s">
         <v>30</v>
       </c>
-      <c r="U2" s="183" t="s">
+      <c r="U2" s="159" t="s">
         <v>6</v>
       </c>
-      <c r="V2" s="183" t="s">
+      <c r="V2" s="159" t="s">
         <v>92</v>
       </c>
-      <c r="W2" s="183" t="s">
+      <c r="W2" s="159" t="s">
         <v>93</v>
       </c>
-      <c r="X2" s="182" t="s">
+      <c r="X2" s="160" t="s">
         <v>32</v>
       </c>
-      <c r="Y2" s="151"/>
-      <c r="Z2" s="151"/>
-      <c r="AA2" s="151"/>
-      <c r="AB2" s="151"/>
-      <c r="AC2" s="151"/>
-      <c r="AD2" s="151"/>
-      <c r="AE2" s="152"/>
-      <c r="AF2" s="183" t="s">
+      <c r="Y2" s="112"/>
+      <c r="Z2" s="112"/>
+      <c r="AA2" s="112"/>
+      <c r="AB2" s="112"/>
+      <c r="AC2" s="112"/>
+      <c r="AD2" s="112"/>
+      <c r="AE2" s="113"/>
+      <c r="AF2" s="159" t="s">
         <v>41</v>
       </c>
-      <c r="AG2" s="183" t="s">
+      <c r="AG2" s="159" t="s">
         <v>94</v>
       </c>
-      <c r="AH2" s="183" t="s">
+      <c r="AH2" s="159" t="s">
         <v>44</v>
       </c>
-      <c r="AI2" s="185" t="s">
+      <c r="AI2" s="161" t="s">
         <v>32</v>
       </c>
-      <c r="AJ2" s="151"/>
-      <c r="AK2" s="151"/>
-      <c r="AL2" s="151"/>
-      <c r="AM2" s="151"/>
-      <c r="AN2" s="151"/>
-      <c r="AO2" s="151"/>
-      <c r="AP2" s="152"/>
-      <c r="AQ2" s="183" t="s">
+      <c r="AJ2" s="112"/>
+      <c r="AK2" s="112"/>
+      <c r="AL2" s="112"/>
+      <c r="AM2" s="112"/>
+      <c r="AN2" s="112"/>
+      <c r="AO2" s="112"/>
+      <c r="AP2" s="113"/>
+      <c r="AQ2" s="159" t="s">
         <v>41</v>
       </c>
-      <c r="AR2" s="183" t="s">
+      <c r="AR2" s="159" t="s">
         <v>46</v>
       </c>
-      <c r="AS2" s="183" t="s">
+      <c r="AS2" s="159" t="s">
         <v>47</v>
       </c>
-      <c r="AT2" s="183" t="s">
+      <c r="AT2" s="159" t="s">
         <v>95</v>
       </c>
-      <c r="AU2" s="183" t="s">
+      <c r="AU2" s="159" t="s">
         <v>50</v>
       </c>
-      <c r="AV2" s="183" t="s">
+      <c r="AV2" s="159" t="s">
         <v>51</v>
       </c>
-      <c r="AW2" s="183" t="s">
+      <c r="AW2" s="159" t="s">
         <v>52</v>
       </c>
-      <c r="AX2" s="183" t="s">
+      <c r="AX2" s="159" t="s">
         <v>22</v>
       </c>
-      <c r="AY2" s="183" t="s">
+      <c r="AY2" s="159" t="s">
         <v>53</v>
       </c>
-      <c r="AZ2" s="183" t="s">
+      <c r="AZ2" s="159" t="s">
         <v>54</v>
       </c>
-      <c r="BA2" s="183" t="s">
+      <c r="BA2" s="159" t="s">
         <v>30</v>
       </c>
-      <c r="BB2" s="182" t="s">
+      <c r="BB2" s="160" t="s">
         <v>59</v>
       </c>
-      <c r="BC2" s="151"/>
-      <c r="BD2" s="151"/>
-      <c r="BE2" s="151"/>
-      <c r="BF2" s="151"/>
-      <c r="BG2" s="151"/>
-      <c r="BH2" s="151"/>
-      <c r="BI2" s="151"/>
-      <c r="BJ2" s="151"/>
-      <c r="BK2" s="151"/>
-      <c r="BL2" s="151"/>
-      <c r="BM2" s="151"/>
-      <c r="BN2" s="151"/>
-      <c r="BO2" s="151"/>
-      <c r="BP2" s="151"/>
-      <c r="BQ2" s="151"/>
-      <c r="BR2" s="151"/>
-      <c r="BS2" s="151"/>
-      <c r="BT2" s="151"/>
-      <c r="BU2" s="151"/>
-      <c r="BV2" s="151"/>
-      <c r="BW2" s="151"/>
-      <c r="BX2" s="151"/>
-      <c r="BY2" s="151"/>
-      <c r="BZ2" s="151"/>
-      <c r="CA2" s="151"/>
-      <c r="CB2" s="151"/>
-      <c r="CC2" s="151"/>
-      <c r="CD2" s="151"/>
-      <c r="CE2" s="151"/>
-      <c r="CF2" s="151"/>
-      <c r="CG2" s="151"/>
-      <c r="CH2" s="151"/>
-      <c r="CI2" s="151"/>
-      <c r="CJ2" s="152"/>
-      <c r="CK2" s="183" t="s">
+      <c r="BC2" s="112"/>
+      <c r="BD2" s="112"/>
+      <c r="BE2" s="112"/>
+      <c r="BF2" s="112"/>
+      <c r="BG2" s="112"/>
+      <c r="BH2" s="112"/>
+      <c r="BI2" s="112"/>
+      <c r="BJ2" s="112"/>
+      <c r="BK2" s="112"/>
+      <c r="BL2" s="112"/>
+      <c r="BM2" s="112"/>
+      <c r="BN2" s="112"/>
+      <c r="BO2" s="112"/>
+      <c r="BP2" s="112"/>
+      <c r="BQ2" s="112"/>
+      <c r="BR2" s="112"/>
+      <c r="BS2" s="112"/>
+      <c r="BT2" s="112"/>
+      <c r="BU2" s="112"/>
+      <c r="BV2" s="112"/>
+      <c r="BW2" s="112"/>
+      <c r="BX2" s="112"/>
+      <c r="BY2" s="112"/>
+      <c r="BZ2" s="112"/>
+      <c r="CA2" s="112"/>
+      <c r="CB2" s="112"/>
+      <c r="CC2" s="112"/>
+      <c r="CD2" s="112"/>
+      <c r="CE2" s="112"/>
+      <c r="CF2" s="112"/>
+      <c r="CG2" s="112"/>
+      <c r="CH2" s="112"/>
+      <c r="CI2" s="112"/>
+      <c r="CJ2" s="113"/>
+      <c r="CK2" s="159" t="s">
         <v>79</v>
       </c>
-      <c r="CL2" s="183" t="s">
+      <c r="CL2" s="159" t="s">
         <v>80</v>
       </c>
-      <c r="CM2" s="183" t="s">
+      <c r="CM2" s="159" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:175" x14ac:dyDescent="0.25">
-      <c r="A3" s="158"/>
-      <c r="B3" s="158"/>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="158"/>
-      <c r="I3" s="158"/>
-      <c r="J3" s="158"/>
-      <c r="K3" s="158"/>
-      <c r="L3" s="158"/>
-      <c r="M3" s="158"/>
-      <c r="N3" s="158"/>
-      <c r="O3" s="158"/>
-      <c r="P3" s="158"/>
-      <c r="Q3" s="158"/>
-      <c r="R3" s="158"/>
-      <c r="S3" s="158"/>
-      <c r="T3" s="158"/>
-      <c r="U3" s="158"/>
-      <c r="V3" s="158"/>
-      <c r="W3" s="158"/>
-      <c r="X3" s="183" t="s">
+      <c r="A3" s="115"/>
+      <c r="B3" s="115"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
+      <c r="U3" s="115"/>
+      <c r="V3" s="115"/>
+      <c r="W3" s="115"/>
+      <c r="X3" s="159" t="s">
         <v>96</v>
       </c>
-      <c r="Y3" s="183" t="s">
+      <c r="Y3" s="159" t="s">
         <v>34</v>
       </c>
-      <c r="Z3" s="183" t="s">
+      <c r="Z3" s="159" t="s">
         <v>35</v>
       </c>
-      <c r="AA3" s="183" t="s">
+      <c r="AA3" s="159" t="s">
         <v>36</v>
       </c>
-      <c r="AB3" s="183" t="s">
+      <c r="AB3" s="159" t="s">
         <v>37</v>
       </c>
-      <c r="AC3" s="183" t="s">
+      <c r="AC3" s="159" t="s">
         <v>38</v>
       </c>
-      <c r="AD3" s="183" t="s">
+      <c r="AD3" s="159" t="s">
         <v>39</v>
       </c>
-      <c r="AE3" s="183" t="s">
+      <c r="AE3" s="159" t="s">
         <v>40</v>
       </c>
-      <c r="AF3" s="158"/>
-      <c r="AG3" s="158"/>
-      <c r="AH3" s="158"/>
-      <c r="AI3" s="183" t="s">
+      <c r="AF3" s="115"/>
+      <c r="AG3" s="115"/>
+      <c r="AH3" s="115"/>
+      <c r="AI3" s="159" t="s">
         <v>97</v>
       </c>
-      <c r="AJ3" s="183" t="s">
+      <c r="AJ3" s="159" t="s">
         <v>34</v>
       </c>
-      <c r="AK3" s="183" t="s">
+      <c r="AK3" s="159" t="s">
         <v>35</v>
       </c>
-      <c r="AL3" s="183" t="s">
+      <c r="AL3" s="159" t="s">
         <v>36</v>
       </c>
-      <c r="AM3" s="183" t="s">
+      <c r="AM3" s="159" t="s">
         <v>37</v>
       </c>
-      <c r="AN3" s="183" t="s">
+      <c r="AN3" s="159" t="s">
         <v>98</v>
       </c>
-      <c r="AO3" s="183" t="s">
+      <c r="AO3" s="159" t="s">
         <v>39</v>
       </c>
-      <c r="AP3" s="183" t="s">
+      <c r="AP3" s="159" t="s">
         <v>40</v>
       </c>
-      <c r="AQ3" s="158"/>
-      <c r="AR3" s="158"/>
-      <c r="AS3" s="158"/>
-      <c r="AT3" s="158"/>
-      <c r="AU3" s="158"/>
-      <c r="AV3" s="158"/>
-      <c r="AW3" s="158"/>
-      <c r="AX3" s="158"/>
-      <c r="AY3" s="158"/>
-      <c r="AZ3" s="158"/>
-      <c r="BA3" s="158"/>
-      <c r="BB3" s="184" t="s">
+      <c r="AQ3" s="115"/>
+      <c r="AR3" s="115"/>
+      <c r="AS3" s="115"/>
+      <c r="AT3" s="115"/>
+      <c r="AU3" s="115"/>
+      <c r="AV3" s="115"/>
+      <c r="AW3" s="115"/>
+      <c r="AX3" s="115"/>
+      <c r="AY3" s="115"/>
+      <c r="AZ3" s="115"/>
+      <c r="BA3" s="115"/>
+      <c r="BB3" s="163" t="s">
         <v>60</v>
       </c>
-      <c r="BC3" s="184" t="s">
+      <c r="BC3" s="163" t="s">
         <v>61</v>
       </c>
       <c r="BD3" s="34"/>
-      <c r="BE3" s="176" t="s">
+      <c r="BE3" s="122" t="s">
         <v>62</v>
       </c>
-      <c r="BF3" s="148"/>
-      <c r="BG3" s="148"/>
-      <c r="BH3" s="148"/>
-      <c r="BI3" s="148"/>
-      <c r="BJ3" s="148"/>
-      <c r="BK3" s="148"/>
-      <c r="BL3" s="148"/>
-      <c r="BM3" s="148"/>
-      <c r="BN3" s="148"/>
-      <c r="BO3" s="148"/>
-      <c r="BP3" s="148"/>
-      <c r="BQ3" s="148"/>
-      <c r="BR3" s="148"/>
-      <c r="BS3" s="148"/>
-      <c r="BT3" s="148"/>
-      <c r="BU3" s="148"/>
-      <c r="BV3" s="148"/>
-      <c r="BW3" s="148"/>
-      <c r="BX3" s="148"/>
-      <c r="BY3" s="148"/>
-      <c r="BZ3" s="148"/>
-      <c r="CA3" s="148"/>
-      <c r="CB3" s="148"/>
-      <c r="CC3" s="148"/>
-      <c r="CD3" s="148"/>
-      <c r="CE3" s="148"/>
-      <c r="CF3" s="148"/>
-      <c r="CG3" s="148"/>
-      <c r="CH3" s="148"/>
-      <c r="CI3" s="148"/>
-      <c r="CJ3" s="148"/>
-      <c r="CK3" s="158"/>
-      <c r="CL3" s="158"/>
-      <c r="CM3" s="158"/>
+      <c r="BF3" s="137"/>
+      <c r="BG3" s="137"/>
+      <c r="BH3" s="137"/>
+      <c r="BI3" s="137"/>
+      <c r="BJ3" s="137"/>
+      <c r="BK3" s="137"/>
+      <c r="BL3" s="137"/>
+      <c r="BM3" s="137"/>
+      <c r="BN3" s="137"/>
+      <c r="BO3" s="137"/>
+      <c r="BP3" s="137"/>
+      <c r="BQ3" s="137"/>
+      <c r="BR3" s="137"/>
+      <c r="BS3" s="137"/>
+      <c r="BT3" s="137"/>
+      <c r="BU3" s="137"/>
+      <c r="BV3" s="137"/>
+      <c r="BW3" s="137"/>
+      <c r="BX3" s="137"/>
+      <c r="BY3" s="137"/>
+      <c r="BZ3" s="137"/>
+      <c r="CA3" s="137"/>
+      <c r="CB3" s="137"/>
+      <c r="CC3" s="137"/>
+      <c r="CD3" s="137"/>
+      <c r="CE3" s="137"/>
+      <c r="CF3" s="137"/>
+      <c r="CG3" s="137"/>
+      <c r="CH3" s="137"/>
+      <c r="CI3" s="137"/>
+      <c r="CJ3" s="137"/>
+      <c r="CK3" s="115"/>
+      <c r="CL3" s="115"/>
+      <c r="CM3" s="115"/>
       <c r="CN3" s="21"/>
       <c r="CO3" s="21"/>
       <c r="CP3" s="21"/>
@@ -4372,176 +4301,176 @@
       <c r="FS3" s="21"/>
     </row>
     <row r="4" spans="1:175" x14ac:dyDescent="0.25">
-      <c r="A4" s="158"/>
-      <c r="B4" s="158"/>
-      <c r="C4" s="158"/>
-      <c r="D4" s="158"/>
-      <c r="E4" s="158"/>
-      <c r="F4" s="158"/>
-      <c r="G4" s="158"/>
-      <c r="H4" s="158"/>
-      <c r="I4" s="158"/>
-      <c r="J4" s="158"/>
-      <c r="K4" s="158"/>
-      <c r="L4" s="158"/>
-      <c r="M4" s="158"/>
-      <c r="N4" s="158"/>
-      <c r="O4" s="158"/>
-      <c r="P4" s="158"/>
-      <c r="Q4" s="158"/>
-      <c r="R4" s="158"/>
-      <c r="S4" s="158"/>
-      <c r="T4" s="158"/>
-      <c r="U4" s="158"/>
-      <c r="V4" s="158"/>
-      <c r="W4" s="158"/>
-      <c r="X4" s="158"/>
-      <c r="Y4" s="158"/>
-      <c r="Z4" s="158"/>
-      <c r="AA4" s="158"/>
-      <c r="AB4" s="158"/>
-      <c r="AC4" s="158"/>
-      <c r="AD4" s="158"/>
-      <c r="AE4" s="158"/>
-      <c r="AF4" s="158"/>
-      <c r="AG4" s="158"/>
-      <c r="AH4" s="158"/>
-      <c r="AI4" s="158"/>
-      <c r="AJ4" s="158"/>
-      <c r="AK4" s="158"/>
-      <c r="AL4" s="158"/>
-      <c r="AM4" s="158"/>
-      <c r="AN4" s="158"/>
-      <c r="AO4" s="158"/>
-      <c r="AP4" s="158"/>
-      <c r="AQ4" s="158"/>
-      <c r="AR4" s="158"/>
-      <c r="AS4" s="158"/>
-      <c r="AT4" s="158"/>
-      <c r="AU4" s="158"/>
-      <c r="AV4" s="158"/>
-      <c r="AW4" s="158"/>
-      <c r="AX4" s="158"/>
-      <c r="AY4" s="158"/>
-      <c r="AZ4" s="158"/>
-      <c r="BA4" s="158"/>
-      <c r="BB4" s="158"/>
-      <c r="BC4" s="158"/>
-      <c r="BD4" s="182" t="s">
+      <c r="A4" s="115"/>
+      <c r="B4" s="115"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="115"/>
+      <c r="L4" s="115"/>
+      <c r="M4" s="115"/>
+      <c r="N4" s="115"/>
+      <c r="O4" s="115"/>
+      <c r="P4" s="115"/>
+      <c r="Q4" s="115"/>
+      <c r="R4" s="115"/>
+      <c r="S4" s="115"/>
+      <c r="T4" s="115"/>
+      <c r="U4" s="115"/>
+      <c r="V4" s="115"/>
+      <c r="W4" s="115"/>
+      <c r="X4" s="115"/>
+      <c r="Y4" s="115"/>
+      <c r="Z4" s="115"/>
+      <c r="AA4" s="115"/>
+      <c r="AB4" s="115"/>
+      <c r="AC4" s="115"/>
+      <c r="AD4" s="115"/>
+      <c r="AE4" s="115"/>
+      <c r="AF4" s="115"/>
+      <c r="AG4" s="115"/>
+      <c r="AH4" s="115"/>
+      <c r="AI4" s="115"/>
+      <c r="AJ4" s="115"/>
+      <c r="AK4" s="115"/>
+      <c r="AL4" s="115"/>
+      <c r="AM4" s="115"/>
+      <c r="AN4" s="115"/>
+      <c r="AO4" s="115"/>
+      <c r="AP4" s="115"/>
+      <c r="AQ4" s="115"/>
+      <c r="AR4" s="115"/>
+      <c r="AS4" s="115"/>
+      <c r="AT4" s="115"/>
+      <c r="AU4" s="115"/>
+      <c r="AV4" s="115"/>
+      <c r="AW4" s="115"/>
+      <c r="AX4" s="115"/>
+      <c r="AY4" s="115"/>
+      <c r="AZ4" s="115"/>
+      <c r="BA4" s="115"/>
+      <c r="BB4" s="115"/>
+      <c r="BC4" s="115"/>
+      <c r="BD4" s="160" t="s">
         <v>67</v>
       </c>
-      <c r="BE4" s="151"/>
-      <c r="BF4" s="152"/>
-      <c r="BG4" s="182" t="s">
+      <c r="BE4" s="112"/>
+      <c r="BF4" s="113"/>
+      <c r="BG4" s="160" t="s">
         <v>67</v>
       </c>
-      <c r="BH4" s="151"/>
-      <c r="BI4" s="152"/>
-      <c r="BJ4" s="182" t="s">
+      <c r="BH4" s="112"/>
+      <c r="BI4" s="113"/>
+      <c r="BJ4" s="160" t="s">
         <v>70</v>
       </c>
-      <c r="BK4" s="151"/>
-      <c r="BL4" s="152"/>
-      <c r="BM4" s="182" t="s">
+      <c r="BK4" s="112"/>
+      <c r="BL4" s="113"/>
+      <c r="BM4" s="160" t="s">
         <v>71</v>
       </c>
-      <c r="BN4" s="151"/>
-      <c r="BO4" s="152"/>
-      <c r="BP4" s="182" t="s">
+      <c r="BN4" s="112"/>
+      <c r="BO4" s="113"/>
+      <c r="BP4" s="160" t="s">
         <v>72</v>
       </c>
-      <c r="BQ4" s="151"/>
-      <c r="BR4" s="152"/>
-      <c r="BS4" s="182" t="s">
+      <c r="BQ4" s="112"/>
+      <c r="BR4" s="113"/>
+      <c r="BS4" s="160" t="s">
         <v>73</v>
       </c>
-      <c r="BT4" s="151"/>
-      <c r="BU4" s="152"/>
-      <c r="BV4" s="182" t="s">
+      <c r="BT4" s="112"/>
+      <c r="BU4" s="113"/>
+      <c r="BV4" s="160" t="s">
         <v>74</v>
       </c>
-      <c r="BW4" s="151"/>
-      <c r="BX4" s="152"/>
-      <c r="BY4" s="182" t="s">
+      <c r="BW4" s="112"/>
+      <c r="BX4" s="113"/>
+      <c r="BY4" s="160" t="s">
         <v>75</v>
       </c>
-      <c r="BZ4" s="151"/>
-      <c r="CA4" s="152"/>
-      <c r="CB4" s="182" t="s">
+      <c r="BZ4" s="112"/>
+      <c r="CA4" s="113"/>
+      <c r="CB4" s="160" t="s">
         <v>76</v>
       </c>
-      <c r="CC4" s="151"/>
-      <c r="CD4" s="152"/>
-      <c r="CE4" s="182" t="s">
+      <c r="CC4" s="112"/>
+      <c r="CD4" s="113"/>
+      <c r="CE4" s="160" t="s">
         <v>77</v>
       </c>
-      <c r="CF4" s="151"/>
-      <c r="CG4" s="152"/>
-      <c r="CH4" s="182" t="s">
+      <c r="CF4" s="112"/>
+      <c r="CG4" s="113"/>
+      <c r="CH4" s="160" t="s">
         <v>78</v>
       </c>
-      <c r="CI4" s="151"/>
-      <c r="CJ4" s="152"/>
-      <c r="CK4" s="158"/>
-      <c r="CL4" s="158"/>
-      <c r="CM4" s="158"/>
+      <c r="CI4" s="112"/>
+      <c r="CJ4" s="113"/>
+      <c r="CK4" s="115"/>
+      <c r="CL4" s="115"/>
+      <c r="CM4" s="115"/>
     </row>
     <row r="5" spans="1:175" x14ac:dyDescent="0.25">
-      <c r="A5" s="170"/>
-      <c r="B5" s="170"/>
-      <c r="C5" s="170"/>
-      <c r="D5" s="170"/>
-      <c r="E5" s="170"/>
-      <c r="F5" s="170"/>
-      <c r="G5" s="170"/>
-      <c r="H5" s="170"/>
-      <c r="I5" s="170"/>
-      <c r="J5" s="170"/>
-      <c r="K5" s="170"/>
-      <c r="L5" s="170"/>
-      <c r="M5" s="170"/>
-      <c r="N5" s="170"/>
-      <c r="O5" s="170"/>
-      <c r="P5" s="170"/>
-      <c r="Q5" s="170"/>
-      <c r="R5" s="170"/>
-      <c r="S5" s="170"/>
-      <c r="T5" s="170"/>
-      <c r="U5" s="170"/>
-      <c r="V5" s="170"/>
-      <c r="W5" s="170"/>
-      <c r="X5" s="170"/>
-      <c r="Y5" s="170"/>
-      <c r="Z5" s="170"/>
-      <c r="AA5" s="170"/>
-      <c r="AB5" s="170"/>
-      <c r="AC5" s="170"/>
-      <c r="AD5" s="170"/>
-      <c r="AE5" s="170"/>
-      <c r="AF5" s="170"/>
-      <c r="AG5" s="170"/>
-      <c r="AH5" s="170"/>
-      <c r="AI5" s="170"/>
-      <c r="AJ5" s="170"/>
-      <c r="AK5" s="170"/>
-      <c r="AL5" s="170"/>
-      <c r="AM5" s="170"/>
-      <c r="AN5" s="170"/>
-      <c r="AO5" s="170"/>
-      <c r="AP5" s="170"/>
-      <c r="AQ5" s="170"/>
-      <c r="AR5" s="170"/>
-      <c r="AS5" s="170"/>
-      <c r="AT5" s="170"/>
-      <c r="AU5" s="170"/>
-      <c r="AV5" s="170"/>
-      <c r="AW5" s="170"/>
-      <c r="AX5" s="170"/>
-      <c r="AY5" s="170"/>
-      <c r="AZ5" s="170"/>
-      <c r="BA5" s="170"/>
-      <c r="BB5" s="170"/>
-      <c r="BC5" s="170"/>
+      <c r="A5" s="116"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="116"/>
+      <c r="K5" s="116"/>
+      <c r="L5" s="116"/>
+      <c r="M5" s="116"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="116"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="116"/>
+      <c r="R5" s="116"/>
+      <c r="S5" s="116"/>
+      <c r="T5" s="116"/>
+      <c r="U5" s="116"/>
+      <c r="V5" s="116"/>
+      <c r="W5" s="116"/>
+      <c r="X5" s="116"/>
+      <c r="Y5" s="116"/>
+      <c r="Z5" s="116"/>
+      <c r="AA5" s="116"/>
+      <c r="AB5" s="116"/>
+      <c r="AC5" s="116"/>
+      <c r="AD5" s="116"/>
+      <c r="AE5" s="116"/>
+      <c r="AF5" s="116"/>
+      <c r="AG5" s="116"/>
+      <c r="AH5" s="116"/>
+      <c r="AI5" s="116"/>
+      <c r="AJ5" s="116"/>
+      <c r="AK5" s="116"/>
+      <c r="AL5" s="116"/>
+      <c r="AM5" s="116"/>
+      <c r="AN5" s="116"/>
+      <c r="AO5" s="116"/>
+      <c r="AP5" s="116"/>
+      <c r="AQ5" s="116"/>
+      <c r="AR5" s="116"/>
+      <c r="AS5" s="116"/>
+      <c r="AT5" s="116"/>
+      <c r="AU5" s="116"/>
+      <c r="AV5" s="116"/>
+      <c r="AW5" s="116"/>
+      <c r="AX5" s="116"/>
+      <c r="AY5" s="116"/>
+      <c r="AZ5" s="116"/>
+      <c r="BA5" s="116"/>
+      <c r="BB5" s="116"/>
+      <c r="BC5" s="116"/>
       <c r="BD5" s="35" t="s">
         <v>99</v>
       </c>
@@ -4641,9 +4570,9 @@
       <c r="CJ5" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="CK5" s="170"/>
-      <c r="CL5" s="170"/>
-      <c r="CM5" s="170"/>
+      <c r="CK5" s="116"/>
+      <c r="CL5" s="116"/>
+      <c r="CM5" s="116"/>
     </row>
     <row r="6" spans="1:175" x14ac:dyDescent="0.25">
       <c r="A6" s="36"/>
@@ -5222,14 +5151,62 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="X3:X5"/>
-    <mergeCell ref="Y3:Y5"/>
-    <mergeCell ref="AL3:AL5"/>
-    <mergeCell ref="Z3:Z5"/>
-    <mergeCell ref="AA3:AA5"/>
-    <mergeCell ref="AB3:AB5"/>
-    <mergeCell ref="AC3:AC5"/>
-    <mergeCell ref="AD3:AD5"/>
+    <mergeCell ref="BM4:BO4"/>
+    <mergeCell ref="AM3:AM5"/>
+    <mergeCell ref="AN3:AN5"/>
+    <mergeCell ref="AO3:AO5"/>
+    <mergeCell ref="AP3:AP5"/>
+    <mergeCell ref="AT2:AT5"/>
+    <mergeCell ref="AU2:AU5"/>
+    <mergeCell ref="AV2:AV5"/>
+    <mergeCell ref="AW2:AW5"/>
+    <mergeCell ref="CE4:CG4"/>
+    <mergeCell ref="CH4:CJ4"/>
+    <mergeCell ref="AX2:AX5"/>
+    <mergeCell ref="AY2:AY5"/>
+    <mergeCell ref="AZ2:AZ5"/>
+    <mergeCell ref="BB3:BB5"/>
+    <mergeCell ref="BC3:BC5"/>
+    <mergeCell ref="BP4:BR4"/>
+    <mergeCell ref="BS4:BU4"/>
+    <mergeCell ref="BV4:BX4"/>
+    <mergeCell ref="BY4:CA4"/>
+    <mergeCell ref="CB4:CD4"/>
+    <mergeCell ref="BA2:BA5"/>
+    <mergeCell ref="BD4:BF4"/>
+    <mergeCell ref="BG4:BI4"/>
+    <mergeCell ref="BJ4:BL4"/>
+    <mergeCell ref="CK2:CK5"/>
+    <mergeCell ref="CL2:CL5"/>
+    <mergeCell ref="CM2:CM5"/>
+    <mergeCell ref="BE3:CJ3"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:O1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="T1:AF1"/>
+    <mergeCell ref="AG1:AS1"/>
+    <mergeCell ref="AT1:AZ1"/>
+    <mergeCell ref="BA1:CM1"/>
+    <mergeCell ref="BB2:CJ2"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="J2:J5"/>
+    <mergeCell ref="K2:K5"/>
+    <mergeCell ref="L2:L5"/>
+    <mergeCell ref="M2:M5"/>
+    <mergeCell ref="N2:N5"/>
+    <mergeCell ref="O2:O5"/>
+    <mergeCell ref="P2:P5"/>
+    <mergeCell ref="Q2:Q5"/>
+    <mergeCell ref="R2:R5"/>
+    <mergeCell ref="S2:S5"/>
     <mergeCell ref="T2:T5"/>
     <mergeCell ref="U2:U5"/>
     <mergeCell ref="AQ2:AQ5"/>
@@ -5246,62 +5223,14 @@
     <mergeCell ref="AI3:AI5"/>
     <mergeCell ref="AJ3:AJ5"/>
     <mergeCell ref="AK3:AK5"/>
-    <mergeCell ref="O2:O5"/>
-    <mergeCell ref="P2:P5"/>
-    <mergeCell ref="Q2:Q5"/>
-    <mergeCell ref="R2:R5"/>
-    <mergeCell ref="S2:S5"/>
-    <mergeCell ref="J2:J5"/>
-    <mergeCell ref="K2:K5"/>
-    <mergeCell ref="L2:L5"/>
-    <mergeCell ref="M2:M5"/>
-    <mergeCell ref="N2:N5"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="I2:I5"/>
-    <mergeCell ref="CK2:CK5"/>
-    <mergeCell ref="CL2:CL5"/>
-    <mergeCell ref="CM2:CM5"/>
-    <mergeCell ref="BE3:CJ3"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:O1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="T1:AF1"/>
-    <mergeCell ref="AG1:AS1"/>
-    <mergeCell ref="AT1:AZ1"/>
-    <mergeCell ref="BA1:CM1"/>
-    <mergeCell ref="BB2:CJ2"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="CE4:CG4"/>
-    <mergeCell ref="CH4:CJ4"/>
-    <mergeCell ref="AX2:AX5"/>
-    <mergeCell ref="AY2:AY5"/>
-    <mergeCell ref="AZ2:AZ5"/>
-    <mergeCell ref="BB3:BB5"/>
-    <mergeCell ref="BC3:BC5"/>
-    <mergeCell ref="BP4:BR4"/>
-    <mergeCell ref="BS4:BU4"/>
-    <mergeCell ref="BV4:BX4"/>
-    <mergeCell ref="BY4:CA4"/>
-    <mergeCell ref="CB4:CD4"/>
-    <mergeCell ref="BA2:BA5"/>
-    <mergeCell ref="BD4:BF4"/>
-    <mergeCell ref="BG4:BI4"/>
-    <mergeCell ref="BJ4:BL4"/>
-    <mergeCell ref="BM4:BO4"/>
-    <mergeCell ref="AM3:AM5"/>
-    <mergeCell ref="AN3:AN5"/>
-    <mergeCell ref="AO3:AO5"/>
-    <mergeCell ref="AP3:AP5"/>
-    <mergeCell ref="AT2:AT5"/>
-    <mergeCell ref="AU2:AU5"/>
-    <mergeCell ref="AV2:AV5"/>
-    <mergeCell ref="AW2:AW5"/>
+    <mergeCell ref="X3:X5"/>
+    <mergeCell ref="Y3:Y5"/>
+    <mergeCell ref="AL3:AL5"/>
+    <mergeCell ref="Z3:Z5"/>
+    <mergeCell ref="AA3:AA5"/>
+    <mergeCell ref="AB3:AB5"/>
+    <mergeCell ref="AC3:AC5"/>
+    <mergeCell ref="AD3:AD5"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="BB6:BB10" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -5335,36 +5264,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="168" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="148"/>
-      <c r="K1" s="148"/>
-      <c r="L1" s="148"/>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="137"/>
+      <c r="K1" s="137"/>
+      <c r="L1" s="137"/>
     </row>
     <row r="3" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="188" t="s">
+      <c r="A3" s="165" t="s">
         <v>101</v>
       </c>
-      <c r="B3" s="148"/>
-      <c r="C3" s="148"/>
-      <c r="D3" s="148"/>
-      <c r="E3" s="148"/>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="148"/>
-      <c r="J3" s="148"/>
-      <c r="K3" s="148"/>
-      <c r="L3" s="148"/>
+      <c r="B3" s="137"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="137"/>
+      <c r="K3" s="137"/>
+      <c r="L3" s="137"/>
     </row>
     <row r="4" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
@@ -5401,24 +5330,24 @@
       <c r="L5" s="32"/>
     </row>
     <row r="6" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="189" t="s">
+      <c r="A6" s="169" t="s">
         <v>105</v>
       </c>
-      <c r="B6" s="145"/>
-      <c r="C6" s="145"/>
-      <c r="D6" s="156"/>
-      <c r="E6" s="189" t="s">
+      <c r="B6" s="107"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="169" t="s">
         <v>106</v>
       </c>
-      <c r="F6" s="145"/>
-      <c r="G6" s="145"/>
-      <c r="H6" s="156"/>
-      <c r="I6" s="189" t="s">
+      <c r="F6" s="107"/>
+      <c r="G6" s="107"/>
+      <c r="H6" s="108"/>
+      <c r="I6" s="169" t="s">
         <v>107</v>
       </c>
-      <c r="J6" s="145"/>
-      <c r="K6" s="145"/>
-      <c r="L6" s="156"/>
+      <c r="J6" s="107"/>
+      <c r="K6" s="107"/>
+      <c r="L6" s="108"/>
     </row>
     <row r="7" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="38" t="s">
@@ -5613,19 +5542,19 @@
       <c r="D16" s="34"/>
     </row>
     <row r="17" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="188" t="s">
+      <c r="A17" s="165" t="s">
         <v>125</v>
       </c>
-      <c r="B17" s="148"/>
-      <c r="C17" s="148"/>
-      <c r="D17" s="148"/>
+      <c r="B17" s="137"/>
+      <c r="C17" s="137"/>
+      <c r="D17" s="137"/>
       <c r="E17" s="46"/>
-      <c r="F17" s="190" t="s">
+      <c r="F17" s="166" t="s">
         <v>126</v>
       </c>
-      <c r="G17" s="191"/>
-      <c r="H17" s="191"/>
-      <c r="I17" s="191"/>
+      <c r="G17" s="167"/>
+      <c r="H17" s="167"/>
+      <c r="I17" s="167"/>
     </row>
     <row r="18" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="47" t="s">
@@ -5710,19 +5639,19 @@
       <c r="D24" s="65"/>
     </row>
     <row r="25" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="188" t="s">
+      <c r="A25" s="165" t="s">
         <v>135</v>
       </c>
-      <c r="B25" s="148"/>
-      <c r="C25" s="148"/>
-      <c r="D25" s="148"/>
+      <c r="B25" s="137"/>
+      <c r="C25" s="137"/>
+      <c r="D25" s="137"/>
       <c r="E25" s="66"/>
-      <c r="F25" s="188" t="s">
+      <c r="F25" s="165" t="s">
         <v>136</v>
       </c>
-      <c r="G25" s="148"/>
-      <c r="H25" s="148"/>
-      <c r="I25" s="148"/>
+      <c r="G25" s="137"/>
+      <c r="H25" s="137"/>
+      <c r="I25" s="137"/>
     </row>
     <row r="26" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="38" t="s">
@@ -6055,16 +5984,16 @@
       <c r="D53" s="32"/>
     </row>
     <row r="55" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A55" s="188" t="s">
+      <c r="A55" s="165" t="s">
         <v>172</v>
       </c>
-      <c r="B55" s="148"/>
-      <c r="C55" s="148"/>
-      <c r="D55" s="148"/>
-      <c r="E55" s="148"/>
-      <c r="F55" s="148"/>
-      <c r="G55" s="148"/>
-      <c r="H55" s="148"/>
+      <c r="B55" s="137"/>
+      <c r="C55" s="137"/>
+      <c r="D55" s="137"/>
+      <c r="E55" s="137"/>
+      <c r="F55" s="137"/>
+      <c r="G55" s="137"/>
+      <c r="H55" s="137"/>
     </row>
     <row r="56" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A56" s="38" t="s">
@@ -6103,18 +6032,18 @@
       <c r="H59" s="32"/>
     </row>
     <row r="60" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A60" s="192" t="s">
+      <c r="A60" s="164" t="s">
         <v>174</v>
       </c>
-      <c r="B60" s="151"/>
-      <c r="C60" s="151"/>
-      <c r="D60" s="152"/>
-      <c r="E60" s="192" t="s">
+      <c r="B60" s="112"/>
+      <c r="C60" s="112"/>
+      <c r="D60" s="113"/>
+      <c r="E60" s="164" t="s">
         <v>175</v>
       </c>
-      <c r="F60" s="151"/>
-      <c r="G60" s="151"/>
-      <c r="H60" s="152"/>
+      <c r="F60" s="112"/>
+      <c r="G60" s="112"/>
+      <c r="H60" s="113"/>
     </row>
     <row r="61" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A61" s="44" t="s">
@@ -6160,16 +6089,16 @@
       <c r="H62" s="32"/>
     </row>
     <row r="63" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A63" s="192" t="s">
+      <c r="A63" s="164" t="s">
         <v>186</v>
       </c>
-      <c r="B63" s="151"/>
-      <c r="C63" s="151"/>
-      <c r="D63" s="151"/>
-      <c r="E63" s="151"/>
-      <c r="F63" s="151"/>
-      <c r="G63" s="151"/>
-      <c r="H63" s="152"/>
+      <c r="B63" s="112"/>
+      <c r="C63" s="112"/>
+      <c r="D63" s="112"/>
+      <c r="E63" s="112"/>
+      <c r="F63" s="112"/>
+      <c r="G63" s="112"/>
+      <c r="H63" s="113"/>
     </row>
     <row r="64" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A64" s="38" t="s">
@@ -6232,18 +6161,18 @@
       <c r="H67" s="7"/>
     </row>
     <row r="68" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A68" s="192" t="s">
+      <c r="A68" s="164" t="s">
         <v>197</v>
       </c>
-      <c r="B68" s="151"/>
-      <c r="C68" s="151"/>
-      <c r="D68" s="152"/>
-      <c r="E68" s="192" t="s">
+      <c r="B68" s="112"/>
+      <c r="C68" s="112"/>
+      <c r="D68" s="113"/>
+      <c r="E68" s="164" t="s">
         <v>198</v>
       </c>
-      <c r="F68" s="151"/>
-      <c r="G68" s="151"/>
-      <c r="H68" s="152"/>
+      <c r="F68" s="112"/>
+      <c r="G68" s="112"/>
+      <c r="H68" s="113"/>
     </row>
     <row r="69" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A69" s="47" t="s">
@@ -6336,18 +6265,18 @@
       <c r="H74" s="32"/>
     </row>
     <row r="75" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A75" s="192" t="s">
+      <c r="A75" s="164" t="s">
         <v>202</v>
       </c>
-      <c r="B75" s="151"/>
-      <c r="C75" s="151"/>
-      <c r="D75" s="152"/>
-      <c r="E75" s="192" t="s">
+      <c r="B75" s="112"/>
+      <c r="C75" s="112"/>
+      <c r="D75" s="113"/>
+      <c r="E75" s="164" t="s">
         <v>203</v>
       </c>
-      <c r="F75" s="151"/>
-      <c r="G75" s="151"/>
-      <c r="H75" s="152"/>
+      <c r="F75" s="112"/>
+      <c r="G75" s="112"/>
+      <c r="H75" s="113"/>
     </row>
     <row r="76" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A76" s="47" t="s">
@@ -6440,18 +6369,18 @@
       <c r="H81" s="32"/>
     </row>
     <row r="82" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A82" s="192" t="s">
+      <c r="A82" s="164" t="s">
         <v>204</v>
       </c>
-      <c r="B82" s="151"/>
-      <c r="C82" s="151"/>
-      <c r="D82" s="152"/>
-      <c r="E82" s="192" t="s">
+      <c r="B82" s="112"/>
+      <c r="C82" s="112"/>
+      <c r="D82" s="113"/>
+      <c r="E82" s="164" t="s">
         <v>205</v>
       </c>
-      <c r="F82" s="151"/>
-      <c r="G82" s="151"/>
-      <c r="H82" s="152"/>
+      <c r="F82" s="112"/>
+      <c r="G82" s="112"/>
+      <c r="H82" s="113"/>
     </row>
     <row r="83" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A83" s="47" t="s">
@@ -6629,6 +6558,16 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="E75:H75"/>
     <mergeCell ref="A82:D82"/>
     <mergeCell ref="E82:H82"/>
     <mergeCell ref="A25:D25"/>
@@ -6638,16 +6577,6 @@
     <mergeCell ref="E60:H60"/>
     <mergeCell ref="A63:H63"/>
     <mergeCell ref="E68:H68"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="A75:D75"/>
-    <mergeCell ref="E75:H75"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="I6:L6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/attachments/Input Merchant Acquisition (1).xlsx
+++ b/attachments/Input Merchant Acquisition (1).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MerchantAcquisition\attachments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\MerchantAcquisition\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6014E4E-3A7A-4AD9-8A4F-0FB97E6CAC1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A87D5B3-33EC-43A4-A9B1-0494C5B9ED6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Versi 1" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="283">
   <si>
     <t>Sales Chanel</t>
   </si>
@@ -769,9 +767,6 @@
     <t>222/321</t>
   </si>
   <si>
-    <t>123213212123</t>
-  </si>
-  <si>
     <t>32123213211</t>
   </si>
   <si>
@@ -875,6 +870,15 @@
   </si>
   <si>
     <t>this is prepaid</t>
+  </si>
+  <si>
+    <t>0123213212123</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>Cukur ganteng</t>
   </si>
 </sst>
 </file>
@@ -1393,19 +1397,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="194">
+  <cellXfs count="212">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1416,9 +1418,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1549,11 +1548,40 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1564,11 +1592,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1592,25 +1620,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1675,9 +1712,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1704,78 +1802,10 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1997,915 +2027,917 @@
   </sheetPr>
   <dimension ref="A1:W99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="G93" sqref="G93"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24:F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
     <col min="6" max="6" width="30" customWidth="1"/>
-    <col min="7" max="7" width="20.5546875" customWidth="1"/>
-    <col min="8" max="8" width="25.5546875" customWidth="1"/>
-    <col min="9" max="10" width="19.109375" customWidth="1"/>
-    <col min="11" max="11" width="20.88671875" customWidth="1"/>
-    <col min="13" max="13" width="26.109375" customWidth="1"/>
-    <col min="14" max="14" width="20.5546875" customWidth="1"/>
-    <col min="15" max="15" width="21.44140625" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" customWidth="1"/>
+    <col min="8" max="8" width="25.5703125" customWidth="1"/>
+    <col min="9" max="10" width="19.140625" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" customWidth="1"/>
+    <col min="13" max="13" width="26.140625" customWidth="1"/>
+    <col min="14" max="14" width="20.5703125" customWidth="1"/>
+    <col min="15" max="15" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="132" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="113"/>
-    </row>
-    <row r="2" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="149" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="125"/>
+    </row>
+    <row r="2" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="83">
+      <c r="B2" s="80">
         <v>123456789</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="80" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="81" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="106" t="s">
+    <row r="6" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="107"/>
-      <c r="C6" s="107"/>
-      <c r="D6" s="108"/>
-    </row>
-    <row r="7" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="B6" s="119"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="120"/>
+    </row>
+    <row r="7" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="86" t="s">
+      <c r="B7" s="83" t="s">
         <v>208</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="83" t="s">
+      <c r="B8" s="80" t="s">
         <v>209</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="87" t="s">
+      <c r="D8" s="84" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="83">
+      <c r="B9" s="80">
         <v>987654321</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="81" t="s">
+      <c r="D9" s="78" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="84" t="s">
+      <c r="B10" s="81" t="s">
         <v>211</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="82" t="s">
+      <c r="D10" s="79" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+    <row r="11" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="30" t="s">
         <v>213</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="85" t="s">
+      <c r="D11" s="82" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="83" t="s">
+      <c r="B12" s="80" t="s">
         <v>214</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="81">
+      <c r="D12" s="78">
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="84">
+      <c r="B13" s="81">
         <v>1000</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="82">
+      <c r="D13" s="79">
         <v>7000</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+    <row r="14" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="85"/>
-    </row>
-    <row r="15" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="C14" s="12"/>
+      <c r="D14" s="82"/>
+    </row>
+    <row r="15" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="15" t="b">
+      <c r="B15" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="81">
+      <c r="D15" s="78">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="C16" s="8" t="s">
+      <c r="B16" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="81"/>
-    </row>
-    <row r="17" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="D16" s="78"/>
+    </row>
+    <row r="17" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="81"/>
-    </row>
-    <row r="18" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="D17" s="78"/>
+    </row>
+    <row r="18" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="81"/>
-    </row>
-    <row r="19" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="C18" s="7"/>
+      <c r="D18" s="78"/>
+    </row>
+    <row r="19" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="C19" s="102" t="s">
+      <c r="C19" s="99" t="s">
         <v>238</v>
       </c>
-      <c r="D19" s="101"/>
-    </row>
-    <row r="20" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="D19" s="98"/>
+    </row>
+    <row r="20" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="82"/>
-    </row>
-    <row r="22" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A22" s="133" t="s">
+      <c r="C20" s="15"/>
+      <c r="D20" s="79"/>
+    </row>
+    <row r="22" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="150" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="112"/>
-      <c r="C22" s="112"/>
-      <c r="D22" s="112"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="112"/>
-      <c r="G22" s="112"/>
-      <c r="H22" s="112"/>
-      <c r="I22" s="113"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-    </row>
-    <row r="23" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A23" s="134" t="s">
+      <c r="B22" s="151"/>
+      <c r="C22" s="151"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="151"/>
+      <c r="G22" s="151"/>
+      <c r="H22" s="151"/>
+      <c r="I22" s="152"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+    </row>
+    <row r="23" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="153" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="112"/>
-      <c r="C23" s="112"/>
-      <c r="D23" s="134" t="s">
+      <c r="B23" s="151"/>
+      <c r="C23" s="151"/>
+      <c r="D23" s="153" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="112"/>
-      <c r="F23" s="112"/>
-      <c r="G23" s="134" t="s">
+      <c r="E23" s="151"/>
+      <c r="F23" s="151"/>
+      <c r="G23" s="153" t="s">
         <v>29</v>
       </c>
-      <c r="H23" s="112"/>
-      <c r="I23" s="113"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-    </row>
-    <row r="24" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+      <c r="H23" s="151"/>
+      <c r="I23" s="152"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+    </row>
+    <row r="24" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="131" t="s">
+      <c r="B24" s="147" t="s">
         <v>239</v>
       </c>
-      <c r="C24" s="108"/>
-      <c r="D24" s="10" t="s">
+      <c r="C24" s="148"/>
+      <c r="D24" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="131"/>
-      <c r="F24" s="108"/>
-      <c r="G24" s="10" t="s">
+      <c r="E24" s="211" t="s">
+        <v>282</v>
+      </c>
+      <c r="F24" s="148"/>
+      <c r="G24" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="H24" s="131"/>
-      <c r="I24" s="108"/>
-    </row>
-    <row r="25" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+      <c r="H24" s="147"/>
+      <c r="I24" s="148"/>
+    </row>
+    <row r="25" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="127" t="s">
+      <c r="B25" s="139" t="s">
         <v>240</v>
       </c>
-      <c r="C25" s="110"/>
-      <c r="D25" s="8" t="s">
+      <c r="C25" s="140"/>
+      <c r="D25" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="E25" s="127"/>
-      <c r="F25" s="110"/>
-      <c r="G25" s="8" t="s">
+      <c r="E25" s="139"/>
+      <c r="F25" s="140"/>
+      <c r="G25" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="H25" s="127"/>
-      <c r="I25" s="110"/>
-    </row>
-    <row r="26" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+      <c r="H25" s="139"/>
+      <c r="I25" s="140"/>
+    </row>
+    <row r="26" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="129" t="s">
-        <v>247</v>
-      </c>
-      <c r="C26" s="130"/>
-      <c r="D26" s="8" t="s">
+      <c r="B26" s="145" t="s">
+        <v>246</v>
+      </c>
+      <c r="C26" s="146"/>
+      <c r="D26" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="127"/>
-      <c r="F26" s="110"/>
-      <c r="G26" s="8" t="s">
+      <c r="E26" s="139"/>
+      <c r="F26" s="140"/>
+      <c r="G26" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="H26" s="127"/>
-      <c r="I26" s="110"/>
-    </row>
-    <row r="27" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+      <c r="H26" s="139"/>
+      <c r="I26" s="140"/>
+    </row>
+    <row r="27" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="129" t="s">
-        <v>246</v>
-      </c>
-      <c r="C27" s="130"/>
-      <c r="D27" s="8" t="s">
+      <c r="B27" s="145" t="s">
+        <v>245</v>
+      </c>
+      <c r="C27" s="146"/>
+      <c r="D27" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="127"/>
-      <c r="F27" s="110"/>
-      <c r="G27" s="8" t="s">
+      <c r="E27" s="139"/>
+      <c r="F27" s="140"/>
+      <c r="G27" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="H27" s="127"/>
-      <c r="I27" s="110"/>
-    </row>
-    <row r="28" spans="1:13" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="114" t="s">
+      <c r="H27" s="139"/>
+      <c r="I27" s="140"/>
+    </row>
+    <row r="28" spans="1:13" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="126" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="103" t="s">
+      <c r="C28" s="108" t="s">
         <v>241</v>
       </c>
-      <c r="D28" s="114" t="s">
+      <c r="D28" s="126" t="s">
         <v>32</v>
       </c>
-      <c r="E28" s="20" t="s">
+      <c r="E28" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="F28" s="11"/>
-      <c r="G28" s="114" t="s">
+      <c r="F28" s="109"/>
+      <c r="G28" s="126" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="20" t="s">
+      <c r="H28" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="I28" s="11"/>
-    </row>
-    <row r="29" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A29" s="115"/>
-      <c r="B29" s="1" t="s">
+      <c r="I28" s="109"/>
+    </row>
+    <row r="29" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="127"/>
+      <c r="B29" s="110" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="90" t="s">
+      <c r="C29" s="104" t="s">
         <v>242</v>
       </c>
-      <c r="D29" s="115"/>
-      <c r="E29" s="1" t="s">
+      <c r="D29" s="127"/>
+      <c r="E29" s="110" t="s">
         <v>34</v>
       </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="115"/>
-      <c r="H29" s="1" t="s">
+      <c r="F29" s="111"/>
+      <c r="G29" s="127"/>
+      <c r="H29" s="110" t="s">
         <v>34</v>
       </c>
-      <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A30" s="115"/>
-      <c r="B30" s="1" t="s">
+      <c r="I29" s="111"/>
+    </row>
+    <row r="30" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="127"/>
+      <c r="B30" s="110" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="90">
-        <v>123</v>
-      </c>
-      <c r="D30" s="115"/>
-      <c r="E30" s="1" t="s">
+      <c r="C30" s="210" t="s">
+        <v>281</v>
+      </c>
+      <c r="D30" s="127"/>
+      <c r="E30" s="110" t="s">
         <v>35</v>
       </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="115"/>
-      <c r="H30" s="1" t="s">
+      <c r="F30" s="111"/>
+      <c r="G30" s="127"/>
+      <c r="H30" s="110" t="s">
         <v>35</v>
       </c>
-      <c r="I30" s="2"/>
-      <c r="M30" s="21"/>
-    </row>
-    <row r="31" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="115"/>
-      <c r="B31" s="1" t="s">
+      <c r="I30" s="111"/>
+      <c r="M30" s="18"/>
+    </row>
+    <row r="31" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="127"/>
+      <c r="B31" s="110" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="90" t="s">
+      <c r="C31" s="104" t="s">
         <v>243</v>
       </c>
-      <c r="D31" s="115"/>
-      <c r="E31" s="1" t="s">
+      <c r="D31" s="127"/>
+      <c r="E31" s="110" t="s">
         <v>36</v>
       </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="115"/>
-      <c r="H31" s="1" t="s">
+      <c r="F31" s="111"/>
+      <c r="G31" s="127"/>
+      <c r="H31" s="110" t="s">
         <v>36</v>
       </c>
-      <c r="I31" s="2"/>
-      <c r="M31" s="21"/>
-    </row>
-    <row r="32" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="115"/>
-      <c r="B32" s="1" t="s">
+      <c r="I31" s="111"/>
+      <c r="M31" s="18"/>
+    </row>
+    <row r="32" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="127"/>
+      <c r="B32" s="110" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="90">
+      <c r="C32" s="104">
         <v>123123</v>
       </c>
-      <c r="D32" s="115"/>
-      <c r="E32" s="1" t="s">
+      <c r="D32" s="127"/>
+      <c r="E32" s="110" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="115"/>
-      <c r="H32" s="1" t="s">
+      <c r="F32" s="111"/>
+      <c r="G32" s="127"/>
+      <c r="H32" s="110" t="s">
         <v>37</v>
       </c>
-      <c r="I32" s="2"/>
-      <c r="M32" s="21"/>
-    </row>
-    <row r="33" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A33" s="115"/>
-      <c r="B33" s="1" t="s">
+      <c r="I32" s="111"/>
+      <c r="M32" s="18"/>
+    </row>
+    <row r="33" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="127"/>
+      <c r="B33" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="90" t="s">
+      <c r="C33" s="104" t="s">
         <v>244</v>
       </c>
-      <c r="D33" s="115"/>
-      <c r="E33" s="1" t="s">
+      <c r="D33" s="127"/>
+      <c r="E33" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="115"/>
-      <c r="H33" s="1" t="s">
+      <c r="F33" s="111"/>
+      <c r="G33" s="127"/>
+      <c r="H33" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="I33" s="2"/>
-      <c r="M33" s="21"/>
-    </row>
-    <row r="34" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A34" s="115"/>
-      <c r="B34" s="1" t="s">
+      <c r="I33" s="111"/>
+      <c r="M33" s="18"/>
+    </row>
+    <row r="34" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="127"/>
+      <c r="B34" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="90">
+      <c r="C34" s="104">
         <v>111</v>
       </c>
-      <c r="D34" s="115"/>
-      <c r="E34" s="1" t="s">
+      <c r="D34" s="127"/>
+      <c r="E34" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="F34" s="2"/>
-      <c r="G34" s="115"/>
-      <c r="H34" s="1" t="s">
+      <c r="F34" s="111"/>
+      <c r="G34" s="127"/>
+      <c r="H34" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="I34" s="2"/>
-      <c r="M34" s="21"/>
-    </row>
-    <row r="35" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A35" s="116"/>
-      <c r="B35" s="3" t="s">
+      <c r="I34" s="111"/>
+      <c r="M34" s="18"/>
+    </row>
+    <row r="35" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="128"/>
+      <c r="B35" s="112" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="92">
+      <c r="C35" s="113">
         <v>32231</v>
       </c>
-      <c r="D35" s="116"/>
-      <c r="E35" s="3" t="s">
+      <c r="D35" s="128"/>
+      <c r="E35" s="112" t="s">
         <v>40</v>
       </c>
-      <c r="F35" s="4"/>
-      <c r="G35" s="116"/>
-      <c r="H35" s="3" t="s">
+      <c r="F35" s="114"/>
+      <c r="G35" s="128"/>
+      <c r="H35" s="112" t="s">
         <v>40</v>
       </c>
-      <c r="I35" s="4"/>
-      <c r="M35" s="21"/>
-    </row>
-    <row r="36" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
+      <c r="I35" s="114"/>
+      <c r="M35" s="18"/>
+    </row>
+    <row r="36" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="115" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="126" t="s">
-        <v>245</v>
-      </c>
-      <c r="C36" s="105"/>
-      <c r="D36" s="9" t="s">
+      <c r="B36" s="138" t="s">
+        <v>280</v>
+      </c>
+      <c r="C36" s="117"/>
+      <c r="D36" s="115" t="s">
         <v>41</v>
       </c>
-      <c r="E36" s="104"/>
-      <c r="F36" s="105"/>
-      <c r="G36" s="9" t="s">
+      <c r="E36" s="116"/>
+      <c r="F36" s="117"/>
+      <c r="G36" s="115" t="s">
         <v>41</v>
       </c>
-      <c r="H36" s="104"/>
-      <c r="I36" s="105"/>
-    </row>
-    <row r="38" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A38" s="106" t="s">
+      <c r="H36" s="116"/>
+      <c r="I36" s="117"/>
+    </row>
+    <row r="38" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="B38" s="107"/>
-      <c r="C38" s="108"/>
-    </row>
-    <row r="39" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
+      <c r="B38" s="119"/>
+      <c r="C38" s="120"/>
+    </row>
+    <row r="39" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="22" t="s">
+      <c r="B39" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="C39" s="23"/>
-    </row>
-    <row r="40" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
+      <c r="C39" s="20"/>
+    </row>
+    <row r="40" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="109" t="s">
+      <c r="B40" s="121" t="s">
         <v>219</v>
       </c>
-      <c r="C40" s="110"/>
-    </row>
-    <row r="41" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A41" s="117" t="s">
+      <c r="C40" s="122"/>
+    </row>
+    <row r="41" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="129" t="s">
         <v>32</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="85" t="s">
+      <c r="C41" s="82" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A42" s="118"/>
-      <c r="B42" s="8" t="s">
+    <row r="42" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="130"/>
+      <c r="B42" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="81" t="s">
+      <c r="C42" s="78" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A43" s="118"/>
-      <c r="B43" s="8" t="s">
+    <row r="43" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="130"/>
+      <c r="B43" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C43" s="81">
+      <c r="C43" s="78">
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A44" s="118"/>
-      <c r="B44" s="8" t="s">
+    <row r="44" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="130"/>
+      <c r="B44" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="81" t="s">
+      <c r="C44" s="78" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A45" s="118"/>
-      <c r="B45" s="8" t="s">
+    <row r="45" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="130"/>
+      <c r="B45" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C45" s="81">
+      <c r="C45" s="78">
         <v>12345</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A46" s="118"/>
-      <c r="B46" s="8" t="s">
+    <row r="46" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="130"/>
+      <c r="B46" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C46" s="81" t="s">
+      <c r="C46" s="78" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A47" s="118"/>
-      <c r="B47" s="8" t="s">
+    <row r="47" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="130"/>
+      <c r="B47" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C47" s="81" t="s">
+      <c r="C47" s="78" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A48" s="119"/>
-      <c r="B48" s="8" t="s">
+    <row r="48" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="131"/>
+      <c r="B48" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C48" s="81" t="s">
+      <c r="C48" s="78" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
+    <row r="49" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B49" s="120">
+      <c r="B49" s="132">
         <v>23586598</v>
       </c>
-      <c r="C49" s="121"/>
-    </row>
-    <row r="50" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="s">
+      <c r="C49" s="133"/>
+    </row>
+    <row r="50" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A50" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B50" s="122">
+      <c r="B50" s="134">
         <v>8123456789</v>
       </c>
-      <c r="C50" s="123"/>
-    </row>
-    <row r="51" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A51" s="9" t="s">
+      <c r="C50" s="135"/>
+    </row>
+    <row r="51" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A51" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B51" s="124" t="s">
+      <c r="B51" s="136" t="s">
         <v>225</v>
       </c>
-      <c r="C51" s="125"/>
-    </row>
-    <row r="53" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A53" s="106" t="s">
+      <c r="C51" s="137"/>
+    </row>
+    <row r="53" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A53" s="118" t="s">
         <v>48</v>
       </c>
-      <c r="B53" s="108"/>
-    </row>
-    <row r="54" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A54" s="10" t="s">
+      <c r="B53" s="120"/>
+    </row>
+    <row r="54" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A54" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B54" s="88" t="s">
+      <c r="B54" s="85" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="55" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A55" s="8" t="s">
+    <row r="55" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A55" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B55" s="89" t="s">
+      <c r="B55" s="86" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="56" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A56" s="8" t="s">
+    <row r="56" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A56" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B56" s="89" t="s">
+      <c r="B56" s="86" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
+    <row r="57" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A57" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B57" s="89" t="s">
+      <c r="B57" s="86" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A58" s="8" t="s">
+    <row r="58" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A58" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B58" s="90" t="s">
+      <c r="B58" s="87" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A59" s="8" t="s">
+    <row r="59" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A59" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B59" s="91">
+      <c r="B59" s="88">
         <v>1.23</v>
       </c>
     </row>
-    <row r="60" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A60" s="9" t="s">
+    <row r="60" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A60" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B60" s="92"/>
-    </row>
-    <row r="62" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A62" s="138" t="s">
+      <c r="B60" s="89"/>
+    </row>
+    <row r="62" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A62" s="157" t="s">
         <v>55</v>
       </c>
-      <c r="B62" s="112"/>
-      <c r="C62" s="112"/>
-      <c r="D62" s="112"/>
-      <c r="E62" s="112"/>
-      <c r="F62" s="112"/>
-      <c r="G62" s="112"/>
-      <c r="H62" s="112"/>
-      <c r="I62" s="112"/>
-      <c r="J62" s="112"/>
-      <c r="K62" s="112"/>
-      <c r="L62" s="112"/>
-      <c r="M62" s="112"/>
-      <c r="N62" s="112"/>
-      <c r="O62" s="112"/>
-      <c r="P62" s="112"/>
-      <c r="Q62" s="112"/>
-      <c r="R62" s="113"/>
-    </row>
-    <row r="63" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A63" s="139" t="s">
+      <c r="B62" s="124"/>
+      <c r="C62" s="124"/>
+      <c r="D62" s="124"/>
+      <c r="E62" s="124"/>
+      <c r="F62" s="124"/>
+      <c r="G62" s="124"/>
+      <c r="H62" s="124"/>
+      <c r="I62" s="124"/>
+      <c r="J62" s="124"/>
+      <c r="K62" s="124"/>
+      <c r="L62" s="124"/>
+      <c r="M62" s="124"/>
+      <c r="N62" s="124"/>
+      <c r="O62" s="124"/>
+      <c r="P62" s="124"/>
+      <c r="Q62" s="124"/>
+      <c r="R62" s="125"/>
+    </row>
+    <row r="63" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A63" s="158" t="s">
         <v>56</v>
       </c>
-      <c r="B63" s="112"/>
-      <c r="C63" s="112"/>
-      <c r="D63" s="112"/>
-      <c r="E63" s="112"/>
-      <c r="F63" s="113"/>
-      <c r="G63" s="139" t="s">
+      <c r="B63" s="124"/>
+      <c r="C63" s="124"/>
+      <c r="D63" s="124"/>
+      <c r="E63" s="124"/>
+      <c r="F63" s="125"/>
+      <c r="G63" s="158" t="s">
         <v>57</v>
       </c>
-      <c r="H63" s="112"/>
-      <c r="I63" s="112"/>
-      <c r="J63" s="112"/>
-      <c r="K63" s="112"/>
-      <c r="L63" s="112"/>
-      <c r="M63" s="139" t="s">
+      <c r="H63" s="124"/>
+      <c r="I63" s="124"/>
+      <c r="J63" s="124"/>
+      <c r="K63" s="124"/>
+      <c r="L63" s="124"/>
+      <c r="M63" s="158" t="s">
         <v>58</v>
       </c>
-      <c r="N63" s="112"/>
-      <c r="O63" s="112"/>
-      <c r="P63" s="112"/>
-      <c r="Q63" s="112"/>
-      <c r="R63" s="113"/>
-    </row>
-    <row r="64" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
+      <c r="N63" s="124"/>
+      <c r="O63" s="124"/>
+      <c r="P63" s="124"/>
+      <c r="Q63" s="124"/>
+      <c r="R63" s="125"/>
+    </row>
+    <row r="64" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A64" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B64" s="111" t="s">
+      <c r="B64" s="123" t="s">
         <v>234</v>
       </c>
-      <c r="C64" s="112"/>
-      <c r="D64" s="112"/>
-      <c r="E64" s="112"/>
-      <c r="F64" s="113"/>
-      <c r="G64" s="5" t="s">
+      <c r="C64" s="124"/>
+      <c r="D64" s="124"/>
+      <c r="E64" s="124"/>
+      <c r="F64" s="125"/>
+      <c r="G64" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H64" s="111"/>
-      <c r="I64" s="112"/>
-      <c r="J64" s="112"/>
-      <c r="K64" s="112"/>
-      <c r="L64" s="113"/>
-      <c r="M64" s="5" t="s">
+      <c r="H64" s="123"/>
+      <c r="I64" s="124"/>
+      <c r="J64" s="124"/>
+      <c r="K64" s="124"/>
+      <c r="L64" s="125"/>
+      <c r="M64" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="N64" s="111"/>
-      <c r="O64" s="112"/>
-      <c r="P64" s="112"/>
-      <c r="Q64" s="112"/>
-      <c r="R64" s="113"/>
-    </row>
-    <row r="65" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A65" s="114" t="s">
+      <c r="N64" s="123"/>
+      <c r="O64" s="124"/>
+      <c r="P64" s="124"/>
+      <c r="Q64" s="124"/>
+      <c r="R64" s="125"/>
+    </row>
+    <row r="65" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A65" s="141" t="s">
         <v>59</v>
       </c>
-      <c r="B65" s="26" t="s">
+      <c r="B65" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="C65" s="135" t="s">
-        <v>265</v>
-      </c>
-      <c r="D65" s="107"/>
-      <c r="E65" s="107"/>
-      <c r="F65" s="107"/>
-      <c r="G65" s="114" t="s">
+      <c r="C65" s="154" t="s">
+        <v>264</v>
+      </c>
+      <c r="D65" s="119"/>
+      <c r="E65" s="119"/>
+      <c r="F65" s="119"/>
+      <c r="G65" s="141" t="s">
         <v>59</v>
       </c>
-      <c r="H65" s="26" t="s">
+      <c r="H65" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="I65" s="140"/>
-      <c r="J65" s="107"/>
-      <c r="K65" s="107"/>
-      <c r="L65" s="108"/>
-      <c r="M65" s="141" t="s">
+      <c r="I65" s="159"/>
+      <c r="J65" s="119"/>
+      <c r="K65" s="119"/>
+      <c r="L65" s="120"/>
+      <c r="M65" s="160" t="s">
         <v>59</v>
       </c>
-      <c r="N65" s="26" t="s">
+      <c r="N65" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="O65" s="140"/>
-      <c r="P65" s="107"/>
-      <c r="Q65" s="107"/>
-      <c r="R65" s="108"/>
-    </row>
-    <row r="66" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="115"/>
-      <c r="B66" s="28" t="s">
+      <c r="O65" s="159"/>
+      <c r="P65" s="119"/>
+      <c r="Q65" s="119"/>
+      <c r="R65" s="120"/>
+    </row>
+    <row r="66" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="142"/>
+      <c r="B66" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="C66" s="136">
+      <c r="C66" s="155">
         <v>12</v>
       </c>
-      <c r="D66" s="136"/>
-      <c r="E66" s="136"/>
-      <c r="F66" s="136"/>
-      <c r="G66" s="115"/>
-      <c r="H66" s="28" t="s">
+      <c r="D66" s="155"/>
+      <c r="E66" s="155"/>
+      <c r="F66" s="155"/>
+      <c r="G66" s="142"/>
+      <c r="H66" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="I66" s="109"/>
-      <c r="J66" s="137"/>
-      <c r="K66" s="137"/>
-      <c r="L66" s="110"/>
-      <c r="M66" s="115"/>
-      <c r="N66" s="28" t="s">
+      <c r="I66" s="121"/>
+      <c r="J66" s="156"/>
+      <c r="K66" s="156"/>
+      <c r="L66" s="122"/>
+      <c r="M66" s="142"/>
+      <c r="N66" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="O66" s="109"/>
-      <c r="P66" s="137"/>
-      <c r="Q66" s="137"/>
-      <c r="R66" s="110"/>
-    </row>
-    <row r="67" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A67" s="115"/>
-      <c r="B67" s="128" t="s">
+      <c r="O66" s="121"/>
+      <c r="P66" s="156"/>
+      <c r="Q66" s="156"/>
+      <c r="R66" s="122"/>
+    </row>
+    <row r="67" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A67" s="142"/>
+      <c r="B67" s="143" t="s">
         <v>62</v>
       </c>
-      <c r="C67" s="29" t="s">
+      <c r="C67" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="D67" s="30" t="s">
+      <c r="D67" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="E67" s="5" t="s">
+      <c r="E67" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F67" s="29" t="s">
+      <c r="F67" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="G67" s="115"/>
-      <c r="H67" s="128" t="s">
+      <c r="G67" s="142"/>
+      <c r="H67" s="143" t="s">
         <v>62</v>
       </c>
-      <c r="I67" s="29" t="s">
+      <c r="I67" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="J67" s="5" t="s">
+      <c r="J67" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="K67" s="5" t="s">
+      <c r="K67" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L67" s="5" t="s">
+      <c r="L67" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="M67" s="115"/>
-      <c r="N67" s="128" t="s">
+      <c r="M67" s="142"/>
+      <c r="N67" s="143" t="s">
         <v>62</v>
       </c>
-      <c r="O67" s="29" t="s">
+      <c r="O67" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="P67" s="5" t="s">
+      <c r="P67" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="Q67" s="5" t="s">
+      <c r="Q67" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="R67" s="5" t="s">
+      <c r="R67" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A68" s="115"/>
-      <c r="B68" s="110"/>
-      <c r="C68" s="28" t="s">
+    <row r="68" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A68" s="142"/>
+      <c r="B68" s="122"/>
+      <c r="C68" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="D68" s="21" t="b">
+      <c r="D68" s="18" t="b">
         <v>1</v>
       </c>
       <c r="E68" s="2">
@@ -2914,9 +2946,9 @@
       <c r="F68" t="s">
         <v>233</v>
       </c>
-      <c r="G68" s="115"/>
-      <c r="H68" s="110"/>
-      <c r="I68" s="28" t="s">
+      <c r="G68" s="142"/>
+      <c r="H68" s="122"/>
+      <c r="I68" s="25" t="s">
         <v>67</v>
       </c>
       <c r="J68" s="2" t="b">
@@ -2924,9 +2956,9 @@
       </c>
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
-      <c r="M68" s="115"/>
-      <c r="N68" s="110"/>
-      <c r="O68" s="28" t="s">
+      <c r="M68" s="142"/>
+      <c r="N68" s="122"/>
+      <c r="O68" s="25" t="s">
         <v>67</v>
       </c>
       <c r="P68" s="2" t="b">
@@ -2935,21 +2967,21 @@
       <c r="Q68" s="2"/>
       <c r="R68" s="2"/>
     </row>
-    <row r="69" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A69" s="115"/>
-      <c r="B69" s="110"/>
-      <c r="C69" s="28" t="s">
+    <row r="69" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A69" s="142"/>
+      <c r="B69" s="122"/>
+      <c r="C69" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="D69" s="21" t="b">
+      <c r="D69" s="18" t="b">
         <v>0</v>
       </c>
       <c r="E69" s="2">
         <v>2231</v>
       </c>
-      <c r="G69" s="115"/>
-      <c r="H69" s="110"/>
-      <c r="I69" s="28" t="s">
+      <c r="G69" s="142"/>
+      <c r="H69" s="122"/>
+      <c r="I69" s="25" t="s">
         <v>69</v>
       </c>
       <c r="J69" s="2" t="b">
@@ -2957,9 +2989,9 @@
       </c>
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
-      <c r="M69" s="115"/>
-      <c r="N69" s="110"/>
-      <c r="O69" s="28" t="s">
+      <c r="M69" s="142"/>
+      <c r="N69" s="122"/>
+      <c r="O69" s="25" t="s">
         <v>69</v>
       </c>
       <c r="P69" s="2" t="b">
@@ -2968,19 +3000,19 @@
       <c r="Q69" s="2"/>
       <c r="R69" s="2"/>
     </row>
-    <row r="70" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A70" s="115"/>
-      <c r="B70" s="110"/>
-      <c r="C70" s="28" t="s">
+    <row r="70" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A70" s="142"/>
+      <c r="B70" s="122"/>
+      <c r="C70" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="D70" s="21" t="b">
+      <c r="D70" s="18" t="b">
         <v>0</v>
       </c>
       <c r="E70" s="2"/>
-      <c r="G70" s="115"/>
-      <c r="H70" s="110"/>
-      <c r="I70" s="28" t="s">
+      <c r="G70" s="142"/>
+      <c r="H70" s="122"/>
+      <c r="I70" s="25" t="s">
         <v>70</v>
       </c>
       <c r="J70" s="2" t="b">
@@ -2988,9 +3020,9 @@
       </c>
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
-      <c r="M70" s="115"/>
-      <c r="N70" s="110"/>
-      <c r="O70" s="28" t="s">
+      <c r="M70" s="142"/>
+      <c r="N70" s="122"/>
+      <c r="O70" s="25" t="s">
         <v>70</v>
       </c>
       <c r="P70" s="2" t="b">
@@ -2999,19 +3031,19 @@
       <c r="Q70" s="2"/>
       <c r="R70" s="2"/>
     </row>
-    <row r="71" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A71" s="115"/>
-      <c r="B71" s="110"/>
-      <c r="C71" s="28" t="s">
+    <row r="71" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A71" s="142"/>
+      <c r="B71" s="122"/>
+      <c r="C71" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="D71" s="21" t="b">
+      <c r="D71" s="18" t="b">
         <v>0</v>
       </c>
       <c r="E71" s="2"/>
-      <c r="G71" s="115"/>
-      <c r="H71" s="110"/>
-      <c r="I71" s="28" t="s">
+      <c r="G71" s="142"/>
+      <c r="H71" s="122"/>
+      <c r="I71" s="25" t="s">
         <v>71</v>
       </c>
       <c r="J71" s="2" t="b">
@@ -3019,9 +3051,9 @@
       </c>
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
-      <c r="M71" s="115"/>
-      <c r="N71" s="110"/>
-      <c r="O71" s="28" t="s">
+      <c r="M71" s="142"/>
+      <c r="N71" s="122"/>
+      <c r="O71" s="25" t="s">
         <v>71</v>
       </c>
       <c r="P71" s="2" t="b">
@@ -3030,21 +3062,21 @@
       <c r="Q71" s="2"/>
       <c r="R71" s="2"/>
     </row>
-    <row r="72" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A72" s="115"/>
-      <c r="B72" s="110"/>
-      <c r="C72" s="28" t="s">
+    <row r="72" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A72" s="142"/>
+      <c r="B72" s="122"/>
+      <c r="C72" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="D72" s="21" t="b">
+      <c r="D72" s="18" t="b">
         <v>0</v>
       </c>
       <c r="E72" s="2">
         <v>232</v>
       </c>
-      <c r="G72" s="115"/>
-      <c r="H72" s="110"/>
-      <c r="I72" s="28" t="s">
+      <c r="G72" s="142"/>
+      <c r="H72" s="122"/>
+      <c r="I72" s="25" t="s">
         <v>72</v>
       </c>
       <c r="J72" s="2" t="b">
@@ -3052,9 +3084,9 @@
       </c>
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
-      <c r="M72" s="115"/>
-      <c r="N72" s="110"/>
-      <c r="O72" s="28" t="s">
+      <c r="M72" s="142"/>
+      <c r="N72" s="122"/>
+      <c r="O72" s="25" t="s">
         <v>72</v>
       </c>
       <c r="P72" s="2" t="b">
@@ -3063,24 +3095,24 @@
       <c r="Q72" s="2"/>
       <c r="R72" s="2"/>
     </row>
-    <row r="73" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A73" s="115"/>
-      <c r="B73" s="110"/>
-      <c r="C73" s="28" t="s">
+    <row r="73" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A73" s="142"/>
+      <c r="B73" s="122"/>
+      <c r="C73" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="D73" s="21" t="b">
+      <c r="D73" s="18" t="b">
         <v>1</v>
       </c>
       <c r="E73" s="2">
         <v>53</v>
       </c>
       <c r="F73" t="s">
-        <v>280</v>
-      </c>
-      <c r="G73" s="115"/>
-      <c r="H73" s="110"/>
-      <c r="I73" s="28" t="s">
+        <v>279</v>
+      </c>
+      <c r="G73" s="142"/>
+      <c r="H73" s="122"/>
+      <c r="I73" s="25" t="s">
         <v>73</v>
       </c>
       <c r="J73" s="2" t="b">
@@ -3088,9 +3120,9 @@
       </c>
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
-      <c r="M73" s="115"/>
-      <c r="N73" s="110"/>
-      <c r="O73" s="28" t="s">
+      <c r="M73" s="142"/>
+      <c r="N73" s="122"/>
+      <c r="O73" s="25" t="s">
         <v>73</v>
       </c>
       <c r="P73" s="2" t="b">
@@ -3099,19 +3131,19 @@
       <c r="Q73" s="2"/>
       <c r="R73" s="2"/>
     </row>
-    <row r="74" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A74" s="115"/>
-      <c r="B74" s="110"/>
-      <c r="C74" s="28" t="s">
+    <row r="74" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A74" s="142"/>
+      <c r="B74" s="122"/>
+      <c r="C74" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="D74" s="21" t="b">
+      <c r="D74" s="18" t="b">
         <v>0</v>
       </c>
       <c r="E74" s="2"/>
-      <c r="G74" s="115"/>
-      <c r="H74" s="110"/>
-      <c r="I74" s="28" t="s">
+      <c r="G74" s="142"/>
+      <c r="H74" s="122"/>
+      <c r="I74" s="25" t="s">
         <v>74</v>
       </c>
       <c r="J74" s="2" t="b">
@@ -3119,9 +3151,9 @@
       </c>
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
-      <c r="M74" s="115"/>
-      <c r="N74" s="110"/>
-      <c r="O74" s="28" t="s">
+      <c r="M74" s="142"/>
+      <c r="N74" s="122"/>
+      <c r="O74" s="25" t="s">
         <v>74</v>
       </c>
       <c r="P74" s="2" t="b">
@@ -3130,19 +3162,19 @@
       <c r="Q74" s="2"/>
       <c r="R74" s="2"/>
     </row>
-    <row r="75" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A75" s="115"/>
-      <c r="B75" s="110"/>
-      <c r="C75" s="28" t="s">
+    <row r="75" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A75" s="142"/>
+      <c r="B75" s="122"/>
+      <c r="C75" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="D75" s="21" t="b">
+      <c r="D75" s="18" t="b">
         <v>0</v>
       </c>
       <c r="E75" s="2"/>
-      <c r="G75" s="115"/>
-      <c r="H75" s="110"/>
-      <c r="I75" s="28" t="s">
+      <c r="G75" s="142"/>
+      <c r="H75" s="122"/>
+      <c r="I75" s="25" t="s">
         <v>75</v>
       </c>
       <c r="J75" s="2" t="b">
@@ -3150,9 +3182,9 @@
       </c>
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
-      <c r="M75" s="115"/>
-      <c r="N75" s="110"/>
-      <c r="O75" s="28" t="s">
+      <c r="M75" s="142"/>
+      <c r="N75" s="122"/>
+      <c r="O75" s="25" t="s">
         <v>75</v>
       </c>
       <c r="P75" s="2" t="b">
@@ -3161,19 +3193,19 @@
       <c r="Q75" s="2"/>
       <c r="R75" s="2"/>
     </row>
-    <row r="76" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A76" s="115"/>
-      <c r="B76" s="110"/>
-      <c r="C76" s="28" t="s">
+    <row r="76" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A76" s="142"/>
+      <c r="B76" s="122"/>
+      <c r="C76" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="D76" s="21" t="b">
+      <c r="D76" s="18" t="b">
         <v>0</v>
       </c>
       <c r="E76" s="2"/>
-      <c r="G76" s="115"/>
-      <c r="H76" s="110"/>
-      <c r="I76" s="28" t="s">
+      <c r="G76" s="142"/>
+      <c r="H76" s="122"/>
+      <c r="I76" s="25" t="s">
         <v>76</v>
       </c>
       <c r="J76" s="2" t="b">
@@ -3181,9 +3213,9 @@
       </c>
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
-      <c r="M76" s="115"/>
-      <c r="N76" s="110"/>
-      <c r="O76" s="28" t="s">
+      <c r="M76" s="142"/>
+      <c r="N76" s="122"/>
+      <c r="O76" s="25" t="s">
         <v>76</v>
       </c>
       <c r="P76" s="2" t="b">
@@ -3192,19 +3224,19 @@
       <c r="Q76" s="2"/>
       <c r="R76" s="2"/>
     </row>
-    <row r="77" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A77" s="115"/>
-      <c r="B77" s="110"/>
-      <c r="C77" s="28" t="s">
+    <row r="77" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A77" s="142"/>
+      <c r="B77" s="122"/>
+      <c r="C77" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="D77" s="24" t="b">
+      <c r="D77" s="21" t="b">
         <v>0</v>
       </c>
       <c r="E77" s="2"/>
-      <c r="G77" s="115"/>
-      <c r="H77" s="110"/>
-      <c r="I77" s="28" t="s">
+      <c r="G77" s="142"/>
+      <c r="H77" s="122"/>
+      <c r="I77" s="25" t="s">
         <v>77</v>
       </c>
       <c r="J77" s="2" t="b">
@@ -3212,9 +3244,9 @@
       </c>
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
-      <c r="M77" s="115"/>
-      <c r="N77" s="110"/>
-      <c r="O77" s="28" t="s">
+      <c r="M77" s="142"/>
+      <c r="N77" s="122"/>
+      <c r="O77" s="25" t="s">
         <v>77</v>
       </c>
       <c r="P77" s="2" t="b">
@@ -3223,19 +3255,19 @@
       <c r="Q77" s="2"/>
       <c r="R77" s="2"/>
     </row>
-    <row r="78" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A78" s="115"/>
-      <c r="B78" s="110"/>
-      <c r="C78" s="28" t="s">
+    <row r="78" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A78" s="142"/>
+      <c r="B78" s="122"/>
+      <c r="C78" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="D78" s="24" t="b">
+      <c r="D78" s="21" t="b">
         <v>0</v>
       </c>
       <c r="E78" s="2"/>
-      <c r="G78" s="115"/>
-      <c r="H78" s="105"/>
-      <c r="I78" s="28" t="s">
+      <c r="G78" s="142"/>
+      <c r="H78" s="144"/>
+      <c r="I78" s="25" t="s">
         <v>78</v>
       </c>
       <c r="J78" s="2" t="b">
@@ -3243,9 +3275,9 @@
       </c>
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
-      <c r="M78" s="115"/>
-      <c r="N78" s="105"/>
-      <c r="O78" s="28" t="s">
+      <c r="M78" s="142"/>
+      <c r="N78" s="144"/>
+      <c r="O78" s="25" t="s">
         <v>78</v>
       </c>
       <c r="P78" s="2" t="b">
@@ -3254,400 +3286,400 @@
       <c r="Q78" s="2"/>
       <c r="R78" s="2"/>
     </row>
-    <row r="79" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A79" s="95" t="s">
+    <row r="79" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A79" s="92" t="s">
         <v>80</v>
       </c>
-      <c r="B79" s="150" t="s">
-        <v>279</v>
-      </c>
-      <c r="C79" s="151"/>
-      <c r="D79" s="151"/>
-      <c r="E79" s="151"/>
-      <c r="F79" s="152"/>
-      <c r="G79" s="95" t="s">
+      <c r="B79" s="169" t="s">
+        <v>278</v>
+      </c>
+      <c r="C79" s="170"/>
+      <c r="D79" s="170"/>
+      <c r="E79" s="170"/>
+      <c r="F79" s="171"/>
+      <c r="G79" s="92" t="s">
         <v>80</v>
       </c>
-      <c r="H79" s="153"/>
-      <c r="I79" s="154"/>
-      <c r="J79" s="154"/>
-      <c r="K79" s="154"/>
-      <c r="L79" s="155"/>
-      <c r="M79" s="95" t="s">
+      <c r="H79" s="172"/>
+      <c r="I79" s="173"/>
+      <c r="J79" s="173"/>
+      <c r="K79" s="173"/>
+      <c r="L79" s="174"/>
+      <c r="M79" s="92" t="s">
         <v>80</v>
       </c>
-      <c r="N79" s="153"/>
-      <c r="O79" s="154"/>
-      <c r="P79" s="154"/>
-      <c r="Q79" s="154"/>
-      <c r="R79" s="155"/>
-    </row>
-    <row r="80" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A80" s="95" t="s">
+      <c r="N79" s="172"/>
+      <c r="O79" s="173"/>
+      <c r="P79" s="173"/>
+      <c r="Q79" s="173"/>
+      <c r="R79" s="174"/>
+    </row>
+    <row r="80" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A80" s="92" t="s">
         <v>79</v>
       </c>
-      <c r="B80" s="96" t="b">
+      <c r="B80" s="93" t="b">
         <v>1</v>
       </c>
-      <c r="C80" s="97" t="s">
+      <c r="C80" s="94" t="s">
         <v>238</v>
       </c>
-      <c r="D80" s="148" t="s">
+      <c r="D80" s="167" t="s">
+        <v>265</v>
+      </c>
+      <c r="E80" s="168"/>
+      <c r="F80" s="168"/>
+      <c r="G80" s="92" t="s">
+        <v>79</v>
+      </c>
+      <c r="H80" s="93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" s="94" t="s">
+        <v>238</v>
+      </c>
+      <c r="J80" s="165"/>
+      <c r="K80" s="165"/>
+      <c r="L80" s="165"/>
+      <c r="M80" s="92" t="s">
+        <v>79</v>
+      </c>
+      <c r="N80" s="93" t="b">
+        <v>0</v>
+      </c>
+      <c r="O80" s="94" t="s">
+        <v>238</v>
+      </c>
+      <c r="P80" s="165"/>
+      <c r="Q80" s="165"/>
+      <c r="R80" s="165"/>
+    </row>
+    <row r="81" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A81" s="161" t="s">
+        <v>81</v>
+      </c>
+      <c r="B81" s="162" t="b">
+        <v>1</v>
+      </c>
+      <c r="C81" s="95" t="s">
+        <v>235</v>
+      </c>
+      <c r="D81" s="175" t="s">
         <v>266</v>
       </c>
-      <c r="E80" s="149"/>
-      <c r="F80" s="149"/>
-      <c r="G80" s="95" t="s">
-        <v>79</v>
-      </c>
-      <c r="H80" s="96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" s="97" t="s">
-        <v>238</v>
-      </c>
-      <c r="J80" s="146"/>
-      <c r="K80" s="146"/>
-      <c r="L80" s="146"/>
-      <c r="M80" s="95" t="s">
-        <v>79</v>
-      </c>
-      <c r="N80" s="96" t="b">
-        <v>0</v>
-      </c>
-      <c r="O80" s="97" t="s">
-        <v>238</v>
-      </c>
-      <c r="P80" s="146"/>
-      <c r="Q80" s="146"/>
-      <c r="R80" s="146"/>
-    </row>
-    <row r="81" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A81" s="142" t="s">
+      <c r="E81" s="168"/>
+      <c r="F81" s="168"/>
+      <c r="G81" s="161" t="s">
         <v>81</v>
       </c>
-      <c r="B81" s="143" t="b">
+      <c r="H81" s="162" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" s="95" t="s">
+        <v>235</v>
+      </c>
+      <c r="J81" s="165"/>
+      <c r="K81" s="165"/>
+      <c r="L81" s="165"/>
+      <c r="M81" s="161" t="s">
+        <v>81</v>
+      </c>
+      <c r="N81" s="162" t="b">
+        <v>0</v>
+      </c>
+      <c r="O81" s="95" t="s">
+        <v>235</v>
+      </c>
+      <c r="P81" s="165"/>
+      <c r="Q81" s="165"/>
+      <c r="R81" s="165"/>
+      <c r="S81" s="90"/>
+      <c r="T81" s="90"/>
+      <c r="U81" s="90"/>
+      <c r="V81" s="90"/>
+      <c r="W81" s="90"/>
+    </row>
+    <row r="82" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="161"/>
+      <c r="B82" s="163"/>
+      <c r="C82" s="96" t="s">
+        <v>236</v>
+      </c>
+      <c r="D82" s="176" t="s">
+        <v>267</v>
+      </c>
+      <c r="E82" s="177"/>
+      <c r="F82" s="177"/>
+      <c r="G82" s="161"/>
+      <c r="H82" s="163"/>
+      <c r="I82" s="96" t="s">
+        <v>236</v>
+      </c>
+      <c r="J82" s="166"/>
+      <c r="K82" s="166"/>
+      <c r="L82" s="166"/>
+      <c r="M82" s="161"/>
+      <c r="N82" s="163"/>
+      <c r="O82" s="96" t="s">
+        <v>236</v>
+      </c>
+      <c r="P82" s="166"/>
+      <c r="Q82" s="166"/>
+      <c r="R82" s="166"/>
+      <c r="S82" s="90"/>
+      <c r="T82" s="90"/>
+      <c r="U82" s="90"/>
+      <c r="V82" s="90"/>
+      <c r="W82" s="90"/>
+    </row>
+    <row r="83" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="161"/>
+      <c r="B83" s="164"/>
+      <c r="C83" s="97" t="s">
+        <v>237</v>
+      </c>
+      <c r="D83" s="176" t="s">
+        <v>268</v>
+      </c>
+      <c r="E83" s="177"/>
+      <c r="F83" s="177"/>
+      <c r="G83" s="161"/>
+      <c r="H83" s="164"/>
+      <c r="I83" s="97" t="s">
+        <v>237</v>
+      </c>
+      <c r="J83" s="166"/>
+      <c r="K83" s="166"/>
+      <c r="L83" s="166"/>
+      <c r="M83" s="161"/>
+      <c r="N83" s="164"/>
+      <c r="O83" s="97" t="s">
+        <v>237</v>
+      </c>
+      <c r="P83" s="166"/>
+      <c r="Q83" s="166"/>
+      <c r="R83" s="166"/>
+      <c r="S83" s="90"/>
+      <c r="T83" s="90"/>
+      <c r="U83" s="90"/>
+      <c r="V83" s="90"/>
+      <c r="W83" s="90"/>
+    </row>
+    <row r="84" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="90"/>
+      <c r="B84" s="91"/>
+      <c r="C84" s="90"/>
+      <c r="D84" s="90"/>
+      <c r="E84" s="90"/>
+      <c r="F84" s="90"/>
+      <c r="G84" s="90"/>
+      <c r="H84" s="91"/>
+      <c r="I84" s="90"/>
+      <c r="J84" s="90"/>
+      <c r="K84" s="90"/>
+      <c r="L84" s="90"/>
+      <c r="M84" s="90"/>
+      <c r="N84" s="91"/>
+    </row>
+    <row r="85" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="178" t="s">
+        <v>247</v>
+      </c>
+      <c r="B85" s="179"/>
+      <c r="C85" s="179"/>
+      <c r="D85" s="179"/>
+      <c r="E85" s="180"/>
+      <c r="F85" s="90"/>
+      <c r="G85" s="90"/>
+      <c r="H85" s="90"/>
+      <c r="I85" s="90"/>
+      <c r="J85" s="90"/>
+      <c r="K85" s="90"/>
+      <c r="L85" s="90"/>
+      <c r="M85" s="90"/>
+      <c r="N85" s="90"/>
+    </row>
+    <row r="86" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="103" t="s">
+        <v>146</v>
+      </c>
+      <c r="B86" s="181">
+        <v>1231</v>
+      </c>
+      <c r="C86" s="181"/>
+      <c r="D86" s="181"/>
+      <c r="E86" s="182"/>
+      <c r="F86" s="90"/>
+      <c r="G86" s="90"/>
+      <c r="H86" s="90"/>
+      <c r="I86" s="90"/>
+      <c r="J86" s="90"/>
+      <c r="K86" s="90"/>
+      <c r="L86" s="90"/>
+      <c r="M86" s="90"/>
+      <c r="N86" s="90"/>
+    </row>
+    <row r="87" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="183" t="s">
+        <v>248</v>
+      </c>
+      <c r="B87" s="101" t="s">
+        <v>249</v>
+      </c>
+      <c r="C87" s="184" t="s">
+        <v>272</v>
+      </c>
+      <c r="D87" s="184"/>
+      <c r="E87" s="185"/>
+      <c r="F87" s="90"/>
+      <c r="G87" s="90"/>
+      <c r="H87" s="90"/>
+      <c r="I87" s="90"/>
+      <c r="J87" s="90"/>
+      <c r="K87" s="90"/>
+      <c r="L87" s="90"/>
+      <c r="M87" s="90"/>
+      <c r="N87" s="90"/>
+    </row>
+    <row r="88" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="183"/>
+      <c r="B88" s="102" t="s">
+        <v>250</v>
+      </c>
+      <c r="C88" s="184" t="s">
+        <v>271</v>
+      </c>
+      <c r="D88" s="184"/>
+      <c r="E88" s="185"/>
+    </row>
+    <row r="89" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="103" t="s">
+        <v>251</v>
+      </c>
+      <c r="B89" s="100" t="s">
+        <v>269</v>
+      </c>
+      <c r="C89" s="100" t="s">
+        <v>252</v>
+      </c>
+      <c r="D89" s="186" t="s">
+        <v>270</v>
+      </c>
+      <c r="E89" s="187"/>
+    </row>
+    <row r="90" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="183" t="s">
+        <v>253</v>
+      </c>
+      <c r="B90" s="188" t="s">
+        <v>254</v>
+      </c>
+      <c r="C90" s="189"/>
+      <c r="D90" s="190" t="b">
+        <v>0</v>
+      </c>
+      <c r="E90" s="191"/>
+    </row>
+    <row r="91" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="183"/>
+      <c r="B91" s="192" t="s">
+        <v>255</v>
+      </c>
+      <c r="C91" s="193"/>
+      <c r="D91" s="190" t="b">
         <v>1</v>
       </c>
-      <c r="C81" s="98" t="s">
-        <v>235</v>
-      </c>
-      <c r="D81" s="156" t="s">
-        <v>267</v>
-      </c>
-      <c r="E81" s="149"/>
-      <c r="F81" s="149"/>
-      <c r="G81" s="142" t="s">
-        <v>81</v>
-      </c>
-      <c r="H81" s="143" t="b">
-        <v>0</v>
-      </c>
-      <c r="I81" s="98" t="s">
-        <v>235</v>
-      </c>
-      <c r="J81" s="146"/>
-      <c r="K81" s="146"/>
-      <c r="L81" s="146"/>
-      <c r="M81" s="142" t="s">
-        <v>81</v>
-      </c>
-      <c r="N81" s="143" t="b">
-        <v>0</v>
-      </c>
-      <c r="O81" s="98" t="s">
-        <v>235</v>
-      </c>
-      <c r="P81" s="146"/>
-      <c r="Q81" s="146"/>
-      <c r="R81" s="146"/>
-      <c r="S81" s="93"/>
-      <c r="T81" s="93"/>
-      <c r="U81" s="93"/>
-      <c r="V81" s="93"/>
-      <c r="W81" s="93"/>
-    </row>
-    <row r="82" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="142"/>
-      <c r="B82" s="144"/>
-      <c r="C82" s="99" t="s">
-        <v>236</v>
-      </c>
-      <c r="D82" s="157" t="s">
-        <v>268</v>
-      </c>
-      <c r="E82" s="158"/>
-      <c r="F82" s="158"/>
-      <c r="G82" s="142"/>
-      <c r="H82" s="144"/>
-      <c r="I82" s="99" t="s">
-        <v>236</v>
-      </c>
-      <c r="J82" s="147"/>
-      <c r="K82" s="147"/>
-      <c r="L82" s="147"/>
-      <c r="M82" s="142"/>
-      <c r="N82" s="144"/>
-      <c r="O82" s="99" t="s">
-        <v>236</v>
-      </c>
-      <c r="P82" s="147"/>
-      <c r="Q82" s="147"/>
-      <c r="R82" s="147"/>
-      <c r="S82" s="93"/>
-      <c r="T82" s="93"/>
-      <c r="U82" s="93"/>
-      <c r="V82" s="93"/>
-      <c r="W82" s="93"/>
-    </row>
-    <row r="83" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="142"/>
-      <c r="B83" s="145"/>
-      <c r="C83" s="100" t="s">
-        <v>237</v>
-      </c>
-      <c r="D83" s="157" t="s">
-        <v>269</v>
-      </c>
-      <c r="E83" s="158"/>
-      <c r="F83" s="158"/>
-      <c r="G83" s="142"/>
-      <c r="H83" s="145"/>
-      <c r="I83" s="100" t="s">
-        <v>237</v>
-      </c>
-      <c r="J83" s="147"/>
-      <c r="K83" s="147"/>
-      <c r="L83" s="147"/>
-      <c r="M83" s="142"/>
-      <c r="N83" s="145"/>
-      <c r="O83" s="100" t="s">
-        <v>237</v>
-      </c>
-      <c r="P83" s="147"/>
-      <c r="Q83" s="147"/>
-      <c r="R83" s="147"/>
-      <c r="S83" s="93"/>
-      <c r="T83" s="93"/>
-      <c r="U83" s="93"/>
-      <c r="V83" s="93"/>
-      <c r="W83" s="93"/>
-    </row>
-    <row r="84" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="93"/>
-      <c r="B84" s="94"/>
-      <c r="C84" s="93"/>
-      <c r="D84" s="93"/>
-      <c r="E84" s="93"/>
-      <c r="F84" s="93"/>
-      <c r="G84" s="93"/>
-      <c r="H84" s="94"/>
-      <c r="I84" s="93"/>
-      <c r="J84" s="93"/>
-      <c r="K84" s="93"/>
-      <c r="L84" s="93"/>
-      <c r="M84" s="93"/>
-      <c r="N84" s="94"/>
-    </row>
-    <row r="85" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="171" t="s">
-        <v>248</v>
-      </c>
-      <c r="B85" s="172"/>
-      <c r="C85" s="172"/>
-      <c r="D85" s="172"/>
-      <c r="E85" s="173"/>
-      <c r="F85" s="93"/>
-      <c r="G85" s="93"/>
-      <c r="H85" s="93"/>
-      <c r="I85" s="93"/>
-      <c r="J85" s="93"/>
-      <c r="K85" s="93"/>
-      <c r="L85" s="93"/>
-      <c r="M85" s="93"/>
-      <c r="N85" s="93"/>
-    </row>
-    <row r="86" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="187" t="s">
-        <v>146</v>
-      </c>
-      <c r="B86" s="178">
-        <v>1231</v>
-      </c>
-      <c r="C86" s="178"/>
-      <c r="D86" s="178"/>
-      <c r="E86" s="179"/>
-      <c r="F86" s="93"/>
-      <c r="G86" s="93"/>
-      <c r="H86" s="93"/>
-      <c r="I86" s="93"/>
-      <c r="J86" s="93"/>
-      <c r="K86" s="93"/>
-      <c r="L86" s="93"/>
-      <c r="M86" s="93"/>
-      <c r="N86" s="93"/>
-    </row>
-    <row r="87" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="170" t="s">
-        <v>249</v>
-      </c>
-      <c r="B87" s="185" t="s">
-        <v>250</v>
-      </c>
-      <c r="C87" s="174" t="s">
+      <c r="E91" s="191"/>
+    </row>
+    <row r="92" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="183"/>
+      <c r="B92" s="192" t="s">
+        <v>256</v>
+      </c>
+      <c r="C92" s="193"/>
+      <c r="D92" s="190" t="b">
+        <v>0</v>
+      </c>
+      <c r="E92" s="191"/>
+    </row>
+    <row r="93" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="183"/>
+      <c r="B93" s="192" t="s">
+        <v>73</v>
+      </c>
+      <c r="C93" s="193"/>
+      <c r="D93" s="190" t="b">
+        <v>0</v>
+      </c>
+      <c r="E93" s="191"/>
+    </row>
+    <row r="94" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="183"/>
+      <c r="B94" s="194" t="s">
+        <v>257</v>
+      </c>
+      <c r="C94" s="195"/>
+      <c r="D94" s="190" t="b">
+        <v>0</v>
+      </c>
+      <c r="E94" s="191"/>
+    </row>
+    <row r="95" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="183" t="s">
+        <v>258</v>
+      </c>
+      <c r="B95" s="188" t="s">
+        <v>259</v>
+      </c>
+      <c r="C95" s="189"/>
+      <c r="D95" s="184" t="s">
         <v>273</v>
       </c>
-      <c r="D87" s="174"/>
-      <c r="E87" s="180"/>
-      <c r="F87" s="93"/>
-      <c r="G87" s="93"/>
-      <c r="H87" s="93"/>
-      <c r="I87" s="93"/>
-      <c r="J87" s="93"/>
-      <c r="K87" s="93"/>
-      <c r="L87" s="93"/>
-      <c r="M87" s="93"/>
-      <c r="N87" s="93"/>
-    </row>
-    <row r="88" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="170"/>
-      <c r="B88" s="186" t="s">
-        <v>251</v>
-      </c>
-      <c r="C88" s="174" t="s">
-        <v>272</v>
-      </c>
-      <c r="D88" s="174"/>
-      <c r="E88" s="180"/>
-    </row>
-    <row r="89" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="187" t="s">
-        <v>252</v>
-      </c>
-      <c r="B89" s="175" t="s">
-        <v>270</v>
-      </c>
-      <c r="C89" s="175" t="s">
-        <v>253</v>
-      </c>
-      <c r="D89" s="176" t="s">
-        <v>271</v>
-      </c>
-      <c r="E89" s="181"/>
-    </row>
-    <row r="90" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="170" t="s">
-        <v>254</v>
-      </c>
-      <c r="B90" s="188" t="s">
-        <v>255</v>
-      </c>
-      <c r="C90" s="189"/>
-      <c r="D90" s="177" t="b">
-        <v>0</v>
-      </c>
-      <c r="E90" s="182"/>
-    </row>
-    <row r="91" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="170"/>
-      <c r="B91" s="190" t="s">
-        <v>256</v>
-      </c>
-      <c r="C91" s="191"/>
-      <c r="D91" s="177" t="b">
-        <v>1</v>
-      </c>
-      <c r="E91" s="182"/>
-    </row>
-    <row r="92" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="170"/>
-      <c r="B92" s="190" t="s">
-        <v>257</v>
-      </c>
-      <c r="C92" s="191"/>
-      <c r="D92" s="177" t="b">
-        <v>0</v>
-      </c>
-      <c r="E92" s="182"/>
-    </row>
-    <row r="93" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="170"/>
-      <c r="B93" s="190" t="s">
-        <v>73</v>
-      </c>
-      <c r="C93" s="191"/>
-      <c r="D93" s="177" t="b">
-        <v>0</v>
-      </c>
-      <c r="E93" s="182"/>
-    </row>
-    <row r="94" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="170"/>
-      <c r="B94" s="192" t="s">
-        <v>258</v>
-      </c>
-      <c r="C94" s="193"/>
-      <c r="D94" s="177" t="b">
-        <v>0</v>
-      </c>
-      <c r="E94" s="182"/>
-    </row>
-    <row r="95" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="170" t="s">
-        <v>259</v>
-      </c>
-      <c r="B95" s="188" t="s">
+      <c r="E95" s="185"/>
+    </row>
+    <row r="96" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="183"/>
+      <c r="B96" s="192" t="s">
         <v>260</v>
       </c>
-      <c r="C95" s="189"/>
-      <c r="D95" s="174" t="s">
+      <c r="C96" s="193"/>
+      <c r="D96" s="184" t="s">
         <v>274</v>
       </c>
-      <c r="E95" s="180"/>
-    </row>
-    <row r="96" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="170"/>
-      <c r="B96" s="190" t="s">
+      <c r="E96" s="185"/>
+    </row>
+    <row r="97" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="183"/>
+      <c r="B97" s="192" t="s">
         <v>261</v>
       </c>
-      <c r="C96" s="191"/>
-      <c r="D96" s="174" t="s">
+      <c r="C97" s="193"/>
+      <c r="D97" s="184" t="s">
         <v>275</v>
       </c>
-      <c r="E96" s="180"/>
-    </row>
-    <row r="97" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="170"/>
-      <c r="B97" s="190" t="s">
+      <c r="E97" s="185"/>
+    </row>
+    <row r="98" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="183"/>
+      <c r="B98" s="194" t="s">
         <v>262</v>
       </c>
-      <c r="C97" s="191"/>
-      <c r="D97" s="174" t="s">
+      <c r="C98" s="195"/>
+      <c r="D98" s="184" t="s">
         <v>276</v>
       </c>
-      <c r="E97" s="180"/>
-    </row>
-    <row r="98" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="170"/>
-      <c r="B98" s="192" t="s">
+      <c r="E98" s="185"/>
+    </row>
+    <row r="99" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="103" t="s">
         <v>263</v>
       </c>
-      <c r="C98" s="193"/>
-      <c r="D98" s="174" t="s">
+      <c r="B99" s="196" t="s">
         <v>277</v>
       </c>
-      <c r="E98" s="180"/>
-    </row>
-    <row r="99" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="187" t="s">
-        <v>264</v>
-      </c>
-      <c r="B99" s="183" t="s">
-        <v>278</v>
-      </c>
-      <c r="C99" s="183"/>
-      <c r="D99" s="183"/>
-      <c r="E99" s="184"/>
+      <c r="C99" s="196"/>
+      <c r="D99" s="196"/>
+      <c r="E99" s="197"/>
     </row>
   </sheetData>
   <mergeCells count="98">
@@ -3781,1373 +3813,1373 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.109375" customWidth="1"/>
-    <col min="12" max="12" width="17.109375" customWidth="1"/>
-    <col min="17" max="17" width="19.5546875" customWidth="1"/>
-    <col min="18" max="18" width="20.109375" customWidth="1"/>
-    <col min="19" max="23" width="20.6640625" customWidth="1"/>
-    <col min="24" max="24" width="30.109375" customWidth="1"/>
-    <col min="25" max="32" width="20.6640625" customWidth="1"/>
-    <col min="33" max="33" width="17.88671875" customWidth="1"/>
-    <col min="40" max="40" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="12" max="12" width="17.140625" customWidth="1"/>
+    <col min="17" max="17" width="19.5703125" customWidth="1"/>
+    <col min="18" max="18" width="20.140625" customWidth="1"/>
+    <col min="19" max="23" width="20.7109375" customWidth="1"/>
+    <col min="24" max="24" width="30.140625" customWidth="1"/>
+    <col min="25" max="32" width="20.7109375" customWidth="1"/>
+    <col min="33" max="33" width="17.85546875" customWidth="1"/>
+    <col min="40" max="40" width="16.28515625" customWidth="1"/>
     <col min="46" max="46" width="19" customWidth="1"/>
     <col min="56" max="57" width="20" customWidth="1"/>
-    <col min="59" max="60" width="19.33203125" customWidth="1"/>
-    <col min="74" max="75" width="18.5546875" customWidth="1"/>
-    <col min="77" max="78" width="17.88671875" customWidth="1"/>
-    <col min="80" max="81" width="17.6640625" customWidth="1"/>
+    <col min="59" max="60" width="19.28515625" customWidth="1"/>
+    <col min="74" max="75" width="18.5703125" customWidth="1"/>
+    <col min="77" max="78" width="17.85546875" customWidth="1"/>
+    <col min="80" max="81" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:175" x14ac:dyDescent="0.25">
-      <c r="A1" s="161" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="161" t="s">
+    <row r="1" spans="1:175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="201" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="124"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="201" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="113"/>
-      <c r="P1" s="161" t="s">
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="124"/>
+      <c r="L1" s="124"/>
+      <c r="M1" s="124"/>
+      <c r="N1" s="124"/>
+      <c r="O1" s="125"/>
+      <c r="P1" s="201" t="s">
         <v>82</v>
       </c>
-      <c r="Q1" s="112"/>
-      <c r="R1" s="112"/>
-      <c r="S1" s="113"/>
-      <c r="T1" s="160" t="s">
+      <c r="Q1" s="124"/>
+      <c r="R1" s="124"/>
+      <c r="S1" s="125"/>
+      <c r="T1" s="200" t="s">
         <v>83</v>
       </c>
-      <c r="U1" s="112"/>
-      <c r="V1" s="112"/>
-      <c r="W1" s="112"/>
-      <c r="X1" s="112"/>
-      <c r="Y1" s="112"/>
-      <c r="Z1" s="112"/>
-      <c r="AA1" s="112"/>
-      <c r="AB1" s="112"/>
-      <c r="AC1" s="112"/>
-      <c r="AD1" s="112"/>
-      <c r="AE1" s="112"/>
-      <c r="AF1" s="113"/>
-      <c r="AG1" s="160" t="s">
+      <c r="U1" s="124"/>
+      <c r="V1" s="124"/>
+      <c r="W1" s="124"/>
+      <c r="X1" s="124"/>
+      <c r="Y1" s="124"/>
+      <c r="Z1" s="124"/>
+      <c r="AA1" s="124"/>
+      <c r="AB1" s="124"/>
+      <c r="AC1" s="124"/>
+      <c r="AD1" s="124"/>
+      <c r="AE1" s="124"/>
+      <c r="AF1" s="125"/>
+      <c r="AG1" s="200" t="s">
         <v>84</v>
       </c>
-      <c r="AH1" s="112"/>
-      <c r="AI1" s="112"/>
-      <c r="AJ1" s="112"/>
-      <c r="AK1" s="112"/>
-      <c r="AL1" s="112"/>
-      <c r="AM1" s="112"/>
-      <c r="AN1" s="112"/>
-      <c r="AO1" s="112"/>
-      <c r="AP1" s="112"/>
-      <c r="AQ1" s="112"/>
-      <c r="AR1" s="112"/>
-      <c r="AS1" s="113"/>
-      <c r="AT1" s="160" t="s">
+      <c r="AH1" s="124"/>
+      <c r="AI1" s="124"/>
+      <c r="AJ1" s="124"/>
+      <c r="AK1" s="124"/>
+      <c r="AL1" s="124"/>
+      <c r="AM1" s="124"/>
+      <c r="AN1" s="124"/>
+      <c r="AO1" s="124"/>
+      <c r="AP1" s="124"/>
+      <c r="AQ1" s="124"/>
+      <c r="AR1" s="124"/>
+      <c r="AS1" s="125"/>
+      <c r="AT1" s="200" t="s">
         <v>48</v>
       </c>
-      <c r="AU1" s="112"/>
-      <c r="AV1" s="112"/>
-      <c r="AW1" s="112"/>
-      <c r="AX1" s="112"/>
-      <c r="AY1" s="112"/>
-      <c r="AZ1" s="113"/>
-      <c r="BA1" s="160" t="s">
+      <c r="AU1" s="124"/>
+      <c r="AV1" s="124"/>
+      <c r="AW1" s="124"/>
+      <c r="AX1" s="124"/>
+      <c r="AY1" s="124"/>
+      <c r="AZ1" s="125"/>
+      <c r="BA1" s="200" t="s">
         <v>85</v>
       </c>
-      <c r="BB1" s="112"/>
-      <c r="BC1" s="112"/>
-      <c r="BD1" s="112"/>
-      <c r="BE1" s="112"/>
-      <c r="BF1" s="112"/>
-      <c r="BG1" s="112"/>
-      <c r="BH1" s="112"/>
-      <c r="BI1" s="112"/>
-      <c r="BJ1" s="112"/>
-      <c r="BK1" s="112"/>
-      <c r="BL1" s="112"/>
-      <c r="BM1" s="112"/>
-      <c r="BN1" s="112"/>
-      <c r="BO1" s="112"/>
-      <c r="BP1" s="112"/>
-      <c r="BQ1" s="112"/>
-      <c r="BR1" s="112"/>
-      <c r="BS1" s="112"/>
-      <c r="BT1" s="112"/>
-      <c r="BU1" s="112"/>
-      <c r="BV1" s="112"/>
-      <c r="BW1" s="112"/>
-      <c r="BX1" s="112"/>
-      <c r="BY1" s="112"/>
-      <c r="BZ1" s="112"/>
-      <c r="CA1" s="112"/>
-      <c r="CB1" s="112"/>
-      <c r="CC1" s="112"/>
-      <c r="CD1" s="112"/>
-      <c r="CE1" s="112"/>
-      <c r="CF1" s="112"/>
-      <c r="CG1" s="112"/>
-      <c r="CH1" s="112"/>
-      <c r="CI1" s="112"/>
-      <c r="CJ1" s="112"/>
-      <c r="CK1" s="112"/>
-      <c r="CL1" s="112"/>
-      <c r="CM1" s="113"/>
-    </row>
-    <row r="2" spans="1:175" x14ac:dyDescent="0.25">
-      <c r="A2" s="162" t="s">
+      <c r="BB1" s="124"/>
+      <c r="BC1" s="124"/>
+      <c r="BD1" s="124"/>
+      <c r="BE1" s="124"/>
+      <c r="BF1" s="124"/>
+      <c r="BG1" s="124"/>
+      <c r="BH1" s="124"/>
+      <c r="BI1" s="124"/>
+      <c r="BJ1" s="124"/>
+      <c r="BK1" s="124"/>
+      <c r="BL1" s="124"/>
+      <c r="BM1" s="124"/>
+      <c r="BN1" s="124"/>
+      <c r="BO1" s="124"/>
+      <c r="BP1" s="124"/>
+      <c r="BQ1" s="124"/>
+      <c r="BR1" s="124"/>
+      <c r="BS1" s="124"/>
+      <c r="BT1" s="124"/>
+      <c r="BU1" s="124"/>
+      <c r="BV1" s="124"/>
+      <c r="BW1" s="124"/>
+      <c r="BX1" s="124"/>
+      <c r="BY1" s="124"/>
+      <c r="BZ1" s="124"/>
+      <c r="CA1" s="124"/>
+      <c r="CB1" s="124"/>
+      <c r="CC1" s="124"/>
+      <c r="CD1" s="124"/>
+      <c r="CE1" s="124"/>
+      <c r="CF1" s="124"/>
+      <c r="CG1" s="124"/>
+      <c r="CH1" s="124"/>
+      <c r="CI1" s="124"/>
+      <c r="CJ1" s="124"/>
+      <c r="CK1" s="124"/>
+      <c r="CL1" s="124"/>
+      <c r="CM1" s="125"/>
+    </row>
+    <row r="2" spans="1:175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="202" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="159" t="s">
+      <c r="B2" s="198" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="159" t="s">
+      <c r="C2" s="198" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="159" t="s">
+      <c r="D2" s="198" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="159" t="s">
+      <c r="E2" s="198" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="159" t="s">
+      <c r="F2" s="198" t="s">
         <v>87</v>
       </c>
-      <c r="G2" s="159" t="s">
+      <c r="G2" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="159" t="s">
+      <c r="H2" s="198" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="159" t="s">
+      <c r="I2" s="198" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="159" t="s">
+      <c r="J2" s="198" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="159" t="s">
+      <c r="K2" s="198" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="159" t="s">
+      <c r="L2" s="198" t="s">
         <v>88</v>
       </c>
-      <c r="M2" s="159" t="s">
+      <c r="M2" s="198" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="159" t="s">
+      <c r="N2" s="198" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="159" t="s">
+      <c r="O2" s="198" t="s">
         <v>89</v>
       </c>
-      <c r="P2" s="159" t="s">
+      <c r="P2" s="198" t="s">
         <v>90</v>
       </c>
-      <c r="Q2" s="159" t="s">
+      <c r="Q2" s="198" t="s">
         <v>91</v>
       </c>
-      <c r="R2" s="159" t="s">
+      <c r="R2" s="198" t="s">
         <v>23</v>
       </c>
-      <c r="S2" s="159" t="s">
+      <c r="S2" s="198" t="s">
         <v>25</v>
       </c>
-      <c r="T2" s="159" t="s">
+      <c r="T2" s="198" t="s">
         <v>30</v>
       </c>
-      <c r="U2" s="159" t="s">
+      <c r="U2" s="198" t="s">
         <v>6</v>
       </c>
-      <c r="V2" s="159" t="s">
+      <c r="V2" s="198" t="s">
         <v>92</v>
       </c>
-      <c r="W2" s="159" t="s">
+      <c r="W2" s="198" t="s">
         <v>93</v>
       </c>
-      <c r="X2" s="160" t="s">
+      <c r="X2" s="200" t="s">
         <v>32</v>
       </c>
-      <c r="Y2" s="112"/>
-      <c r="Z2" s="112"/>
-      <c r="AA2" s="112"/>
-      <c r="AB2" s="112"/>
-      <c r="AC2" s="112"/>
-      <c r="AD2" s="112"/>
-      <c r="AE2" s="113"/>
-      <c r="AF2" s="159" t="s">
+      <c r="Y2" s="124"/>
+      <c r="Z2" s="124"/>
+      <c r="AA2" s="124"/>
+      <c r="AB2" s="124"/>
+      <c r="AC2" s="124"/>
+      <c r="AD2" s="124"/>
+      <c r="AE2" s="125"/>
+      <c r="AF2" s="198" t="s">
         <v>41</v>
       </c>
-      <c r="AG2" s="159" t="s">
+      <c r="AG2" s="198" t="s">
         <v>94</v>
       </c>
-      <c r="AH2" s="159" t="s">
+      <c r="AH2" s="198" t="s">
         <v>44</v>
       </c>
-      <c r="AI2" s="161" t="s">
+      <c r="AI2" s="201" t="s">
         <v>32</v>
       </c>
-      <c r="AJ2" s="112"/>
-      <c r="AK2" s="112"/>
-      <c r="AL2" s="112"/>
-      <c r="AM2" s="112"/>
-      <c r="AN2" s="112"/>
-      <c r="AO2" s="112"/>
-      <c r="AP2" s="113"/>
-      <c r="AQ2" s="159" t="s">
+      <c r="AJ2" s="124"/>
+      <c r="AK2" s="124"/>
+      <c r="AL2" s="124"/>
+      <c r="AM2" s="124"/>
+      <c r="AN2" s="124"/>
+      <c r="AO2" s="124"/>
+      <c r="AP2" s="125"/>
+      <c r="AQ2" s="198" t="s">
         <v>41</v>
       </c>
-      <c r="AR2" s="159" t="s">
+      <c r="AR2" s="198" t="s">
         <v>46</v>
       </c>
-      <c r="AS2" s="159" t="s">
+      <c r="AS2" s="198" t="s">
         <v>47</v>
       </c>
-      <c r="AT2" s="159" t="s">
+      <c r="AT2" s="198" t="s">
         <v>95</v>
       </c>
-      <c r="AU2" s="159" t="s">
+      <c r="AU2" s="198" t="s">
         <v>50</v>
       </c>
-      <c r="AV2" s="159" t="s">
+      <c r="AV2" s="198" t="s">
         <v>51</v>
       </c>
-      <c r="AW2" s="159" t="s">
+      <c r="AW2" s="198" t="s">
         <v>52</v>
       </c>
-      <c r="AX2" s="159" t="s">
+      <c r="AX2" s="198" t="s">
         <v>22</v>
       </c>
-      <c r="AY2" s="159" t="s">
+      <c r="AY2" s="198" t="s">
         <v>53</v>
       </c>
-      <c r="AZ2" s="159" t="s">
+      <c r="AZ2" s="198" t="s">
         <v>54</v>
       </c>
-      <c r="BA2" s="159" t="s">
+      <c r="BA2" s="198" t="s">
         <v>30</v>
       </c>
-      <c r="BB2" s="160" t="s">
+      <c r="BB2" s="200" t="s">
         <v>59</v>
       </c>
-      <c r="BC2" s="112"/>
-      <c r="BD2" s="112"/>
-      <c r="BE2" s="112"/>
-      <c r="BF2" s="112"/>
-      <c r="BG2" s="112"/>
-      <c r="BH2" s="112"/>
-      <c r="BI2" s="112"/>
-      <c r="BJ2" s="112"/>
-      <c r="BK2" s="112"/>
-      <c r="BL2" s="112"/>
-      <c r="BM2" s="112"/>
-      <c r="BN2" s="112"/>
-      <c r="BO2" s="112"/>
-      <c r="BP2" s="112"/>
-      <c r="BQ2" s="112"/>
-      <c r="BR2" s="112"/>
-      <c r="BS2" s="112"/>
-      <c r="BT2" s="112"/>
-      <c r="BU2" s="112"/>
-      <c r="BV2" s="112"/>
-      <c r="BW2" s="112"/>
-      <c r="BX2" s="112"/>
-      <c r="BY2" s="112"/>
-      <c r="BZ2" s="112"/>
-      <c r="CA2" s="112"/>
-      <c r="CB2" s="112"/>
-      <c r="CC2" s="112"/>
-      <c r="CD2" s="112"/>
-      <c r="CE2" s="112"/>
-      <c r="CF2" s="112"/>
-      <c r="CG2" s="112"/>
-      <c r="CH2" s="112"/>
-      <c r="CI2" s="112"/>
-      <c r="CJ2" s="113"/>
-      <c r="CK2" s="159" t="s">
+      <c r="BC2" s="124"/>
+      <c r="BD2" s="124"/>
+      <c r="BE2" s="124"/>
+      <c r="BF2" s="124"/>
+      <c r="BG2" s="124"/>
+      <c r="BH2" s="124"/>
+      <c r="BI2" s="124"/>
+      <c r="BJ2" s="124"/>
+      <c r="BK2" s="124"/>
+      <c r="BL2" s="124"/>
+      <c r="BM2" s="124"/>
+      <c r="BN2" s="124"/>
+      <c r="BO2" s="124"/>
+      <c r="BP2" s="124"/>
+      <c r="BQ2" s="124"/>
+      <c r="BR2" s="124"/>
+      <c r="BS2" s="124"/>
+      <c r="BT2" s="124"/>
+      <c r="BU2" s="124"/>
+      <c r="BV2" s="124"/>
+      <c r="BW2" s="124"/>
+      <c r="BX2" s="124"/>
+      <c r="BY2" s="124"/>
+      <c r="BZ2" s="124"/>
+      <c r="CA2" s="124"/>
+      <c r="CB2" s="124"/>
+      <c r="CC2" s="124"/>
+      <c r="CD2" s="124"/>
+      <c r="CE2" s="124"/>
+      <c r="CF2" s="124"/>
+      <c r="CG2" s="124"/>
+      <c r="CH2" s="124"/>
+      <c r="CI2" s="124"/>
+      <c r="CJ2" s="125"/>
+      <c r="CK2" s="198" t="s">
         <v>79</v>
       </c>
-      <c r="CL2" s="159" t="s">
+      <c r="CL2" s="198" t="s">
         <v>80</v>
       </c>
-      <c r="CM2" s="159" t="s">
+      <c r="CM2" s="198" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:175" x14ac:dyDescent="0.25">
-      <c r="A3" s="115"/>
-      <c r="B3" s="115"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="115"/>
-      <c r="M3" s="115"/>
-      <c r="N3" s="115"/>
-      <c r="O3" s="115"/>
-      <c r="P3" s="115"/>
-      <c r="Q3" s="115"/>
-      <c r="R3" s="115"/>
-      <c r="S3" s="115"/>
-      <c r="T3" s="115"/>
-      <c r="U3" s="115"/>
-      <c r="V3" s="115"/>
-      <c r="W3" s="115"/>
-      <c r="X3" s="159" t="s">
+    <row r="3" spans="1:175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="142"/>
+      <c r="B3" s="142"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="142"/>
+      <c r="L3" s="142"/>
+      <c r="M3" s="142"/>
+      <c r="N3" s="142"/>
+      <c r="O3" s="142"/>
+      <c r="P3" s="142"/>
+      <c r="Q3" s="142"/>
+      <c r="R3" s="142"/>
+      <c r="S3" s="142"/>
+      <c r="T3" s="142"/>
+      <c r="U3" s="142"/>
+      <c r="V3" s="142"/>
+      <c r="W3" s="142"/>
+      <c r="X3" s="198" t="s">
         <v>96</v>
       </c>
-      <c r="Y3" s="159" t="s">
+      <c r="Y3" s="198" t="s">
         <v>34</v>
       </c>
-      <c r="Z3" s="159" t="s">
+      <c r="Z3" s="198" t="s">
         <v>35</v>
       </c>
-      <c r="AA3" s="159" t="s">
+      <c r="AA3" s="198" t="s">
         <v>36</v>
       </c>
-      <c r="AB3" s="159" t="s">
+      <c r="AB3" s="198" t="s">
         <v>37</v>
       </c>
-      <c r="AC3" s="159" t="s">
+      <c r="AC3" s="198" t="s">
         <v>38</v>
       </c>
-      <c r="AD3" s="159" t="s">
+      <c r="AD3" s="198" t="s">
         <v>39</v>
       </c>
-      <c r="AE3" s="159" t="s">
+      <c r="AE3" s="198" t="s">
         <v>40</v>
       </c>
-      <c r="AF3" s="115"/>
-      <c r="AG3" s="115"/>
-      <c r="AH3" s="115"/>
-      <c r="AI3" s="159" t="s">
+      <c r="AF3" s="142"/>
+      <c r="AG3" s="142"/>
+      <c r="AH3" s="142"/>
+      <c r="AI3" s="198" t="s">
         <v>97</v>
       </c>
-      <c r="AJ3" s="159" t="s">
+      <c r="AJ3" s="198" t="s">
         <v>34</v>
       </c>
-      <c r="AK3" s="159" t="s">
+      <c r="AK3" s="198" t="s">
         <v>35</v>
       </c>
-      <c r="AL3" s="159" t="s">
+      <c r="AL3" s="198" t="s">
         <v>36</v>
       </c>
-      <c r="AM3" s="159" t="s">
+      <c r="AM3" s="198" t="s">
         <v>37</v>
       </c>
-      <c r="AN3" s="159" t="s">
+      <c r="AN3" s="198" t="s">
         <v>98</v>
       </c>
-      <c r="AO3" s="159" t="s">
+      <c r="AO3" s="198" t="s">
         <v>39</v>
       </c>
-      <c r="AP3" s="159" t="s">
+      <c r="AP3" s="198" t="s">
         <v>40</v>
       </c>
-      <c r="AQ3" s="115"/>
-      <c r="AR3" s="115"/>
-      <c r="AS3" s="115"/>
-      <c r="AT3" s="115"/>
-      <c r="AU3" s="115"/>
-      <c r="AV3" s="115"/>
-      <c r="AW3" s="115"/>
-      <c r="AX3" s="115"/>
-      <c r="AY3" s="115"/>
-      <c r="AZ3" s="115"/>
-      <c r="BA3" s="115"/>
-      <c r="BB3" s="163" t="s">
+      <c r="AQ3" s="142"/>
+      <c r="AR3" s="142"/>
+      <c r="AS3" s="142"/>
+      <c r="AT3" s="142"/>
+      <c r="AU3" s="142"/>
+      <c r="AV3" s="142"/>
+      <c r="AW3" s="142"/>
+      <c r="AX3" s="142"/>
+      <c r="AY3" s="142"/>
+      <c r="AZ3" s="142"/>
+      <c r="BA3" s="142"/>
+      <c r="BB3" s="203" t="s">
         <v>60</v>
       </c>
-      <c r="BC3" s="163" t="s">
+      <c r="BC3" s="203" t="s">
         <v>61</v>
       </c>
-      <c r="BD3" s="34"/>
-      <c r="BE3" s="122" t="s">
+      <c r="BD3" s="31"/>
+      <c r="BE3" s="134" t="s">
         <v>62</v>
       </c>
-      <c r="BF3" s="137"/>
-      <c r="BG3" s="137"/>
-      <c r="BH3" s="137"/>
-      <c r="BI3" s="137"/>
-      <c r="BJ3" s="137"/>
-      <c r="BK3" s="137"/>
-      <c r="BL3" s="137"/>
-      <c r="BM3" s="137"/>
-      <c r="BN3" s="137"/>
-      <c r="BO3" s="137"/>
-      <c r="BP3" s="137"/>
-      <c r="BQ3" s="137"/>
-      <c r="BR3" s="137"/>
-      <c r="BS3" s="137"/>
-      <c r="BT3" s="137"/>
-      <c r="BU3" s="137"/>
-      <c r="BV3" s="137"/>
-      <c r="BW3" s="137"/>
-      <c r="BX3" s="137"/>
-      <c r="BY3" s="137"/>
-      <c r="BZ3" s="137"/>
-      <c r="CA3" s="137"/>
-      <c r="CB3" s="137"/>
-      <c r="CC3" s="137"/>
-      <c r="CD3" s="137"/>
-      <c r="CE3" s="137"/>
-      <c r="CF3" s="137"/>
-      <c r="CG3" s="137"/>
-      <c r="CH3" s="137"/>
-      <c r="CI3" s="137"/>
-      <c r="CJ3" s="137"/>
-      <c r="CK3" s="115"/>
-      <c r="CL3" s="115"/>
-      <c r="CM3" s="115"/>
-      <c r="CN3" s="21"/>
-      <c r="CO3" s="21"/>
-      <c r="CP3" s="21"/>
-      <c r="CQ3" s="21"/>
-      <c r="CR3" s="21"/>
-      <c r="CS3" s="21"/>
-      <c r="CT3" s="21"/>
-      <c r="CU3" s="21"/>
-      <c r="CV3" s="21"/>
-      <c r="CW3" s="21"/>
-      <c r="CX3" s="21"/>
-      <c r="CY3" s="21"/>
-      <c r="CZ3" s="21"/>
-      <c r="DA3" s="21"/>
-      <c r="DB3" s="21"/>
-      <c r="DC3" s="21"/>
-      <c r="DD3" s="21"/>
-      <c r="DE3" s="21"/>
-      <c r="DF3" s="21"/>
-      <c r="DG3" s="21"/>
-      <c r="DH3" s="21"/>
-      <c r="DI3" s="21"/>
-      <c r="DJ3" s="21"/>
-      <c r="DK3" s="21"/>
-      <c r="DL3" s="21"/>
-      <c r="DM3" s="21"/>
-      <c r="DN3" s="21"/>
-      <c r="DO3" s="21"/>
-      <c r="DP3" s="21"/>
-      <c r="DQ3" s="21"/>
-      <c r="DR3" s="21"/>
-      <c r="DS3" s="21"/>
-      <c r="DT3" s="21"/>
-      <c r="DU3" s="21"/>
-      <c r="DV3" s="21"/>
-      <c r="DW3" s="21"/>
-      <c r="DX3" s="21"/>
-      <c r="DY3" s="21"/>
-      <c r="DZ3" s="21"/>
-      <c r="EA3" s="21"/>
-      <c r="EB3" s="21"/>
-      <c r="EC3" s="21"/>
-      <c r="ED3" s="21"/>
-      <c r="EE3" s="21"/>
-      <c r="EF3" s="21"/>
-      <c r="EG3" s="21"/>
-      <c r="EH3" s="21"/>
-      <c r="EI3" s="21"/>
-      <c r="EJ3" s="21"/>
-      <c r="EK3" s="21"/>
-      <c r="EL3" s="21"/>
-      <c r="EM3" s="21"/>
-      <c r="EN3" s="21"/>
-      <c r="EO3" s="21"/>
-      <c r="EP3" s="21"/>
-      <c r="EQ3" s="21"/>
-      <c r="ER3" s="21"/>
-      <c r="ES3" s="21"/>
-      <c r="ET3" s="21"/>
-      <c r="EU3" s="21"/>
-      <c r="EV3" s="21"/>
-      <c r="EW3" s="21"/>
-      <c r="EX3" s="21"/>
-      <c r="EY3" s="21"/>
-      <c r="EZ3" s="21"/>
-      <c r="FA3" s="21"/>
-      <c r="FB3" s="21"/>
-      <c r="FC3" s="21"/>
-      <c r="FD3" s="21"/>
-      <c r="FE3" s="21"/>
-      <c r="FF3" s="21"/>
-      <c r="FG3" s="21"/>
-      <c r="FH3" s="21"/>
-      <c r="FI3" s="21"/>
-      <c r="FJ3" s="21"/>
-      <c r="FK3" s="21"/>
-      <c r="FL3" s="21"/>
-      <c r="FM3" s="21"/>
-      <c r="FN3" s="21"/>
-      <c r="FO3" s="21"/>
-      <c r="FQ3" s="21"/>
-      <c r="FR3" s="21"/>
-      <c r="FS3" s="21"/>
-    </row>
-    <row r="4" spans="1:175" x14ac:dyDescent="0.25">
-      <c r="A4" s="115"/>
-      <c r="B4" s="115"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="115"/>
-      <c r="L4" s="115"/>
-      <c r="M4" s="115"/>
-      <c r="N4" s="115"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="115"/>
-      <c r="R4" s="115"/>
-      <c r="S4" s="115"/>
-      <c r="T4" s="115"/>
-      <c r="U4" s="115"/>
-      <c r="V4" s="115"/>
-      <c r="W4" s="115"/>
-      <c r="X4" s="115"/>
-      <c r="Y4" s="115"/>
-      <c r="Z4" s="115"/>
-      <c r="AA4" s="115"/>
-      <c r="AB4" s="115"/>
-      <c r="AC4" s="115"/>
-      <c r="AD4" s="115"/>
-      <c r="AE4" s="115"/>
-      <c r="AF4" s="115"/>
-      <c r="AG4" s="115"/>
-      <c r="AH4" s="115"/>
-      <c r="AI4" s="115"/>
-      <c r="AJ4" s="115"/>
-      <c r="AK4" s="115"/>
-      <c r="AL4" s="115"/>
-      <c r="AM4" s="115"/>
-      <c r="AN4" s="115"/>
-      <c r="AO4" s="115"/>
-      <c r="AP4" s="115"/>
-      <c r="AQ4" s="115"/>
-      <c r="AR4" s="115"/>
-      <c r="AS4" s="115"/>
-      <c r="AT4" s="115"/>
-      <c r="AU4" s="115"/>
-      <c r="AV4" s="115"/>
-      <c r="AW4" s="115"/>
-      <c r="AX4" s="115"/>
-      <c r="AY4" s="115"/>
-      <c r="AZ4" s="115"/>
-      <c r="BA4" s="115"/>
-      <c r="BB4" s="115"/>
-      <c r="BC4" s="115"/>
-      <c r="BD4" s="160" t="s">
+      <c r="BF3" s="156"/>
+      <c r="BG3" s="156"/>
+      <c r="BH3" s="156"/>
+      <c r="BI3" s="156"/>
+      <c r="BJ3" s="156"/>
+      <c r="BK3" s="156"/>
+      <c r="BL3" s="156"/>
+      <c r="BM3" s="156"/>
+      <c r="BN3" s="156"/>
+      <c r="BO3" s="156"/>
+      <c r="BP3" s="156"/>
+      <c r="BQ3" s="156"/>
+      <c r="BR3" s="156"/>
+      <c r="BS3" s="156"/>
+      <c r="BT3" s="156"/>
+      <c r="BU3" s="156"/>
+      <c r="BV3" s="156"/>
+      <c r="BW3" s="156"/>
+      <c r="BX3" s="156"/>
+      <c r="BY3" s="156"/>
+      <c r="BZ3" s="156"/>
+      <c r="CA3" s="156"/>
+      <c r="CB3" s="156"/>
+      <c r="CC3" s="156"/>
+      <c r="CD3" s="156"/>
+      <c r="CE3" s="156"/>
+      <c r="CF3" s="156"/>
+      <c r="CG3" s="156"/>
+      <c r="CH3" s="156"/>
+      <c r="CI3" s="156"/>
+      <c r="CJ3" s="156"/>
+      <c r="CK3" s="142"/>
+      <c r="CL3" s="142"/>
+      <c r="CM3" s="142"/>
+      <c r="CN3" s="18"/>
+      <c r="CO3" s="18"/>
+      <c r="CP3" s="18"/>
+      <c r="CQ3" s="18"/>
+      <c r="CR3" s="18"/>
+      <c r="CS3" s="18"/>
+      <c r="CT3" s="18"/>
+      <c r="CU3" s="18"/>
+      <c r="CV3" s="18"/>
+      <c r="CW3" s="18"/>
+      <c r="CX3" s="18"/>
+      <c r="CY3" s="18"/>
+      <c r="CZ3" s="18"/>
+      <c r="DA3" s="18"/>
+      <c r="DB3" s="18"/>
+      <c r="DC3" s="18"/>
+      <c r="DD3" s="18"/>
+      <c r="DE3" s="18"/>
+      <c r="DF3" s="18"/>
+      <c r="DG3" s="18"/>
+      <c r="DH3" s="18"/>
+      <c r="DI3" s="18"/>
+      <c r="DJ3" s="18"/>
+      <c r="DK3" s="18"/>
+      <c r="DL3" s="18"/>
+      <c r="DM3" s="18"/>
+      <c r="DN3" s="18"/>
+      <c r="DO3" s="18"/>
+      <c r="DP3" s="18"/>
+      <c r="DQ3" s="18"/>
+      <c r="DR3" s="18"/>
+      <c r="DS3" s="18"/>
+      <c r="DT3" s="18"/>
+      <c r="DU3" s="18"/>
+      <c r="DV3" s="18"/>
+      <c r="DW3" s="18"/>
+      <c r="DX3" s="18"/>
+      <c r="DY3" s="18"/>
+      <c r="DZ3" s="18"/>
+      <c r="EA3" s="18"/>
+      <c r="EB3" s="18"/>
+      <c r="EC3" s="18"/>
+      <c r="ED3" s="18"/>
+      <c r="EE3" s="18"/>
+      <c r="EF3" s="18"/>
+      <c r="EG3" s="18"/>
+      <c r="EH3" s="18"/>
+      <c r="EI3" s="18"/>
+      <c r="EJ3" s="18"/>
+      <c r="EK3" s="18"/>
+      <c r="EL3" s="18"/>
+      <c r="EM3" s="18"/>
+      <c r="EN3" s="18"/>
+      <c r="EO3" s="18"/>
+      <c r="EP3" s="18"/>
+      <c r="EQ3" s="18"/>
+      <c r="ER3" s="18"/>
+      <c r="ES3" s="18"/>
+      <c r="ET3" s="18"/>
+      <c r="EU3" s="18"/>
+      <c r="EV3" s="18"/>
+      <c r="EW3" s="18"/>
+      <c r="EX3" s="18"/>
+      <c r="EY3" s="18"/>
+      <c r="EZ3" s="18"/>
+      <c r="FA3" s="18"/>
+      <c r="FB3" s="18"/>
+      <c r="FC3" s="18"/>
+      <c r="FD3" s="18"/>
+      <c r="FE3" s="18"/>
+      <c r="FF3" s="18"/>
+      <c r="FG3" s="18"/>
+      <c r="FH3" s="18"/>
+      <c r="FI3" s="18"/>
+      <c r="FJ3" s="18"/>
+      <c r="FK3" s="18"/>
+      <c r="FL3" s="18"/>
+      <c r="FM3" s="18"/>
+      <c r="FN3" s="18"/>
+      <c r="FO3" s="18"/>
+      <c r="FQ3" s="18"/>
+      <c r="FR3" s="18"/>
+      <c r="FS3" s="18"/>
+    </row>
+    <row r="4" spans="1:175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="142"/>
+      <c r="B4" s="142"/>
+      <c r="C4" s="142"/>
+      <c r="D4" s="142"/>
+      <c r="E4" s="142"/>
+      <c r="F4" s="142"/>
+      <c r="G4" s="142"/>
+      <c r="H4" s="142"/>
+      <c r="I4" s="142"/>
+      <c r="J4" s="142"/>
+      <c r="K4" s="142"/>
+      <c r="L4" s="142"/>
+      <c r="M4" s="142"/>
+      <c r="N4" s="142"/>
+      <c r="O4" s="142"/>
+      <c r="P4" s="142"/>
+      <c r="Q4" s="142"/>
+      <c r="R4" s="142"/>
+      <c r="S4" s="142"/>
+      <c r="T4" s="142"/>
+      <c r="U4" s="142"/>
+      <c r="V4" s="142"/>
+      <c r="W4" s="142"/>
+      <c r="X4" s="142"/>
+      <c r="Y4" s="142"/>
+      <c r="Z4" s="142"/>
+      <c r="AA4" s="142"/>
+      <c r="AB4" s="142"/>
+      <c r="AC4" s="142"/>
+      <c r="AD4" s="142"/>
+      <c r="AE4" s="142"/>
+      <c r="AF4" s="142"/>
+      <c r="AG4" s="142"/>
+      <c r="AH4" s="142"/>
+      <c r="AI4" s="142"/>
+      <c r="AJ4" s="142"/>
+      <c r="AK4" s="142"/>
+      <c r="AL4" s="142"/>
+      <c r="AM4" s="142"/>
+      <c r="AN4" s="142"/>
+      <c r="AO4" s="142"/>
+      <c r="AP4" s="142"/>
+      <c r="AQ4" s="142"/>
+      <c r="AR4" s="142"/>
+      <c r="AS4" s="142"/>
+      <c r="AT4" s="142"/>
+      <c r="AU4" s="142"/>
+      <c r="AV4" s="142"/>
+      <c r="AW4" s="142"/>
+      <c r="AX4" s="142"/>
+      <c r="AY4" s="142"/>
+      <c r="AZ4" s="142"/>
+      <c r="BA4" s="142"/>
+      <c r="BB4" s="142"/>
+      <c r="BC4" s="142"/>
+      <c r="BD4" s="200" t="s">
         <v>67</v>
       </c>
-      <c r="BE4" s="112"/>
-      <c r="BF4" s="113"/>
-      <c r="BG4" s="160" t="s">
+      <c r="BE4" s="124"/>
+      <c r="BF4" s="125"/>
+      <c r="BG4" s="200" t="s">
         <v>67</v>
       </c>
-      <c r="BH4" s="112"/>
-      <c r="BI4" s="113"/>
-      <c r="BJ4" s="160" t="s">
+      <c r="BH4" s="124"/>
+      <c r="BI4" s="125"/>
+      <c r="BJ4" s="200" t="s">
         <v>70</v>
       </c>
-      <c r="BK4" s="112"/>
-      <c r="BL4" s="113"/>
-      <c r="BM4" s="160" t="s">
+      <c r="BK4" s="124"/>
+      <c r="BL4" s="125"/>
+      <c r="BM4" s="200" t="s">
         <v>71</v>
       </c>
-      <c r="BN4" s="112"/>
-      <c r="BO4" s="113"/>
-      <c r="BP4" s="160" t="s">
+      <c r="BN4" s="124"/>
+      <c r="BO4" s="125"/>
+      <c r="BP4" s="200" t="s">
         <v>72</v>
       </c>
-      <c r="BQ4" s="112"/>
-      <c r="BR4" s="113"/>
-      <c r="BS4" s="160" t="s">
+      <c r="BQ4" s="124"/>
+      <c r="BR4" s="125"/>
+      <c r="BS4" s="200" t="s">
         <v>73</v>
       </c>
-      <c r="BT4" s="112"/>
-      <c r="BU4" s="113"/>
-      <c r="BV4" s="160" t="s">
+      <c r="BT4" s="124"/>
+      <c r="BU4" s="125"/>
+      <c r="BV4" s="200" t="s">
         <v>74</v>
       </c>
-      <c r="BW4" s="112"/>
-      <c r="BX4" s="113"/>
-      <c r="BY4" s="160" t="s">
+      <c r="BW4" s="124"/>
+      <c r="BX4" s="125"/>
+      <c r="BY4" s="200" t="s">
         <v>75</v>
       </c>
-      <c r="BZ4" s="112"/>
-      <c r="CA4" s="113"/>
-      <c r="CB4" s="160" t="s">
+      <c r="BZ4" s="124"/>
+      <c r="CA4" s="125"/>
+      <c r="CB4" s="200" t="s">
         <v>76</v>
       </c>
-      <c r="CC4" s="112"/>
-      <c r="CD4" s="113"/>
-      <c r="CE4" s="160" t="s">
+      <c r="CC4" s="124"/>
+      <c r="CD4" s="125"/>
+      <c r="CE4" s="200" t="s">
         <v>77</v>
       </c>
-      <c r="CF4" s="112"/>
-      <c r="CG4" s="113"/>
-      <c r="CH4" s="160" t="s">
+      <c r="CF4" s="124"/>
+      <c r="CG4" s="125"/>
+      <c r="CH4" s="200" t="s">
         <v>78</v>
       </c>
-      <c r="CI4" s="112"/>
-      <c r="CJ4" s="113"/>
-      <c r="CK4" s="115"/>
-      <c r="CL4" s="115"/>
-      <c r="CM4" s="115"/>
-    </row>
-    <row r="5" spans="1:175" x14ac:dyDescent="0.25">
-      <c r="A5" s="116"/>
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="116"/>
-      <c r="K5" s="116"/>
-      <c r="L5" s="116"/>
-      <c r="M5" s="116"/>
-      <c r="N5" s="116"/>
-      <c r="O5" s="116"/>
-      <c r="P5" s="116"/>
-      <c r="Q5" s="116"/>
-      <c r="R5" s="116"/>
-      <c r="S5" s="116"/>
-      <c r="T5" s="116"/>
-      <c r="U5" s="116"/>
-      <c r="V5" s="116"/>
-      <c r="W5" s="116"/>
-      <c r="X5" s="116"/>
-      <c r="Y5" s="116"/>
-      <c r="Z5" s="116"/>
-      <c r="AA5" s="116"/>
-      <c r="AB5" s="116"/>
-      <c r="AC5" s="116"/>
-      <c r="AD5" s="116"/>
-      <c r="AE5" s="116"/>
-      <c r="AF5" s="116"/>
-      <c r="AG5" s="116"/>
-      <c r="AH5" s="116"/>
-      <c r="AI5" s="116"/>
-      <c r="AJ5" s="116"/>
-      <c r="AK5" s="116"/>
-      <c r="AL5" s="116"/>
-      <c r="AM5" s="116"/>
-      <c r="AN5" s="116"/>
-      <c r="AO5" s="116"/>
-      <c r="AP5" s="116"/>
-      <c r="AQ5" s="116"/>
-      <c r="AR5" s="116"/>
-      <c r="AS5" s="116"/>
-      <c r="AT5" s="116"/>
-      <c r="AU5" s="116"/>
-      <c r="AV5" s="116"/>
-      <c r="AW5" s="116"/>
-      <c r="AX5" s="116"/>
-      <c r="AY5" s="116"/>
-      <c r="AZ5" s="116"/>
-      <c r="BA5" s="116"/>
-      <c r="BB5" s="116"/>
-      <c r="BC5" s="116"/>
-      <c r="BD5" s="35" t="s">
+      <c r="CI4" s="124"/>
+      <c r="CJ4" s="125"/>
+      <c r="CK4" s="142"/>
+      <c r="CL4" s="142"/>
+      <c r="CM4" s="142"/>
+    </row>
+    <row r="5" spans="1:175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="199"/>
+      <c r="B5" s="199"/>
+      <c r="C5" s="199"/>
+      <c r="D5" s="199"/>
+      <c r="E5" s="199"/>
+      <c r="F5" s="199"/>
+      <c r="G5" s="199"/>
+      <c r="H5" s="199"/>
+      <c r="I5" s="199"/>
+      <c r="J5" s="199"/>
+      <c r="K5" s="199"/>
+      <c r="L5" s="199"/>
+      <c r="M5" s="199"/>
+      <c r="N5" s="199"/>
+      <c r="O5" s="199"/>
+      <c r="P5" s="199"/>
+      <c r="Q5" s="199"/>
+      <c r="R5" s="199"/>
+      <c r="S5" s="199"/>
+      <c r="T5" s="199"/>
+      <c r="U5" s="199"/>
+      <c r="V5" s="199"/>
+      <c r="W5" s="199"/>
+      <c r="X5" s="199"/>
+      <c r="Y5" s="199"/>
+      <c r="Z5" s="199"/>
+      <c r="AA5" s="199"/>
+      <c r="AB5" s="199"/>
+      <c r="AC5" s="199"/>
+      <c r="AD5" s="199"/>
+      <c r="AE5" s="199"/>
+      <c r="AF5" s="199"/>
+      <c r="AG5" s="199"/>
+      <c r="AH5" s="199"/>
+      <c r="AI5" s="199"/>
+      <c r="AJ5" s="199"/>
+      <c r="AK5" s="199"/>
+      <c r="AL5" s="199"/>
+      <c r="AM5" s="199"/>
+      <c r="AN5" s="199"/>
+      <c r="AO5" s="199"/>
+      <c r="AP5" s="199"/>
+      <c r="AQ5" s="199"/>
+      <c r="AR5" s="199"/>
+      <c r="AS5" s="199"/>
+      <c r="AT5" s="199"/>
+      <c r="AU5" s="199"/>
+      <c r="AV5" s="199"/>
+      <c r="AW5" s="199"/>
+      <c r="AX5" s="199"/>
+      <c r="AY5" s="199"/>
+      <c r="AZ5" s="199"/>
+      <c r="BA5" s="199"/>
+      <c r="BB5" s="199"/>
+      <c r="BC5" s="199"/>
+      <c r="BD5" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="BE5" s="35" t="s">
+      <c r="BE5" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="BF5" s="35" t="s">
+      <c r="BF5" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="BG5" s="35" t="s">
+      <c r="BG5" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="BH5" s="35" t="s">
+      <c r="BH5" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="BI5" s="35" t="s">
+      <c r="BI5" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="BJ5" s="35" t="s">
+      <c r="BJ5" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="BK5" s="35" t="s">
+      <c r="BK5" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="BL5" s="35" t="s">
+      <c r="BL5" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="BM5" s="35" t="s">
+      <c r="BM5" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="BN5" s="35" t="s">
+      <c r="BN5" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="BO5" s="35" t="s">
+      <c r="BO5" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="BP5" s="35" t="s">
+      <c r="BP5" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="BQ5" s="35" t="s">
+      <c r="BQ5" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="BR5" s="35" t="s">
+      <c r="BR5" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="BS5" s="35" t="s">
+      <c r="BS5" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="BT5" s="35" t="s">
+      <c r="BT5" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="BU5" s="35" t="s">
+      <c r="BU5" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="BV5" s="35" t="s">
+      <c r="BV5" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="BW5" s="35" t="s">
+      <c r="BW5" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="BX5" s="35" t="s">
+      <c r="BX5" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="BY5" s="35" t="s">
+      <c r="BY5" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="BZ5" s="35" t="s">
+      <c r="BZ5" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="CA5" s="35" t="s">
+      <c r="CA5" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="CB5" s="35" t="s">
+      <c r="CB5" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="CC5" s="35" t="s">
+      <c r="CC5" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="CD5" s="35" t="s">
+      <c r="CD5" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="CE5" s="35" t="s">
+      <c r="CE5" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="CF5" s="35" t="s">
+      <c r="CF5" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="CG5" s="35" t="s">
+      <c r="CG5" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="CH5" s="35" t="s">
+      <c r="CH5" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="CI5" s="35" t="s">
+      <c r="CI5" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="CJ5" s="35" t="s">
+      <c r="CJ5" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="CK5" s="116"/>
-      <c r="CL5" s="116"/>
-      <c r="CM5" s="116"/>
-    </row>
-    <row r="6" spans="1:175" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
-      <c r="S6" s="36"/>
-      <c r="T6" s="36"/>
-      <c r="U6" s="36"/>
-      <c r="V6" s="36"/>
-      <c r="W6" s="36"/>
-      <c r="X6" s="36"/>
-      <c r="Y6" s="36"/>
-      <c r="Z6" s="36"/>
-      <c r="AA6" s="36"/>
-      <c r="AB6" s="36"/>
-      <c r="AC6" s="36"/>
-      <c r="AD6" s="36"/>
-      <c r="AE6" s="36"/>
-      <c r="AF6" s="36"/>
-      <c r="AG6" s="36"/>
-      <c r="AH6" s="36"/>
-      <c r="AI6" s="36"/>
-      <c r="AJ6" s="36"/>
-      <c r="AK6" s="36"/>
-      <c r="AL6" s="36"/>
-      <c r="AM6" s="36"/>
-      <c r="AN6" s="36"/>
-      <c r="AO6" s="36"/>
-      <c r="AP6" s="36"/>
-      <c r="AQ6" s="36"/>
-      <c r="AR6" s="36"/>
-      <c r="AS6" s="36"/>
-      <c r="AT6" s="36"/>
-      <c r="AU6" s="36"/>
-      <c r="AV6" s="36"/>
-      <c r="AW6" s="36"/>
-      <c r="AX6" s="36"/>
-      <c r="AY6" s="36"/>
-      <c r="AZ6" s="36"/>
-      <c r="BA6" s="36"/>
-      <c r="BB6" s="37"/>
-      <c r="BC6" s="36"/>
-      <c r="BD6" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="BE6" s="36"/>
-      <c r="BF6" s="36"/>
-      <c r="BG6" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="BH6" s="36"/>
-      <c r="BI6" s="36"/>
-      <c r="BJ6" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="BK6" s="36"/>
-      <c r="BL6" s="36"/>
-      <c r="BM6" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="BN6" s="36"/>
-      <c r="BO6" s="36"/>
-      <c r="BP6" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="BQ6" s="36"/>
-      <c r="BR6" s="36"/>
-      <c r="BS6" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="BT6" s="36"/>
-      <c r="BU6" s="36"/>
-      <c r="BV6" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="BW6" s="36"/>
-      <c r="BX6" s="36"/>
-      <c r="BY6" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="BZ6" s="36"/>
-      <c r="CA6" s="36"/>
-      <c r="CB6" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="CC6" s="36"/>
-      <c r="CD6" s="36"/>
-      <c r="CE6" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="CF6" s="36"/>
-      <c r="CG6" s="36"/>
-      <c r="CH6" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="CI6" s="36"/>
-      <c r="CJ6" s="36"/>
-      <c r="CK6" s="36"/>
-      <c r="CL6" s="36"/>
-      <c r="CM6" s="36"/>
-    </row>
-    <row r="7" spans="1:175" x14ac:dyDescent="0.25">
-      <c r="A7" s="36"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
-      <c r="S7" s="36"/>
-      <c r="T7" s="36"/>
-      <c r="U7" s="36"/>
-      <c r="V7" s="36"/>
-      <c r="W7" s="36"/>
-      <c r="X7" s="36"/>
-      <c r="Y7" s="36"/>
-      <c r="Z7" s="36"/>
-      <c r="AA7" s="36"/>
-      <c r="AB7" s="36"/>
-      <c r="AC7" s="36"/>
-      <c r="AD7" s="36"/>
-      <c r="AE7" s="36"/>
-      <c r="AF7" s="36"/>
-      <c r="AG7" s="36"/>
-      <c r="AH7" s="36"/>
-      <c r="AI7" s="36"/>
-      <c r="AJ7" s="36"/>
-      <c r="AK7" s="36"/>
-      <c r="AL7" s="36"/>
-      <c r="AM7" s="36"/>
-      <c r="AN7" s="36"/>
-      <c r="AO7" s="36"/>
-      <c r="AP7" s="36"/>
-      <c r="AQ7" s="36"/>
-      <c r="AR7" s="36"/>
-      <c r="AS7" s="36"/>
-      <c r="AT7" s="36"/>
-      <c r="AU7" s="36"/>
-      <c r="AV7" s="36"/>
-      <c r="AW7" s="36"/>
-      <c r="AX7" s="36"/>
-      <c r="AY7" s="36"/>
-      <c r="AZ7" s="36"/>
-      <c r="BA7" s="36"/>
-      <c r="BB7" s="36"/>
-      <c r="BC7" s="36"/>
-      <c r="BD7" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="BE7" s="36"/>
-      <c r="BF7" s="36"/>
-      <c r="BG7" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="BH7" s="36"/>
-      <c r="BI7" s="36"/>
-      <c r="BJ7" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="BK7" s="36"/>
-      <c r="BL7" s="36"/>
-      <c r="BM7" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="BN7" s="36"/>
-      <c r="BO7" s="36"/>
-      <c r="BP7" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="BQ7" s="36"/>
-      <c r="BR7" s="36"/>
-      <c r="BS7" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="BT7" s="36"/>
-      <c r="BU7" s="36"/>
-      <c r="BV7" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="BW7" s="36"/>
-      <c r="BX7" s="36"/>
-      <c r="BY7" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="BZ7" s="36"/>
-      <c r="CA7" s="36"/>
-      <c r="CB7" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="CC7" s="36"/>
-      <c r="CD7" s="36"/>
-      <c r="CE7" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="CF7" s="36"/>
-      <c r="CG7" s="36"/>
-      <c r="CH7" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="CI7" s="36"/>
-      <c r="CJ7" s="36"/>
-      <c r="CK7" s="36"/>
-      <c r="CL7" s="36"/>
-      <c r="CM7" s="36"/>
-    </row>
-    <row r="8" spans="1:175" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
-      <c r="S8" s="36"/>
-      <c r="T8" s="36"/>
-      <c r="U8" s="36"/>
-      <c r="V8" s="36"/>
-      <c r="W8" s="36"/>
-      <c r="X8" s="36"/>
-      <c r="Y8" s="36"/>
-      <c r="Z8" s="36"/>
-      <c r="AA8" s="36"/>
-      <c r="AB8" s="36"/>
-      <c r="AC8" s="36"/>
-      <c r="AD8" s="36"/>
-      <c r="AE8" s="36"/>
-      <c r="AF8" s="36"/>
-      <c r="AG8" s="36"/>
-      <c r="AH8" s="36"/>
-      <c r="AI8" s="36"/>
-      <c r="AJ8" s="36"/>
-      <c r="AK8" s="36"/>
-      <c r="AL8" s="36"/>
-      <c r="AM8" s="36"/>
-      <c r="AN8" s="36"/>
-      <c r="AO8" s="36"/>
-      <c r="AP8" s="36"/>
-      <c r="AQ8" s="36"/>
-      <c r="AR8" s="36"/>
-      <c r="AS8" s="36"/>
-      <c r="AT8" s="36"/>
-      <c r="AU8" s="36"/>
-      <c r="AV8" s="36"/>
-      <c r="AW8" s="36"/>
-      <c r="AX8" s="36"/>
-      <c r="AY8" s="36"/>
-      <c r="AZ8" s="36"/>
-      <c r="BA8" s="36"/>
-      <c r="BB8" s="36"/>
-      <c r="BC8" s="36"/>
-      <c r="BD8" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="BE8" s="36"/>
-      <c r="BF8" s="36"/>
-      <c r="BG8" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="BH8" s="36"/>
-      <c r="BI8" s="36"/>
-      <c r="BJ8" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="BK8" s="36"/>
-      <c r="BL8" s="36"/>
-      <c r="BM8" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="BN8" s="36"/>
-      <c r="BO8" s="36"/>
-      <c r="BP8" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="BQ8" s="36"/>
-      <c r="BR8" s="36"/>
-      <c r="BS8" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="BT8" s="36"/>
-      <c r="BU8" s="36"/>
-      <c r="BV8" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="BW8" s="36"/>
-      <c r="BX8" s="36"/>
-      <c r="BY8" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="BZ8" s="36"/>
-      <c r="CA8" s="36"/>
-      <c r="CB8" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="CC8" s="36"/>
-      <c r="CD8" s="36"/>
-      <c r="CE8" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="CF8" s="36"/>
-      <c r="CG8" s="36"/>
-      <c r="CH8" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="CI8" s="36"/>
-      <c r="CJ8" s="36"/>
-      <c r="CK8" s="36"/>
-      <c r="CL8" s="36"/>
-      <c r="CM8" s="36"/>
-    </row>
-    <row r="9" spans="1:175" x14ac:dyDescent="0.25">
-      <c r="A9" s="36"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
-      <c r="S9" s="36"/>
-      <c r="T9" s="36"/>
-      <c r="U9" s="36"/>
-      <c r="V9" s="36"/>
-      <c r="W9" s="36"/>
-      <c r="X9" s="36"/>
-      <c r="Y9" s="36"/>
-      <c r="Z9" s="36"/>
-      <c r="AA9" s="36"/>
-      <c r="AB9" s="36"/>
-      <c r="AC9" s="36"/>
-      <c r="AD9" s="36"/>
-      <c r="AE9" s="36"/>
-      <c r="AF9" s="36"/>
-      <c r="AG9" s="36"/>
-      <c r="AH9" s="36"/>
-      <c r="AI9" s="36"/>
-      <c r="AJ9" s="36"/>
-      <c r="AK9" s="36"/>
-      <c r="AL9" s="36"/>
-      <c r="AM9" s="36"/>
-      <c r="AN9" s="36"/>
-      <c r="AO9" s="36"/>
-      <c r="AP9" s="36"/>
-      <c r="AQ9" s="36"/>
-      <c r="AR9" s="36"/>
-      <c r="AS9" s="36"/>
-      <c r="AT9" s="36"/>
-      <c r="AU9" s="36"/>
-      <c r="AV9" s="36"/>
-      <c r="AW9" s="36"/>
-      <c r="AX9" s="36"/>
-      <c r="AY9" s="36"/>
-      <c r="AZ9" s="36"/>
-      <c r="BA9" s="36"/>
-      <c r="BB9" s="36"/>
-      <c r="BC9" s="36"/>
-      <c r="BD9" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="BE9" s="36"/>
-      <c r="BF9" s="36"/>
-      <c r="BG9" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="BH9" s="36"/>
-      <c r="BI9" s="36"/>
-      <c r="BJ9" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="BK9" s="36"/>
-      <c r="BL9" s="36"/>
-      <c r="BM9" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="BN9" s="36"/>
-      <c r="BO9" s="36"/>
-      <c r="BP9" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="BQ9" s="36"/>
-      <c r="BR9" s="36"/>
-      <c r="BS9" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="BT9" s="36"/>
-      <c r="BU9" s="36"/>
-      <c r="BV9" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="BW9" s="36"/>
-      <c r="BX9" s="36"/>
-      <c r="BY9" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="BZ9" s="36"/>
-      <c r="CA9" s="36"/>
-      <c r="CB9" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="CC9" s="36"/>
-      <c r="CD9" s="36"/>
-      <c r="CE9" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="CF9" s="36"/>
-      <c r="CG9" s="36"/>
-      <c r="CH9" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="CI9" s="36"/>
-      <c r="CJ9" s="36"/>
-      <c r="CK9" s="36"/>
-      <c r="CL9" s="36"/>
-      <c r="CM9" s="36"/>
-    </row>
-    <row r="10" spans="1:175" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
-      <c r="S10" s="36"/>
-      <c r="T10" s="36"/>
-      <c r="U10" s="36"/>
-      <c r="V10" s="36"/>
-      <c r="W10" s="36"/>
-      <c r="X10" s="36"/>
-      <c r="Y10" s="36"/>
-      <c r="Z10" s="36"/>
-      <c r="AA10" s="36"/>
-      <c r="AB10" s="36"/>
-      <c r="AC10" s="36"/>
-      <c r="AD10" s="36"/>
-      <c r="AE10" s="36"/>
-      <c r="AF10" s="36"/>
-      <c r="AG10" s="36"/>
-      <c r="AH10" s="36"/>
-      <c r="AI10" s="36"/>
-      <c r="AJ10" s="36"/>
-      <c r="AK10" s="36"/>
-      <c r="AL10" s="36"/>
-      <c r="AM10" s="36"/>
-      <c r="AN10" s="36"/>
-      <c r="AO10" s="36"/>
-      <c r="AP10" s="36"/>
-      <c r="AQ10" s="36"/>
-      <c r="AR10" s="36"/>
-      <c r="AS10" s="36"/>
-      <c r="AT10" s="36"/>
-      <c r="AU10" s="36"/>
-      <c r="AV10" s="36"/>
-      <c r="AW10" s="36"/>
-      <c r="AX10" s="36"/>
-      <c r="AY10" s="36"/>
-      <c r="AZ10" s="36"/>
-      <c r="BA10" s="36"/>
-      <c r="BB10" s="36"/>
-      <c r="BC10" s="36"/>
-      <c r="BD10" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="BE10" s="36"/>
-      <c r="BF10" s="36"/>
-      <c r="BG10" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="BH10" s="36"/>
-      <c r="BI10" s="36"/>
-      <c r="BJ10" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="BK10" s="36"/>
-      <c r="BL10" s="36"/>
-      <c r="BM10" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="BN10" s="36"/>
-      <c r="BO10" s="36"/>
-      <c r="BP10" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="BQ10" s="36"/>
-      <c r="BR10" s="36"/>
-      <c r="BS10" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="BT10" s="36"/>
-      <c r="BU10" s="36"/>
-      <c r="BV10" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="BW10" s="36"/>
-      <c r="BX10" s="36"/>
-      <c r="BY10" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="BZ10" s="36"/>
-      <c r="CA10" s="36"/>
-      <c r="CB10" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="CC10" s="36"/>
-      <c r="CD10" s="36"/>
-      <c r="CE10" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="CF10" s="36"/>
-      <c r="CG10" s="36"/>
-      <c r="CH10" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="CI10" s="36"/>
-      <c r="CJ10" s="36"/>
-      <c r="CK10" s="36"/>
-      <c r="CL10" s="36"/>
-      <c r="CM10" s="36"/>
+      <c r="CK5" s="199"/>
+      <c r="CL5" s="199"/>
+      <c r="CM5" s="199"/>
+    </row>
+    <row r="6" spans="1:175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="33"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="33"/>
+      <c r="T6" s="33"/>
+      <c r="U6" s="33"/>
+      <c r="V6" s="33"/>
+      <c r="W6" s="33"/>
+      <c r="X6" s="33"/>
+      <c r="Y6" s="33"/>
+      <c r="Z6" s="33"/>
+      <c r="AA6" s="33"/>
+      <c r="AB6" s="33"/>
+      <c r="AC6" s="33"/>
+      <c r="AD6" s="33"/>
+      <c r="AE6" s="33"/>
+      <c r="AF6" s="33"/>
+      <c r="AG6" s="33"/>
+      <c r="AH6" s="33"/>
+      <c r="AI6" s="33"/>
+      <c r="AJ6" s="33"/>
+      <c r="AK6" s="33"/>
+      <c r="AL6" s="33"/>
+      <c r="AM6" s="33"/>
+      <c r="AN6" s="33"/>
+      <c r="AO6" s="33"/>
+      <c r="AP6" s="33"/>
+      <c r="AQ6" s="33"/>
+      <c r="AR6" s="33"/>
+      <c r="AS6" s="33"/>
+      <c r="AT6" s="33"/>
+      <c r="AU6" s="33"/>
+      <c r="AV6" s="33"/>
+      <c r="AW6" s="33"/>
+      <c r="AX6" s="33"/>
+      <c r="AY6" s="33"/>
+      <c r="AZ6" s="33"/>
+      <c r="BA6" s="33"/>
+      <c r="BB6" s="34"/>
+      <c r="BC6" s="33"/>
+      <c r="BD6" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE6" s="33"/>
+      <c r="BF6" s="33"/>
+      <c r="BG6" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="BH6" s="33"/>
+      <c r="BI6" s="33"/>
+      <c r="BJ6" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="BK6" s="33"/>
+      <c r="BL6" s="33"/>
+      <c r="BM6" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="BN6" s="33"/>
+      <c r="BO6" s="33"/>
+      <c r="BP6" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="BQ6" s="33"/>
+      <c r="BR6" s="33"/>
+      <c r="BS6" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="BT6" s="33"/>
+      <c r="BU6" s="33"/>
+      <c r="BV6" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="BW6" s="33"/>
+      <c r="BX6" s="33"/>
+      <c r="BY6" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="BZ6" s="33"/>
+      <c r="CA6" s="33"/>
+      <c r="CB6" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="CC6" s="33"/>
+      <c r="CD6" s="33"/>
+      <c r="CE6" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="CF6" s="33"/>
+      <c r="CG6" s="33"/>
+      <c r="CH6" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="CI6" s="33"/>
+      <c r="CJ6" s="33"/>
+      <c r="CK6" s="33"/>
+      <c r="CL6" s="33"/>
+      <c r="CM6" s="33"/>
+    </row>
+    <row r="7" spans="1:175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="33"/>
+      <c r="T7" s="33"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="33"/>
+      <c r="W7" s="33"/>
+      <c r="X7" s="33"/>
+      <c r="Y7" s="33"/>
+      <c r="Z7" s="33"/>
+      <c r="AA7" s="33"/>
+      <c r="AB7" s="33"/>
+      <c r="AC7" s="33"/>
+      <c r="AD7" s="33"/>
+      <c r="AE7" s="33"/>
+      <c r="AF7" s="33"/>
+      <c r="AG7" s="33"/>
+      <c r="AH7" s="33"/>
+      <c r="AI7" s="33"/>
+      <c r="AJ7" s="33"/>
+      <c r="AK7" s="33"/>
+      <c r="AL7" s="33"/>
+      <c r="AM7" s="33"/>
+      <c r="AN7" s="33"/>
+      <c r="AO7" s="33"/>
+      <c r="AP7" s="33"/>
+      <c r="AQ7" s="33"/>
+      <c r="AR7" s="33"/>
+      <c r="AS7" s="33"/>
+      <c r="AT7" s="33"/>
+      <c r="AU7" s="33"/>
+      <c r="AV7" s="33"/>
+      <c r="AW7" s="33"/>
+      <c r="AX7" s="33"/>
+      <c r="AY7" s="33"/>
+      <c r="AZ7" s="33"/>
+      <c r="BA7" s="33"/>
+      <c r="BB7" s="33"/>
+      <c r="BC7" s="33"/>
+      <c r="BD7" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE7" s="33"/>
+      <c r="BF7" s="33"/>
+      <c r="BG7" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="BH7" s="33"/>
+      <c r="BI7" s="33"/>
+      <c r="BJ7" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="BK7" s="33"/>
+      <c r="BL7" s="33"/>
+      <c r="BM7" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="BN7" s="33"/>
+      <c r="BO7" s="33"/>
+      <c r="BP7" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="BQ7" s="33"/>
+      <c r="BR7" s="33"/>
+      <c r="BS7" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="BT7" s="33"/>
+      <c r="BU7" s="33"/>
+      <c r="BV7" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="BW7" s="33"/>
+      <c r="BX7" s="33"/>
+      <c r="BY7" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="BZ7" s="33"/>
+      <c r="CA7" s="33"/>
+      <c r="CB7" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="CC7" s="33"/>
+      <c r="CD7" s="33"/>
+      <c r="CE7" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="CF7" s="33"/>
+      <c r="CG7" s="33"/>
+      <c r="CH7" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="CI7" s="33"/>
+      <c r="CJ7" s="33"/>
+      <c r="CK7" s="33"/>
+      <c r="CL7" s="33"/>
+      <c r="CM7" s="33"/>
+    </row>
+    <row r="8" spans="1:175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="33"/>
+      <c r="X8" s="33"/>
+      <c r="Y8" s="33"/>
+      <c r="Z8" s="33"/>
+      <c r="AA8" s="33"/>
+      <c r="AB8" s="33"/>
+      <c r="AC8" s="33"/>
+      <c r="AD8" s="33"/>
+      <c r="AE8" s="33"/>
+      <c r="AF8" s="33"/>
+      <c r="AG8" s="33"/>
+      <c r="AH8" s="33"/>
+      <c r="AI8" s="33"/>
+      <c r="AJ8" s="33"/>
+      <c r="AK8" s="33"/>
+      <c r="AL8" s="33"/>
+      <c r="AM8" s="33"/>
+      <c r="AN8" s="33"/>
+      <c r="AO8" s="33"/>
+      <c r="AP8" s="33"/>
+      <c r="AQ8" s="33"/>
+      <c r="AR8" s="33"/>
+      <c r="AS8" s="33"/>
+      <c r="AT8" s="33"/>
+      <c r="AU8" s="33"/>
+      <c r="AV8" s="33"/>
+      <c r="AW8" s="33"/>
+      <c r="AX8" s="33"/>
+      <c r="AY8" s="33"/>
+      <c r="AZ8" s="33"/>
+      <c r="BA8" s="33"/>
+      <c r="BB8" s="33"/>
+      <c r="BC8" s="33"/>
+      <c r="BD8" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE8" s="33"/>
+      <c r="BF8" s="33"/>
+      <c r="BG8" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="BH8" s="33"/>
+      <c r="BI8" s="33"/>
+      <c r="BJ8" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="BK8" s="33"/>
+      <c r="BL8" s="33"/>
+      <c r="BM8" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="BN8" s="33"/>
+      <c r="BO8" s="33"/>
+      <c r="BP8" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="BQ8" s="33"/>
+      <c r="BR8" s="33"/>
+      <c r="BS8" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="BT8" s="33"/>
+      <c r="BU8" s="33"/>
+      <c r="BV8" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="BW8" s="33"/>
+      <c r="BX8" s="33"/>
+      <c r="BY8" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="BZ8" s="33"/>
+      <c r="CA8" s="33"/>
+      <c r="CB8" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="CC8" s="33"/>
+      <c r="CD8" s="33"/>
+      <c r="CE8" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="CF8" s="33"/>
+      <c r="CG8" s="33"/>
+      <c r="CH8" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="CI8" s="33"/>
+      <c r="CJ8" s="33"/>
+      <c r="CK8" s="33"/>
+      <c r="CL8" s="33"/>
+      <c r="CM8" s="33"/>
+    </row>
+    <row r="9" spans="1:175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="33"/>
+      <c r="S9" s="33"/>
+      <c r="T9" s="33"/>
+      <c r="U9" s="33"/>
+      <c r="V9" s="33"/>
+      <c r="W9" s="33"/>
+      <c r="X9" s="33"/>
+      <c r="Y9" s="33"/>
+      <c r="Z9" s="33"/>
+      <c r="AA9" s="33"/>
+      <c r="AB9" s="33"/>
+      <c r="AC9" s="33"/>
+      <c r="AD9" s="33"/>
+      <c r="AE9" s="33"/>
+      <c r="AF9" s="33"/>
+      <c r="AG9" s="33"/>
+      <c r="AH9" s="33"/>
+      <c r="AI9" s="33"/>
+      <c r="AJ9" s="33"/>
+      <c r="AK9" s="33"/>
+      <c r="AL9" s="33"/>
+      <c r="AM9" s="33"/>
+      <c r="AN9" s="33"/>
+      <c r="AO9" s="33"/>
+      <c r="AP9" s="33"/>
+      <c r="AQ9" s="33"/>
+      <c r="AR9" s="33"/>
+      <c r="AS9" s="33"/>
+      <c r="AT9" s="33"/>
+      <c r="AU9" s="33"/>
+      <c r="AV9" s="33"/>
+      <c r="AW9" s="33"/>
+      <c r="AX9" s="33"/>
+      <c r="AY9" s="33"/>
+      <c r="AZ9" s="33"/>
+      <c r="BA9" s="33"/>
+      <c r="BB9" s="33"/>
+      <c r="BC9" s="33"/>
+      <c r="BD9" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE9" s="33"/>
+      <c r="BF9" s="33"/>
+      <c r="BG9" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="BH9" s="33"/>
+      <c r="BI9" s="33"/>
+      <c r="BJ9" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="BK9" s="33"/>
+      <c r="BL9" s="33"/>
+      <c r="BM9" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="BN9" s="33"/>
+      <c r="BO9" s="33"/>
+      <c r="BP9" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="BQ9" s="33"/>
+      <c r="BR9" s="33"/>
+      <c r="BS9" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="BT9" s="33"/>
+      <c r="BU9" s="33"/>
+      <c r="BV9" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="BW9" s="33"/>
+      <c r="BX9" s="33"/>
+      <c r="BY9" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="BZ9" s="33"/>
+      <c r="CA9" s="33"/>
+      <c r="CB9" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="CC9" s="33"/>
+      <c r="CD9" s="33"/>
+      <c r="CE9" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="CF9" s="33"/>
+      <c r="CG9" s="33"/>
+      <c r="CH9" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="CI9" s="33"/>
+      <c r="CJ9" s="33"/>
+      <c r="CK9" s="33"/>
+      <c r="CL9" s="33"/>
+      <c r="CM9" s="33"/>
+    </row>
+    <row r="10" spans="1:175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="33"/>
+      <c r="U10" s="33"/>
+      <c r="V10" s="33"/>
+      <c r="W10" s="33"/>
+      <c r="X10" s="33"/>
+      <c r="Y10" s="33"/>
+      <c r="Z10" s="33"/>
+      <c r="AA10" s="33"/>
+      <c r="AB10" s="33"/>
+      <c r="AC10" s="33"/>
+      <c r="AD10" s="33"/>
+      <c r="AE10" s="33"/>
+      <c r="AF10" s="33"/>
+      <c r="AG10" s="33"/>
+      <c r="AH10" s="33"/>
+      <c r="AI10" s="33"/>
+      <c r="AJ10" s="33"/>
+      <c r="AK10" s="33"/>
+      <c r="AL10" s="33"/>
+      <c r="AM10" s="33"/>
+      <c r="AN10" s="33"/>
+      <c r="AO10" s="33"/>
+      <c r="AP10" s="33"/>
+      <c r="AQ10" s="33"/>
+      <c r="AR10" s="33"/>
+      <c r="AS10" s="33"/>
+      <c r="AT10" s="33"/>
+      <c r="AU10" s="33"/>
+      <c r="AV10" s="33"/>
+      <c r="AW10" s="33"/>
+      <c r="AX10" s="33"/>
+      <c r="AY10" s="33"/>
+      <c r="AZ10" s="33"/>
+      <c r="BA10" s="33"/>
+      <c r="BB10" s="33"/>
+      <c r="BC10" s="33"/>
+      <c r="BD10" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE10" s="33"/>
+      <c r="BF10" s="33"/>
+      <c r="BG10" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="BH10" s="33"/>
+      <c r="BI10" s="33"/>
+      <c r="BJ10" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="BK10" s="33"/>
+      <c r="BL10" s="33"/>
+      <c r="BM10" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="BN10" s="33"/>
+      <c r="BO10" s="33"/>
+      <c r="BP10" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="BQ10" s="33"/>
+      <c r="BR10" s="33"/>
+      <c r="BS10" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="BT10" s="33"/>
+      <c r="BU10" s="33"/>
+      <c r="BV10" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="BW10" s="33"/>
+      <c r="BX10" s="33"/>
+      <c r="BY10" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="BZ10" s="33"/>
+      <c r="CA10" s="33"/>
+      <c r="CB10" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="CC10" s="33"/>
+      <c r="CD10" s="33"/>
+      <c r="CE10" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="CF10" s="33"/>
+      <c r="CG10" s="33"/>
+      <c r="CH10" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="CI10" s="33"/>
+      <c r="CJ10" s="33"/>
+      <c r="CK10" s="33"/>
+      <c r="CL10" s="33"/>
+      <c r="CM10" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="80">
@@ -5252,1309 +5284,1309 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" customWidth="1"/>
-    <col min="6" max="6" width="19.109375" customWidth="1"/>
-    <col min="7" max="7" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="168" t="s">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="208" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="137"/>
-      <c r="H1" s="137"/>
-      <c r="I1" s="137"/>
-      <c r="J1" s="137"/>
-      <c r="K1" s="137"/>
-      <c r="L1" s="137"/>
-    </row>
-    <row r="3" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="165" t="s">
+      <c r="B1" s="156"/>
+      <c r="C1" s="156"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="156"/>
+      <c r="F1" s="156"/>
+      <c r="G1" s="156"/>
+      <c r="H1" s="156"/>
+      <c r="I1" s="156"/>
+      <c r="J1" s="156"/>
+      <c r="K1" s="156"/>
+      <c r="L1" s="156"/>
+    </row>
+    <row r="3" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="205" t="s">
         <v>101</v>
       </c>
-      <c r="B3" s="137"/>
-      <c r="C3" s="137"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="137"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="137"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="137"/>
-      <c r="J3" s="137"/>
-      <c r="K3" s="137"/>
-      <c r="L3" s="137"/>
-    </row>
-    <row r="4" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="B3" s="156"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
+      <c r="H3" s="156"/>
+      <c r="I3" s="156"/>
+      <c r="J3" s="156"/>
+      <c r="K3" s="156"/>
+      <c r="L3" s="156"/>
+    </row>
+    <row r="4" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="23"/>
-    </row>
-    <row r="5" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="20"/>
+    </row>
+    <row r="5" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="32"/>
-    </row>
-    <row r="6" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="169" t="s">
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="29"/>
+    </row>
+    <row r="6" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="209" t="s">
         <v>105</v>
       </c>
-      <c r="B6" s="107"/>
-      <c r="C6" s="107"/>
-      <c r="D6" s="108"/>
-      <c r="E6" s="169" t="s">
+      <c r="B6" s="119"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="120"/>
+      <c r="E6" s="209" t="s">
         <v>106</v>
       </c>
-      <c r="F6" s="107"/>
-      <c r="G6" s="107"/>
-      <c r="H6" s="108"/>
-      <c r="I6" s="169" t="s">
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="120"/>
+      <c r="I6" s="209" t="s">
         <v>107</v>
       </c>
-      <c r="J6" s="107"/>
-      <c r="K6" s="107"/>
-      <c r="L6" s="108"/>
-    </row>
-    <row r="7" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="s">
+      <c r="J6" s="119"/>
+      <c r="K6" s="119"/>
+      <c r="L6" s="120"/>
+    </row>
+    <row r="7" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="38" t="s">
+      <c r="B7" s="19"/>
+      <c r="C7" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="41" t="s">
+      <c r="D7" s="20"/>
+      <c r="E7" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="F7" s="42"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="41" t="s">
+      <c r="F7" s="39"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="J7" s="42"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="7"/>
-    </row>
-    <row r="8" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
+      <c r="J7" s="39"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="39" t="s">
+      <c r="B8" s="22"/>
+      <c r="C8" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="39" t="s">
+      <c r="D8" s="29"/>
+      <c r="E8" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="F8" s="25"/>
-      <c r="G8" s="39" t="s">
+      <c r="F8" s="22"/>
+      <c r="G8" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="H8" s="32"/>
-      <c r="I8" s="39" t="s">
+      <c r="H8" s="29"/>
+      <c r="I8" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="J8" s="25"/>
-      <c r="K8" s="39" t="s">
+      <c r="J8" s="22"/>
+      <c r="K8" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="L8" s="32"/>
-    </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="44" t="s">
+      <c r="L8" s="29"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="D9" s="45"/>
-      <c r="E9" s="44" t="s">
+      <c r="D9" s="42"/>
+      <c r="E9" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="G9" s="44" t="s">
+      <c r="G9" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="H9" s="31"/>
-      <c r="I9" s="44" t="s">
+      <c r="H9" s="28"/>
+      <c r="I9" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="K9" s="44" t="s">
+      <c r="K9" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="L9" s="31"/>
-    </row>
-    <row r="10" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="44" t="s">
+      <c r="L9" s="28"/>
+    </row>
+    <row r="10" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="D10" s="31"/>
-      <c r="E10" s="44" t="s">
+      <c r="D10" s="28"/>
+      <c r="E10" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="G10" s="44" t="s">
+      <c r="G10" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="H10" s="31"/>
-      <c r="I10" s="44" t="s">
+      <c r="H10" s="28"/>
+      <c r="I10" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="K10" s="44" t="s">
+      <c r="K10" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="L10" s="31"/>
-    </row>
-    <row r="11" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="44" t="s">
+      <c r="L10" s="28"/>
+    </row>
+    <row r="11" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="C11" s="44" t="s">
+      <c r="C11" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="D11" s="31"/>
-      <c r="E11" s="44" t="s">
+      <c r="D11" s="28"/>
+      <c r="E11" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="G11" s="44" t="s">
+      <c r="G11" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="H11" s="31"/>
-      <c r="I11" s="44" t="s">
+      <c r="H11" s="28"/>
+      <c r="I11" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="K11" s="44" t="s">
+      <c r="K11" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="L11" s="31"/>
-    </row>
-    <row r="12" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="39" t="s">
+      <c r="L11" s="28"/>
+    </row>
+    <row r="12" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="C12" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="39" t="s">
+      <c r="D12" s="28"/>
+      <c r="E12" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="G12" s="39" t="s">
+      <c r="G12" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="H12" s="31"/>
-      <c r="I12" s="39" t="s">
+      <c r="H12" s="28"/>
+      <c r="I12" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="K12" s="39" t="s">
+      <c r="K12" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="L12" s="31"/>
-    </row>
-    <row r="13" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="38" t="s">
+      <c r="L12" s="28"/>
+    </row>
+    <row r="13" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="38" t="s">
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="38" t="s">
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="23"/>
-    </row>
-    <row r="14" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="39" t="s">
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="20"/>
+    </row>
+    <row r="14" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="39" t="s">
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="39" t="s">
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="32"/>
-    </row>
-    <row r="15" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-    </row>
-    <row r="16" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-    </row>
-    <row r="17" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="165" t="s">
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="29"/>
+    </row>
+    <row r="15" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+    </row>
+    <row r="16" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+    </row>
+    <row r="17" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="205" t="s">
         <v>125</v>
       </c>
-      <c r="B17" s="137"/>
-      <c r="C17" s="137"/>
-      <c r="D17" s="137"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="166" t="s">
+      <c r="B17" s="156"/>
+      <c r="C17" s="156"/>
+      <c r="D17" s="156"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="206" t="s">
         <v>126</v>
       </c>
-      <c r="G17" s="167"/>
-      <c r="H17" s="167"/>
-      <c r="I17" s="167"/>
-    </row>
-    <row r="18" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="47" t="s">
+      <c r="G17" s="207"/>
+      <c r="H17" s="207"/>
+      <c r="I17" s="207"/>
+    </row>
+    <row r="18" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="49" t="s">
+      <c r="B18" s="19"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="G18" s="50" t="s">
+      <c r="G18" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="H18" s="51"/>
-      <c r="I18" s="52"/>
-    </row>
-    <row r="19" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="53" t="s">
+      <c r="H18" s="48"/>
+      <c r="I18" s="49"/>
+    </row>
+    <row r="19" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="54" t="s">
+      <c r="D19" s="28"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="52"/>
-    </row>
-    <row r="20" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="55" t="s">
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="49"/>
+    </row>
+    <row r="20" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="56" t="s">
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="58"/>
-    </row>
-    <row r="21" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="E21" s="48"/>
-      <c r="F21" s="54" t="s">
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="55"/>
+    </row>
+    <row r="21" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E21" s="45"/>
+      <c r="F21" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="G21" s="59"/>
-      <c r="H21" s="60" t="s">
+      <c r="G21" s="56"/>
+      <c r="H21" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="I21" s="52"/>
-    </row>
-    <row r="22" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A22" s="61"/>
-      <c r="B22" s="61"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="56" t="s">
+      <c r="I21" s="49"/>
+    </row>
+    <row r="22" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="58"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="53" t="s">
         <v>133</v>
       </c>
-      <c r="G22" s="62"/>
-      <c r="H22" s="63" t="s">
+      <c r="G22" s="59"/>
+      <c r="H22" s="60" t="s">
         <v>134</v>
       </c>
-      <c r="I22" s="58"/>
-    </row>
-    <row r="23" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A23" s="64"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-    </row>
-    <row r="24" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A24" s="64"/>
-      <c r="B24" s="64"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-    </row>
-    <row r="25" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="165" t="s">
+      <c r="I22" s="55"/>
+    </row>
+    <row r="23" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="61"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
+    </row>
+    <row r="24" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="61"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62"/>
+    </row>
+    <row r="25" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="205" t="s">
         <v>135</v>
       </c>
-      <c r="B25" s="137"/>
-      <c r="C25" s="137"/>
-      <c r="D25" s="137"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="165" t="s">
+      <c r="B25" s="156"/>
+      <c r="C25" s="156"/>
+      <c r="D25" s="156"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="205" t="s">
         <v>136</v>
       </c>
-      <c r="G25" s="137"/>
-      <c r="H25" s="137"/>
-      <c r="I25" s="137"/>
-    </row>
-    <row r="26" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A26" s="38" t="s">
+      <c r="G25" s="156"/>
+      <c r="H25" s="156"/>
+      <c r="I25" s="156"/>
+    </row>
+    <row r="26" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="38" t="s">
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="23"/>
-    </row>
-    <row r="27" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="39" t="s">
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="20"/>
+    </row>
+    <row r="27" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="44" t="s">
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="I27" s="31"/>
-    </row>
-    <row r="28" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A28" s="38" t="s">
+      <c r="I27" s="28"/>
+    </row>
+    <row r="28" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="B28" s="22"/>
-      <c r="C28" s="38" t="s">
+      <c r="B28" s="19"/>
+      <c r="C28" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="D28" s="23"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="39" t="s">
+      <c r="D28" s="20"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="G28" s="25"/>
-      <c r="H28" s="68"/>
-      <c r="I28" s="32"/>
-    </row>
-    <row r="29" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A29" s="39" t="s">
+      <c r="G28" s="22"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="29"/>
+    </row>
+    <row r="29" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="B29" s="25"/>
-      <c r="C29" s="39" t="s">
+      <c r="B29" s="22"/>
+      <c r="C29" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="D29" s="69"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="38" t="s">
+      <c r="D29" s="66"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="G29" s="22"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="23"/>
-    </row>
-    <row r="30" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A30" s="38" t="s">
+      <c r="G29" s="19"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="20"/>
+    </row>
+    <row r="30" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="B30" s="22"/>
-      <c r="C30" s="38" t="s">
+      <c r="B30" s="19"/>
+      <c r="C30" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="D30" s="23"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="44" t="s">
+      <c r="D30" s="20"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="H30" s="21"/>
-      <c r="I30" s="31"/>
-    </row>
-    <row r="31" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="39" t="s">
+      <c r="H30" s="18"/>
+      <c r="I30" s="28"/>
+    </row>
+    <row r="31" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="B31" s="25"/>
-      <c r="C31" s="39" t="s">
+      <c r="B31" s="22"/>
+      <c r="C31" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="D31" s="32"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="70" t="s">
+      <c r="D31" s="29"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="67" t="s">
         <v>144</v>
       </c>
-      <c r="G31" s="71"/>
-      <c r="H31" s="71"/>
-      <c r="I31" s="72"/>
-    </row>
-    <row r="32" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="73" t="s">
+      <c r="G31" s="68"/>
+      <c r="H31" s="68"/>
+      <c r="I31" s="69"/>
+    </row>
+    <row r="32" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="70" t="s">
         <v>145</v>
       </c>
-      <c r="B32" s="73" t="s">
+      <c r="B32" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="C32" s="73" t="s">
+      <c r="C32" s="70" t="s">
         <v>147</v>
       </c>
-      <c r="D32" s="73" t="s">
+      <c r="D32" s="70" t="s">
         <v>148</v>
       </c>
-      <c r="E32" s="67"/>
-      <c r="F32" s="38" t="s">
+      <c r="E32" s="64"/>
+      <c r="F32" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="G32" s="22"/>
-      <c r="H32" s="38" t="s">
+      <c r="G32" s="19"/>
+      <c r="H32" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="I32" s="23"/>
-    </row>
-    <row r="33" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="44" t="s">
+      <c r="I32" s="20"/>
+    </row>
+    <row r="33" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="64"/>
+      <c r="F33" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="H33" s="44" t="s">
+      <c r="H33" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="I33" s="31"/>
-    </row>
-    <row r="34" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="44" t="s">
+      <c r="I33" s="28"/>
+    </row>
+    <row r="34" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="H34" s="44" t="s">
+      <c r="H34" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="I34" s="31"/>
-    </row>
-    <row r="35" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="67"/>
-      <c r="F35" s="70" t="s">
+      <c r="I34" s="28"/>
+    </row>
+    <row r="35" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="67" t="s">
         <v>121</v>
       </c>
-      <c r="G35" s="71"/>
-      <c r="H35" s="39" t="s">
+      <c r="G35" s="68"/>
+      <c r="H35" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="I35" s="72"/>
-    </row>
-    <row r="36" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="67"/>
-      <c r="F36" s="44" t="s">
+      <c r="I35" s="69"/>
+    </row>
+    <row r="36" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="64"/>
+      <c r="F36" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="H36" s="21"/>
-      <c r="I36" s="31"/>
-    </row>
-    <row r="37" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="67"/>
-      <c r="F37" s="39" t="s">
+      <c r="H36" s="18"/>
+      <c r="I36" s="28"/>
+    </row>
+    <row r="37" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="64"/>
+      <c r="F37" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="G37" s="25"/>
-      <c r="H37" s="68"/>
-      <c r="I37" s="32"/>
-    </row>
-    <row r="38" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A38" s="16"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="67"/>
-      <c r="F38" s="65"/>
-      <c r="G38" s="65"/>
-      <c r="H38" s="65"/>
-      <c r="I38" s="65"/>
-    </row>
-    <row r="39" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A39" s="74" t="s">
+      <c r="G37" s="22"/>
+      <c r="H37" s="65"/>
+      <c r="I37" s="29"/>
+    </row>
+    <row r="38" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="14"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="64"/>
+      <c r="F38" s="62"/>
+      <c r="G38" s="62"/>
+      <c r="H38" s="62"/>
+      <c r="I38" s="62"/>
+    </row>
+    <row r="39" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="71" t="s">
         <v>149</v>
       </c>
-      <c r="B39" s="22"/>
-      <c r="C39" s="38" t="s">
+      <c r="B39" s="19"/>
+      <c r="C39" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="D39" s="23"/>
-      <c r="E39" s="67"/>
-      <c r="F39" s="65"/>
-      <c r="G39" s="65"/>
-      <c r="H39" s="65"/>
-      <c r="I39" s="65"/>
-    </row>
-    <row r="40" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A40" s="44" t="s">
+      <c r="D39" s="20"/>
+      <c r="E39" s="64"/>
+      <c r="F39" s="62"/>
+      <c r="G39" s="62"/>
+      <c r="H39" s="62"/>
+      <c r="I39" s="62"/>
+    </row>
+    <row r="40" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="41" t="s">
         <v>151</v>
       </c>
-      <c r="C40" s="75" t="s">
+      <c r="C40" s="72" t="s">
         <v>152</v>
       </c>
-      <c r="D40" s="31"/>
-      <c r="E40" s="65"/>
-      <c r="F40" s="65"/>
-      <c r="G40" s="65"/>
-      <c r="H40" s="65"/>
-      <c r="I40" s="65"/>
-    </row>
-    <row r="41" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A41" s="44" t="s">
+      <c r="D40" s="28"/>
+      <c r="E40" s="62"/>
+      <c r="F40" s="62"/>
+      <c r="G40" s="62"/>
+      <c r="H40" s="62"/>
+      <c r="I40" s="62"/>
+    </row>
+    <row r="41" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="C41" s="44" t="s">
+      <c r="C41" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="D41" s="31"/>
-    </row>
-    <row r="42" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A42" s="39" t="s">
+      <c r="D41" s="28"/>
+    </row>
+    <row r="42" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="B42" s="25"/>
-      <c r="C42" s="39" t="s">
+      <c r="B42" s="22"/>
+      <c r="C42" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="D42" s="32"/>
-    </row>
-    <row r="43" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A43" s="73" t="s">
+      <c r="D42" s="29"/>
+    </row>
+    <row r="43" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="70" t="s">
         <v>157</v>
       </c>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="7"/>
-    </row>
-    <row r="44" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A44" s="38" t="s">
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="6"/>
+    </row>
+    <row r="44" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="B44" s="22"/>
-      <c r="C44" s="38" t="s">
+      <c r="B44" s="19"/>
+      <c r="C44" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="D44" s="23"/>
-    </row>
-    <row r="45" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A45" s="44" t="s">
+      <c r="D44" s="20"/>
+    </row>
+    <row r="45" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="41" t="s">
         <v>160</v>
       </c>
-      <c r="C45" s="44" t="s">
+      <c r="C45" s="41" t="s">
         <v>161</v>
       </c>
-      <c r="D45" s="31"/>
-    </row>
-    <row r="46" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A46" s="39" t="s">
+      <c r="D45" s="28"/>
+    </row>
+    <row r="46" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="B46" s="25"/>
-      <c r="C46" s="39" t="s">
+      <c r="B46" s="22"/>
+      <c r="C46" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="D46" s="32"/>
-    </row>
-    <row r="47" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A47" s="38" t="s">
+      <c r="D46" s="29"/>
+    </row>
+    <row r="47" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="23"/>
-    </row>
-    <row r="48" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A48" s="44" t="s">
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="20"/>
+    </row>
+    <row r="48" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="41" t="s">
         <v>165</v>
       </c>
-      <c r="D48" s="31"/>
-    </row>
-    <row r="49" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A49" s="44" t="s">
+      <c r="D48" s="28"/>
+    </row>
+    <row r="49" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="41" t="s">
         <v>166</v>
       </c>
-      <c r="D49" s="31"/>
-    </row>
-    <row r="50" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A50" s="38" t="s">
+      <c r="D49" s="28"/>
+    </row>
+    <row r="50" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A50" s="35" t="s">
         <v>167</v>
       </c>
-      <c r="B50" s="22"/>
-      <c r="C50" s="38" t="s">
+      <c r="B50" s="19"/>
+      <c r="C50" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="D50" s="23"/>
-    </row>
-    <row r="51" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A51" s="39" t="s">
+      <c r="D50" s="20"/>
+    </row>
+    <row r="51" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A51" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="B51" s="25"/>
-      <c r="C51" s="39" t="s">
+      <c r="B51" s="22"/>
+      <c r="C51" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="D51" s="32"/>
-    </row>
-    <row r="52" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A52" s="44" t="s">
+      <c r="D51" s="29"/>
+    </row>
+    <row r="52" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A52" s="41" t="s">
         <v>170</v>
       </c>
-      <c r="D52" s="31"/>
-    </row>
-    <row r="53" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A53" s="39" t="s">
+      <c r="D52" s="28"/>
+    </row>
+    <row r="53" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A53" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="B53" s="25"/>
-      <c r="C53" s="25"/>
-      <c r="D53" s="32"/>
-    </row>
-    <row r="55" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A55" s="165" t="s">
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="29"/>
+    </row>
+    <row r="55" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A55" s="205" t="s">
         <v>172</v>
       </c>
-      <c r="B55" s="137"/>
-      <c r="C55" s="137"/>
-      <c r="D55" s="137"/>
-      <c r="E55" s="137"/>
-      <c r="F55" s="137"/>
-      <c r="G55" s="137"/>
-      <c r="H55" s="137"/>
-    </row>
-    <row r="56" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A56" s="38" t="s">
+      <c r="B55" s="156"/>
+      <c r="C55" s="156"/>
+      <c r="D55" s="156"/>
+      <c r="E55" s="156"/>
+      <c r="F55" s="156"/>
+      <c r="G55" s="156"/>
+      <c r="H55" s="156"/>
+    </row>
+    <row r="56" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A56" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="B56" s="22"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="23"/>
-    </row>
-    <row r="57" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A57" s="44" t="s">
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="20"/>
+    </row>
+    <row r="57" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A57" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="H57" s="31"/>
-    </row>
-    <row r="58" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A58" s="44" t="s">
+      <c r="H57" s="28"/>
+    </row>
+    <row r="58" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A58" s="41" t="s">
         <v>173</v>
       </c>
-      <c r="H58" s="31"/>
-    </row>
-    <row r="59" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A59" s="39" t="s">
+      <c r="H58" s="28"/>
+    </row>
+    <row r="59" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A59" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="B59" s="25"/>
-      <c r="C59" s="25"/>
-      <c r="D59" s="25"/>
-      <c r="E59" s="25"/>
-      <c r="F59" s="25"/>
-      <c r="G59" s="25"/>
-      <c r="H59" s="32"/>
-    </row>
-    <row r="60" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A60" s="164" t="s">
+      <c r="B59" s="22"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="29"/>
+    </row>
+    <row r="60" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A60" s="204" t="s">
         <v>174</v>
       </c>
-      <c r="B60" s="112"/>
-      <c r="C60" s="112"/>
-      <c r="D60" s="113"/>
-      <c r="E60" s="164" t="s">
+      <c r="B60" s="124"/>
+      <c r="C60" s="124"/>
+      <c r="D60" s="125"/>
+      <c r="E60" s="204" t="s">
         <v>175</v>
       </c>
-      <c r="F60" s="112"/>
-      <c r="G60" s="112"/>
-      <c r="H60" s="113"/>
-    </row>
-    <row r="61" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A61" s="44" t="s">
+      <c r="F60" s="124"/>
+      <c r="G60" s="124"/>
+      <c r="H60" s="125"/>
+    </row>
+    <row r="61" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A61" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="B61" s="21" t="s">
+      <c r="B61" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="C61" s="76" t="s">
+      <c r="C61" s="73" t="s">
         <v>178</v>
       </c>
-      <c r="D61" s="77" t="s">
+      <c r="D61" s="74" t="s">
         <v>179</v>
       </c>
-      <c r="E61" s="44" t="s">
+      <c r="E61" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="G61" s="78" t="s">
+      <c r="G61" s="75" t="s">
         <v>181</v>
       </c>
-      <c r="H61" s="31"/>
-    </row>
-    <row r="62" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A62" s="39" t="s">
+      <c r="H61" s="28"/>
+    </row>
+    <row r="62" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A62" s="36" t="s">
         <v>182</v>
       </c>
-      <c r="B62" s="68" t="s">
+      <c r="B62" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="C62" s="79" t="s">
+      <c r="C62" s="76" t="s">
         <v>183</v>
       </c>
-      <c r="D62" s="69" t="s">
+      <c r="D62" s="66" t="s">
         <v>179</v>
       </c>
-      <c r="E62" s="39" t="s">
+      <c r="E62" s="36" t="s">
         <v>184</v>
       </c>
-      <c r="F62" s="25"/>
-      <c r="G62" s="80" t="s">
+      <c r="F62" s="22"/>
+      <c r="G62" s="77" t="s">
         <v>185</v>
       </c>
-      <c r="H62" s="32"/>
-    </row>
-    <row r="63" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A63" s="164" t="s">
+      <c r="H62" s="29"/>
+    </row>
+    <row r="63" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A63" s="204" t="s">
         <v>186</v>
       </c>
-      <c r="B63" s="112"/>
-      <c r="C63" s="112"/>
-      <c r="D63" s="112"/>
-      <c r="E63" s="112"/>
-      <c r="F63" s="112"/>
-      <c r="G63" s="112"/>
-      <c r="H63" s="113"/>
-    </row>
-    <row r="64" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A64" s="38" t="s">
+      <c r="B63" s="124"/>
+      <c r="C63" s="124"/>
+      <c r="D63" s="124"/>
+      <c r="E63" s="124"/>
+      <c r="F63" s="124"/>
+      <c r="G63" s="124"/>
+      <c r="H63" s="125"/>
+    </row>
+    <row r="64" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A64" s="35" t="s">
         <v>187</v>
       </c>
-      <c r="B64" s="27" t="s">
+      <c r="B64" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="C64" s="27"/>
-      <c r="D64" s="27"/>
-      <c r="E64" s="38" t="s">
+      <c r="C64" s="24"/>
+      <c r="D64" s="24"/>
+      <c r="E64" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="F64" s="27" t="s">
+      <c r="F64" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="G64" s="22"/>
-      <c r="H64" s="23"/>
-    </row>
-    <row r="65" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A65" s="39" t="s">
+      <c r="G64" s="19"/>
+      <c r="H64" s="20"/>
+    </row>
+    <row r="65" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A65" s="36" t="s">
         <v>191</v>
       </c>
-      <c r="B65" s="68" t="s">
+      <c r="B65" s="65" t="s">
         <v>192</v>
       </c>
-      <c r="C65" s="68"/>
-      <c r="D65" s="68"/>
-      <c r="E65" s="44" t="s">
+      <c r="C65" s="65"/>
+      <c r="D65" s="65"/>
+      <c r="E65" s="41" t="s">
         <v>193</v>
       </c>
-      <c r="F65" s="21" t="s">
+      <c r="F65" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="H65" s="31"/>
-    </row>
-    <row r="66" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A66" s="39" t="s">
+      <c r="H65" s="28"/>
+    </row>
+    <row r="66" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A66" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="B66" s="25"/>
-      <c r="C66" s="68"/>
-      <c r="E66" s="73" t="s">
+      <c r="B66" s="22"/>
+      <c r="C66" s="65"/>
+      <c r="E66" s="70" t="s">
         <v>195</v>
       </c>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="7"/>
-    </row>
-    <row r="67" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A67" s="73" t="s">
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="6"/>
+    </row>
+    <row r="67" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A67" s="70" t="s">
         <v>196</v>
       </c>
-      <c r="B67" s="6"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
-      <c r="H67" s="7"/>
-    </row>
-    <row r="68" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A68" s="164" t="s">
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="6"/>
+    </row>
+    <row r="68" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A68" s="204" t="s">
         <v>197</v>
       </c>
-      <c r="B68" s="112"/>
-      <c r="C68" s="112"/>
-      <c r="D68" s="113"/>
-      <c r="E68" s="164" t="s">
+      <c r="B68" s="124"/>
+      <c r="C68" s="124"/>
+      <c r="D68" s="125"/>
+      <c r="E68" s="204" t="s">
         <v>198</v>
       </c>
-      <c r="F68" s="112"/>
-      <c r="G68" s="112"/>
-      <c r="H68" s="113"/>
-    </row>
-    <row r="69" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A69" s="47" t="s">
+      <c r="F68" s="124"/>
+      <c r="G68" s="124"/>
+      <c r="H68" s="125"/>
+    </row>
+    <row r="69" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A69" s="44" t="s">
         <v>199</v>
       </c>
-      <c r="B69" s="22"/>
-      <c r="C69" s="22"/>
-      <c r="D69" s="23"/>
-      <c r="E69" s="47" t="s">
+      <c r="B69" s="19"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="44" t="s">
         <v>199</v>
       </c>
-      <c r="F69" s="22"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="23"/>
-    </row>
-    <row r="70" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A70" s="53" t="s">
+      <c r="F69" s="19"/>
+      <c r="G69" s="19"/>
+      <c r="H69" s="20"/>
+    </row>
+    <row r="70" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A70" s="50" t="s">
         <v>187</v>
       </c>
-      <c r="D70" s="31"/>
-      <c r="E70" s="53" t="s">
+      <c r="D70" s="28"/>
+      <c r="E70" s="50" t="s">
         <v>187</v>
       </c>
-      <c r="H70" s="31"/>
-    </row>
-    <row r="71" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A71" s="55" t="s">
+      <c r="H70" s="28"/>
+    </row>
+    <row r="71" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A71" s="52" t="s">
         <v>191</v>
       </c>
-      <c r="B71" s="25"/>
-      <c r="C71" s="25"/>
-      <c r="D71" s="32"/>
-      <c r="E71" s="55" t="s">
+      <c r="B71" s="22"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="29"/>
+      <c r="E71" s="52" t="s">
         <v>191</v>
       </c>
-      <c r="F71" s="25"/>
-      <c r="G71" s="25"/>
-      <c r="H71" s="32"/>
-    </row>
-    <row r="72" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A72" s="47" t="s">
+      <c r="F71" s="22"/>
+      <c r="G71" s="22"/>
+      <c r="H71" s="29"/>
+    </row>
+    <row r="72" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A72" s="44" t="s">
         <v>200</v>
       </c>
-      <c r="B72" s="22"/>
-      <c r="C72" s="47" t="s">
+      <c r="B72" s="19"/>
+      <c r="C72" s="44" t="s">
         <v>201</v>
       </c>
-      <c r="D72" s="23"/>
-      <c r="E72" s="47" t="s">
+      <c r="D72" s="20"/>
+      <c r="E72" s="44" t="s">
         <v>200</v>
       </c>
-      <c r="F72" s="22"/>
-      <c r="G72" s="47" t="s">
+      <c r="F72" s="19"/>
+      <c r="G72" s="44" t="s">
         <v>201</v>
       </c>
-      <c r="H72" s="23"/>
-    </row>
-    <row r="73" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A73" s="53" t="s">
+      <c r="H72" s="20"/>
+    </row>
+    <row r="73" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A73" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="C73" s="53" t="s">
+      <c r="C73" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="D73" s="31"/>
-      <c r="E73" s="53" t="s">
+      <c r="D73" s="28"/>
+      <c r="E73" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="G73" s="53" t="s">
+      <c r="G73" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="H73" s="31"/>
-    </row>
-    <row r="74" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A74" s="55" t="s">
+      <c r="H73" s="28"/>
+    </row>
+    <row r="74" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A74" s="52" t="s">
         <v>196</v>
       </c>
-      <c r="B74" s="25"/>
-      <c r="C74" s="55" t="s">
+      <c r="B74" s="22"/>
+      <c r="C74" s="52" t="s">
         <v>196</v>
       </c>
-      <c r="D74" s="32"/>
-      <c r="E74" s="55" t="s">
+      <c r="D74" s="29"/>
+      <c r="E74" s="52" t="s">
         <v>196</v>
       </c>
-      <c r="F74" s="25"/>
-      <c r="G74" s="55" t="s">
+      <c r="F74" s="22"/>
+      <c r="G74" s="52" t="s">
         <v>196</v>
       </c>
-      <c r="H74" s="32"/>
-    </row>
-    <row r="75" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A75" s="164" t="s">
+      <c r="H74" s="29"/>
+    </row>
+    <row r="75" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A75" s="204" t="s">
         <v>202</v>
       </c>
-      <c r="B75" s="112"/>
-      <c r="C75" s="112"/>
-      <c r="D75" s="113"/>
-      <c r="E75" s="164" t="s">
+      <c r="B75" s="124"/>
+      <c r="C75" s="124"/>
+      <c r="D75" s="125"/>
+      <c r="E75" s="204" t="s">
         <v>203</v>
       </c>
-      <c r="F75" s="112"/>
-      <c r="G75" s="112"/>
-      <c r="H75" s="113"/>
-    </row>
-    <row r="76" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A76" s="47" t="s">
+      <c r="F75" s="124"/>
+      <c r="G75" s="124"/>
+      <c r="H75" s="125"/>
+    </row>
+    <row r="76" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A76" s="44" t="s">
         <v>199</v>
       </c>
-      <c r="B76" s="22"/>
-      <c r="C76" s="22"/>
-      <c r="D76" s="23"/>
-      <c r="E76" s="47" t="s">
+      <c r="B76" s="19"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="20"/>
+      <c r="E76" s="44" t="s">
         <v>199</v>
       </c>
-      <c r="F76" s="22"/>
-      <c r="G76" s="22"/>
-      <c r="H76" s="23"/>
-    </row>
-    <row r="77" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A77" s="53" t="s">
+      <c r="F76" s="19"/>
+      <c r="G76" s="19"/>
+      <c r="H76" s="20"/>
+    </row>
+    <row r="77" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A77" s="50" t="s">
         <v>187</v>
       </c>
-      <c r="D77" s="31"/>
-      <c r="E77" s="53" t="s">
+      <c r="D77" s="28"/>
+      <c r="E77" s="50" t="s">
         <v>187</v>
       </c>
-      <c r="H77" s="31"/>
-    </row>
-    <row r="78" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A78" s="55" t="s">
+      <c r="H77" s="28"/>
+    </row>
+    <row r="78" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A78" s="52" t="s">
         <v>191</v>
       </c>
-      <c r="B78" s="25"/>
-      <c r="C78" s="25"/>
-      <c r="D78" s="32"/>
-      <c r="E78" s="55" t="s">
+      <c r="B78" s="22"/>
+      <c r="C78" s="22"/>
+      <c r="D78" s="29"/>
+      <c r="E78" s="52" t="s">
         <v>191</v>
       </c>
-      <c r="F78" s="25"/>
-      <c r="G78" s="25"/>
-      <c r="H78" s="32"/>
-    </row>
-    <row r="79" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A79" s="47" t="s">
+      <c r="F78" s="22"/>
+      <c r="G78" s="22"/>
+      <c r="H78" s="29"/>
+    </row>
+    <row r="79" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A79" s="44" t="s">
         <v>200</v>
       </c>
-      <c r="B79" s="22"/>
-      <c r="C79" s="47" t="s">
+      <c r="B79" s="19"/>
+      <c r="C79" s="44" t="s">
         <v>201</v>
       </c>
-      <c r="D79" s="23"/>
-      <c r="E79" s="47" t="s">
+      <c r="D79" s="20"/>
+      <c r="E79" s="44" t="s">
         <v>200</v>
       </c>
-      <c r="F79" s="22"/>
-      <c r="G79" s="47" t="s">
+      <c r="F79" s="19"/>
+      <c r="G79" s="44" t="s">
         <v>201</v>
       </c>
-      <c r="H79" s="23"/>
-    </row>
-    <row r="80" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A80" s="53" t="s">
+      <c r="H79" s="20"/>
+    </row>
+    <row r="80" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A80" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="C80" s="53" t="s">
+      <c r="C80" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="D80" s="31"/>
-      <c r="E80" s="53" t="s">
+      <c r="D80" s="28"/>
+      <c r="E80" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="G80" s="53" t="s">
+      <c r="G80" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="H80" s="31"/>
-    </row>
-    <row r="81" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A81" s="55" t="s">
+      <c r="H80" s="28"/>
+    </row>
+    <row r="81" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A81" s="52" t="s">
         <v>196</v>
       </c>
-      <c r="B81" s="25"/>
-      <c r="C81" s="55" t="s">
+      <c r="B81" s="22"/>
+      <c r="C81" s="52" t="s">
         <v>196</v>
       </c>
-      <c r="D81" s="32"/>
-      <c r="E81" s="55" t="s">
+      <c r="D81" s="29"/>
+      <c r="E81" s="52" t="s">
         <v>196</v>
       </c>
-      <c r="F81" s="25"/>
-      <c r="G81" s="55" t="s">
+      <c r="F81" s="22"/>
+      <c r="G81" s="52" t="s">
         <v>196</v>
       </c>
-      <c r="H81" s="32"/>
-    </row>
-    <row r="82" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A82" s="164" t="s">
+      <c r="H81" s="29"/>
+    </row>
+    <row r="82" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A82" s="204" t="s">
         <v>204</v>
       </c>
-      <c r="B82" s="112"/>
-      <c r="C82" s="112"/>
-      <c r="D82" s="113"/>
-      <c r="E82" s="164" t="s">
+      <c r="B82" s="124"/>
+      <c r="C82" s="124"/>
+      <c r="D82" s="125"/>
+      <c r="E82" s="204" t="s">
         <v>205</v>
       </c>
-      <c r="F82" s="112"/>
-      <c r="G82" s="112"/>
-      <c r="H82" s="113"/>
-    </row>
-    <row r="83" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A83" s="47" t="s">
+      <c r="F82" s="124"/>
+      <c r="G82" s="124"/>
+      <c r="H82" s="125"/>
+    </row>
+    <row r="83" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A83" s="44" t="s">
         <v>199</v>
       </c>
-      <c r="B83" s="22"/>
-      <c r="C83" s="22"/>
-      <c r="D83" s="23"/>
-      <c r="E83" s="47" t="s">
+      <c r="B83" s="19"/>
+      <c r="C83" s="19"/>
+      <c r="D83" s="20"/>
+      <c r="E83" s="44" t="s">
         <v>199</v>
       </c>
-      <c r="F83" s="22"/>
-      <c r="G83" s="22"/>
-      <c r="H83" s="23"/>
-    </row>
-    <row r="84" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A84" s="53" t="s">
+      <c r="F83" s="19"/>
+      <c r="G83" s="19"/>
+      <c r="H83" s="20"/>
+    </row>
+    <row r="84" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A84" s="50" t="s">
         <v>187</v>
       </c>
-      <c r="D84" s="31"/>
-      <c r="E84" s="53" t="s">
+      <c r="D84" s="28"/>
+      <c r="E84" s="50" t="s">
         <v>187</v>
       </c>
-      <c r="H84" s="31"/>
-    </row>
-    <row r="85" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A85" s="55" t="s">
+      <c r="H84" s="28"/>
+    </row>
+    <row r="85" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A85" s="52" t="s">
         <v>191</v>
       </c>
-      <c r="B85" s="25"/>
-      <c r="C85" s="25"/>
-      <c r="D85" s="32"/>
-      <c r="E85" s="55" t="s">
+      <c r="B85" s="22"/>
+      <c r="C85" s="22"/>
+      <c r="D85" s="29"/>
+      <c r="E85" s="52" t="s">
         <v>191</v>
       </c>
-      <c r="F85" s="25"/>
-      <c r="G85" s="25"/>
-      <c r="H85" s="32"/>
-    </row>
-    <row r="86" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A86" s="47" t="s">
+      <c r="F85" s="22"/>
+      <c r="G85" s="22"/>
+      <c r="H85" s="29"/>
+    </row>
+    <row r="86" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A86" s="44" t="s">
         <v>200</v>
       </c>
-      <c r="B86" s="22"/>
-      <c r="C86" s="47" t="s">
+      <c r="B86" s="19"/>
+      <c r="C86" s="44" t="s">
         <v>201</v>
       </c>
-      <c r="D86" s="23"/>
-      <c r="E86" s="47" t="s">
+      <c r="D86" s="20"/>
+      <c r="E86" s="44" t="s">
         <v>200</v>
       </c>
-      <c r="F86" s="22"/>
-      <c r="G86" s="47" t="s">
+      <c r="F86" s="19"/>
+      <c r="G86" s="44" t="s">
         <v>201</v>
       </c>
-      <c r="H86" s="23"/>
-    </row>
-    <row r="87" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A87" s="53" t="s">
+      <c r="H86" s="20"/>
+    </row>
+    <row r="87" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A87" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="C87" s="53" t="s">
+      <c r="C87" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="D87" s="31"/>
-      <c r="E87" s="53" t="s">
+      <c r="D87" s="28"/>
+      <c r="E87" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="G87" s="53" t="s">
+      <c r="G87" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="H87" s="31"/>
-    </row>
-    <row r="88" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A88" s="55" t="s">
+      <c r="H87" s="28"/>
+    </row>
+    <row r="88" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A88" s="52" t="s">
         <v>196</v>
       </c>
-      <c r="B88" s="25"/>
-      <c r="C88" s="55" t="s">
+      <c r="B88" s="22"/>
+      <c r="C88" s="52" t="s">
         <v>196</v>
       </c>
-      <c r="D88" s="32"/>
-      <c r="E88" s="55" t="s">
+      <c r="D88" s="29"/>
+      <c r="E88" s="52" t="s">
         <v>196</v>
       </c>
-      <c r="F88" s="25"/>
-      <c r="G88" s="55" t="s">
+      <c r="F88" s="22"/>
+      <c r="G88" s="52" t="s">
         <v>196</v>
       </c>
-      <c r="H88" s="32"/>
-    </row>
-    <row r="89" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A89" s="34"/>
-      <c r="B89" s="34"/>
-      <c r="C89" s="34"/>
-      <c r="D89" s="34"/>
-    </row>
-    <row r="90" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A90" s="61"/>
-      <c r="B90" s="61"/>
-      <c r="C90" s="61"/>
-      <c r="D90" s="61"/>
-    </row>
-    <row r="91" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A91" s="61"/>
-      <c r="B91" s="61"/>
-      <c r="C91" s="61"/>
-      <c r="D91" s="61"/>
-    </row>
-    <row r="92" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A92" s="61"/>
-      <c r="B92" s="61"/>
-      <c r="C92" s="61"/>
-      <c r="D92" s="61"/>
-    </row>
-    <row r="93" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A93" s="61"/>
-      <c r="B93" s="61"/>
-      <c r="C93" s="61"/>
-      <c r="D93" s="61"/>
-    </row>
-    <row r="94" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A94" s="61"/>
-      <c r="B94" s="61"/>
-      <c r="C94" s="61"/>
-      <c r="D94" s="61"/>
-    </row>
-    <row r="95" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A95" s="61"/>
-      <c r="B95" s="61"/>
-      <c r="C95" s="61"/>
-      <c r="D95" s="61"/>
-    </row>
-    <row r="96" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A96" s="61"/>
-      <c r="B96" s="61"/>
-      <c r="C96" s="61"/>
-      <c r="D96" s="61"/>
-    </row>
-    <row r="97" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A97" s="61"/>
-      <c r="B97" s="61"/>
-      <c r="C97" s="61"/>
-      <c r="D97" s="61"/>
-    </row>
-    <row r="98" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A98" s="61"/>
-      <c r="B98" s="61"/>
-      <c r="C98" s="61"/>
-      <c r="D98" s="61"/>
-    </row>
-    <row r="99" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A99" s="61"/>
-      <c r="B99" s="61"/>
-      <c r="C99" s="61"/>
-      <c r="D99" s="61"/>
-    </row>
-    <row r="100" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A100" s="61"/>
-      <c r="B100" s="61"/>
-      <c r="C100" s="61"/>
-      <c r="D100" s="61"/>
-    </row>
-    <row r="101" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A101" s="61"/>
-      <c r="B101" s="61"/>
-      <c r="C101" s="61"/>
-      <c r="D101" s="61"/>
-    </row>
-    <row r="102" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A102" s="61"/>
-      <c r="B102" s="61"/>
-      <c r="C102" s="61"/>
-      <c r="D102" s="61"/>
+      <c r="H88" s="29"/>
+    </row>
+    <row r="89" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A89" s="31"/>
+      <c r="B89" s="31"/>
+      <c r="C89" s="31"/>
+      <c r="D89" s="31"/>
+    </row>
+    <row r="90" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A90" s="58"/>
+      <c r="B90" s="58"/>
+      <c r="C90" s="58"/>
+      <c r="D90" s="58"/>
+    </row>
+    <row r="91" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A91" s="58"/>
+      <c r="B91" s="58"/>
+      <c r="C91" s="58"/>
+      <c r="D91" s="58"/>
+    </row>
+    <row r="92" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A92" s="58"/>
+      <c r="B92" s="58"/>
+      <c r="C92" s="58"/>
+      <c r="D92" s="58"/>
+    </row>
+    <row r="93" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A93" s="58"/>
+      <c r="B93" s="58"/>
+      <c r="C93" s="58"/>
+      <c r="D93" s="58"/>
+    </row>
+    <row r="94" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A94" s="58"/>
+      <c r="B94" s="58"/>
+      <c r="C94" s="58"/>
+      <c r="D94" s="58"/>
+    </row>
+    <row r="95" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A95" s="58"/>
+      <c r="B95" s="58"/>
+      <c r="C95" s="58"/>
+      <c r="D95" s="58"/>
+    </row>
+    <row r="96" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A96" s="58"/>
+      <c r="B96" s="58"/>
+      <c r="C96" s="58"/>
+      <c r="D96" s="58"/>
+    </row>
+    <row r="97" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A97" s="58"/>
+      <c r="B97" s="58"/>
+      <c r="C97" s="58"/>
+      <c r="D97" s="58"/>
+    </row>
+    <row r="98" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A98" s="58"/>
+      <c r="B98" s="58"/>
+      <c r="C98" s="58"/>
+      <c r="D98" s="58"/>
+    </row>
+    <row r="99" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A99" s="58"/>
+      <c r="B99" s="58"/>
+      <c r="C99" s="58"/>
+      <c r="D99" s="58"/>
+    </row>
+    <row r="100" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A100" s="58"/>
+      <c r="B100" s="58"/>
+      <c r="C100" s="58"/>
+      <c r="D100" s="58"/>
+    </row>
+    <row r="101" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A101" s="58"/>
+      <c r="B101" s="58"/>
+      <c r="C101" s="58"/>
+      <c r="D101" s="58"/>
+    </row>
+    <row r="102" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A102" s="58"/>
+      <c r="B102" s="58"/>
+      <c r="C102" s="58"/>
+      <c r="D102" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="19">

--- a/attachments/Input Merchant Acquisition (1).xlsx
+++ b/attachments/Input Merchant Acquisition (1).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\MerchantAcquisition\attachments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\Asisten\Icstar Indonesia Lomba\MerchantAcquisition\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A87D5B3-33EC-43A4-A9B1-0494C5B9ED6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1060B7-87CA-439C-8676-6E6655174921}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Versi 1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="319">
   <si>
     <t>Sales Chanel</t>
   </si>
@@ -879,6 +879,114 @@
   </si>
   <si>
     <t>Cukur ganteng</t>
+  </si>
+  <si>
+    <t>Data Ascend</t>
+  </si>
+  <si>
+    <t>Business Profile</t>
+  </si>
+  <si>
+    <t>Program Offer</t>
+  </si>
+  <si>
+    <t>MCC VISA</t>
+  </si>
+  <si>
+    <t>MCC MCD</t>
+  </si>
+  <si>
+    <t>INTC Flag VISA</t>
+  </si>
+  <si>
+    <t>Business Type (number)</t>
+  </si>
+  <si>
+    <t>HIERARCHY INFO</t>
+  </si>
+  <si>
+    <t>Hierarchy Type</t>
+  </si>
+  <si>
+    <t>Hierarchy Level</t>
+  </si>
+  <si>
+    <t>Merchant Payee Number</t>
+  </si>
+  <si>
+    <t>Parent Merchant</t>
+  </si>
+  <si>
+    <t>Review Date</t>
+  </si>
+  <si>
+    <t>Mega</t>
+  </si>
+  <si>
+    <t>Business Profile ID</t>
+  </si>
+  <si>
+    <t>Plan diskon</t>
+  </si>
+  <si>
+    <t>Description MADR</t>
+  </si>
+  <si>
+    <t>Program offer ASD</t>
+  </si>
+  <si>
+    <t>Suka-suka saya dong</t>
+  </si>
+  <si>
+    <t>Usaha jasa</t>
+  </si>
+  <si>
+    <t>mcc visa 123</t>
+  </si>
+  <si>
+    <t>flag visa</t>
+  </si>
+  <si>
+    <t>mcc mdc</t>
+  </si>
+  <si>
+    <t>intc flag</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>17 agustus 2020</t>
+  </si>
+  <si>
+    <t>isi apa ini?</t>
+  </si>
+  <si>
+    <t>type testing</t>
+  </si>
+  <si>
+    <t>Rupiah</t>
+  </si>
+  <si>
+    <t>Atas Nama Pemilik</t>
+  </si>
+  <si>
+    <t>Kamis</t>
+  </si>
+  <si>
+    <t>Metode 120</t>
+  </si>
+  <si>
+    <t>Jumat</t>
+  </si>
+  <si>
+    <t>SCSECOFR</t>
+  </si>
+  <si>
+    <t>this is statement</t>
+  </si>
+  <si>
+    <t>parent merchant</t>
   </si>
 </sst>
 </file>
@@ -940,7 +1048,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1007,8 +1115,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEFEFEF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="35">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -1392,12 +1524,202 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="212">
+  <cellXfs count="244">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1580,18 +1902,171 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1621,191 +2096,134 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2025,36 +2443,36 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:W99"/>
+  <dimension ref="A1:W132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24:F24"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="A128" sqref="A128:D128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
     <col min="6" max="6" width="30" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" customWidth="1"/>
-    <col min="8" max="8" width="25.5703125" customWidth="1"/>
-    <col min="9" max="10" width="19.140625" customWidth="1"/>
-    <col min="11" max="11" width="20.85546875" customWidth="1"/>
-    <col min="13" max="13" width="26.140625" customWidth="1"/>
-    <col min="14" max="14" width="20.5703125" customWidth="1"/>
-    <col min="15" max="15" width="21.42578125" customWidth="1"/>
+    <col min="7" max="7" width="20.5546875" customWidth="1"/>
+    <col min="8" max="8" width="25.5546875" customWidth="1"/>
+    <col min="9" max="10" width="19.109375" customWidth="1"/>
+    <col min="11" max="11" width="20.88671875" customWidth="1"/>
+    <col min="13" max="13" width="26.109375" customWidth="1"/>
+    <col min="14" max="14" width="20.5546875" customWidth="1"/>
+    <col min="15" max="15" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="149" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="125"/>
-    </row>
-    <row r="2" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A1" s="174" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="162"/>
+    </row>
+    <row r="2" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2062,7 +2480,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2070,7 +2488,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -2078,15 +2496,15 @@
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="118" t="s">
+    <row r="6" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="175" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="119"/>
-      <c r="C6" s="119"/>
-      <c r="D6" s="120"/>
-    </row>
-    <row r="7" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B6" s="155"/>
+      <c r="C6" s="155"/>
+      <c r="D6" s="166"/>
+    </row>
+    <row r="7" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
@@ -2096,7 +2514,7 @@
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
@@ -2110,7 +2528,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
@@ -2124,7 +2542,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>10</v>
       </c>
@@ -2138,7 +2556,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>12</v>
       </c>
@@ -2152,7 +2570,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>14</v>
       </c>
@@ -2166,7 +2584,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>16</v>
       </c>
@@ -2180,7 +2598,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>18</v>
       </c>
@@ -2190,7 +2608,7 @@
       <c r="C14" s="12"/>
       <c r="D14" s="82"/>
     </row>
-    <row r="15" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>19</v>
       </c>
@@ -2204,7 +2622,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>21</v>
       </c>
@@ -2216,7 +2634,7 @@
       </c>
       <c r="D16" s="78"/>
     </row>
-    <row r="17" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>22</v>
       </c>
@@ -2228,7 +2646,7 @@
       </c>
       <c r="D17" s="78"/>
     </row>
-    <row r="18" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>23</v>
       </c>
@@ -2238,7 +2656,7 @@
       <c r="C18" s="7"/>
       <c r="D18" s="78"/>
     </row>
-    <row r="19" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>24</v>
       </c>
@@ -2250,7 +2668,7 @@
       </c>
       <c r="D19" s="98"/>
     </row>
-    <row r="20" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>25</v>
       </c>
@@ -2260,122 +2678,122 @@
       <c r="C20" s="15"/>
       <c r="D20" s="79"/>
     </row>
-    <row r="22" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="150" t="s">
+    <row r="22" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A22" s="176" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="151"/>
-      <c r="C22" s="151"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="151"/>
-      <c r="G22" s="151"/>
-      <c r="H22" s="151"/>
-      <c r="I22" s="152"/>
+      <c r="B22" s="177"/>
+      <c r="C22" s="177"/>
+      <c r="D22" s="177"/>
+      <c r="E22" s="177"/>
+      <c r="F22" s="177"/>
+      <c r="G22" s="177"/>
+      <c r="H22" s="177"/>
+      <c r="I22" s="178"/>
       <c r="J22" s="16"/>
       <c r="K22" s="16"/>
       <c r="L22" s="16"/>
       <c r="M22" s="16"/>
     </row>
-    <row r="23" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="153" t="s">
+    <row r="23" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A23" s="179" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="151"/>
-      <c r="C23" s="151"/>
-      <c r="D23" s="153" t="s">
+      <c r="B23" s="177"/>
+      <c r="C23" s="177"/>
+      <c r="D23" s="179" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="151"/>
-      <c r="F23" s="151"/>
-      <c r="G23" s="153" t="s">
+      <c r="E23" s="177"/>
+      <c r="F23" s="177"/>
+      <c r="G23" s="179" t="s">
         <v>29</v>
       </c>
-      <c r="H23" s="151"/>
-      <c r="I23" s="152"/>
+      <c r="H23" s="177"/>
+      <c r="I23" s="178"/>
       <c r="L23" s="16"/>
       <c r="M23" s="16"/>
     </row>
-    <row r="24" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="147" t="s">
+      <c r="B24" s="173" t="s">
         <v>239</v>
       </c>
-      <c r="C24" s="148"/>
+      <c r="C24" s="172"/>
       <c r="D24" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="211" t="s">
+      <c r="E24" s="171" t="s">
         <v>282</v>
       </c>
-      <c r="F24" s="148"/>
+      <c r="F24" s="172"/>
       <c r="G24" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="H24" s="147"/>
-      <c r="I24" s="148"/>
-    </row>
-    <row r="25" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H24" s="173"/>
+      <c r="I24" s="172"/>
+    </row>
+    <row r="25" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="139" t="s">
+      <c r="B25" s="180" t="s">
         <v>240</v>
       </c>
-      <c r="C25" s="140"/>
+      <c r="C25" s="181"/>
       <c r="D25" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="E25" s="139"/>
-      <c r="F25" s="140"/>
+      <c r="E25" s="180"/>
+      <c r="F25" s="181"/>
       <c r="G25" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="H25" s="139"/>
-      <c r="I25" s="140"/>
-    </row>
-    <row r="26" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H25" s="180"/>
+      <c r="I25" s="181"/>
+    </row>
+    <row r="26" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="145" t="s">
+      <c r="B26" s="183" t="s">
         <v>246</v>
       </c>
-      <c r="C26" s="146"/>
+      <c r="C26" s="184"/>
       <c r="D26" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="139"/>
-      <c r="F26" s="140"/>
+      <c r="E26" s="180"/>
+      <c r="F26" s="181"/>
       <c r="G26" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="H26" s="139"/>
-      <c r="I26" s="140"/>
-    </row>
-    <row r="27" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H26" s="180"/>
+      <c r="I26" s="181"/>
+    </row>
+    <row r="27" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="145" t="s">
+      <c r="B27" s="183" t="s">
         <v>245</v>
       </c>
-      <c r="C27" s="146"/>
+      <c r="C27" s="184"/>
       <c r="D27" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="139"/>
-      <c r="F27" s="140"/>
+      <c r="E27" s="180"/>
+      <c r="F27" s="181"/>
       <c r="G27" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="H27" s="139"/>
-      <c r="I27" s="140"/>
-    </row>
-    <row r="28" spans="1:13" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="126" t="s">
+      <c r="H27" s="180"/>
+      <c r="I27" s="181"/>
+    </row>
+    <row r="28" spans="1:13" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="185" t="s">
         <v>32</v>
       </c>
       <c r="B28" s="107" t="s">
@@ -2384,14 +2802,14 @@
       <c r="C28" s="108" t="s">
         <v>241</v>
       </c>
-      <c r="D28" s="126" t="s">
+      <c r="D28" s="185" t="s">
         <v>32</v>
       </c>
       <c r="E28" s="107" t="s">
         <v>33</v>
       </c>
       <c r="F28" s="109"/>
-      <c r="G28" s="126" t="s">
+      <c r="G28" s="185" t="s">
         <v>32</v>
       </c>
       <c r="H28" s="107" t="s">
@@ -2399,172 +2817,172 @@
       </c>
       <c r="I28" s="109"/>
     </row>
-    <row r="29" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="127"/>
+    <row r="29" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A29" s="186"/>
       <c r="B29" s="110" t="s">
         <v>34</v>
       </c>
       <c r="C29" s="104" t="s">
         <v>242</v>
       </c>
-      <c r="D29" s="127"/>
+      <c r="D29" s="186"/>
       <c r="E29" s="110" t="s">
         <v>34</v>
       </c>
       <c r="F29" s="111"/>
-      <c r="G29" s="127"/>
+      <c r="G29" s="186"/>
       <c r="H29" s="110" t="s">
         <v>34</v>
       </c>
       <c r="I29" s="111"/>
     </row>
-    <row r="30" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="127"/>
+    <row r="30" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A30" s="186"/>
       <c r="B30" s="110" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="210" t="s">
+      <c r="C30" s="116" t="s">
         <v>281</v>
       </c>
-      <c r="D30" s="127"/>
+      <c r="D30" s="186"/>
       <c r="E30" s="110" t="s">
         <v>35</v>
       </c>
       <c r="F30" s="111"/>
-      <c r="G30" s="127"/>
+      <c r="G30" s="186"/>
       <c r="H30" s="110" t="s">
         <v>35</v>
       </c>
       <c r="I30" s="111"/>
       <c r="M30" s="18"/>
     </row>
-    <row r="31" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="127"/>
+    <row r="31" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A31" s="186"/>
       <c r="B31" s="110" t="s">
         <v>36</v>
       </c>
       <c r="C31" s="104" t="s">
         <v>243</v>
       </c>
-      <c r="D31" s="127"/>
+      <c r="D31" s="186"/>
       <c r="E31" s="110" t="s">
         <v>36</v>
       </c>
       <c r="F31" s="111"/>
-      <c r="G31" s="127"/>
+      <c r="G31" s="186"/>
       <c r="H31" s="110" t="s">
         <v>36</v>
       </c>
       <c r="I31" s="111"/>
       <c r="M31" s="18"/>
     </row>
-    <row r="32" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="127"/>
+    <row r="32" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A32" s="186"/>
       <c r="B32" s="110" t="s">
         <v>37</v>
       </c>
       <c r="C32" s="104">
         <v>123123</v>
       </c>
-      <c r="D32" s="127"/>
+      <c r="D32" s="186"/>
       <c r="E32" s="110" t="s">
         <v>37</v>
       </c>
       <c r="F32" s="111"/>
-      <c r="G32" s="127"/>
+      <c r="G32" s="186"/>
       <c r="H32" s="110" t="s">
         <v>37</v>
       </c>
       <c r="I32" s="111"/>
       <c r="M32" s="18"/>
     </row>
-    <row r="33" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="127"/>
+    <row r="33" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A33" s="186"/>
       <c r="B33" s="110" t="s">
         <v>38</v>
       </c>
       <c r="C33" s="104" t="s">
         <v>244</v>
       </c>
-      <c r="D33" s="127"/>
+      <c r="D33" s="186"/>
       <c r="E33" s="110" t="s">
         <v>38</v>
       </c>
       <c r="F33" s="111"/>
-      <c r="G33" s="127"/>
+      <c r="G33" s="186"/>
       <c r="H33" s="110" t="s">
         <v>38</v>
       </c>
       <c r="I33" s="111"/>
       <c r="M33" s="18"/>
     </row>
-    <row r="34" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="127"/>
+    <row r="34" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A34" s="186"/>
       <c r="B34" s="110" t="s">
         <v>39</v>
       </c>
       <c r="C34" s="104">
         <v>111</v>
       </c>
-      <c r="D34" s="127"/>
+      <c r="D34" s="186"/>
       <c r="E34" s="110" t="s">
         <v>39</v>
       </c>
       <c r="F34" s="111"/>
-      <c r="G34" s="127"/>
+      <c r="G34" s="186"/>
       <c r="H34" s="110" t="s">
         <v>39</v>
       </c>
       <c r="I34" s="111"/>
       <c r="M34" s="18"/>
     </row>
-    <row r="35" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="128"/>
+    <row r="35" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A35" s="187"/>
       <c r="B35" s="112" t="s">
         <v>40</v>
       </c>
       <c r="C35" s="113">
         <v>32231</v>
       </c>
-      <c r="D35" s="128"/>
+      <c r="D35" s="187"/>
       <c r="E35" s="112" t="s">
         <v>40</v>
       </c>
       <c r="F35" s="114"/>
-      <c r="G35" s="128"/>
+      <c r="G35" s="187"/>
       <c r="H35" s="112" t="s">
         <v>40</v>
       </c>
       <c r="I35" s="114"/>
       <c r="M35" s="18"/>
     </row>
-    <row r="36" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="115" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="138" t="s">
+      <c r="B36" s="197" t="s">
         <v>280</v>
       </c>
-      <c r="C36" s="117"/>
+      <c r="C36" s="198"/>
       <c r="D36" s="115" t="s">
         <v>41</v>
       </c>
-      <c r="E36" s="116"/>
-      <c r="F36" s="117"/>
+      <c r="E36" s="199"/>
+      <c r="F36" s="198"/>
       <c r="G36" s="115" t="s">
         <v>41</v>
       </c>
-      <c r="H36" s="116"/>
-      <c r="I36" s="117"/>
-    </row>
-    <row r="38" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="118" t="s">
+      <c r="H36" s="199"/>
+      <c r="I36" s="198"/>
+    </row>
+    <row r="38" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A38" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="B38" s="119"/>
-      <c r="C38" s="120"/>
-    </row>
-    <row r="39" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B38" s="155"/>
+      <c r="C38" s="166"/>
+    </row>
+    <row r="39" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>43</v>
       </c>
@@ -2573,17 +2991,17 @@
       </c>
       <c r="C39" s="20"/>
     </row>
-    <row r="40" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="121" t="s">
+      <c r="B40" s="157" t="s">
         <v>219</v>
       </c>
-      <c r="C40" s="122"/>
-    </row>
-    <row r="41" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="129" t="s">
+      <c r="C40" s="159"/>
+    </row>
+    <row r="41" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A41" s="188" t="s">
         <v>32</v>
       </c>
       <c r="B41" s="9" t="s">
@@ -2593,8 +3011,8 @@
         <v>220</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="130"/>
+    <row r="42" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A42" s="189"/>
       <c r="B42" s="7" t="s">
         <v>34</v>
       </c>
@@ -2602,8 +3020,8 @@
         <v>221</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="130"/>
+    <row r="43" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A43" s="189"/>
       <c r="B43" s="7" t="s">
         <v>35</v>
       </c>
@@ -2611,8 +3029,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="130"/>
+    <row r="44" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A44" s="189"/>
       <c r="B44" s="7" t="s">
         <v>36</v>
       </c>
@@ -2620,8 +3038,8 @@
         <v>222</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="130"/>
+    <row r="45" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A45" s="189"/>
       <c r="B45" s="7" t="s">
         <v>37</v>
       </c>
@@ -2629,8 +3047,8 @@
         <v>12345</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="130"/>
+    <row r="46" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A46" s="189"/>
       <c r="B46" s="7" t="s">
         <v>38</v>
       </c>
@@ -2638,8 +3056,8 @@
         <v>223</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="130"/>
+    <row r="47" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A47" s="189"/>
       <c r="B47" s="7" t="s">
         <v>39</v>
       </c>
@@ -2647,8 +3065,8 @@
         <v>224</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="131"/>
+    <row r="48" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A48" s="190"/>
       <c r="B48" s="7" t="s">
         <v>40</v>
       </c>
@@ -2656,40 +3074,40 @@
         <v>207</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B49" s="132">
+      <c r="B49" s="191">
         <v>23586598</v>
       </c>
-      <c r="C49" s="133"/>
-    </row>
-    <row r="50" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C49" s="192"/>
+    </row>
+    <row r="50" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B50" s="134">
+      <c r="B50" s="193">
         <v>8123456789</v>
       </c>
-      <c r="C50" s="135"/>
-    </row>
-    <row r="51" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C50" s="194"/>
+    </row>
+    <row r="51" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B51" s="136" t="s">
+      <c r="B51" s="195" t="s">
         <v>225</v>
       </c>
-      <c r="C51" s="137"/>
-    </row>
-    <row r="53" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="118" t="s">
+      <c r="C51" s="196"/>
+    </row>
+    <row r="53" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A53" s="175" t="s">
         <v>48</v>
       </c>
-      <c r="B53" s="120"/>
-    </row>
-    <row r="54" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B53" s="166"/>
+    </row>
+    <row r="54" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>49</v>
       </c>
@@ -2697,7 +3115,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="55" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>50</v>
       </c>
@@ -2705,7 +3123,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="56" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>51</v>
       </c>
@@ -2713,7 +3131,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>52</v>
       </c>
@@ -2721,7 +3139,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>22</v>
       </c>
@@ -2729,7 +3147,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>53</v>
       </c>
@@ -2737,90 +3155,90 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="60" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
         <v>54</v>
       </c>
       <c r="B60" s="89"/>
     </row>
-    <row r="62" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A62" s="157" t="s">
+    <row r="62" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A62" s="160" t="s">
         <v>55</v>
       </c>
-      <c r="B62" s="124"/>
-      <c r="C62" s="124"/>
-      <c r="D62" s="124"/>
-      <c r="E62" s="124"/>
-      <c r="F62" s="124"/>
-      <c r="G62" s="124"/>
-      <c r="H62" s="124"/>
-      <c r="I62" s="124"/>
-      <c r="J62" s="124"/>
-      <c r="K62" s="124"/>
-      <c r="L62" s="124"/>
-      <c r="M62" s="124"/>
-      <c r="N62" s="124"/>
-      <c r="O62" s="124"/>
-      <c r="P62" s="124"/>
-      <c r="Q62" s="124"/>
-      <c r="R62" s="125"/>
-    </row>
-    <row r="63" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A63" s="158" t="s">
+      <c r="B62" s="161"/>
+      <c r="C62" s="161"/>
+      <c r="D62" s="161"/>
+      <c r="E62" s="161"/>
+      <c r="F62" s="161"/>
+      <c r="G62" s="161"/>
+      <c r="H62" s="161"/>
+      <c r="I62" s="161"/>
+      <c r="J62" s="161"/>
+      <c r="K62" s="161"/>
+      <c r="L62" s="161"/>
+      <c r="M62" s="161"/>
+      <c r="N62" s="161"/>
+      <c r="O62" s="161"/>
+      <c r="P62" s="161"/>
+      <c r="Q62" s="161"/>
+      <c r="R62" s="162"/>
+    </row>
+    <row r="63" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A63" s="163" t="s">
         <v>56</v>
       </c>
-      <c r="B63" s="124"/>
-      <c r="C63" s="124"/>
-      <c r="D63" s="124"/>
-      <c r="E63" s="124"/>
-      <c r="F63" s="125"/>
-      <c r="G63" s="158" t="s">
+      <c r="B63" s="161"/>
+      <c r="C63" s="161"/>
+      <c r="D63" s="161"/>
+      <c r="E63" s="161"/>
+      <c r="F63" s="162"/>
+      <c r="G63" s="163" t="s">
         <v>57</v>
       </c>
-      <c r="H63" s="124"/>
-      <c r="I63" s="124"/>
-      <c r="J63" s="124"/>
-      <c r="K63" s="124"/>
-      <c r="L63" s="124"/>
-      <c r="M63" s="158" t="s">
+      <c r="H63" s="161"/>
+      <c r="I63" s="161"/>
+      <c r="J63" s="161"/>
+      <c r="K63" s="161"/>
+      <c r="L63" s="161"/>
+      <c r="M63" s="163" t="s">
         <v>58</v>
       </c>
-      <c r="N63" s="124"/>
-      <c r="O63" s="124"/>
-      <c r="P63" s="124"/>
-      <c r="Q63" s="124"/>
-      <c r="R63" s="125"/>
-    </row>
-    <row r="64" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="N63" s="161"/>
+      <c r="O63" s="161"/>
+      <c r="P63" s="161"/>
+      <c r="Q63" s="161"/>
+      <c r="R63" s="162"/>
+    </row>
+    <row r="64" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B64" s="123" t="s">
+      <c r="B64" s="164" t="s">
         <v>234</v>
       </c>
-      <c r="C64" s="124"/>
-      <c r="D64" s="124"/>
-      <c r="E64" s="124"/>
-      <c r="F64" s="125"/>
+      <c r="C64" s="161"/>
+      <c r="D64" s="161"/>
+      <c r="E64" s="161"/>
+      <c r="F64" s="162"/>
       <c r="G64" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H64" s="123"/>
-      <c r="I64" s="124"/>
-      <c r="J64" s="124"/>
-      <c r="K64" s="124"/>
-      <c r="L64" s="125"/>
+      <c r="H64" s="164"/>
+      <c r="I64" s="161"/>
+      <c r="J64" s="161"/>
+      <c r="K64" s="161"/>
+      <c r="L64" s="162"/>
       <c r="M64" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="N64" s="123"/>
-      <c r="O64" s="124"/>
-      <c r="P64" s="124"/>
-      <c r="Q64" s="124"/>
-      <c r="R64" s="125"/>
-    </row>
-    <row r="65" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A65" s="141" t="s">
+      <c r="N64" s="164"/>
+      <c r="O64" s="161"/>
+      <c r="P64" s="161"/>
+      <c r="Q64" s="161"/>
+      <c r="R64" s="162"/>
+    </row>
+    <row r="65" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A65" s="182" t="s">
         <v>59</v>
       </c>
       <c r="B65" s="23" t="s">
@@ -2829,61 +3247,61 @@
       <c r="C65" s="154" t="s">
         <v>264</v>
       </c>
-      <c r="D65" s="119"/>
-      <c r="E65" s="119"/>
-      <c r="F65" s="119"/>
-      <c r="G65" s="141" t="s">
+      <c r="D65" s="155"/>
+      <c r="E65" s="155"/>
+      <c r="F65" s="155"/>
+      <c r="G65" s="182" t="s">
         <v>59</v>
       </c>
       <c r="H65" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="I65" s="159"/>
-      <c r="J65" s="119"/>
-      <c r="K65" s="119"/>
-      <c r="L65" s="120"/>
-      <c r="M65" s="160" t="s">
+      <c r="I65" s="165"/>
+      <c r="J65" s="155"/>
+      <c r="K65" s="155"/>
+      <c r="L65" s="166"/>
+      <c r="M65" s="167" t="s">
         <v>59</v>
       </c>
       <c r="N65" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="O65" s="159"/>
-      <c r="P65" s="119"/>
-      <c r="Q65" s="119"/>
-      <c r="R65" s="120"/>
-    </row>
-    <row r="66" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="142"/>
+      <c r="O65" s="165"/>
+      <c r="P65" s="155"/>
+      <c r="Q65" s="155"/>
+      <c r="R65" s="166"/>
+    </row>
+    <row r="66" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="168"/>
       <c r="B66" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="C66" s="155">
+      <c r="C66" s="156">
         <v>12</v>
       </c>
-      <c r="D66" s="155"/>
-      <c r="E66" s="155"/>
-      <c r="F66" s="155"/>
-      <c r="G66" s="142"/>
+      <c r="D66" s="156"/>
+      <c r="E66" s="156"/>
+      <c r="F66" s="156"/>
+      <c r="G66" s="168"/>
       <c r="H66" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="I66" s="121"/>
-      <c r="J66" s="156"/>
-      <c r="K66" s="156"/>
-      <c r="L66" s="122"/>
-      <c r="M66" s="142"/>
+      <c r="I66" s="157"/>
+      <c r="J66" s="158"/>
+      <c r="K66" s="158"/>
+      <c r="L66" s="159"/>
+      <c r="M66" s="168"/>
       <c r="N66" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="O66" s="121"/>
-      <c r="P66" s="156"/>
-      <c r="Q66" s="156"/>
-      <c r="R66" s="122"/>
-    </row>
-    <row r="67" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A67" s="142"/>
-      <c r="B67" s="143" t="s">
+      <c r="O66" s="157"/>
+      <c r="P66" s="158"/>
+      <c r="Q66" s="158"/>
+      <c r="R66" s="159"/>
+    </row>
+    <row r="67" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A67" s="168"/>
+      <c r="B67" s="169" t="s">
         <v>62</v>
       </c>
       <c r="C67" s="26" t="s">
@@ -2898,8 +3316,8 @@
       <c r="F67" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="G67" s="142"/>
-      <c r="H67" s="143" t="s">
+      <c r="G67" s="168"/>
+      <c r="H67" s="169" t="s">
         <v>62</v>
       </c>
       <c r="I67" s="26" t="s">
@@ -2914,8 +3332,8 @@
       <c r="L67" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="M67" s="142"/>
-      <c r="N67" s="143" t="s">
+      <c r="M67" s="168"/>
+      <c r="N67" s="169" t="s">
         <v>62</v>
       </c>
       <c r="O67" s="26" t="s">
@@ -2931,9 +3349,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A68" s="142"/>
-      <c r="B68" s="122"/>
+    <row r="68" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A68" s="168"/>
+      <c r="B68" s="159"/>
       <c r="C68" s="25" t="s">
         <v>66</v>
       </c>
@@ -2946,8 +3364,8 @@
       <c r="F68" t="s">
         <v>233</v>
       </c>
-      <c r="G68" s="142"/>
-      <c r="H68" s="122"/>
+      <c r="G68" s="168"/>
+      <c r="H68" s="159"/>
       <c r="I68" s="25" t="s">
         <v>67</v>
       </c>
@@ -2956,8 +3374,8 @@
       </c>
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
-      <c r="M68" s="142"/>
-      <c r="N68" s="122"/>
+      <c r="M68" s="168"/>
+      <c r="N68" s="159"/>
       <c r="O68" s="25" t="s">
         <v>67</v>
       </c>
@@ -2967,9 +3385,9 @@
       <c r="Q68" s="2"/>
       <c r="R68" s="2"/>
     </row>
-    <row r="69" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A69" s="142"/>
-      <c r="B69" s="122"/>
+    <row r="69" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A69" s="168"/>
+      <c r="B69" s="159"/>
       <c r="C69" s="25" t="s">
         <v>68</v>
       </c>
@@ -2979,8 +3397,8 @@
       <c r="E69" s="2">
         <v>2231</v>
       </c>
-      <c r="G69" s="142"/>
-      <c r="H69" s="122"/>
+      <c r="G69" s="168"/>
+      <c r="H69" s="159"/>
       <c r="I69" s="25" t="s">
         <v>69</v>
       </c>
@@ -2989,8 +3407,8 @@
       </c>
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
-      <c r="M69" s="142"/>
-      <c r="N69" s="122"/>
+      <c r="M69" s="168"/>
+      <c r="N69" s="159"/>
       <c r="O69" s="25" t="s">
         <v>69</v>
       </c>
@@ -3000,9 +3418,9 @@
       <c r="Q69" s="2"/>
       <c r="R69" s="2"/>
     </row>
-    <row r="70" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A70" s="142"/>
-      <c r="B70" s="122"/>
+    <row r="70" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A70" s="168"/>
+      <c r="B70" s="159"/>
       <c r="C70" s="25" t="s">
         <v>70</v>
       </c>
@@ -3010,8 +3428,8 @@
         <v>0</v>
       </c>
       <c r="E70" s="2"/>
-      <c r="G70" s="142"/>
-      <c r="H70" s="122"/>
+      <c r="G70" s="168"/>
+      <c r="H70" s="159"/>
       <c r="I70" s="25" t="s">
         <v>70</v>
       </c>
@@ -3020,8 +3438,8 @@
       </c>
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
-      <c r="M70" s="142"/>
-      <c r="N70" s="122"/>
+      <c r="M70" s="168"/>
+      <c r="N70" s="159"/>
       <c r="O70" s="25" t="s">
         <v>70</v>
       </c>
@@ -3031,9 +3449,9 @@
       <c r="Q70" s="2"/>
       <c r="R70" s="2"/>
     </row>
-    <row r="71" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A71" s="142"/>
-      <c r="B71" s="122"/>
+    <row r="71" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A71" s="168"/>
+      <c r="B71" s="159"/>
       <c r="C71" s="25" t="s">
         <v>71</v>
       </c>
@@ -3041,8 +3459,8 @@
         <v>0</v>
       </c>
       <c r="E71" s="2"/>
-      <c r="G71" s="142"/>
-      <c r="H71" s="122"/>
+      <c r="G71" s="168"/>
+      <c r="H71" s="159"/>
       <c r="I71" s="25" t="s">
         <v>71</v>
       </c>
@@ -3051,8 +3469,8 @@
       </c>
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
-      <c r="M71" s="142"/>
-      <c r="N71" s="122"/>
+      <c r="M71" s="168"/>
+      <c r="N71" s="159"/>
       <c r="O71" s="25" t="s">
         <v>71</v>
       </c>
@@ -3062,9 +3480,9 @@
       <c r="Q71" s="2"/>
       <c r="R71" s="2"/>
     </row>
-    <row r="72" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A72" s="142"/>
-      <c r="B72" s="122"/>
+    <row r="72" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A72" s="168"/>
+      <c r="B72" s="159"/>
       <c r="C72" s="25" t="s">
         <v>72</v>
       </c>
@@ -3074,8 +3492,8 @@
       <c r="E72" s="2">
         <v>232</v>
       </c>
-      <c r="G72" s="142"/>
-      <c r="H72" s="122"/>
+      <c r="G72" s="168"/>
+      <c r="H72" s="159"/>
       <c r="I72" s="25" t="s">
         <v>72</v>
       </c>
@@ -3084,8 +3502,8 @@
       </c>
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
-      <c r="M72" s="142"/>
-      <c r="N72" s="122"/>
+      <c r="M72" s="168"/>
+      <c r="N72" s="159"/>
       <c r="O72" s="25" t="s">
         <v>72</v>
       </c>
@@ -3095,9 +3513,9 @@
       <c r="Q72" s="2"/>
       <c r="R72" s="2"/>
     </row>
-    <row r="73" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A73" s="142"/>
-      <c r="B73" s="122"/>
+    <row r="73" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A73" s="168"/>
+      <c r="B73" s="159"/>
       <c r="C73" s="25" t="s">
         <v>73</v>
       </c>
@@ -3110,8 +3528,8 @@
       <c r="F73" t="s">
         <v>279</v>
       </c>
-      <c r="G73" s="142"/>
-      <c r="H73" s="122"/>
+      <c r="G73" s="168"/>
+      <c r="H73" s="159"/>
       <c r="I73" s="25" t="s">
         <v>73</v>
       </c>
@@ -3120,8 +3538,8 @@
       </c>
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
-      <c r="M73" s="142"/>
-      <c r="N73" s="122"/>
+      <c r="M73" s="168"/>
+      <c r="N73" s="159"/>
       <c r="O73" s="25" t="s">
         <v>73</v>
       </c>
@@ -3131,9 +3549,9 @@
       <c r="Q73" s="2"/>
       <c r="R73" s="2"/>
     </row>
-    <row r="74" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A74" s="142"/>
-      <c r="B74" s="122"/>
+    <row r="74" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A74" s="168"/>
+      <c r="B74" s="159"/>
       <c r="C74" s="25" t="s">
         <v>74</v>
       </c>
@@ -3141,8 +3559,8 @@
         <v>0</v>
       </c>
       <c r="E74" s="2"/>
-      <c r="G74" s="142"/>
-      <c r="H74" s="122"/>
+      <c r="G74" s="168"/>
+      <c r="H74" s="159"/>
       <c r="I74" s="25" t="s">
         <v>74</v>
       </c>
@@ -3151,8 +3569,8 @@
       </c>
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
-      <c r="M74" s="142"/>
-      <c r="N74" s="122"/>
+      <c r="M74" s="168"/>
+      <c r="N74" s="159"/>
       <c r="O74" s="25" t="s">
         <v>74</v>
       </c>
@@ -3162,9 +3580,9 @@
       <c r="Q74" s="2"/>
       <c r="R74" s="2"/>
     </row>
-    <row r="75" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A75" s="142"/>
-      <c r="B75" s="122"/>
+    <row r="75" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A75" s="168"/>
+      <c r="B75" s="159"/>
       <c r="C75" s="25" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3590,8 @@
         <v>0</v>
       </c>
       <c r="E75" s="2"/>
-      <c r="G75" s="142"/>
-      <c r="H75" s="122"/>
+      <c r="G75" s="168"/>
+      <c r="H75" s="159"/>
       <c r="I75" s="25" t="s">
         <v>75</v>
       </c>
@@ -3182,8 +3600,8 @@
       </c>
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
-      <c r="M75" s="142"/>
-      <c r="N75" s="122"/>
+      <c r="M75" s="168"/>
+      <c r="N75" s="159"/>
       <c r="O75" s="25" t="s">
         <v>75</v>
       </c>
@@ -3193,9 +3611,9 @@
       <c r="Q75" s="2"/>
       <c r="R75" s="2"/>
     </row>
-    <row r="76" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A76" s="142"/>
-      <c r="B76" s="122"/>
+    <row r="76" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A76" s="168"/>
+      <c r="B76" s="159"/>
       <c r="C76" s="25" t="s">
         <v>76</v>
       </c>
@@ -3203,8 +3621,8 @@
         <v>0</v>
       </c>
       <c r="E76" s="2"/>
-      <c r="G76" s="142"/>
-      <c r="H76" s="122"/>
+      <c r="G76" s="168"/>
+      <c r="H76" s="159"/>
       <c r="I76" s="25" t="s">
         <v>76</v>
       </c>
@@ -3213,8 +3631,8 @@
       </c>
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
-      <c r="M76" s="142"/>
-      <c r="N76" s="122"/>
+      <c r="M76" s="168"/>
+      <c r="N76" s="159"/>
       <c r="O76" s="25" t="s">
         <v>76</v>
       </c>
@@ -3224,9 +3642,9 @@
       <c r="Q76" s="2"/>
       <c r="R76" s="2"/>
     </row>
-    <row r="77" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A77" s="142"/>
-      <c r="B77" s="122"/>
+    <row r="77" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A77" s="168"/>
+      <c r="B77" s="159"/>
       <c r="C77" s="25" t="s">
         <v>77</v>
       </c>
@@ -3234,8 +3652,8 @@
         <v>0</v>
       </c>
       <c r="E77" s="2"/>
-      <c r="G77" s="142"/>
-      <c r="H77" s="122"/>
+      <c r="G77" s="168"/>
+      <c r="H77" s="159"/>
       <c r="I77" s="25" t="s">
         <v>77</v>
       </c>
@@ -3244,8 +3662,8 @@
       </c>
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
-      <c r="M77" s="142"/>
-      <c r="N77" s="122"/>
+      <c r="M77" s="168"/>
+      <c r="N77" s="159"/>
       <c r="O77" s="25" t="s">
         <v>77</v>
       </c>
@@ -3255,9 +3673,9 @@
       <c r="Q77" s="2"/>
       <c r="R77" s="2"/>
     </row>
-    <row r="78" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A78" s="142"/>
-      <c r="B78" s="122"/>
+    <row r="78" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A78" s="168"/>
+      <c r="B78" s="159"/>
       <c r="C78" s="25" t="s">
         <v>78</v>
       </c>
@@ -3265,8 +3683,8 @@
         <v>0</v>
       </c>
       <c r="E78" s="2"/>
-      <c r="G78" s="142"/>
-      <c r="H78" s="144"/>
+      <c r="G78" s="168"/>
+      <c r="H78" s="170"/>
       <c r="I78" s="25" t="s">
         <v>78</v>
       </c>
@@ -3275,8 +3693,8 @@
       </c>
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
-      <c r="M78" s="142"/>
-      <c r="N78" s="144"/>
+      <c r="M78" s="168"/>
+      <c r="N78" s="170"/>
       <c r="O78" s="25" t="s">
         <v>78</v>
       </c>
@@ -3286,35 +3704,35 @@
       <c r="Q78" s="2"/>
       <c r="R78" s="2"/>
     </row>
-    <row r="79" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A79" s="92" t="s">
         <v>80</v>
       </c>
-      <c r="B79" s="169" t="s">
+      <c r="B79" s="141" t="s">
         <v>278</v>
       </c>
-      <c r="C79" s="170"/>
-      <c r="D79" s="170"/>
-      <c r="E79" s="170"/>
-      <c r="F79" s="171"/>
+      <c r="C79" s="142"/>
+      <c r="D79" s="142"/>
+      <c r="E79" s="142"/>
+      <c r="F79" s="143"/>
       <c r="G79" s="92" t="s">
         <v>80</v>
       </c>
-      <c r="H79" s="172"/>
-      <c r="I79" s="173"/>
-      <c r="J79" s="173"/>
-      <c r="K79" s="173"/>
-      <c r="L79" s="174"/>
+      <c r="H79" s="144"/>
+      <c r="I79" s="145"/>
+      <c r="J79" s="145"/>
+      <c r="K79" s="145"/>
+      <c r="L79" s="146"/>
       <c r="M79" s="92" t="s">
         <v>80</v>
       </c>
-      <c r="N79" s="172"/>
-      <c r="O79" s="173"/>
-      <c r="P79" s="173"/>
-      <c r="Q79" s="173"/>
-      <c r="R79" s="174"/>
-    </row>
-    <row r="80" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="N79" s="144"/>
+      <c r="O79" s="145"/>
+      <c r="P79" s="145"/>
+      <c r="Q79" s="145"/>
+      <c r="R79" s="146"/>
+    </row>
+    <row r="80" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A80" s="92" t="s">
         <v>79</v>
       </c>
@@ -3324,11 +3742,11 @@
       <c r="C80" s="94" t="s">
         <v>238</v>
       </c>
-      <c r="D80" s="167" t="s">
+      <c r="D80" s="139" t="s">
         <v>265</v>
       </c>
-      <c r="E80" s="168"/>
-      <c r="F80" s="168"/>
+      <c r="E80" s="140"/>
+      <c r="F80" s="140"/>
       <c r="G80" s="92" t="s">
         <v>79</v>
       </c>
@@ -3338,9 +3756,9 @@
       <c r="I80" s="94" t="s">
         <v>238</v>
       </c>
-      <c r="J80" s="165"/>
-      <c r="K80" s="165"/>
-      <c r="L80" s="165"/>
+      <c r="J80" s="137"/>
+      <c r="K80" s="137"/>
+      <c r="L80" s="137"/>
       <c r="M80" s="92" t="s">
         <v>79</v>
       </c>
@@ -3350,122 +3768,122 @@
       <c r="O80" s="94" t="s">
         <v>238</v>
       </c>
-      <c r="P80" s="165"/>
-      <c r="Q80" s="165"/>
-      <c r="R80" s="165"/>
-    </row>
-    <row r="81" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A81" s="161" t="s">
+      <c r="P80" s="137"/>
+      <c r="Q80" s="137"/>
+      <c r="R80" s="137"/>
+    </row>
+    <row r="81" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A81" s="153" t="s">
         <v>81</v>
       </c>
-      <c r="B81" s="162" t="b">
+      <c r="B81" s="147" t="b">
         <v>1</v>
       </c>
       <c r="C81" s="95" t="s">
         <v>235</v>
       </c>
-      <c r="D81" s="175" t="s">
+      <c r="D81" s="150" t="s">
         <v>266</v>
       </c>
-      <c r="E81" s="168"/>
-      <c r="F81" s="168"/>
-      <c r="G81" s="161" t="s">
+      <c r="E81" s="140"/>
+      <c r="F81" s="140"/>
+      <c r="G81" s="153" t="s">
         <v>81</v>
       </c>
-      <c r="H81" s="162" t="b">
+      <c r="H81" s="147" t="b">
         <v>0</v>
       </c>
       <c r="I81" s="95" t="s">
         <v>235</v>
       </c>
-      <c r="J81" s="165"/>
-      <c r="K81" s="165"/>
-      <c r="L81" s="165"/>
-      <c r="M81" s="161" t="s">
+      <c r="J81" s="137"/>
+      <c r="K81" s="137"/>
+      <c r="L81" s="137"/>
+      <c r="M81" s="153" t="s">
         <v>81</v>
       </c>
-      <c r="N81" s="162" t="b">
+      <c r="N81" s="147" t="b">
         <v>0</v>
       </c>
       <c r="O81" s="95" t="s">
         <v>235</v>
       </c>
-      <c r="P81" s="165"/>
-      <c r="Q81" s="165"/>
-      <c r="R81" s="165"/>
+      <c r="P81" s="137"/>
+      <c r="Q81" s="137"/>
+      <c r="R81" s="137"/>
       <c r="S81" s="90"/>
       <c r="T81" s="90"/>
       <c r="U81" s="90"/>
       <c r="V81" s="90"/>
       <c r="W81" s="90"/>
     </row>
-    <row r="82" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="161"/>
-      <c r="B82" s="163"/>
+    <row r="82" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="153"/>
+      <c r="B82" s="148"/>
       <c r="C82" s="96" t="s">
         <v>236</v>
       </c>
-      <c r="D82" s="176" t="s">
+      <c r="D82" s="151" t="s">
         <v>267</v>
       </c>
-      <c r="E82" s="177"/>
-      <c r="F82" s="177"/>
-      <c r="G82" s="161"/>
-      <c r="H82" s="163"/>
+      <c r="E82" s="152"/>
+      <c r="F82" s="152"/>
+      <c r="G82" s="153"/>
+      <c r="H82" s="148"/>
       <c r="I82" s="96" t="s">
         <v>236</v>
       </c>
-      <c r="J82" s="166"/>
-      <c r="K82" s="166"/>
-      <c r="L82" s="166"/>
-      <c r="M82" s="161"/>
-      <c r="N82" s="163"/>
+      <c r="J82" s="138"/>
+      <c r="K82" s="138"/>
+      <c r="L82" s="138"/>
+      <c r="M82" s="153"/>
+      <c r="N82" s="148"/>
       <c r="O82" s="96" t="s">
         <v>236</v>
       </c>
-      <c r="P82" s="166"/>
-      <c r="Q82" s="166"/>
-      <c r="R82" s="166"/>
+      <c r="P82" s="138"/>
+      <c r="Q82" s="138"/>
+      <c r="R82" s="138"/>
       <c r="S82" s="90"/>
       <c r="T82" s="90"/>
       <c r="U82" s="90"/>
       <c r="V82" s="90"/>
       <c r="W82" s="90"/>
     </row>
-    <row r="83" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="161"/>
-      <c r="B83" s="164"/>
+    <row r="83" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="153"/>
+      <c r="B83" s="149"/>
       <c r="C83" s="97" t="s">
         <v>237</v>
       </c>
-      <c r="D83" s="176" t="s">
+      <c r="D83" s="151" t="s">
         <v>268</v>
       </c>
-      <c r="E83" s="177"/>
-      <c r="F83" s="177"/>
-      <c r="G83" s="161"/>
-      <c r="H83" s="164"/>
+      <c r="E83" s="152"/>
+      <c r="F83" s="152"/>
+      <c r="G83" s="153"/>
+      <c r="H83" s="149"/>
       <c r="I83" s="97" t="s">
         <v>237</v>
       </c>
-      <c r="J83" s="166"/>
-      <c r="K83" s="166"/>
-      <c r="L83" s="166"/>
-      <c r="M83" s="161"/>
-      <c r="N83" s="164"/>
+      <c r="J83" s="138"/>
+      <c r="K83" s="138"/>
+      <c r="L83" s="138"/>
+      <c r="M83" s="153"/>
+      <c r="N83" s="149"/>
       <c r="O83" s="97" t="s">
         <v>237</v>
       </c>
-      <c r="P83" s="166"/>
-      <c r="Q83" s="166"/>
-      <c r="R83" s="166"/>
+      <c r="P83" s="138"/>
+      <c r="Q83" s="138"/>
+      <c r="R83" s="138"/>
       <c r="S83" s="90"/>
       <c r="T83" s="90"/>
       <c r="U83" s="90"/>
       <c r="V83" s="90"/>
       <c r="W83" s="90"/>
     </row>
-    <row r="84" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="90"/>
       <c r="B84" s="91"/>
       <c r="C84" s="90"/>
@@ -3481,14 +3899,14 @@
       <c r="M84" s="90"/>
       <c r="N84" s="91"/>
     </row>
-    <row r="85" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="178" t="s">
+    <row r="85" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="132" t="s">
         <v>247</v>
       </c>
-      <c r="B85" s="179"/>
-      <c r="C85" s="179"/>
-      <c r="D85" s="179"/>
-      <c r="E85" s="180"/>
+      <c r="B85" s="133"/>
+      <c r="C85" s="133"/>
+      <c r="D85" s="133"/>
+      <c r="E85" s="134"/>
       <c r="F85" s="90"/>
       <c r="G85" s="90"/>
       <c r="H85" s="90"/>
@@ -3499,16 +3917,16 @@
       <c r="M85" s="90"/>
       <c r="N85" s="90"/>
     </row>
-    <row r="86" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="103" t="s">
         <v>146</v>
       </c>
-      <c r="B86" s="181">
+      <c r="B86" s="135">
         <v>1231</v>
       </c>
-      <c r="C86" s="181"/>
-      <c r="D86" s="181"/>
-      <c r="E86" s="182"/>
+      <c r="C86" s="135"/>
+      <c r="D86" s="135"/>
+      <c r="E86" s="136"/>
       <c r="F86" s="90"/>
       <c r="G86" s="90"/>
       <c r="H86" s="90"/>
@@ -3519,18 +3937,18 @@
       <c r="M86" s="90"/>
       <c r="N86" s="90"/>
     </row>
-    <row r="87" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="183" t="s">
+    <row r="87" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="119" t="s">
         <v>248</v>
       </c>
       <c r="B87" s="101" t="s">
         <v>249</v>
       </c>
-      <c r="C87" s="184" t="s">
+      <c r="C87" s="122" t="s">
         <v>272</v>
       </c>
-      <c r="D87" s="184"/>
-      <c r="E87" s="185"/>
+      <c r="D87" s="122"/>
+      <c r="E87" s="123"/>
       <c r="F87" s="90"/>
       <c r="G87" s="90"/>
       <c r="H87" s="90"/>
@@ -3541,18 +3959,18 @@
       <c r="M87" s="90"/>
       <c r="N87" s="90"/>
     </row>
-    <row r="88" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="183"/>
+    <row r="88" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="119"/>
       <c r="B88" s="102" t="s">
         <v>250</v>
       </c>
-      <c r="C88" s="184" t="s">
+      <c r="C88" s="122" t="s">
         <v>271</v>
       </c>
-      <c r="D88" s="184"/>
-      <c r="E88" s="185"/>
-    </row>
-    <row r="89" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D88" s="122"/>
+      <c r="E88" s="123"/>
+    </row>
+    <row r="89" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="103" t="s">
         <v>251</v>
       </c>
@@ -3562,154 +3980,530 @@
       <c r="C89" s="100" t="s">
         <v>252</v>
       </c>
-      <c r="D89" s="186" t="s">
+      <c r="D89" s="128" t="s">
         <v>270</v>
       </c>
-      <c r="E89" s="187"/>
-    </row>
-    <row r="90" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="183" t="s">
+      <c r="E89" s="129"/>
+    </row>
+    <row r="90" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="119" t="s">
         <v>253</v>
       </c>
-      <c r="B90" s="188" t="s">
+      <c r="B90" s="120" t="s">
         <v>254</v>
       </c>
-      <c r="C90" s="189"/>
-      <c r="D90" s="190" t="b">
-        <v>0</v>
-      </c>
-      <c r="E90" s="191"/>
-    </row>
-    <row r="91" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="183"/>
-      <c r="B91" s="192" t="s">
+      <c r="C90" s="121"/>
+      <c r="D90" s="130" t="b">
+        <v>0</v>
+      </c>
+      <c r="E90" s="131"/>
+    </row>
+    <row r="91" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="119"/>
+      <c r="B91" s="124" t="s">
         <v>255</v>
       </c>
-      <c r="C91" s="193"/>
-      <c r="D91" s="190" t="b">
+      <c r="C91" s="125"/>
+      <c r="D91" s="130" t="b">
         <v>1</v>
       </c>
-      <c r="E91" s="191"/>
-    </row>
-    <row r="92" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="183"/>
-      <c r="B92" s="192" t="s">
+      <c r="E91" s="131"/>
+    </row>
+    <row r="92" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="119"/>
+      <c r="B92" s="124" t="s">
         <v>256</v>
       </c>
-      <c r="C92" s="193"/>
-      <c r="D92" s="190" t="b">
-        <v>0</v>
-      </c>
-      <c r="E92" s="191"/>
-    </row>
-    <row r="93" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="183"/>
-      <c r="B93" s="192" t="s">
+      <c r="C92" s="125"/>
+      <c r="D92" s="130" t="b">
+        <v>0</v>
+      </c>
+      <c r="E92" s="131"/>
+    </row>
+    <row r="93" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="119"/>
+      <c r="B93" s="124" t="s">
         <v>73</v>
       </c>
-      <c r="C93" s="193"/>
-      <c r="D93" s="190" t="b">
-        <v>0</v>
-      </c>
-      <c r="E93" s="191"/>
-    </row>
-    <row r="94" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="183"/>
-      <c r="B94" s="194" t="s">
+      <c r="C93" s="125"/>
+      <c r="D93" s="130" t="b">
+        <v>0</v>
+      </c>
+      <c r="E93" s="131"/>
+    </row>
+    <row r="94" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="119"/>
+      <c r="B94" s="126" t="s">
         <v>257</v>
       </c>
-      <c r="C94" s="195"/>
-      <c r="D94" s="190" t="b">
-        <v>0</v>
-      </c>
-      <c r="E94" s="191"/>
-    </row>
-    <row r="95" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="183" t="s">
+      <c r="C94" s="127"/>
+      <c r="D94" s="130" t="b">
+        <v>0</v>
+      </c>
+      <c r="E94" s="131"/>
+    </row>
+    <row r="95" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="119" t="s">
         <v>258</v>
       </c>
-      <c r="B95" s="188" t="s">
+      <c r="B95" s="120" t="s">
         <v>259</v>
       </c>
-      <c r="C95" s="189"/>
-      <c r="D95" s="184" t="s">
+      <c r="C95" s="121"/>
+      <c r="D95" s="122" t="s">
         <v>273</v>
       </c>
-      <c r="E95" s="185"/>
-    </row>
-    <row r="96" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="183"/>
-      <c r="B96" s="192" t="s">
+      <c r="E95" s="123"/>
+    </row>
+    <row r="96" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="119"/>
+      <c r="B96" s="124" t="s">
         <v>260</v>
       </c>
-      <c r="C96" s="193"/>
-      <c r="D96" s="184" t="s">
+      <c r="C96" s="125"/>
+      <c r="D96" s="122" t="s">
         <v>274</v>
       </c>
-      <c r="E96" s="185"/>
-    </row>
-    <row r="97" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="183"/>
-      <c r="B97" s="192" t="s">
+      <c r="E96" s="123"/>
+    </row>
+    <row r="97" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="119"/>
+      <c r="B97" s="124" t="s">
         <v>261</v>
       </c>
-      <c r="C97" s="193"/>
-      <c r="D97" s="184" t="s">
+      <c r="C97" s="125"/>
+      <c r="D97" s="122" t="s">
         <v>275</v>
       </c>
-      <c r="E97" s="185"/>
-    </row>
-    <row r="98" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="183"/>
-      <c r="B98" s="194" t="s">
+      <c r="E97" s="123"/>
+    </row>
+    <row r="98" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="119"/>
+      <c r="B98" s="126" t="s">
         <v>262</v>
       </c>
-      <c r="C98" s="195"/>
-      <c r="D98" s="184" t="s">
+      <c r="C98" s="127"/>
+      <c r="D98" s="122" t="s">
         <v>276</v>
       </c>
-      <c r="E98" s="185"/>
-    </row>
-    <row r="99" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E98" s="123"/>
+    </row>
+    <row r="99" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="103" t="s">
         <v>263</v>
       </c>
-      <c r="B99" s="196" t="s">
+      <c r="B99" s="117" t="s">
         <v>277</v>
       </c>
-      <c r="C99" s="196"/>
-      <c r="D99" s="196"/>
-      <c r="E99" s="197"/>
+      <c r="C99" s="117"/>
+      <c r="D99" s="117"/>
+      <c r="E99" s="118"/>
+    </row>
+    <row r="100" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="101" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="228" t="s">
+        <v>283</v>
+      </c>
+      <c r="B101" s="229"/>
+      <c r="C101" s="229"/>
+      <c r="D101" s="230"/>
+    </row>
+    <row r="102" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="231" t="s">
+        <v>101</v>
+      </c>
+      <c r="B102" s="232"/>
+      <c r="C102" s="232"/>
+      <c r="D102" s="233"/>
+    </row>
+    <row r="103" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="212" t="s">
+        <v>102</v>
+      </c>
+      <c r="B103" s="213" t="s">
+        <v>296</v>
+      </c>
+      <c r="C103" s="213"/>
+      <c r="D103" s="214"/>
+    </row>
+    <row r="104" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="215" t="s">
+        <v>284</v>
+      </c>
+      <c r="B104" s="216" t="s">
+        <v>297</v>
+      </c>
+      <c r="C104" s="216"/>
+      <c r="D104" s="217"/>
+    </row>
+    <row r="105" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="231" t="s">
+        <v>125</v>
+      </c>
+      <c r="B105" s="232"/>
+      <c r="C105" s="232"/>
+      <c r="D105" s="233"/>
+    </row>
+    <row r="106" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="212" t="s">
+        <v>134</v>
+      </c>
+      <c r="B106" s="213" t="s">
+        <v>298</v>
+      </c>
+      <c r="C106" s="213"/>
+      <c r="D106" s="214"/>
+    </row>
+    <row r="107" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="218" t="s">
+        <v>130</v>
+      </c>
+      <c r="B107" s="219" t="s">
+        <v>299</v>
+      </c>
+      <c r="C107" s="219"/>
+      <c r="D107" s="220"/>
+    </row>
+    <row r="108" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="231" t="s">
+        <v>126</v>
+      </c>
+      <c r="B108" s="232"/>
+      <c r="C108" s="232"/>
+      <c r="D108" s="233"/>
+    </row>
+    <row r="109" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="212" t="s">
+        <v>285</v>
+      </c>
+      <c r="B109" s="213" t="s">
+        <v>300</v>
+      </c>
+      <c r="C109" s="213"/>
+      <c r="D109" s="214"/>
+    </row>
+    <row r="110" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="212" t="s">
+        <v>130</v>
+      </c>
+      <c r="B110" s="213" t="s">
+        <v>301</v>
+      </c>
+      <c r="C110" s="213"/>
+      <c r="D110" s="214"/>
+    </row>
+    <row r="111" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="215" t="s">
+        <v>109</v>
+      </c>
+      <c r="B111" s="216" t="s">
+        <v>302</v>
+      </c>
+      <c r="C111" s="216"/>
+      <c r="D111" s="217"/>
+    </row>
+    <row r="112" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="231" t="s">
+        <v>135</v>
+      </c>
+      <c r="B112" s="232"/>
+      <c r="C112" s="232"/>
+      <c r="D112" s="233"/>
+    </row>
+    <row r="113" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="215" t="s">
+        <v>103</v>
+      </c>
+      <c r="B113" s="239">
+        <v>123123</v>
+      </c>
+      <c r="C113" s="216"/>
+      <c r="D113" s="217"/>
+    </row>
+    <row r="114" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="212" t="s">
+        <v>286</v>
+      </c>
+      <c r="B114" s="240" t="s">
+        <v>303</v>
+      </c>
+      <c r="C114" s="221" t="s">
+        <v>287</v>
+      </c>
+      <c r="D114" s="240" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="215" t="s">
+        <v>288</v>
+      </c>
+      <c r="B115" s="241" t="s">
+        <v>304</v>
+      </c>
+      <c r="C115" s="218" t="s">
+        <v>147</v>
+      </c>
+      <c r="D115" s="241" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="212" t="s">
+        <v>289</v>
+      </c>
+      <c r="B116" s="242">
+        <v>12313</v>
+      </c>
+      <c r="C116" s="213"/>
+      <c r="D116" s="214"/>
+    </row>
+    <row r="117" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="212" t="s">
+        <v>154</v>
+      </c>
+      <c r="B117" s="242" t="s">
+        <v>307</v>
+      </c>
+      <c r="C117" s="213"/>
+      <c r="D117" s="214"/>
+    </row>
+    <row r="118" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="222" t="s">
+        <v>156</v>
+      </c>
+      <c r="B118" s="242">
+        <v>21321</v>
+      </c>
+      <c r="C118" s="213"/>
+      <c r="D118" s="214"/>
+    </row>
+    <row r="119" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="215" t="s">
+        <v>159</v>
+      </c>
+      <c r="B119" s="239" t="s">
+        <v>317</v>
+      </c>
+      <c r="C119" s="216"/>
+      <c r="D119" s="217"/>
+    </row>
+    <row r="120" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="234" t="s">
+        <v>290</v>
+      </c>
+      <c r="B120" s="235"/>
+      <c r="C120" s="235"/>
+      <c r="D120" s="236"/>
+    </row>
+    <row r="121" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="212" t="s">
+        <v>291</v>
+      </c>
+      <c r="B121" s="243">
+        <v>3211223</v>
+      </c>
+      <c r="C121" s="221" t="s">
+        <v>292</v>
+      </c>
+      <c r="D121" s="243">
+        <v>2132312</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="215" t="s">
+        <v>293</v>
+      </c>
+      <c r="B122" s="241">
+        <v>1221213</v>
+      </c>
+      <c r="C122" s="218" t="s">
+        <v>294</v>
+      </c>
+      <c r="D122" s="241" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="234" t="s">
+        <v>175</v>
+      </c>
+      <c r="B123" s="235"/>
+      <c r="C123" s="235"/>
+      <c r="D123" s="236"/>
+    </row>
+    <row r="124" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="224" t="s">
+        <v>295</v>
+      </c>
+      <c r="B124" s="219" t="s">
+        <v>308</v>
+      </c>
+      <c r="C124" s="219"/>
+      <c r="D124" s="220"/>
+    </row>
+    <row r="125" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="237" t="s">
+        <v>172</v>
+      </c>
+      <c r="B125" s="232"/>
+      <c r="C125" s="232"/>
+      <c r="D125" s="238"/>
+    </row>
+    <row r="126" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="222" t="s">
+        <v>176</v>
+      </c>
+      <c r="B126" s="223" t="s">
+        <v>309</v>
+      </c>
+      <c r="C126" s="225" t="s">
+        <v>178</v>
+      </c>
+      <c r="D126" s="240">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="226" t="s">
+        <v>182</v>
+      </c>
+      <c r="B127" s="217" t="s">
+        <v>310</v>
+      </c>
+      <c r="C127" s="227" t="s">
+        <v>183</v>
+      </c>
+      <c r="D127" s="241" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="234" t="s">
+        <v>186</v>
+      </c>
+      <c r="B128" s="235"/>
+      <c r="C128" s="235"/>
+      <c r="D128" s="236"/>
+    </row>
+    <row r="129" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="222" t="s">
+        <v>187</v>
+      </c>
+      <c r="B129" s="214" t="s">
+        <v>313</v>
+      </c>
+      <c r="C129" s="225" t="s">
+        <v>189</v>
+      </c>
+      <c r="D129" s="214" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="226" t="s">
+        <v>191</v>
+      </c>
+      <c r="B130" s="220" t="s">
+        <v>311</v>
+      </c>
+      <c r="C130" s="227" t="s">
+        <v>193</v>
+      </c>
+      <c r="D130" s="217" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="226" t="s">
+        <v>102</v>
+      </c>
+      <c r="B131" s="217" t="s">
+        <v>296</v>
+      </c>
+      <c r="C131" s="227" t="s">
+        <v>195</v>
+      </c>
+      <c r="D131" s="217" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="226" t="s">
+        <v>196</v>
+      </c>
+      <c r="B132" s="216" t="s">
+        <v>312</v>
+      </c>
+      <c r="C132" s="216"/>
+      <c r="D132" s="217"/>
     </row>
   </sheetData>
-  <mergeCells count="98">
-    <mergeCell ref="B99:E99"/>
-    <mergeCell ref="A95:A98"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="A90:A94"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="A85:E85"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="C87:E87"/>
-    <mergeCell ref="C88:E88"/>
+  <mergeCells count="107">
+    <mergeCell ref="A120:D120"/>
+    <mergeCell ref="A123:D123"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="A128:D128"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="A102:D102"/>
+    <mergeCell ref="A105:D105"/>
+    <mergeCell ref="A108:D108"/>
+    <mergeCell ref="A112:D112"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="H64:L64"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A41:A48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="G65:G78"/>
+    <mergeCell ref="H67:H78"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A65:A78"/>
+    <mergeCell ref="B67:B78"/>
+    <mergeCell ref="D28:D35"/>
+    <mergeCell ref="G28:G35"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="C65:F65"/>
+    <mergeCell ref="C66:F66"/>
+    <mergeCell ref="I66:L66"/>
+    <mergeCell ref="O66:R66"/>
+    <mergeCell ref="A62:R62"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="G63:L63"/>
+    <mergeCell ref="M63:R63"/>
+    <mergeCell ref="B64:F64"/>
+    <mergeCell ref="N64:R64"/>
+    <mergeCell ref="O65:R65"/>
+    <mergeCell ref="I65:L65"/>
+    <mergeCell ref="M65:M78"/>
+    <mergeCell ref="N67:N78"/>
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="G81:G83"/>
+    <mergeCell ref="H81:H83"/>
+    <mergeCell ref="M81:M83"/>
     <mergeCell ref="P81:R81"/>
     <mergeCell ref="P82:R82"/>
     <mergeCell ref="P83:R83"/>
@@ -3726,61 +4520,33 @@
     <mergeCell ref="J81:L81"/>
     <mergeCell ref="J82:L82"/>
     <mergeCell ref="J83:L83"/>
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="G81:G83"/>
-    <mergeCell ref="H81:H83"/>
-    <mergeCell ref="M81:M83"/>
-    <mergeCell ref="C65:F65"/>
-    <mergeCell ref="C66:F66"/>
-    <mergeCell ref="I66:L66"/>
-    <mergeCell ref="O66:R66"/>
-    <mergeCell ref="A62:R62"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="G63:L63"/>
-    <mergeCell ref="M63:R63"/>
-    <mergeCell ref="B64:F64"/>
-    <mergeCell ref="N64:R64"/>
-    <mergeCell ref="O65:R65"/>
-    <mergeCell ref="I65:L65"/>
-    <mergeCell ref="M65:M78"/>
-    <mergeCell ref="N67:N78"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A22:I22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="G65:G78"/>
-    <mergeCell ref="H67:H78"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A65:A78"/>
-    <mergeCell ref="B67:B78"/>
-    <mergeCell ref="D28:D35"/>
-    <mergeCell ref="G28:G35"/>
-    <mergeCell ref="A28:A35"/>
-    <mergeCell ref="A41:A48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="H64:L64"/>
+    <mergeCell ref="A85:E85"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="C87:E87"/>
+    <mergeCell ref="C88:E88"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="A90:A94"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="B99:E99"/>
+    <mergeCell ref="A95:A98"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="D98:E98"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B20" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -3813,397 +4579,397 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="12" max="12" width="17.140625" customWidth="1"/>
-    <col min="17" max="17" width="19.5703125" customWidth="1"/>
-    <col min="18" max="18" width="20.140625" customWidth="1"/>
-    <col min="19" max="23" width="20.7109375" customWidth="1"/>
-    <col min="24" max="24" width="30.140625" customWidth="1"/>
-    <col min="25" max="32" width="20.7109375" customWidth="1"/>
-    <col min="33" max="33" width="17.85546875" customWidth="1"/>
-    <col min="40" max="40" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" customWidth="1"/>
+    <col min="12" max="12" width="17.109375" customWidth="1"/>
+    <col min="17" max="17" width="19.5546875" customWidth="1"/>
+    <col min="18" max="18" width="20.109375" customWidth="1"/>
+    <col min="19" max="23" width="20.6640625" customWidth="1"/>
+    <col min="24" max="24" width="30.109375" customWidth="1"/>
+    <col min="25" max="32" width="20.6640625" customWidth="1"/>
+    <col min="33" max="33" width="17.88671875" customWidth="1"/>
+    <col min="40" max="40" width="16.33203125" customWidth="1"/>
     <col min="46" max="46" width="19" customWidth="1"/>
     <col min="56" max="57" width="20" customWidth="1"/>
-    <col min="59" max="60" width="19.28515625" customWidth="1"/>
-    <col min="74" max="75" width="18.5703125" customWidth="1"/>
-    <col min="77" max="78" width="17.85546875" customWidth="1"/>
-    <col min="80" max="81" width="17.7109375" customWidth="1"/>
+    <col min="59" max="60" width="19.33203125" customWidth="1"/>
+    <col min="74" max="75" width="18.5546875" customWidth="1"/>
+    <col min="77" max="78" width="17.88671875" customWidth="1"/>
+    <col min="80" max="81" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="201" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="201" t="s">
+    <row r="1" spans="1:175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="204" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="161"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="204" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
-      <c r="K1" s="124"/>
-      <c r="L1" s="124"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="124"/>
-      <c r="O1" s="125"/>
-      <c r="P1" s="201" t="s">
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
+      <c r="I1" s="161"/>
+      <c r="J1" s="161"/>
+      <c r="K1" s="161"/>
+      <c r="L1" s="161"/>
+      <c r="M1" s="161"/>
+      <c r="N1" s="161"/>
+      <c r="O1" s="162"/>
+      <c r="P1" s="204" t="s">
         <v>82</v>
       </c>
-      <c r="Q1" s="124"/>
-      <c r="R1" s="124"/>
-      <c r="S1" s="125"/>
+      <c r="Q1" s="161"/>
+      <c r="R1" s="161"/>
+      <c r="S1" s="162"/>
       <c r="T1" s="200" t="s">
         <v>83</v>
       </c>
-      <c r="U1" s="124"/>
-      <c r="V1" s="124"/>
-      <c r="W1" s="124"/>
-      <c r="X1" s="124"/>
-      <c r="Y1" s="124"/>
-      <c r="Z1" s="124"/>
-      <c r="AA1" s="124"/>
-      <c r="AB1" s="124"/>
-      <c r="AC1" s="124"/>
-      <c r="AD1" s="124"/>
-      <c r="AE1" s="124"/>
-      <c r="AF1" s="125"/>
+      <c r="U1" s="161"/>
+      <c r="V1" s="161"/>
+      <c r="W1" s="161"/>
+      <c r="X1" s="161"/>
+      <c r="Y1" s="161"/>
+      <c r="Z1" s="161"/>
+      <c r="AA1" s="161"/>
+      <c r="AB1" s="161"/>
+      <c r="AC1" s="161"/>
+      <c r="AD1" s="161"/>
+      <c r="AE1" s="161"/>
+      <c r="AF1" s="162"/>
       <c r="AG1" s="200" t="s">
         <v>84</v>
       </c>
-      <c r="AH1" s="124"/>
-      <c r="AI1" s="124"/>
-      <c r="AJ1" s="124"/>
-      <c r="AK1" s="124"/>
-      <c r="AL1" s="124"/>
-      <c r="AM1" s="124"/>
-      <c r="AN1" s="124"/>
-      <c r="AO1" s="124"/>
-      <c r="AP1" s="124"/>
-      <c r="AQ1" s="124"/>
-      <c r="AR1" s="124"/>
-      <c r="AS1" s="125"/>
+      <c r="AH1" s="161"/>
+      <c r="AI1" s="161"/>
+      <c r="AJ1" s="161"/>
+      <c r="AK1" s="161"/>
+      <c r="AL1" s="161"/>
+      <c r="AM1" s="161"/>
+      <c r="AN1" s="161"/>
+      <c r="AO1" s="161"/>
+      <c r="AP1" s="161"/>
+      <c r="AQ1" s="161"/>
+      <c r="AR1" s="161"/>
+      <c r="AS1" s="162"/>
       <c r="AT1" s="200" t="s">
         <v>48</v>
       </c>
-      <c r="AU1" s="124"/>
-      <c r="AV1" s="124"/>
-      <c r="AW1" s="124"/>
-      <c r="AX1" s="124"/>
-      <c r="AY1" s="124"/>
-      <c r="AZ1" s="125"/>
+      <c r="AU1" s="161"/>
+      <c r="AV1" s="161"/>
+      <c r="AW1" s="161"/>
+      <c r="AX1" s="161"/>
+      <c r="AY1" s="161"/>
+      <c r="AZ1" s="162"/>
       <c r="BA1" s="200" t="s">
         <v>85</v>
       </c>
-      <c r="BB1" s="124"/>
-      <c r="BC1" s="124"/>
-      <c r="BD1" s="124"/>
-      <c r="BE1" s="124"/>
-      <c r="BF1" s="124"/>
-      <c r="BG1" s="124"/>
-      <c r="BH1" s="124"/>
-      <c r="BI1" s="124"/>
-      <c r="BJ1" s="124"/>
-      <c r="BK1" s="124"/>
-      <c r="BL1" s="124"/>
-      <c r="BM1" s="124"/>
-      <c r="BN1" s="124"/>
-      <c r="BO1" s="124"/>
-      <c r="BP1" s="124"/>
-      <c r="BQ1" s="124"/>
-      <c r="BR1" s="124"/>
-      <c r="BS1" s="124"/>
-      <c r="BT1" s="124"/>
-      <c r="BU1" s="124"/>
-      <c r="BV1" s="124"/>
-      <c r="BW1" s="124"/>
-      <c r="BX1" s="124"/>
-      <c r="BY1" s="124"/>
-      <c r="BZ1" s="124"/>
-      <c r="CA1" s="124"/>
-      <c r="CB1" s="124"/>
-      <c r="CC1" s="124"/>
-      <c r="CD1" s="124"/>
-      <c r="CE1" s="124"/>
-      <c r="CF1" s="124"/>
-      <c r="CG1" s="124"/>
-      <c r="CH1" s="124"/>
-      <c r="CI1" s="124"/>
-      <c r="CJ1" s="124"/>
-      <c r="CK1" s="124"/>
-      <c r="CL1" s="124"/>
-      <c r="CM1" s="125"/>
-    </row>
-    <row r="2" spans="1:175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="202" t="s">
+      <c r="BB1" s="161"/>
+      <c r="BC1" s="161"/>
+      <c r="BD1" s="161"/>
+      <c r="BE1" s="161"/>
+      <c r="BF1" s="161"/>
+      <c r="BG1" s="161"/>
+      <c r="BH1" s="161"/>
+      <c r="BI1" s="161"/>
+      <c r="BJ1" s="161"/>
+      <c r="BK1" s="161"/>
+      <c r="BL1" s="161"/>
+      <c r="BM1" s="161"/>
+      <c r="BN1" s="161"/>
+      <c r="BO1" s="161"/>
+      <c r="BP1" s="161"/>
+      <c r="BQ1" s="161"/>
+      <c r="BR1" s="161"/>
+      <c r="BS1" s="161"/>
+      <c r="BT1" s="161"/>
+      <c r="BU1" s="161"/>
+      <c r="BV1" s="161"/>
+      <c r="BW1" s="161"/>
+      <c r="BX1" s="161"/>
+      <c r="BY1" s="161"/>
+      <c r="BZ1" s="161"/>
+      <c r="CA1" s="161"/>
+      <c r="CB1" s="161"/>
+      <c r="CC1" s="161"/>
+      <c r="CD1" s="161"/>
+      <c r="CE1" s="161"/>
+      <c r="CF1" s="161"/>
+      <c r="CG1" s="161"/>
+      <c r="CH1" s="161"/>
+      <c r="CI1" s="161"/>
+      <c r="CJ1" s="161"/>
+      <c r="CK1" s="161"/>
+      <c r="CL1" s="161"/>
+      <c r="CM1" s="162"/>
+    </row>
+    <row r="2" spans="1:175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="205" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="198" t="s">
+      <c r="B2" s="201" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="198" t="s">
+      <c r="C2" s="201" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="198" t="s">
+      <c r="D2" s="201" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="198" t="s">
+      <c r="E2" s="201" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="198" t="s">
+      <c r="F2" s="201" t="s">
         <v>87</v>
       </c>
-      <c r="G2" s="198" t="s">
+      <c r="G2" s="201" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="198" t="s">
+      <c r="H2" s="201" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="198" t="s">
+      <c r="I2" s="201" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="198" t="s">
+      <c r="J2" s="201" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="198" t="s">
+      <c r="K2" s="201" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="198" t="s">
+      <c r="L2" s="201" t="s">
         <v>88</v>
       </c>
-      <c r="M2" s="198" t="s">
+      <c r="M2" s="201" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="198" t="s">
+      <c r="N2" s="201" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="198" t="s">
+      <c r="O2" s="201" t="s">
         <v>89</v>
       </c>
-      <c r="P2" s="198" t="s">
+      <c r="P2" s="201" t="s">
         <v>90</v>
       </c>
-      <c r="Q2" s="198" t="s">
+      <c r="Q2" s="201" t="s">
         <v>91</v>
       </c>
-      <c r="R2" s="198" t="s">
+      <c r="R2" s="201" t="s">
         <v>23</v>
       </c>
-      <c r="S2" s="198" t="s">
+      <c r="S2" s="201" t="s">
         <v>25</v>
       </c>
-      <c r="T2" s="198" t="s">
+      <c r="T2" s="201" t="s">
         <v>30</v>
       </c>
-      <c r="U2" s="198" t="s">
+      <c r="U2" s="201" t="s">
         <v>6</v>
       </c>
-      <c r="V2" s="198" t="s">
+      <c r="V2" s="201" t="s">
         <v>92</v>
       </c>
-      <c r="W2" s="198" t="s">
+      <c r="W2" s="201" t="s">
         <v>93</v>
       </c>
       <c r="X2" s="200" t="s">
         <v>32</v>
       </c>
-      <c r="Y2" s="124"/>
-      <c r="Z2" s="124"/>
-      <c r="AA2" s="124"/>
-      <c r="AB2" s="124"/>
-      <c r="AC2" s="124"/>
-      <c r="AD2" s="124"/>
-      <c r="AE2" s="125"/>
-      <c r="AF2" s="198" t="s">
+      <c r="Y2" s="161"/>
+      <c r="Z2" s="161"/>
+      <c r="AA2" s="161"/>
+      <c r="AB2" s="161"/>
+      <c r="AC2" s="161"/>
+      <c r="AD2" s="161"/>
+      <c r="AE2" s="162"/>
+      <c r="AF2" s="201" t="s">
         <v>41</v>
       </c>
-      <c r="AG2" s="198" t="s">
+      <c r="AG2" s="201" t="s">
         <v>94</v>
       </c>
-      <c r="AH2" s="198" t="s">
+      <c r="AH2" s="201" t="s">
         <v>44</v>
       </c>
-      <c r="AI2" s="201" t="s">
+      <c r="AI2" s="204" t="s">
         <v>32</v>
       </c>
-      <c r="AJ2" s="124"/>
-      <c r="AK2" s="124"/>
-      <c r="AL2" s="124"/>
-      <c r="AM2" s="124"/>
-      <c r="AN2" s="124"/>
-      <c r="AO2" s="124"/>
-      <c r="AP2" s="125"/>
-      <c r="AQ2" s="198" t="s">
+      <c r="AJ2" s="161"/>
+      <c r="AK2" s="161"/>
+      <c r="AL2" s="161"/>
+      <c r="AM2" s="161"/>
+      <c r="AN2" s="161"/>
+      <c r="AO2" s="161"/>
+      <c r="AP2" s="162"/>
+      <c r="AQ2" s="201" t="s">
         <v>41</v>
       </c>
-      <c r="AR2" s="198" t="s">
+      <c r="AR2" s="201" t="s">
         <v>46</v>
       </c>
-      <c r="AS2" s="198" t="s">
+      <c r="AS2" s="201" t="s">
         <v>47</v>
       </c>
-      <c r="AT2" s="198" t="s">
+      <c r="AT2" s="201" t="s">
         <v>95</v>
       </c>
-      <c r="AU2" s="198" t="s">
+      <c r="AU2" s="201" t="s">
         <v>50</v>
       </c>
-      <c r="AV2" s="198" t="s">
+      <c r="AV2" s="201" t="s">
         <v>51</v>
       </c>
-      <c r="AW2" s="198" t="s">
+      <c r="AW2" s="201" t="s">
         <v>52</v>
       </c>
-      <c r="AX2" s="198" t="s">
+      <c r="AX2" s="201" t="s">
         <v>22</v>
       </c>
-      <c r="AY2" s="198" t="s">
+      <c r="AY2" s="201" t="s">
         <v>53</v>
       </c>
-      <c r="AZ2" s="198" t="s">
+      <c r="AZ2" s="201" t="s">
         <v>54</v>
       </c>
-      <c r="BA2" s="198" t="s">
+      <c r="BA2" s="201" t="s">
         <v>30</v>
       </c>
       <c r="BB2" s="200" t="s">
         <v>59</v>
       </c>
-      <c r="BC2" s="124"/>
-      <c r="BD2" s="124"/>
-      <c r="BE2" s="124"/>
-      <c r="BF2" s="124"/>
-      <c r="BG2" s="124"/>
-      <c r="BH2" s="124"/>
-      <c r="BI2" s="124"/>
-      <c r="BJ2" s="124"/>
-      <c r="BK2" s="124"/>
-      <c r="BL2" s="124"/>
-      <c r="BM2" s="124"/>
-      <c r="BN2" s="124"/>
-      <c r="BO2" s="124"/>
-      <c r="BP2" s="124"/>
-      <c r="BQ2" s="124"/>
-      <c r="BR2" s="124"/>
-      <c r="BS2" s="124"/>
-      <c r="BT2" s="124"/>
-      <c r="BU2" s="124"/>
-      <c r="BV2" s="124"/>
-      <c r="BW2" s="124"/>
-      <c r="BX2" s="124"/>
-      <c r="BY2" s="124"/>
-      <c r="BZ2" s="124"/>
-      <c r="CA2" s="124"/>
-      <c r="CB2" s="124"/>
-      <c r="CC2" s="124"/>
-      <c r="CD2" s="124"/>
-      <c r="CE2" s="124"/>
-      <c r="CF2" s="124"/>
-      <c r="CG2" s="124"/>
-      <c r="CH2" s="124"/>
-      <c r="CI2" s="124"/>
-      <c r="CJ2" s="125"/>
-      <c r="CK2" s="198" t="s">
+      <c r="BC2" s="161"/>
+      <c r="BD2" s="161"/>
+      <c r="BE2" s="161"/>
+      <c r="BF2" s="161"/>
+      <c r="BG2" s="161"/>
+      <c r="BH2" s="161"/>
+      <c r="BI2" s="161"/>
+      <c r="BJ2" s="161"/>
+      <c r="BK2" s="161"/>
+      <c r="BL2" s="161"/>
+      <c r="BM2" s="161"/>
+      <c r="BN2" s="161"/>
+      <c r="BO2" s="161"/>
+      <c r="BP2" s="161"/>
+      <c r="BQ2" s="161"/>
+      <c r="BR2" s="161"/>
+      <c r="BS2" s="161"/>
+      <c r="BT2" s="161"/>
+      <c r="BU2" s="161"/>
+      <c r="BV2" s="161"/>
+      <c r="BW2" s="161"/>
+      <c r="BX2" s="161"/>
+      <c r="BY2" s="161"/>
+      <c r="BZ2" s="161"/>
+      <c r="CA2" s="161"/>
+      <c r="CB2" s="161"/>
+      <c r="CC2" s="161"/>
+      <c r="CD2" s="161"/>
+      <c r="CE2" s="161"/>
+      <c r="CF2" s="161"/>
+      <c r="CG2" s="161"/>
+      <c r="CH2" s="161"/>
+      <c r="CI2" s="161"/>
+      <c r="CJ2" s="162"/>
+      <c r="CK2" s="201" t="s">
         <v>79</v>
       </c>
-      <c r="CL2" s="198" t="s">
+      <c r="CL2" s="201" t="s">
         <v>80</v>
       </c>
-      <c r="CM2" s="198" t="s">
+      <c r="CM2" s="201" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="142"/>
-      <c r="B3" s="142"/>
-      <c r="C3" s="142"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="142"/>
-      <c r="I3" s="142"/>
-      <c r="J3" s="142"/>
-      <c r="K3" s="142"/>
-      <c r="L3" s="142"/>
-      <c r="M3" s="142"/>
-      <c r="N3" s="142"/>
-      <c r="O3" s="142"/>
-      <c r="P3" s="142"/>
-      <c r="Q3" s="142"/>
-      <c r="R3" s="142"/>
-      <c r="S3" s="142"/>
-      <c r="T3" s="142"/>
-      <c r="U3" s="142"/>
-      <c r="V3" s="142"/>
-      <c r="W3" s="142"/>
-      <c r="X3" s="198" t="s">
+    <row r="3" spans="1:175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="168"/>
+      <c r="B3" s="168"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="168"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="168"/>
+      <c r="H3" s="168"/>
+      <c r="I3" s="168"/>
+      <c r="J3" s="168"/>
+      <c r="K3" s="168"/>
+      <c r="L3" s="168"/>
+      <c r="M3" s="168"/>
+      <c r="N3" s="168"/>
+      <c r="O3" s="168"/>
+      <c r="P3" s="168"/>
+      <c r="Q3" s="168"/>
+      <c r="R3" s="168"/>
+      <c r="S3" s="168"/>
+      <c r="T3" s="168"/>
+      <c r="U3" s="168"/>
+      <c r="V3" s="168"/>
+      <c r="W3" s="168"/>
+      <c r="X3" s="201" t="s">
         <v>96</v>
       </c>
-      <c r="Y3" s="198" t="s">
+      <c r="Y3" s="201" t="s">
         <v>34</v>
       </c>
-      <c r="Z3" s="198" t="s">
+      <c r="Z3" s="201" t="s">
         <v>35</v>
       </c>
-      <c r="AA3" s="198" t="s">
+      <c r="AA3" s="201" t="s">
         <v>36</v>
       </c>
-      <c r="AB3" s="198" t="s">
+      <c r="AB3" s="201" t="s">
         <v>37</v>
       </c>
-      <c r="AC3" s="198" t="s">
+      <c r="AC3" s="201" t="s">
         <v>38</v>
       </c>
-      <c r="AD3" s="198" t="s">
+      <c r="AD3" s="201" t="s">
         <v>39</v>
       </c>
-      <c r="AE3" s="198" t="s">
+      <c r="AE3" s="201" t="s">
         <v>40</v>
       </c>
-      <c r="AF3" s="142"/>
-      <c r="AG3" s="142"/>
-      <c r="AH3" s="142"/>
-      <c r="AI3" s="198" t="s">
+      <c r="AF3" s="168"/>
+      <c r="AG3" s="168"/>
+      <c r="AH3" s="168"/>
+      <c r="AI3" s="201" t="s">
         <v>97</v>
       </c>
-      <c r="AJ3" s="198" t="s">
+      <c r="AJ3" s="201" t="s">
         <v>34</v>
       </c>
-      <c r="AK3" s="198" t="s">
+      <c r="AK3" s="201" t="s">
         <v>35</v>
       </c>
-      <c r="AL3" s="198" t="s">
+      <c r="AL3" s="201" t="s">
         <v>36</v>
       </c>
-      <c r="AM3" s="198" t="s">
+      <c r="AM3" s="201" t="s">
         <v>37</v>
       </c>
-      <c r="AN3" s="198" t="s">
+      <c r="AN3" s="201" t="s">
         <v>98</v>
       </c>
-      <c r="AO3" s="198" t="s">
+      <c r="AO3" s="201" t="s">
         <v>39</v>
       </c>
-      <c r="AP3" s="198" t="s">
+      <c r="AP3" s="201" t="s">
         <v>40</v>
       </c>
-      <c r="AQ3" s="142"/>
-      <c r="AR3" s="142"/>
-      <c r="AS3" s="142"/>
-      <c r="AT3" s="142"/>
-      <c r="AU3" s="142"/>
-      <c r="AV3" s="142"/>
-      <c r="AW3" s="142"/>
-      <c r="AX3" s="142"/>
-      <c r="AY3" s="142"/>
-      <c r="AZ3" s="142"/>
-      <c r="BA3" s="142"/>
+      <c r="AQ3" s="168"/>
+      <c r="AR3" s="168"/>
+      <c r="AS3" s="168"/>
+      <c r="AT3" s="168"/>
+      <c r="AU3" s="168"/>
+      <c r="AV3" s="168"/>
+      <c r="AW3" s="168"/>
+      <c r="AX3" s="168"/>
+      <c r="AY3" s="168"/>
+      <c r="AZ3" s="168"/>
+      <c r="BA3" s="168"/>
       <c r="BB3" s="203" t="s">
         <v>60</v>
       </c>
@@ -4211,43 +4977,43 @@
         <v>61</v>
       </c>
       <c r="BD3" s="31"/>
-      <c r="BE3" s="134" t="s">
+      <c r="BE3" s="193" t="s">
         <v>62</v>
       </c>
-      <c r="BF3" s="156"/>
-      <c r="BG3" s="156"/>
-      <c r="BH3" s="156"/>
-      <c r="BI3" s="156"/>
-      <c r="BJ3" s="156"/>
-      <c r="BK3" s="156"/>
-      <c r="BL3" s="156"/>
-      <c r="BM3" s="156"/>
-      <c r="BN3" s="156"/>
-      <c r="BO3" s="156"/>
-      <c r="BP3" s="156"/>
-      <c r="BQ3" s="156"/>
-      <c r="BR3" s="156"/>
-      <c r="BS3" s="156"/>
-      <c r="BT3" s="156"/>
-      <c r="BU3" s="156"/>
-      <c r="BV3" s="156"/>
-      <c r="BW3" s="156"/>
-      <c r="BX3" s="156"/>
-      <c r="BY3" s="156"/>
-      <c r="BZ3" s="156"/>
-      <c r="CA3" s="156"/>
-      <c r="CB3" s="156"/>
-      <c r="CC3" s="156"/>
-      <c r="CD3" s="156"/>
-      <c r="CE3" s="156"/>
-      <c r="CF3" s="156"/>
-      <c r="CG3" s="156"/>
-      <c r="CH3" s="156"/>
-      <c r="CI3" s="156"/>
-      <c r="CJ3" s="156"/>
-      <c r="CK3" s="142"/>
-      <c r="CL3" s="142"/>
-      <c r="CM3" s="142"/>
+      <c r="BF3" s="158"/>
+      <c r="BG3" s="158"/>
+      <c r="BH3" s="158"/>
+      <c r="BI3" s="158"/>
+      <c r="BJ3" s="158"/>
+      <c r="BK3" s="158"/>
+      <c r="BL3" s="158"/>
+      <c r="BM3" s="158"/>
+      <c r="BN3" s="158"/>
+      <c r="BO3" s="158"/>
+      <c r="BP3" s="158"/>
+      <c r="BQ3" s="158"/>
+      <c r="BR3" s="158"/>
+      <c r="BS3" s="158"/>
+      <c r="BT3" s="158"/>
+      <c r="BU3" s="158"/>
+      <c r="BV3" s="158"/>
+      <c r="BW3" s="158"/>
+      <c r="BX3" s="158"/>
+      <c r="BY3" s="158"/>
+      <c r="BZ3" s="158"/>
+      <c r="CA3" s="158"/>
+      <c r="CB3" s="158"/>
+      <c r="CC3" s="158"/>
+      <c r="CD3" s="158"/>
+      <c r="CE3" s="158"/>
+      <c r="CF3" s="158"/>
+      <c r="CG3" s="158"/>
+      <c r="CH3" s="158"/>
+      <c r="CI3" s="158"/>
+      <c r="CJ3" s="158"/>
+      <c r="CK3" s="168"/>
+      <c r="CL3" s="168"/>
+      <c r="CM3" s="168"/>
       <c r="CN3" s="18"/>
       <c r="CO3" s="18"/>
       <c r="CP3" s="18"/>
@@ -4332,177 +5098,177 @@
       <c r="FR3" s="18"/>
       <c r="FS3" s="18"/>
     </row>
-    <row r="4" spans="1:175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="142"/>
-      <c r="B4" s="142"/>
-      <c r="C4" s="142"/>
-      <c r="D4" s="142"/>
-      <c r="E4" s="142"/>
-      <c r="F4" s="142"/>
-      <c r="G4" s="142"/>
-      <c r="H4" s="142"/>
-      <c r="I4" s="142"/>
-      <c r="J4" s="142"/>
-      <c r="K4" s="142"/>
-      <c r="L4" s="142"/>
-      <c r="M4" s="142"/>
-      <c r="N4" s="142"/>
-      <c r="O4" s="142"/>
-      <c r="P4" s="142"/>
-      <c r="Q4" s="142"/>
-      <c r="R4" s="142"/>
-      <c r="S4" s="142"/>
-      <c r="T4" s="142"/>
-      <c r="U4" s="142"/>
-      <c r="V4" s="142"/>
-      <c r="W4" s="142"/>
-      <c r="X4" s="142"/>
-      <c r="Y4" s="142"/>
-      <c r="Z4" s="142"/>
-      <c r="AA4" s="142"/>
-      <c r="AB4" s="142"/>
-      <c r="AC4" s="142"/>
-      <c r="AD4" s="142"/>
-      <c r="AE4" s="142"/>
-      <c r="AF4" s="142"/>
-      <c r="AG4" s="142"/>
-      <c r="AH4" s="142"/>
-      <c r="AI4" s="142"/>
-      <c r="AJ4" s="142"/>
-      <c r="AK4" s="142"/>
-      <c r="AL4" s="142"/>
-      <c r="AM4" s="142"/>
-      <c r="AN4" s="142"/>
-      <c r="AO4" s="142"/>
-      <c r="AP4" s="142"/>
-      <c r="AQ4" s="142"/>
-      <c r="AR4" s="142"/>
-      <c r="AS4" s="142"/>
-      <c r="AT4" s="142"/>
-      <c r="AU4" s="142"/>
-      <c r="AV4" s="142"/>
-      <c r="AW4" s="142"/>
-      <c r="AX4" s="142"/>
-      <c r="AY4" s="142"/>
-      <c r="AZ4" s="142"/>
-      <c r="BA4" s="142"/>
-      <c r="BB4" s="142"/>
-      <c r="BC4" s="142"/>
+    <row r="4" spans="1:175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="168"/>
+      <c r="B4" s="168"/>
+      <c r="C4" s="168"/>
+      <c r="D4" s="168"/>
+      <c r="E4" s="168"/>
+      <c r="F4" s="168"/>
+      <c r="G4" s="168"/>
+      <c r="H4" s="168"/>
+      <c r="I4" s="168"/>
+      <c r="J4" s="168"/>
+      <c r="K4" s="168"/>
+      <c r="L4" s="168"/>
+      <c r="M4" s="168"/>
+      <c r="N4" s="168"/>
+      <c r="O4" s="168"/>
+      <c r="P4" s="168"/>
+      <c r="Q4" s="168"/>
+      <c r="R4" s="168"/>
+      <c r="S4" s="168"/>
+      <c r="T4" s="168"/>
+      <c r="U4" s="168"/>
+      <c r="V4" s="168"/>
+      <c r="W4" s="168"/>
+      <c r="X4" s="168"/>
+      <c r="Y4" s="168"/>
+      <c r="Z4" s="168"/>
+      <c r="AA4" s="168"/>
+      <c r="AB4" s="168"/>
+      <c r="AC4" s="168"/>
+      <c r="AD4" s="168"/>
+      <c r="AE4" s="168"/>
+      <c r="AF4" s="168"/>
+      <c r="AG4" s="168"/>
+      <c r="AH4" s="168"/>
+      <c r="AI4" s="168"/>
+      <c r="AJ4" s="168"/>
+      <c r="AK4" s="168"/>
+      <c r="AL4" s="168"/>
+      <c r="AM4" s="168"/>
+      <c r="AN4" s="168"/>
+      <c r="AO4" s="168"/>
+      <c r="AP4" s="168"/>
+      <c r="AQ4" s="168"/>
+      <c r="AR4" s="168"/>
+      <c r="AS4" s="168"/>
+      <c r="AT4" s="168"/>
+      <c r="AU4" s="168"/>
+      <c r="AV4" s="168"/>
+      <c r="AW4" s="168"/>
+      <c r="AX4" s="168"/>
+      <c r="AY4" s="168"/>
+      <c r="AZ4" s="168"/>
+      <c r="BA4" s="168"/>
+      <c r="BB4" s="168"/>
+      <c r="BC4" s="168"/>
       <c r="BD4" s="200" t="s">
         <v>67</v>
       </c>
-      <c r="BE4" s="124"/>
-      <c r="BF4" s="125"/>
+      <c r="BE4" s="161"/>
+      <c r="BF4" s="162"/>
       <c r="BG4" s="200" t="s">
         <v>67</v>
       </c>
-      <c r="BH4" s="124"/>
-      <c r="BI4" s="125"/>
+      <c r="BH4" s="161"/>
+      <c r="BI4" s="162"/>
       <c r="BJ4" s="200" t="s">
         <v>70</v>
       </c>
-      <c r="BK4" s="124"/>
-      <c r="BL4" s="125"/>
+      <c r="BK4" s="161"/>
+      <c r="BL4" s="162"/>
       <c r="BM4" s="200" t="s">
         <v>71</v>
       </c>
-      <c r="BN4" s="124"/>
-      <c r="BO4" s="125"/>
+      <c r="BN4" s="161"/>
+      <c r="BO4" s="162"/>
       <c r="BP4" s="200" t="s">
         <v>72</v>
       </c>
-      <c r="BQ4" s="124"/>
-      <c r="BR4" s="125"/>
+      <c r="BQ4" s="161"/>
+      <c r="BR4" s="162"/>
       <c r="BS4" s="200" t="s">
         <v>73</v>
       </c>
-      <c r="BT4" s="124"/>
-      <c r="BU4" s="125"/>
+      <c r="BT4" s="161"/>
+      <c r="BU4" s="162"/>
       <c r="BV4" s="200" t="s">
         <v>74</v>
       </c>
-      <c r="BW4" s="124"/>
-      <c r="BX4" s="125"/>
+      <c r="BW4" s="161"/>
+      <c r="BX4" s="162"/>
       <c r="BY4" s="200" t="s">
         <v>75</v>
       </c>
-      <c r="BZ4" s="124"/>
-      <c r="CA4" s="125"/>
+      <c r="BZ4" s="161"/>
+      <c r="CA4" s="162"/>
       <c r="CB4" s="200" t="s">
         <v>76</v>
       </c>
-      <c r="CC4" s="124"/>
-      <c r="CD4" s="125"/>
+      <c r="CC4" s="161"/>
+      <c r="CD4" s="162"/>
       <c r="CE4" s="200" t="s">
         <v>77</v>
       </c>
-      <c r="CF4" s="124"/>
-      <c r="CG4" s="125"/>
+      <c r="CF4" s="161"/>
+      <c r="CG4" s="162"/>
       <c r="CH4" s="200" t="s">
         <v>78</v>
       </c>
-      <c r="CI4" s="124"/>
-      <c r="CJ4" s="125"/>
-      <c r="CK4" s="142"/>
-      <c r="CL4" s="142"/>
-      <c r="CM4" s="142"/>
-    </row>
-    <row r="5" spans="1:175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="199"/>
-      <c r="B5" s="199"/>
-      <c r="C5" s="199"/>
-      <c r="D5" s="199"/>
-      <c r="E5" s="199"/>
-      <c r="F5" s="199"/>
-      <c r="G5" s="199"/>
-      <c r="H5" s="199"/>
-      <c r="I5" s="199"/>
-      <c r="J5" s="199"/>
-      <c r="K5" s="199"/>
-      <c r="L5" s="199"/>
-      <c r="M5" s="199"/>
-      <c r="N5" s="199"/>
-      <c r="O5" s="199"/>
-      <c r="P5" s="199"/>
-      <c r="Q5" s="199"/>
-      <c r="R5" s="199"/>
-      <c r="S5" s="199"/>
-      <c r="T5" s="199"/>
-      <c r="U5" s="199"/>
-      <c r="V5" s="199"/>
-      <c r="W5" s="199"/>
-      <c r="X5" s="199"/>
-      <c r="Y5" s="199"/>
-      <c r="Z5" s="199"/>
-      <c r="AA5" s="199"/>
-      <c r="AB5" s="199"/>
-      <c r="AC5" s="199"/>
-      <c r="AD5" s="199"/>
-      <c r="AE5" s="199"/>
-      <c r="AF5" s="199"/>
-      <c r="AG5" s="199"/>
-      <c r="AH5" s="199"/>
-      <c r="AI5" s="199"/>
-      <c r="AJ5" s="199"/>
-      <c r="AK5" s="199"/>
-      <c r="AL5" s="199"/>
-      <c r="AM5" s="199"/>
-      <c r="AN5" s="199"/>
-      <c r="AO5" s="199"/>
-      <c r="AP5" s="199"/>
-      <c r="AQ5" s="199"/>
-      <c r="AR5" s="199"/>
-      <c r="AS5" s="199"/>
-      <c r="AT5" s="199"/>
-      <c r="AU5" s="199"/>
-      <c r="AV5" s="199"/>
-      <c r="AW5" s="199"/>
-      <c r="AX5" s="199"/>
-      <c r="AY5" s="199"/>
-      <c r="AZ5" s="199"/>
-      <c r="BA5" s="199"/>
-      <c r="BB5" s="199"/>
-      <c r="BC5" s="199"/>
+      <c r="CI4" s="161"/>
+      <c r="CJ4" s="162"/>
+      <c r="CK4" s="168"/>
+      <c r="CL4" s="168"/>
+      <c r="CM4" s="168"/>
+    </row>
+    <row r="5" spans="1:175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="202"/>
+      <c r="B5" s="202"/>
+      <c r="C5" s="202"/>
+      <c r="D5" s="202"/>
+      <c r="E5" s="202"/>
+      <c r="F5" s="202"/>
+      <c r="G5" s="202"/>
+      <c r="H5" s="202"/>
+      <c r="I5" s="202"/>
+      <c r="J5" s="202"/>
+      <c r="K5" s="202"/>
+      <c r="L5" s="202"/>
+      <c r="M5" s="202"/>
+      <c r="N5" s="202"/>
+      <c r="O5" s="202"/>
+      <c r="P5" s="202"/>
+      <c r="Q5" s="202"/>
+      <c r="R5" s="202"/>
+      <c r="S5" s="202"/>
+      <c r="T5" s="202"/>
+      <c r="U5" s="202"/>
+      <c r="V5" s="202"/>
+      <c r="W5" s="202"/>
+      <c r="X5" s="202"/>
+      <c r="Y5" s="202"/>
+      <c r="Z5" s="202"/>
+      <c r="AA5" s="202"/>
+      <c r="AB5" s="202"/>
+      <c r="AC5" s="202"/>
+      <c r="AD5" s="202"/>
+      <c r="AE5" s="202"/>
+      <c r="AF5" s="202"/>
+      <c r="AG5" s="202"/>
+      <c r="AH5" s="202"/>
+      <c r="AI5" s="202"/>
+      <c r="AJ5" s="202"/>
+      <c r="AK5" s="202"/>
+      <c r="AL5" s="202"/>
+      <c r="AM5" s="202"/>
+      <c r="AN5" s="202"/>
+      <c r="AO5" s="202"/>
+      <c r="AP5" s="202"/>
+      <c r="AQ5" s="202"/>
+      <c r="AR5" s="202"/>
+      <c r="AS5" s="202"/>
+      <c r="AT5" s="202"/>
+      <c r="AU5" s="202"/>
+      <c r="AV5" s="202"/>
+      <c r="AW5" s="202"/>
+      <c r="AX5" s="202"/>
+      <c r="AY5" s="202"/>
+      <c r="AZ5" s="202"/>
+      <c r="BA5" s="202"/>
+      <c r="BB5" s="202"/>
+      <c r="BC5" s="202"/>
       <c r="BD5" s="32" t="s">
         <v>99</v>
       </c>
@@ -4602,11 +5368,11 @@
       <c r="CJ5" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="CK5" s="199"/>
-      <c r="CL5" s="199"/>
-      <c r="CM5" s="199"/>
-    </row>
-    <row r="6" spans="1:175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CK5" s="202"/>
+      <c r="CL5" s="202"/>
+      <c r="CM5" s="202"/>
+    </row>
+    <row r="6" spans="1:175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="33"/>
       <c r="B6" s="33"/>
       <c r="C6" s="33"/>
@@ -4721,7 +5487,7 @@
       <c r="CL6" s="33"/>
       <c r="CM6" s="33"/>
     </row>
-    <row r="7" spans="1:175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33"/>
       <c r="B7" s="33"/>
       <c r="C7" s="33"/>
@@ -4836,7 +5602,7 @@
       <c r="CL7" s="33"/>
       <c r="CM7" s="33"/>
     </row>
-    <row r="8" spans="1:175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33"/>
       <c r="B8" s="33"/>
       <c r="C8" s="33"/>
@@ -4951,7 +5717,7 @@
       <c r="CL8" s="33"/>
       <c r="CM8" s="33"/>
     </row>
-    <row r="9" spans="1:175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33"/>
       <c r="B9" s="33"/>
       <c r="C9" s="33"/>
@@ -5066,7 +5832,7 @@
       <c r="CL9" s="33"/>
       <c r="CM9" s="33"/>
     </row>
-    <row r="10" spans="1:175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33"/>
       <c r="B10" s="33"/>
       <c r="C10" s="33"/>
@@ -5183,15 +5949,61 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="BM4:BO4"/>
-    <mergeCell ref="AM3:AM5"/>
-    <mergeCell ref="AN3:AN5"/>
-    <mergeCell ref="AO3:AO5"/>
-    <mergeCell ref="AP3:AP5"/>
-    <mergeCell ref="AT2:AT5"/>
-    <mergeCell ref="AU2:AU5"/>
-    <mergeCell ref="AV2:AV5"/>
-    <mergeCell ref="AW2:AW5"/>
+    <mergeCell ref="X3:X5"/>
+    <mergeCell ref="Y3:Y5"/>
+    <mergeCell ref="AL3:AL5"/>
+    <mergeCell ref="Z3:Z5"/>
+    <mergeCell ref="AA3:AA5"/>
+    <mergeCell ref="AB3:AB5"/>
+    <mergeCell ref="AC3:AC5"/>
+    <mergeCell ref="AD3:AD5"/>
+    <mergeCell ref="T2:T5"/>
+    <mergeCell ref="U2:U5"/>
+    <mergeCell ref="AQ2:AQ5"/>
+    <mergeCell ref="AR2:AR5"/>
+    <mergeCell ref="AS2:AS5"/>
+    <mergeCell ref="V2:V5"/>
+    <mergeCell ref="W2:W5"/>
+    <mergeCell ref="X2:AE2"/>
+    <mergeCell ref="AF2:AF5"/>
+    <mergeCell ref="AG2:AG5"/>
+    <mergeCell ref="AH2:AH5"/>
+    <mergeCell ref="AI2:AP2"/>
+    <mergeCell ref="AE3:AE5"/>
+    <mergeCell ref="AI3:AI5"/>
+    <mergeCell ref="AJ3:AJ5"/>
+    <mergeCell ref="AK3:AK5"/>
+    <mergeCell ref="O2:O5"/>
+    <mergeCell ref="P2:P5"/>
+    <mergeCell ref="Q2:Q5"/>
+    <mergeCell ref="R2:R5"/>
+    <mergeCell ref="S2:S5"/>
+    <mergeCell ref="J2:J5"/>
+    <mergeCell ref="K2:K5"/>
+    <mergeCell ref="L2:L5"/>
+    <mergeCell ref="M2:M5"/>
+    <mergeCell ref="N2:N5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="CK2:CK5"/>
+    <mergeCell ref="CL2:CL5"/>
+    <mergeCell ref="CM2:CM5"/>
+    <mergeCell ref="BE3:CJ3"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:O1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="T1:AF1"/>
+    <mergeCell ref="AG1:AS1"/>
+    <mergeCell ref="AT1:AZ1"/>
+    <mergeCell ref="BA1:CM1"/>
+    <mergeCell ref="BB2:CJ2"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:D5"/>
     <mergeCell ref="CE4:CG4"/>
     <mergeCell ref="CH4:CJ4"/>
     <mergeCell ref="AX2:AX5"/>
@@ -5208,61 +6020,15 @@
     <mergeCell ref="BD4:BF4"/>
     <mergeCell ref="BG4:BI4"/>
     <mergeCell ref="BJ4:BL4"/>
-    <mergeCell ref="CK2:CK5"/>
-    <mergeCell ref="CL2:CL5"/>
-    <mergeCell ref="CM2:CM5"/>
-    <mergeCell ref="BE3:CJ3"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:O1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="T1:AF1"/>
-    <mergeCell ref="AG1:AS1"/>
-    <mergeCell ref="AT1:AZ1"/>
-    <mergeCell ref="BA1:CM1"/>
-    <mergeCell ref="BB2:CJ2"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="I2:I5"/>
-    <mergeCell ref="J2:J5"/>
-    <mergeCell ref="K2:K5"/>
-    <mergeCell ref="L2:L5"/>
-    <mergeCell ref="M2:M5"/>
-    <mergeCell ref="N2:N5"/>
-    <mergeCell ref="O2:O5"/>
-    <mergeCell ref="P2:P5"/>
-    <mergeCell ref="Q2:Q5"/>
-    <mergeCell ref="R2:R5"/>
-    <mergeCell ref="S2:S5"/>
-    <mergeCell ref="T2:T5"/>
-    <mergeCell ref="U2:U5"/>
-    <mergeCell ref="AQ2:AQ5"/>
-    <mergeCell ref="AR2:AR5"/>
-    <mergeCell ref="AS2:AS5"/>
-    <mergeCell ref="V2:V5"/>
-    <mergeCell ref="W2:W5"/>
-    <mergeCell ref="X2:AE2"/>
-    <mergeCell ref="AF2:AF5"/>
-    <mergeCell ref="AG2:AG5"/>
-    <mergeCell ref="AH2:AH5"/>
-    <mergeCell ref="AI2:AP2"/>
-    <mergeCell ref="AE3:AE5"/>
-    <mergeCell ref="AI3:AI5"/>
-    <mergeCell ref="AJ3:AJ5"/>
-    <mergeCell ref="AK3:AK5"/>
-    <mergeCell ref="X3:X5"/>
-    <mergeCell ref="Y3:Y5"/>
-    <mergeCell ref="AL3:AL5"/>
-    <mergeCell ref="Z3:Z5"/>
-    <mergeCell ref="AA3:AA5"/>
-    <mergeCell ref="AB3:AB5"/>
-    <mergeCell ref="AC3:AC5"/>
-    <mergeCell ref="AD3:AD5"/>
+    <mergeCell ref="BM4:BO4"/>
+    <mergeCell ref="AM3:AM5"/>
+    <mergeCell ref="AN3:AN5"/>
+    <mergeCell ref="AO3:AO5"/>
+    <mergeCell ref="AP3:AP5"/>
+    <mergeCell ref="AT2:AT5"/>
+    <mergeCell ref="AU2:AU5"/>
+    <mergeCell ref="AV2:AV5"/>
+    <mergeCell ref="AW2:AW5"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="BB6:BB10" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -5284,50 +6050,50 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19.109375" customWidth="1"/>
+    <col min="7" max="7" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="208" t="s">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="206" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="156"/>
-      <c r="C1" s="156"/>
-      <c r="D1" s="156"/>
-      <c r="E1" s="156"/>
-      <c r="F1" s="156"/>
-      <c r="G1" s="156"/>
-      <c r="H1" s="156"/>
-      <c r="I1" s="156"/>
-      <c r="J1" s="156"/>
-      <c r="K1" s="156"/>
-      <c r="L1" s="156"/>
-    </row>
-    <row r="3" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="205" t="s">
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="158"/>
+      <c r="J1" s="158"/>
+      <c r="K1" s="158"/>
+      <c r="L1" s="158"/>
+    </row>
+    <row r="3" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="207" t="s">
         <v>101</v>
       </c>
-      <c r="B3" s="156"/>
-      <c r="C3" s="156"/>
-      <c r="D3" s="156"/>
-      <c r="E3" s="156"/>
-      <c r="F3" s="156"/>
-      <c r="G3" s="156"/>
-      <c r="H3" s="156"/>
-      <c r="I3" s="156"/>
-      <c r="J3" s="156"/>
-      <c r="K3" s="156"/>
-      <c r="L3" s="156"/>
-    </row>
-    <row r="4" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B3" s="158"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="158"/>
+      <c r="F3" s="158"/>
+      <c r="G3" s="158"/>
+      <c r="H3" s="158"/>
+      <c r="I3" s="158"/>
+      <c r="J3" s="158"/>
+      <c r="K3" s="158"/>
+      <c r="L3" s="158"/>
+    </row>
+    <row r="4" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>102</v>
       </c>
@@ -5343,7 +6109,7 @@
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
     </row>
-    <row r="5" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
         <v>103</v>
       </c>
@@ -5361,27 +6127,27 @@
       <c r="K5" s="22"/>
       <c r="L5" s="29"/>
     </row>
-    <row r="6" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="209" t="s">
+    <row r="6" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="208" t="s">
         <v>105</v>
       </c>
-      <c r="B6" s="119"/>
-      <c r="C6" s="119"/>
-      <c r="D6" s="120"/>
-      <c r="E6" s="209" t="s">
+      <c r="B6" s="155"/>
+      <c r="C6" s="155"/>
+      <c r="D6" s="166"/>
+      <c r="E6" s="208" t="s">
         <v>106</v>
       </c>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="120"/>
-      <c r="I6" s="209" t="s">
+      <c r="F6" s="155"/>
+      <c r="G6" s="155"/>
+      <c r="H6" s="166"/>
+      <c r="I6" s="208" t="s">
         <v>107</v>
       </c>
-      <c r="J6" s="119"/>
-      <c r="K6" s="119"/>
-      <c r="L6" s="120"/>
-    </row>
-    <row r="7" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="J6" s="155"/>
+      <c r="K6" s="155"/>
+      <c r="L6" s="166"/>
+    </row>
+    <row r="7" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
         <v>108</v>
       </c>
@@ -5403,7 +6169,7 @@
       <c r="K7" s="40"/>
       <c r="L7" s="6"/>
     </row>
-    <row r="8" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="36" t="s">
         <v>111</v>
       </c>
@@ -5429,7 +6195,7 @@
       </c>
       <c r="L8" s="29"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="41" t="s">
         <v>115</v>
       </c>
@@ -5452,7 +6218,7 @@
       </c>
       <c r="L9" s="28"/>
     </row>
-    <row r="10" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="41" t="s">
         <v>117</v>
       </c>
@@ -5475,7 +6241,7 @@
       </c>
       <c r="L10" s="28"/>
     </row>
-    <row r="11" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="41" t="s">
         <v>119</v>
       </c>
@@ -5498,7 +6264,7 @@
       </c>
       <c r="L11" s="28"/>
     </row>
-    <row r="12" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
         <v>121</v>
       </c>
@@ -5521,7 +6287,7 @@
       </c>
       <c r="L12" s="28"/>
     </row>
-    <row r="13" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
         <v>123</v>
       </c>
@@ -5541,7 +6307,7 @@
       <c r="K13" s="19"/>
       <c r="L13" s="20"/>
     </row>
-    <row r="14" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="36" t="s">
         <v>124</v>
       </c>
@@ -5561,34 +6327,34 @@
       <c r="K14" s="22"/>
       <c r="L14" s="29"/>
     </row>
-    <row r="15" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="31"/>
       <c r="B15" s="31"/>
       <c r="C15" s="31"/>
       <c r="D15" s="31"/>
     </row>
-    <row r="16" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="31"/>
       <c r="B16" s="31"/>
       <c r="C16" s="31"/>
       <c r="D16" s="31"/>
     </row>
-    <row r="17" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="205" t="s">
+    <row r="17" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A17" s="207" t="s">
         <v>125</v>
       </c>
-      <c r="B17" s="156"/>
-      <c r="C17" s="156"/>
-      <c r="D17" s="156"/>
+      <c r="B17" s="158"/>
+      <c r="C17" s="158"/>
+      <c r="D17" s="158"/>
       <c r="E17" s="43"/>
-      <c r="F17" s="206" t="s">
+      <c r="F17" s="209" t="s">
         <v>126</v>
       </c>
-      <c r="G17" s="207"/>
-      <c r="H17" s="207"/>
-      <c r="I17" s="207"/>
-    </row>
-    <row r="18" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G17" s="210"/>
+      <c r="H17" s="210"/>
+      <c r="I17" s="210"/>
+    </row>
+    <row r="18" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="44" t="s">
         <v>127</v>
       </c>
@@ -5604,7 +6370,7 @@
       <c r="H18" s="48"/>
       <c r="I18" s="49"/>
     </row>
-    <row r="19" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="50" t="s">
         <v>130</v>
       </c>
@@ -5617,7 +6383,7 @@
       <c r="H19" s="48"/>
       <c r="I19" s="49"/>
     </row>
-    <row r="20" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="52" t="s">
         <v>109</v>
       </c>
@@ -5632,7 +6398,7 @@
       <c r="H20" s="54"/>
       <c r="I20" s="55"/>
     </row>
-    <row r="21" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E21" s="45"/>
       <c r="F21" s="51" t="s">
         <v>131</v>
@@ -5643,7 +6409,7 @@
       </c>
       <c r="I21" s="49"/>
     </row>
-    <row r="22" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="58"/>
       <c r="B22" s="58"/>
       <c r="C22" s="58"/>
@@ -5658,34 +6424,34 @@
       </c>
       <c r="I22" s="55"/>
     </row>
-    <row r="23" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="61"/>
       <c r="B23" s="61"/>
       <c r="C23" s="62"/>
       <c r="D23" s="62"/>
     </row>
-    <row r="24" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="61"/>
       <c r="B24" s="61"/>
       <c r="C24" s="62"/>
       <c r="D24" s="62"/>
     </row>
-    <row r="25" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="205" t="s">
+    <row r="25" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A25" s="207" t="s">
         <v>135</v>
       </c>
-      <c r="B25" s="156"/>
-      <c r="C25" s="156"/>
-      <c r="D25" s="156"/>
+      <c r="B25" s="158"/>
+      <c r="C25" s="158"/>
+      <c r="D25" s="158"/>
       <c r="E25" s="63"/>
-      <c r="F25" s="205" t="s">
+      <c r="F25" s="207" t="s">
         <v>136</v>
       </c>
-      <c r="G25" s="156"/>
-      <c r="H25" s="156"/>
-      <c r="I25" s="156"/>
-    </row>
-    <row r="26" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G25" s="158"/>
+      <c r="H25" s="158"/>
+      <c r="I25" s="158"/>
+    </row>
+    <row r="26" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="35" t="s">
         <v>102</v>
       </c>
@@ -5700,7 +6466,7 @@
       <c r="H26" s="19"/>
       <c r="I26" s="20"/>
     </row>
-    <row r="27" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="36" t="s">
         <v>103</v>
       </c>
@@ -5713,7 +6479,7 @@
       </c>
       <c r="I27" s="28"/>
     </row>
-    <row r="28" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="35" t="s">
         <v>137</v>
       </c>
@@ -5730,7 +6496,7 @@
       <c r="H28" s="65"/>
       <c r="I28" s="29"/>
     </row>
-    <row r="29" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="36" t="s">
         <v>138</v>
       </c>
@@ -5747,7 +6513,7 @@
       <c r="H29" s="24"/>
       <c r="I29" s="20"/>
     </row>
-    <row r="30" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="35" t="s">
         <v>117</v>
       </c>
@@ -5763,7 +6529,7 @@
       <c r="H30" s="18"/>
       <c r="I30" s="28"/>
     </row>
-    <row r="31" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="36" t="s">
         <v>143</v>
       </c>
@@ -5780,7 +6546,7 @@
       <c r="H31" s="68"/>
       <c r="I31" s="69"/>
     </row>
-    <row r="32" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="70" t="s">
         <v>145</v>
       </c>
@@ -5803,7 +6569,7 @@
       </c>
       <c r="I32" s="20"/>
     </row>
-    <row r="33" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="C33" s="13"/>
       <c r="D33" s="28"/>
@@ -5816,7 +6582,7 @@
       </c>
       <c r="I33" s="28"/>
     </row>
-    <row r="34" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="C34" s="13"/>
       <c r="D34" s="28"/>
@@ -5829,7 +6595,7 @@
       </c>
       <c r="I34" s="28"/>
     </row>
-    <row r="35" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
       <c r="C35" s="13"/>
       <c r="D35" s="28"/>
@@ -5843,7 +6609,7 @@
       </c>
       <c r="I35" s="69"/>
     </row>
-    <row r="36" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
       <c r="C36" s="13"/>
       <c r="D36" s="28"/>
@@ -5854,7 +6620,7 @@
       <c r="H36" s="18"/>
       <c r="I36" s="28"/>
     </row>
-    <row r="37" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="13"/>
       <c r="C37" s="13"/>
       <c r="D37" s="28"/>
@@ -5866,7 +6632,7 @@
       <c r="H37" s="65"/>
       <c r="I37" s="29"/>
     </row>
-    <row r="38" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="14"/>
       <c r="C38" s="13"/>
       <c r="D38" s="28"/>
@@ -5876,7 +6642,7 @@
       <c r="H38" s="62"/>
       <c r="I38" s="62"/>
     </row>
-    <row r="39" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="71" t="s">
         <v>149</v>
       </c>
@@ -5891,7 +6657,7 @@
       <c r="H39" s="62"/>
       <c r="I39" s="62"/>
     </row>
-    <row r="40" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="41" t="s">
         <v>151</v>
       </c>
@@ -5905,7 +6671,7 @@
       <c r="H40" s="62"/>
       <c r="I40" s="62"/>
     </row>
-    <row r="41" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="41" t="s">
         <v>153</v>
       </c>
@@ -5914,7 +6680,7 @@
       </c>
       <c r="D41" s="28"/>
     </row>
-    <row r="42" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="36" t="s">
         <v>155</v>
       </c>
@@ -5924,7 +6690,7 @@
       </c>
       <c r="D42" s="29"/>
     </row>
-    <row r="43" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="70" t="s">
         <v>157</v>
       </c>
@@ -5932,7 +6698,7 @@
       <c r="C43" s="5"/>
       <c r="D43" s="6"/>
     </row>
-    <row r="44" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="35" t="s">
         <v>158</v>
       </c>
@@ -5942,7 +6708,7 @@
       </c>
       <c r="D44" s="20"/>
     </row>
-    <row r="45" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="41" t="s">
         <v>160</v>
       </c>
@@ -5951,7 +6717,7 @@
       </c>
       <c r="D45" s="28"/>
     </row>
-    <row r="46" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="36" t="s">
         <v>162</v>
       </c>
@@ -5961,7 +6727,7 @@
       </c>
       <c r="D46" s="29"/>
     </row>
-    <row r="47" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="35" t="s">
         <v>164</v>
       </c>
@@ -5969,19 +6735,19 @@
       <c r="C47" s="19"/>
       <c r="D47" s="20"/>
     </row>
-    <row r="48" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="41" t="s">
         <v>165</v>
       </c>
       <c r="D48" s="28"/>
     </row>
-    <row r="49" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="41" t="s">
         <v>166</v>
       </c>
       <c r="D49" s="28"/>
     </row>
-    <row r="50" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" s="35" t="s">
         <v>167</v>
       </c>
@@ -5991,7 +6757,7 @@
       </c>
       <c r="D50" s="20"/>
     </row>
-    <row r="51" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="36" t="s">
         <v>169</v>
       </c>
@@ -6001,13 +6767,13 @@
       </c>
       <c r="D51" s="29"/>
     </row>
-    <row r="52" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="41" t="s">
         <v>170</v>
       </c>
       <c r="D52" s="28"/>
     </row>
-    <row r="53" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="36" t="s">
         <v>171</v>
       </c>
@@ -6015,19 +6781,19 @@
       <c r="C53" s="22"/>
       <c r="D53" s="29"/>
     </row>
-    <row r="55" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="205" t="s">
+    <row r="55" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A55" s="207" t="s">
         <v>172</v>
       </c>
-      <c r="B55" s="156"/>
-      <c r="C55" s="156"/>
-      <c r="D55" s="156"/>
-      <c r="E55" s="156"/>
-      <c r="F55" s="156"/>
-      <c r="G55" s="156"/>
-      <c r="H55" s="156"/>
-    </row>
-    <row r="56" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B55" s="158"/>
+      <c r="C55" s="158"/>
+      <c r="D55" s="158"/>
+      <c r="E55" s="158"/>
+      <c r="F55" s="158"/>
+      <c r="G55" s="158"/>
+      <c r="H55" s="158"/>
+    </row>
+    <row r="56" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A56" s="35" t="s">
         <v>102</v>
       </c>
@@ -6039,19 +6805,19 @@
       <c r="G56" s="19"/>
       <c r="H56" s="20"/>
     </row>
-    <row r="57" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A57" s="41" t="s">
         <v>103</v>
       </c>
       <c r="H57" s="28"/>
     </row>
-    <row r="58" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A58" s="41" t="s">
         <v>173</v>
       </c>
       <c r="H58" s="28"/>
     </row>
-    <row r="59" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A59" s="36" t="s">
         <v>109</v>
       </c>
@@ -6063,21 +6829,21 @@
       <c r="G59" s="22"/>
       <c r="H59" s="29"/>
     </row>
-    <row r="60" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A60" s="204" t="s">
+    <row r="60" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A60" s="211" t="s">
         <v>174</v>
       </c>
-      <c r="B60" s="124"/>
-      <c r="C60" s="124"/>
-      <c r="D60" s="125"/>
-      <c r="E60" s="204" t="s">
+      <c r="B60" s="161"/>
+      <c r="C60" s="161"/>
+      <c r="D60" s="162"/>
+      <c r="E60" s="211" t="s">
         <v>175</v>
       </c>
-      <c r="F60" s="124"/>
-      <c r="G60" s="124"/>
-      <c r="H60" s="125"/>
-    </row>
-    <row r="61" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F60" s="161"/>
+      <c r="G60" s="161"/>
+      <c r="H60" s="162"/>
+    </row>
+    <row r="61" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A61" s="41" t="s">
         <v>176</v>
       </c>
@@ -6098,7 +6864,7 @@
       </c>
       <c r="H61" s="28"/>
     </row>
-    <row r="62" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A62" s="36" t="s">
         <v>182</v>
       </c>
@@ -6120,19 +6886,19 @@
       </c>
       <c r="H62" s="29"/>
     </row>
-    <row r="63" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A63" s="204" t="s">
+    <row r="63" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A63" s="211" t="s">
         <v>186</v>
       </c>
-      <c r="B63" s="124"/>
-      <c r="C63" s="124"/>
-      <c r="D63" s="124"/>
-      <c r="E63" s="124"/>
-      <c r="F63" s="124"/>
-      <c r="G63" s="124"/>
-      <c r="H63" s="125"/>
-    </row>
-    <row r="64" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B63" s="161"/>
+      <c r="C63" s="161"/>
+      <c r="D63" s="161"/>
+      <c r="E63" s="161"/>
+      <c r="F63" s="161"/>
+      <c r="G63" s="161"/>
+      <c r="H63" s="162"/>
+    </row>
+    <row r="64" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A64" s="35" t="s">
         <v>187</v>
       </c>
@@ -6150,7 +6916,7 @@
       <c r="G64" s="19"/>
       <c r="H64" s="20"/>
     </row>
-    <row r="65" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A65" s="36" t="s">
         <v>191</v>
       </c>
@@ -6167,7 +6933,7 @@
       </c>
       <c r="H65" s="28"/>
     </row>
-    <row r="66" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A66" s="36" t="s">
         <v>102</v>
       </c>
@@ -6180,7 +6946,7 @@
       <c r="G66" s="5"/>
       <c r="H66" s="6"/>
     </row>
-    <row r="67" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A67" s="70" t="s">
         <v>196</v>
       </c>
@@ -6192,21 +6958,21 @@
       <c r="G67" s="5"/>
       <c r="H67" s="6"/>
     </row>
-    <row r="68" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A68" s="204" t="s">
+    <row r="68" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A68" s="211" t="s">
         <v>197</v>
       </c>
-      <c r="B68" s="124"/>
-      <c r="C68" s="124"/>
-      <c r="D68" s="125"/>
-      <c r="E68" s="204" t="s">
+      <c r="B68" s="161"/>
+      <c r="C68" s="161"/>
+      <c r="D68" s="162"/>
+      <c r="E68" s="211" t="s">
         <v>198</v>
       </c>
-      <c r="F68" s="124"/>
-      <c r="G68" s="124"/>
-      <c r="H68" s="125"/>
-    </row>
-    <row r="69" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F68" s="161"/>
+      <c r="G68" s="161"/>
+      <c r="H68" s="162"/>
+    </row>
+    <row r="69" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A69" s="44" t="s">
         <v>199</v>
       </c>
@@ -6220,7 +6986,7 @@
       <c r="G69" s="19"/>
       <c r="H69" s="20"/>
     </row>
-    <row r="70" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A70" s="50" t="s">
         <v>187</v>
       </c>
@@ -6230,7 +6996,7 @@
       </c>
       <c r="H70" s="28"/>
     </row>
-    <row r="71" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A71" s="52" t="s">
         <v>191</v>
       </c>
@@ -6244,7 +7010,7 @@
       <c r="G71" s="22"/>
       <c r="H71" s="29"/>
     </row>
-    <row r="72" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A72" s="44" t="s">
         <v>200</v>
       </c>
@@ -6262,7 +7028,7 @@
       </c>
       <c r="H72" s="20"/>
     </row>
-    <row r="73" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A73" s="50" t="s">
         <v>195</v>
       </c>
@@ -6278,7 +7044,7 @@
       </c>
       <c r="H73" s="28"/>
     </row>
-    <row r="74" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A74" s="52" t="s">
         <v>196</v>
       </c>
@@ -6296,21 +7062,21 @@
       </c>
       <c r="H74" s="29"/>
     </row>
-    <row r="75" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A75" s="204" t="s">
+    <row r="75" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A75" s="211" t="s">
         <v>202</v>
       </c>
-      <c r="B75" s="124"/>
-      <c r="C75" s="124"/>
-      <c r="D75" s="125"/>
-      <c r="E75" s="204" t="s">
+      <c r="B75" s="161"/>
+      <c r="C75" s="161"/>
+      <c r="D75" s="162"/>
+      <c r="E75" s="211" t="s">
         <v>203</v>
       </c>
-      <c r="F75" s="124"/>
-      <c r="G75" s="124"/>
-      <c r="H75" s="125"/>
-    </row>
-    <row r="76" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F75" s="161"/>
+      <c r="G75" s="161"/>
+      <c r="H75" s="162"/>
+    </row>
+    <row r="76" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A76" s="44" t="s">
         <v>199</v>
       </c>
@@ -6324,7 +7090,7 @@
       <c r="G76" s="19"/>
       <c r="H76" s="20"/>
     </row>
-    <row r="77" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A77" s="50" t="s">
         <v>187</v>
       </c>
@@ -6334,7 +7100,7 @@
       </c>
       <c r="H77" s="28"/>
     </row>
-    <row r="78" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A78" s="52" t="s">
         <v>191</v>
       </c>
@@ -6348,7 +7114,7 @@
       <c r="G78" s="22"/>
       <c r="H78" s="29"/>
     </row>
-    <row r="79" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A79" s="44" t="s">
         <v>200</v>
       </c>
@@ -6366,7 +7132,7 @@
       </c>
       <c r="H79" s="20"/>
     </row>
-    <row r="80" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A80" s="50" t="s">
         <v>195</v>
       </c>
@@ -6382,7 +7148,7 @@
       </c>
       <c r="H80" s="28"/>
     </row>
-    <row r="81" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A81" s="52" t="s">
         <v>196</v>
       </c>
@@ -6400,21 +7166,21 @@
       </c>
       <c r="H81" s="29"/>
     </row>
-    <row r="82" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A82" s="204" t="s">
+    <row r="82" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A82" s="211" t="s">
         <v>204</v>
       </c>
-      <c r="B82" s="124"/>
-      <c r="C82" s="124"/>
-      <c r="D82" s="125"/>
-      <c r="E82" s="204" t="s">
+      <c r="B82" s="161"/>
+      <c r="C82" s="161"/>
+      <c r="D82" s="162"/>
+      <c r="E82" s="211" t="s">
         <v>205</v>
       </c>
-      <c r="F82" s="124"/>
-      <c r="G82" s="124"/>
-      <c r="H82" s="125"/>
-    </row>
-    <row r="83" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F82" s="161"/>
+      <c r="G82" s="161"/>
+      <c r="H82" s="162"/>
+    </row>
+    <row r="83" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A83" s="44" t="s">
         <v>199</v>
       </c>
@@ -6428,7 +7194,7 @@
       <c r="G83" s="19"/>
       <c r="H83" s="20"/>
     </row>
-    <row r="84" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A84" s="50" t="s">
         <v>187</v>
       </c>
@@ -6438,7 +7204,7 @@
       </c>
       <c r="H84" s="28"/>
     </row>
-    <row r="85" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A85" s="52" t="s">
         <v>191</v>
       </c>
@@ -6452,7 +7218,7 @@
       <c r="G85" s="22"/>
       <c r="H85" s="29"/>
     </row>
-    <row r="86" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A86" s="44" t="s">
         <v>200</v>
       </c>
@@ -6470,7 +7236,7 @@
       </c>
       <c r="H86" s="20"/>
     </row>
-    <row r="87" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A87" s="50" t="s">
         <v>195</v>
       </c>
@@ -6486,7 +7252,7 @@
       </c>
       <c r="H87" s="28"/>
     </row>
-    <row r="88" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A88" s="52" t="s">
         <v>196</v>
       </c>
@@ -6504,85 +7270,85 @@
       </c>
       <c r="H88" s="29"/>
     </row>
-    <row r="89" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A89" s="31"/>
       <c r="B89" s="31"/>
       <c r="C89" s="31"/>
       <c r="D89" s="31"/>
     </row>
-    <row r="90" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A90" s="58"/>
       <c r="B90" s="58"/>
       <c r="C90" s="58"/>
       <c r="D90" s="58"/>
     </row>
-    <row r="91" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A91" s="58"/>
       <c r="B91" s="58"/>
       <c r="C91" s="58"/>
       <c r="D91" s="58"/>
     </row>
-    <row r="92" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A92" s="58"/>
       <c r="B92" s="58"/>
       <c r="C92" s="58"/>
       <c r="D92" s="58"/>
     </row>
-    <row r="93" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A93" s="58"/>
       <c r="B93" s="58"/>
       <c r="C93" s="58"/>
       <c r="D93" s="58"/>
     </row>
-    <row r="94" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A94" s="58"/>
       <c r="B94" s="58"/>
       <c r="C94" s="58"/>
       <c r="D94" s="58"/>
     </row>
-    <row r="95" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A95" s="58"/>
       <c r="B95" s="58"/>
       <c r="C95" s="58"/>
       <c r="D95" s="58"/>
     </row>
-    <row r="96" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A96" s="58"/>
       <c r="B96" s="58"/>
       <c r="C96" s="58"/>
       <c r="D96" s="58"/>
     </row>
-    <row r="97" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A97" s="58"/>
       <c r="B97" s="58"/>
       <c r="C97" s="58"/>
       <c r="D97" s="58"/>
     </row>
-    <row r="98" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A98" s="58"/>
       <c r="B98" s="58"/>
       <c r="C98" s="58"/>
       <c r="D98" s="58"/>
     </row>
-    <row r="99" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A99" s="58"/>
       <c r="B99" s="58"/>
       <c r="C99" s="58"/>
       <c r="D99" s="58"/>
     </row>
-    <row r="100" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A100" s="58"/>
       <c r="B100" s="58"/>
       <c r="C100" s="58"/>
       <c r="D100" s="58"/>
     </row>
-    <row r="101" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A101" s="58"/>
       <c r="B101" s="58"/>
       <c r="C101" s="58"/>
       <c r="D101" s="58"/>
     </row>
-    <row r="102" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A102" s="58"/>
       <c r="B102" s="58"/>
       <c r="C102" s="58"/>
@@ -6590,16 +7356,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="A75:D75"/>
-    <mergeCell ref="E75:H75"/>
     <mergeCell ref="A82:D82"/>
     <mergeCell ref="E82:H82"/>
     <mergeCell ref="A25:D25"/>
@@ -6609,6 +7365,16 @@
     <mergeCell ref="E60:H60"/>
     <mergeCell ref="A63:H63"/>
     <mergeCell ref="E68:H68"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="E75:H75"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="I6:L6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/attachments/Input Merchant Acquisition (1).xlsx
+++ b/attachments/Input Merchant Acquisition (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\Asisten\Icstar Indonesia Lomba\MerchantAcquisition\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1060B7-87CA-439C-8676-6E6655174921}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C461624B-450F-4BD5-BE77-83E467A1DE38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="321">
   <si>
     <t>Sales Chanel</t>
   </si>
@@ -987,6 +987,12 @@
   </si>
   <si>
     <t>parent merchant</t>
+  </si>
+  <si>
+    <t>asdasd</t>
+  </si>
+  <si>
+    <t>Sarang Lebah</t>
   </si>
 </sst>
 </file>
@@ -1905,133 +1911,146 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2039,15 +2058,18 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2056,173 +2078,157 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2445,8 +2451,8 @@
   </sheetPr>
   <dimension ref="A1:W132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="A128" sqref="A128:D128"/>
+    <sheetView tabSelected="1" topLeftCell="F62" workbookViewId="0">
+      <selection activeCell="I66" sqref="I66:L66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2467,10 +2473,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="174" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="162"/>
+      <c r="A1" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="158"/>
     </row>
     <row r="2" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -2497,12 +2503,12 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="175" t="s">
+      <c r="A6" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="155"/>
-      <c r="C6" s="155"/>
-      <c r="D6" s="166"/>
+      <c r="B6" s="152"/>
+      <c r="C6" s="152"/>
+      <c r="D6" s="153"/>
     </row>
     <row r="7" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -2679,38 +2685,38 @@
       <c r="D20" s="79"/>
     </row>
     <row r="22" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A22" s="176" t="s">
+      <c r="A22" s="184" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="177"/>
-      <c r="C22" s="177"/>
-      <c r="D22" s="177"/>
-      <c r="E22" s="177"/>
-      <c r="F22" s="177"/>
-      <c r="G22" s="177"/>
-      <c r="H22" s="177"/>
-      <c r="I22" s="178"/>
+      <c r="B22" s="185"/>
+      <c r="C22" s="185"/>
+      <c r="D22" s="185"/>
+      <c r="E22" s="185"/>
+      <c r="F22" s="185"/>
+      <c r="G22" s="185"/>
+      <c r="H22" s="185"/>
+      <c r="I22" s="186"/>
       <c r="J22" s="16"/>
       <c r="K22" s="16"/>
       <c r="L22" s="16"/>
       <c r="M22" s="16"/>
     </row>
     <row r="23" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A23" s="179" t="s">
+      <c r="A23" s="187" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="177"/>
-      <c r="C23" s="177"/>
-      <c r="D23" s="179" t="s">
+      <c r="B23" s="185"/>
+      <c r="C23" s="185"/>
+      <c r="D23" s="187" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="177"/>
-      <c r="F23" s="177"/>
-      <c r="G23" s="179" t="s">
+      <c r="E23" s="185"/>
+      <c r="F23" s="185"/>
+      <c r="G23" s="187" t="s">
         <v>29</v>
       </c>
-      <c r="H23" s="177"/>
-      <c r="I23" s="178"/>
+      <c r="H23" s="185"/>
+      <c r="I23" s="186"/>
       <c r="L23" s="16"/>
       <c r="M23" s="16"/>
     </row>
@@ -2718,82 +2724,84 @@
       <c r="A24" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="173" t="s">
+      <c r="B24" s="182" t="s">
         <v>239</v>
       </c>
-      <c r="C24" s="172"/>
+      <c r="C24" s="181"/>
       <c r="D24" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="171" t="s">
+      <c r="E24" s="180" t="s">
         <v>282</v>
       </c>
-      <c r="F24" s="172"/>
+      <c r="F24" s="181"/>
       <c r="G24" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="H24" s="173"/>
-      <c r="I24" s="172"/>
+      <c r="H24" s="182" t="s">
+        <v>319</v>
+      </c>
+      <c r="I24" s="181"/>
     </row>
     <row r="25" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="180" t="s">
+      <c r="B25" s="172" t="s">
         <v>240</v>
       </c>
-      <c r="C25" s="181"/>
+      <c r="C25" s="173"/>
       <c r="D25" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="E25" s="180"/>
-      <c r="F25" s="181"/>
+      <c r="E25" s="172"/>
+      <c r="F25" s="173"/>
       <c r="G25" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="H25" s="180"/>
-      <c r="I25" s="181"/>
+      <c r="H25" s="172"/>
+      <c r="I25" s="173"/>
     </row>
     <row r="26" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="183" t="s">
+      <c r="B26" s="178" t="s">
         <v>246</v>
       </c>
-      <c r="C26" s="184"/>
+      <c r="C26" s="179"/>
       <c r="D26" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="180"/>
-      <c r="F26" s="181"/>
+      <c r="E26" s="172"/>
+      <c r="F26" s="173"/>
       <c r="G26" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="H26" s="180"/>
-      <c r="I26" s="181"/>
+      <c r="H26" s="172"/>
+      <c r="I26" s="173"/>
     </row>
     <row r="27" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="183" t="s">
+      <c r="B27" s="178" t="s">
         <v>245</v>
       </c>
-      <c r="C27" s="184"/>
+      <c r="C27" s="179"/>
       <c r="D27" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="180"/>
-      <c r="F27" s="181"/>
+      <c r="E27" s="172"/>
+      <c r="F27" s="173"/>
       <c r="G27" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="H27" s="180"/>
-      <c r="I27" s="181"/>
+      <c r="H27" s="172"/>
+      <c r="I27" s="173"/>
     </row>
     <row r="28" spans="1:13" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="185" t="s">
+      <c r="A28" s="159" t="s">
         <v>32</v>
       </c>
       <c r="B28" s="107" t="s">
@@ -2802,14 +2810,14 @@
       <c r="C28" s="108" t="s">
         <v>241</v>
       </c>
-      <c r="D28" s="185" t="s">
+      <c r="D28" s="159" t="s">
         <v>32</v>
       </c>
       <c r="E28" s="107" t="s">
         <v>33</v>
       </c>
       <c r="F28" s="109"/>
-      <c r="G28" s="185" t="s">
+      <c r="G28" s="159" t="s">
         <v>32</v>
       </c>
       <c r="H28" s="107" t="s">
@@ -2818,38 +2826,38 @@
       <c r="I28" s="109"/>
     </row>
     <row r="29" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A29" s="186"/>
+      <c r="A29" s="160"/>
       <c r="B29" s="110" t="s">
         <v>34</v>
       </c>
       <c r="C29" s="104" t="s">
         <v>242</v>
       </c>
-      <c r="D29" s="186"/>
+      <c r="D29" s="160"/>
       <c r="E29" s="110" t="s">
         <v>34</v>
       </c>
       <c r="F29" s="111"/>
-      <c r="G29" s="186"/>
+      <c r="G29" s="160"/>
       <c r="H29" s="110" t="s">
         <v>34</v>
       </c>
       <c r="I29" s="111"/>
     </row>
     <row r="30" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A30" s="186"/>
+      <c r="A30" s="160"/>
       <c r="B30" s="110" t="s">
         <v>35</v>
       </c>
       <c r="C30" s="116" t="s">
         <v>281</v>
       </c>
-      <c r="D30" s="186"/>
+      <c r="D30" s="160"/>
       <c r="E30" s="110" t="s">
         <v>35</v>
       </c>
       <c r="F30" s="111"/>
-      <c r="G30" s="186"/>
+      <c r="G30" s="160"/>
       <c r="H30" s="110" t="s">
         <v>35</v>
       </c>
@@ -2857,19 +2865,19 @@
       <c r="M30" s="18"/>
     </row>
     <row r="31" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="186"/>
+      <c r="A31" s="160"/>
       <c r="B31" s="110" t="s">
         <v>36</v>
       </c>
       <c r="C31" s="104" t="s">
         <v>243</v>
       </c>
-      <c r="D31" s="186"/>
+      <c r="D31" s="160"/>
       <c r="E31" s="110" t="s">
         <v>36</v>
       </c>
       <c r="F31" s="111"/>
-      <c r="G31" s="186"/>
+      <c r="G31" s="160"/>
       <c r="H31" s="110" t="s">
         <v>36</v>
       </c>
@@ -2877,19 +2885,19 @@
       <c r="M31" s="18"/>
     </row>
     <row r="32" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="186"/>
+      <c r="A32" s="160"/>
       <c r="B32" s="110" t="s">
         <v>37</v>
       </c>
       <c r="C32" s="104">
         <v>123123</v>
       </c>
-      <c r="D32" s="186"/>
+      <c r="D32" s="160"/>
       <c r="E32" s="110" t="s">
         <v>37</v>
       </c>
       <c r="F32" s="111"/>
-      <c r="G32" s="186"/>
+      <c r="G32" s="160"/>
       <c r="H32" s="110" t="s">
         <v>37</v>
       </c>
@@ -2897,19 +2905,19 @@
       <c r="M32" s="18"/>
     </row>
     <row r="33" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A33" s="186"/>
+      <c r="A33" s="160"/>
       <c r="B33" s="110" t="s">
         <v>38</v>
       </c>
       <c r="C33" s="104" t="s">
         <v>244</v>
       </c>
-      <c r="D33" s="186"/>
+      <c r="D33" s="160"/>
       <c r="E33" s="110" t="s">
         <v>38</v>
       </c>
       <c r="F33" s="111"/>
-      <c r="G33" s="186"/>
+      <c r="G33" s="160"/>
       <c r="H33" s="110" t="s">
         <v>38</v>
       </c>
@@ -2917,19 +2925,19 @@
       <c r="M33" s="18"/>
     </row>
     <row r="34" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A34" s="186"/>
+      <c r="A34" s="160"/>
       <c r="B34" s="110" t="s">
         <v>39</v>
       </c>
       <c r="C34" s="104">
         <v>111</v>
       </c>
-      <c r="D34" s="186"/>
+      <c r="D34" s="160"/>
       <c r="E34" s="110" t="s">
         <v>39</v>
       </c>
       <c r="F34" s="111"/>
-      <c r="G34" s="186"/>
+      <c r="G34" s="160"/>
       <c r="H34" s="110" t="s">
         <v>39</v>
       </c>
@@ -2937,19 +2945,19 @@
       <c r="M34" s="18"/>
     </row>
     <row r="35" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A35" s="187"/>
+      <c r="A35" s="161"/>
       <c r="B35" s="112" t="s">
         <v>40</v>
       </c>
       <c r="C35" s="113">
         <v>32231</v>
       </c>
-      <c r="D35" s="187"/>
+      <c r="D35" s="161"/>
       <c r="E35" s="112" t="s">
         <v>40</v>
       </c>
       <c r="F35" s="114"/>
-      <c r="G35" s="187"/>
+      <c r="G35" s="161"/>
       <c r="H35" s="112" t="s">
         <v>40</v>
       </c>
@@ -2960,27 +2968,27 @@
       <c r="A36" s="115" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="197" t="s">
+      <c r="B36" s="171" t="s">
         <v>280</v>
       </c>
-      <c r="C36" s="198"/>
+      <c r="C36" s="150"/>
       <c r="D36" s="115" t="s">
         <v>41</v>
       </c>
-      <c r="E36" s="199"/>
-      <c r="F36" s="198"/>
+      <c r="E36" s="149"/>
+      <c r="F36" s="150"/>
       <c r="G36" s="115" t="s">
         <v>41</v>
       </c>
-      <c r="H36" s="199"/>
-      <c r="I36" s="198"/>
+      <c r="H36" s="149"/>
+      <c r="I36" s="150"/>
     </row>
     <row r="38" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A38" s="175" t="s">
+      <c r="A38" s="151" t="s">
         <v>42</v>
       </c>
-      <c r="B38" s="155"/>
-      <c r="C38" s="166"/>
+      <c r="B38" s="152"/>
+      <c r="C38" s="153"/>
     </row>
     <row r="39" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
@@ -2995,13 +3003,13 @@
       <c r="A40" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="157" t="s">
+      <c r="B40" s="154" t="s">
         <v>219</v>
       </c>
-      <c r="C40" s="159"/>
+      <c r="C40" s="155"/>
     </row>
     <row r="41" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A41" s="188" t="s">
+      <c r="A41" s="162" t="s">
         <v>32</v>
       </c>
       <c r="B41" s="9" t="s">
@@ -3012,7 +3020,7 @@
       </c>
     </row>
     <row r="42" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A42" s="189"/>
+      <c r="A42" s="163"/>
       <c r="B42" s="7" t="s">
         <v>34</v>
       </c>
@@ -3021,7 +3029,7 @@
       </c>
     </row>
     <row r="43" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A43" s="189"/>
+      <c r="A43" s="163"/>
       <c r="B43" s="7" t="s">
         <v>35</v>
       </c>
@@ -3030,7 +3038,7 @@
       </c>
     </row>
     <row r="44" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A44" s="189"/>
+      <c r="A44" s="163"/>
       <c r="B44" s="7" t="s">
         <v>36</v>
       </c>
@@ -3039,7 +3047,7 @@
       </c>
     </row>
     <row r="45" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A45" s="189"/>
+      <c r="A45" s="163"/>
       <c r="B45" s="7" t="s">
         <v>37</v>
       </c>
@@ -3048,7 +3056,7 @@
       </c>
     </row>
     <row r="46" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A46" s="189"/>
+      <c r="A46" s="163"/>
       <c r="B46" s="7" t="s">
         <v>38</v>
       </c>
@@ -3057,7 +3065,7 @@
       </c>
     </row>
     <row r="47" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A47" s="189"/>
+      <c r="A47" s="163"/>
       <c r="B47" s="7" t="s">
         <v>39</v>
       </c>
@@ -3066,7 +3074,7 @@
       </c>
     </row>
     <row r="48" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A48" s="190"/>
+      <c r="A48" s="164"/>
       <c r="B48" s="7" t="s">
         <v>40</v>
       </c>
@@ -3078,34 +3086,34 @@
       <c r="A49" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B49" s="191">
+      <c r="B49" s="165">
         <v>23586598</v>
       </c>
-      <c r="C49" s="192"/>
+      <c r="C49" s="166"/>
     </row>
     <row r="50" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B50" s="193">
+      <c r="B50" s="167">
         <v>8123456789</v>
       </c>
-      <c r="C50" s="194"/>
+      <c r="C50" s="168"/>
     </row>
     <row r="51" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B51" s="195" t="s">
+      <c r="B51" s="169" t="s">
         <v>225</v>
       </c>
-      <c r="C51" s="196"/>
+      <c r="C51" s="170"/>
     </row>
     <row r="53" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A53" s="175" t="s">
+      <c r="A53" s="151" t="s">
         <v>48</v>
       </c>
-      <c r="B53" s="166"/>
+      <c r="B53" s="153"/>
     </row>
     <row r="54" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
@@ -3162,146 +3170,148 @@
       <c r="B60" s="89"/>
     </row>
     <row r="62" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A62" s="160" t="s">
+      <c r="A62" s="191" t="s">
         <v>55</v>
       </c>
-      <c r="B62" s="161"/>
-      <c r="C62" s="161"/>
-      <c r="D62" s="161"/>
-      <c r="E62" s="161"/>
-      <c r="F62" s="161"/>
-      <c r="G62" s="161"/>
-      <c r="H62" s="161"/>
-      <c r="I62" s="161"/>
-      <c r="J62" s="161"/>
-      <c r="K62" s="161"/>
-      <c r="L62" s="161"/>
-      <c r="M62" s="161"/>
-      <c r="N62" s="161"/>
-      <c r="O62" s="161"/>
-      <c r="P62" s="161"/>
-      <c r="Q62" s="161"/>
-      <c r="R62" s="162"/>
+      <c r="B62" s="157"/>
+      <c r="C62" s="157"/>
+      <c r="D62" s="157"/>
+      <c r="E62" s="157"/>
+      <c r="F62" s="157"/>
+      <c r="G62" s="157"/>
+      <c r="H62" s="157"/>
+      <c r="I62" s="157"/>
+      <c r="J62" s="157"/>
+      <c r="K62" s="157"/>
+      <c r="L62" s="157"/>
+      <c r="M62" s="157"/>
+      <c r="N62" s="157"/>
+      <c r="O62" s="157"/>
+      <c r="P62" s="157"/>
+      <c r="Q62" s="157"/>
+      <c r="R62" s="158"/>
     </row>
     <row r="63" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A63" s="163" t="s">
+      <c r="A63" s="192" t="s">
         <v>56</v>
       </c>
-      <c r="B63" s="161"/>
-      <c r="C63" s="161"/>
-      <c r="D63" s="161"/>
-      <c r="E63" s="161"/>
-      <c r="F63" s="162"/>
-      <c r="G63" s="163" t="s">
+      <c r="B63" s="157"/>
+      <c r="C63" s="157"/>
+      <c r="D63" s="157"/>
+      <c r="E63" s="157"/>
+      <c r="F63" s="158"/>
+      <c r="G63" s="192" t="s">
         <v>57</v>
       </c>
-      <c r="H63" s="161"/>
-      <c r="I63" s="161"/>
-      <c r="J63" s="161"/>
-      <c r="K63" s="161"/>
-      <c r="L63" s="161"/>
-      <c r="M63" s="163" t="s">
+      <c r="H63" s="157"/>
+      <c r="I63" s="157"/>
+      <c r="J63" s="157"/>
+      <c r="K63" s="157"/>
+      <c r="L63" s="157"/>
+      <c r="M63" s="192" t="s">
         <v>58</v>
       </c>
-      <c r="N63" s="161"/>
-      <c r="O63" s="161"/>
-      <c r="P63" s="161"/>
-      <c r="Q63" s="161"/>
-      <c r="R63" s="162"/>
+      <c r="N63" s="157"/>
+      <c r="O63" s="157"/>
+      <c r="P63" s="157"/>
+      <c r="Q63" s="157"/>
+      <c r="R63" s="158"/>
     </row>
     <row r="64" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B64" s="164" t="s">
+      <c r="B64" s="156" t="s">
         <v>234</v>
       </c>
-      <c r="C64" s="161"/>
-      <c r="D64" s="161"/>
-      <c r="E64" s="161"/>
-      <c r="F64" s="162"/>
+      <c r="C64" s="157"/>
+      <c r="D64" s="157"/>
+      <c r="E64" s="157"/>
+      <c r="F64" s="158"/>
       <c r="G64" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H64" s="164"/>
-      <c r="I64" s="161"/>
-      <c r="J64" s="161"/>
-      <c r="K64" s="161"/>
-      <c r="L64" s="162"/>
+      <c r="H64" s="156" t="s">
+        <v>320</v>
+      </c>
+      <c r="I64" s="157"/>
+      <c r="J64" s="157"/>
+      <c r="K64" s="157"/>
+      <c r="L64" s="158"/>
       <c r="M64" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="N64" s="164"/>
-      <c r="O64" s="161"/>
-      <c r="P64" s="161"/>
-      <c r="Q64" s="161"/>
-      <c r="R64" s="162"/>
+      <c r="N64" s="156"/>
+      <c r="O64" s="157"/>
+      <c r="P64" s="157"/>
+      <c r="Q64" s="157"/>
+      <c r="R64" s="158"/>
     </row>
     <row r="65" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A65" s="182" t="s">
+      <c r="A65" s="174" t="s">
         <v>59</v>
       </c>
       <c r="B65" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="C65" s="154" t="s">
+      <c r="C65" s="188" t="s">
         <v>264</v>
       </c>
-      <c r="D65" s="155"/>
-      <c r="E65" s="155"/>
-      <c r="F65" s="155"/>
-      <c r="G65" s="182" t="s">
+      <c r="D65" s="152"/>
+      <c r="E65" s="152"/>
+      <c r="F65" s="152"/>
+      <c r="G65" s="174" t="s">
         <v>59</v>
       </c>
       <c r="H65" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="I65" s="165"/>
-      <c r="J65" s="155"/>
-      <c r="K65" s="155"/>
-      <c r="L65" s="166"/>
-      <c r="M65" s="167" t="s">
+      <c r="I65" s="193"/>
+      <c r="J65" s="152"/>
+      <c r="K65" s="152"/>
+      <c r="L65" s="153"/>
+      <c r="M65" s="194" t="s">
         <v>59</v>
       </c>
       <c r="N65" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="O65" s="165"/>
-      <c r="P65" s="155"/>
-      <c r="Q65" s="155"/>
-      <c r="R65" s="166"/>
+      <c r="O65" s="193"/>
+      <c r="P65" s="152"/>
+      <c r="Q65" s="152"/>
+      <c r="R65" s="153"/>
     </row>
     <row r="66" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="168"/>
+      <c r="A66" s="175"/>
       <c r="B66" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="C66" s="156">
+      <c r="C66" s="189">
         <v>12</v>
       </c>
-      <c r="D66" s="156"/>
-      <c r="E66" s="156"/>
-      <c r="F66" s="156"/>
-      <c r="G66" s="168"/>
+      <c r="D66" s="189"/>
+      <c r="E66" s="189"/>
+      <c r="F66" s="189"/>
+      <c r="G66" s="175"/>
       <c r="H66" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="I66" s="157"/>
-      <c r="J66" s="158"/>
-      <c r="K66" s="158"/>
-      <c r="L66" s="159"/>
-      <c r="M66" s="168"/>
+      <c r="I66" s="154"/>
+      <c r="J66" s="190"/>
+      <c r="K66" s="190"/>
+      <c r="L66" s="155"/>
+      <c r="M66" s="175"/>
       <c r="N66" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="O66" s="157"/>
-      <c r="P66" s="158"/>
-      <c r="Q66" s="158"/>
-      <c r="R66" s="159"/>
+      <c r="O66" s="154"/>
+      <c r="P66" s="190"/>
+      <c r="Q66" s="190"/>
+      <c r="R66" s="155"/>
     </row>
     <row r="67" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A67" s="168"/>
-      <c r="B67" s="169" t="s">
+      <c r="A67" s="175"/>
+      <c r="B67" s="176" t="s">
         <v>62</v>
       </c>
       <c r="C67" s="26" t="s">
@@ -3316,8 +3326,8 @@
       <c r="F67" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="G67" s="168"/>
-      <c r="H67" s="169" t="s">
+      <c r="G67" s="175"/>
+      <c r="H67" s="176" t="s">
         <v>62</v>
       </c>
       <c r="I67" s="26" t="s">
@@ -3332,8 +3342,8 @@
       <c r="L67" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="M67" s="168"/>
-      <c r="N67" s="169" t="s">
+      <c r="M67" s="175"/>
+      <c r="N67" s="176" t="s">
         <v>62</v>
       </c>
       <c r="O67" s="26" t="s">
@@ -3350,8 +3360,8 @@
       </c>
     </row>
     <row r="68" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A68" s="168"/>
-      <c r="B68" s="159"/>
+      <c r="A68" s="175"/>
+      <c r="B68" s="155"/>
       <c r="C68" s="25" t="s">
         <v>66</v>
       </c>
@@ -3364,8 +3374,8 @@
       <c r="F68" t="s">
         <v>233</v>
       </c>
-      <c r="G68" s="168"/>
-      <c r="H68" s="159"/>
+      <c r="G68" s="175"/>
+      <c r="H68" s="155"/>
       <c r="I68" s="25" t="s">
         <v>67</v>
       </c>
@@ -3374,8 +3384,8 @@
       </c>
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
-      <c r="M68" s="168"/>
-      <c r="N68" s="159"/>
+      <c r="M68" s="175"/>
+      <c r="N68" s="155"/>
       <c r="O68" s="25" t="s">
         <v>67</v>
       </c>
@@ -3386,8 +3396,8 @@
       <c r="R68" s="2"/>
     </row>
     <row r="69" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A69" s="168"/>
-      <c r="B69" s="159"/>
+      <c r="A69" s="175"/>
+      <c r="B69" s="155"/>
       <c r="C69" s="25" t="s">
         <v>68</v>
       </c>
@@ -3397,8 +3407,8 @@
       <c r="E69" s="2">
         <v>2231</v>
       </c>
-      <c r="G69" s="168"/>
-      <c r="H69" s="159"/>
+      <c r="G69" s="175"/>
+      <c r="H69" s="155"/>
       <c r="I69" s="25" t="s">
         <v>69</v>
       </c>
@@ -3407,8 +3417,8 @@
       </c>
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
-      <c r="M69" s="168"/>
-      <c r="N69" s="159"/>
+      <c r="M69" s="175"/>
+      <c r="N69" s="155"/>
       <c r="O69" s="25" t="s">
         <v>69</v>
       </c>
@@ -3419,8 +3429,8 @@
       <c r="R69" s="2"/>
     </row>
     <row r="70" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A70" s="168"/>
-      <c r="B70" s="159"/>
+      <c r="A70" s="175"/>
+      <c r="B70" s="155"/>
       <c r="C70" s="25" t="s">
         <v>70</v>
       </c>
@@ -3428,8 +3438,8 @@
         <v>0</v>
       </c>
       <c r="E70" s="2"/>
-      <c r="G70" s="168"/>
-      <c r="H70" s="159"/>
+      <c r="G70" s="175"/>
+      <c r="H70" s="155"/>
       <c r="I70" s="25" t="s">
         <v>70</v>
       </c>
@@ -3438,8 +3448,8 @@
       </c>
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
-      <c r="M70" s="168"/>
-      <c r="N70" s="159"/>
+      <c r="M70" s="175"/>
+      <c r="N70" s="155"/>
       <c r="O70" s="25" t="s">
         <v>70</v>
       </c>
@@ -3450,8 +3460,8 @@
       <c r="R70" s="2"/>
     </row>
     <row r="71" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A71" s="168"/>
-      <c r="B71" s="159"/>
+      <c r="A71" s="175"/>
+      <c r="B71" s="155"/>
       <c r="C71" s="25" t="s">
         <v>71</v>
       </c>
@@ -3459,8 +3469,8 @@
         <v>0</v>
       </c>
       <c r="E71" s="2"/>
-      <c r="G71" s="168"/>
-      <c r="H71" s="159"/>
+      <c r="G71" s="175"/>
+      <c r="H71" s="155"/>
       <c r="I71" s="25" t="s">
         <v>71</v>
       </c>
@@ -3469,8 +3479,8 @@
       </c>
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
-      <c r="M71" s="168"/>
-      <c r="N71" s="159"/>
+      <c r="M71" s="175"/>
+      <c r="N71" s="155"/>
       <c r="O71" s="25" t="s">
         <v>71</v>
       </c>
@@ -3481,8 +3491,8 @@
       <c r="R71" s="2"/>
     </row>
     <row r="72" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A72" s="168"/>
-      <c r="B72" s="159"/>
+      <c r="A72" s="175"/>
+      <c r="B72" s="155"/>
       <c r="C72" s="25" t="s">
         <v>72</v>
       </c>
@@ -3492,8 +3502,8 @@
       <c r="E72" s="2">
         <v>232</v>
       </c>
-      <c r="G72" s="168"/>
-      <c r="H72" s="159"/>
+      <c r="G72" s="175"/>
+      <c r="H72" s="155"/>
       <c r="I72" s="25" t="s">
         <v>72</v>
       </c>
@@ -3502,8 +3512,8 @@
       </c>
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
-      <c r="M72" s="168"/>
-      <c r="N72" s="159"/>
+      <c r="M72" s="175"/>
+      <c r="N72" s="155"/>
       <c r="O72" s="25" t="s">
         <v>72</v>
       </c>
@@ -3514,8 +3524,8 @@
       <c r="R72" s="2"/>
     </row>
     <row r="73" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A73" s="168"/>
-      <c r="B73" s="159"/>
+      <c r="A73" s="175"/>
+      <c r="B73" s="155"/>
       <c r="C73" s="25" t="s">
         <v>73</v>
       </c>
@@ -3528,18 +3538,20 @@
       <c r="F73" t="s">
         <v>279</v>
       </c>
-      <c r="G73" s="168"/>
-      <c r="H73" s="159"/>
+      <c r="G73" s="175"/>
+      <c r="H73" s="155"/>
       <c r="I73" s="25" t="s">
         <v>73</v>
       </c>
       <c r="J73" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K73" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="K73" s="2">
+        <v>123</v>
+      </c>
       <c r="L73" s="2"/>
-      <c r="M73" s="168"/>
-      <c r="N73" s="159"/>
+      <c r="M73" s="175"/>
+      <c r="N73" s="155"/>
       <c r="O73" s="25" t="s">
         <v>73</v>
       </c>
@@ -3550,8 +3562,8 @@
       <c r="R73" s="2"/>
     </row>
     <row r="74" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A74" s="168"/>
-      <c r="B74" s="159"/>
+      <c r="A74" s="175"/>
+      <c r="B74" s="155"/>
       <c r="C74" s="25" t="s">
         <v>74</v>
       </c>
@@ -3559,8 +3571,8 @@
         <v>0</v>
       </c>
       <c r="E74" s="2"/>
-      <c r="G74" s="168"/>
-      <c r="H74" s="159"/>
+      <c r="G74" s="175"/>
+      <c r="H74" s="155"/>
       <c r="I74" s="25" t="s">
         <v>74</v>
       </c>
@@ -3569,8 +3581,8 @@
       </c>
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
-      <c r="M74" s="168"/>
-      <c r="N74" s="159"/>
+      <c r="M74" s="175"/>
+      <c r="N74" s="155"/>
       <c r="O74" s="25" t="s">
         <v>74</v>
       </c>
@@ -3581,8 +3593,8 @@
       <c r="R74" s="2"/>
     </row>
     <row r="75" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A75" s="168"/>
-      <c r="B75" s="159"/>
+      <c r="A75" s="175"/>
+      <c r="B75" s="155"/>
       <c r="C75" s="25" t="s">
         <v>75</v>
       </c>
@@ -3590,8 +3602,8 @@
         <v>0</v>
       </c>
       <c r="E75" s="2"/>
-      <c r="G75" s="168"/>
-      <c r="H75" s="159"/>
+      <c r="G75" s="175"/>
+      <c r="H75" s="155"/>
       <c r="I75" s="25" t="s">
         <v>75</v>
       </c>
@@ -3600,8 +3612,8 @@
       </c>
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
-      <c r="M75" s="168"/>
-      <c r="N75" s="159"/>
+      <c r="M75" s="175"/>
+      <c r="N75" s="155"/>
       <c r="O75" s="25" t="s">
         <v>75</v>
       </c>
@@ -3612,8 +3624,8 @@
       <c r="R75" s="2"/>
     </row>
     <row r="76" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A76" s="168"/>
-      <c r="B76" s="159"/>
+      <c r="A76" s="175"/>
+      <c r="B76" s="155"/>
       <c r="C76" s="25" t="s">
         <v>76</v>
       </c>
@@ -3621,8 +3633,8 @@
         <v>0</v>
       </c>
       <c r="E76" s="2"/>
-      <c r="G76" s="168"/>
-      <c r="H76" s="159"/>
+      <c r="G76" s="175"/>
+      <c r="H76" s="155"/>
       <c r="I76" s="25" t="s">
         <v>76</v>
       </c>
@@ -3631,8 +3643,8 @@
       </c>
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
-      <c r="M76" s="168"/>
-      <c r="N76" s="159"/>
+      <c r="M76" s="175"/>
+      <c r="N76" s="155"/>
       <c r="O76" s="25" t="s">
         <v>76</v>
       </c>
@@ -3643,8 +3655,8 @@
       <c r="R76" s="2"/>
     </row>
     <row r="77" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A77" s="168"/>
-      <c r="B77" s="159"/>
+      <c r="A77" s="175"/>
+      <c r="B77" s="155"/>
       <c r="C77" s="25" t="s">
         <v>77</v>
       </c>
@@ -3652,8 +3664,8 @@
         <v>0</v>
       </c>
       <c r="E77" s="2"/>
-      <c r="G77" s="168"/>
-      <c r="H77" s="159"/>
+      <c r="G77" s="175"/>
+      <c r="H77" s="155"/>
       <c r="I77" s="25" t="s">
         <v>77</v>
       </c>
@@ -3662,8 +3674,8 @@
       </c>
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
-      <c r="M77" s="168"/>
-      <c r="N77" s="159"/>
+      <c r="M77" s="175"/>
+      <c r="N77" s="155"/>
       <c r="O77" s="25" t="s">
         <v>77</v>
       </c>
@@ -3674,8 +3686,8 @@
       <c r="R77" s="2"/>
     </row>
     <row r="78" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A78" s="168"/>
-      <c r="B78" s="159"/>
+      <c r="A78" s="175"/>
+      <c r="B78" s="155"/>
       <c r="C78" s="25" t="s">
         <v>78</v>
       </c>
@@ -3683,8 +3695,8 @@
         <v>0</v>
       </c>
       <c r="E78" s="2"/>
-      <c r="G78" s="168"/>
-      <c r="H78" s="170"/>
+      <c r="G78" s="175"/>
+      <c r="H78" s="177"/>
       <c r="I78" s="25" t="s">
         <v>78</v>
       </c>
@@ -3693,8 +3705,8 @@
       </c>
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
-      <c r="M78" s="168"/>
-      <c r="N78" s="170"/>
+      <c r="M78" s="175"/>
+      <c r="N78" s="177"/>
       <c r="O78" s="25" t="s">
         <v>78</v>
       </c>
@@ -3708,29 +3720,29 @@
       <c r="A79" s="92" t="s">
         <v>80</v>
       </c>
-      <c r="B79" s="141" t="s">
+      <c r="B79" s="203" t="s">
         <v>278</v>
       </c>
-      <c r="C79" s="142"/>
-      <c r="D79" s="142"/>
-      <c r="E79" s="142"/>
-      <c r="F79" s="143"/>
+      <c r="C79" s="204"/>
+      <c r="D79" s="204"/>
+      <c r="E79" s="204"/>
+      <c r="F79" s="205"/>
       <c r="G79" s="92" t="s">
         <v>80</v>
       </c>
-      <c r="H79" s="144"/>
-      <c r="I79" s="145"/>
-      <c r="J79" s="145"/>
-      <c r="K79" s="145"/>
-      <c r="L79" s="146"/>
+      <c r="H79" s="206"/>
+      <c r="I79" s="207"/>
+      <c r="J79" s="207"/>
+      <c r="K79" s="207"/>
+      <c r="L79" s="208"/>
       <c r="M79" s="92" t="s">
         <v>80</v>
       </c>
-      <c r="N79" s="144"/>
-      <c r="O79" s="145"/>
-      <c r="P79" s="145"/>
-      <c r="Q79" s="145"/>
-      <c r="R79" s="146"/>
+      <c r="N79" s="206"/>
+      <c r="O79" s="207"/>
+      <c r="P79" s="207"/>
+      <c r="Q79" s="207"/>
+      <c r="R79" s="208"/>
     </row>
     <row r="80" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A80" s="92" t="s">
@@ -3742,11 +3754,11 @@
       <c r="C80" s="94" t="s">
         <v>238</v>
       </c>
-      <c r="D80" s="139" t="s">
+      <c r="D80" s="201" t="s">
         <v>265</v>
       </c>
-      <c r="E80" s="140"/>
-      <c r="F80" s="140"/>
+      <c r="E80" s="202"/>
+      <c r="F80" s="202"/>
       <c r="G80" s="92" t="s">
         <v>79</v>
       </c>
@@ -3756,9 +3768,9 @@
       <c r="I80" s="94" t="s">
         <v>238</v>
       </c>
-      <c r="J80" s="137"/>
-      <c r="K80" s="137"/>
-      <c r="L80" s="137"/>
+      <c r="J80" s="199"/>
+      <c r="K80" s="199"/>
+      <c r="L80" s="199"/>
       <c r="M80" s="92" t="s">
         <v>79</v>
       </c>
@@ -3768,49 +3780,49 @@
       <c r="O80" s="94" t="s">
         <v>238</v>
       </c>
-      <c r="P80" s="137"/>
-      <c r="Q80" s="137"/>
-      <c r="R80" s="137"/>
+      <c r="P80" s="199"/>
+      <c r="Q80" s="199"/>
+      <c r="R80" s="199"/>
     </row>
     <row r="81" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A81" s="153" t="s">
+      <c r="A81" s="195" t="s">
         <v>81</v>
       </c>
-      <c r="B81" s="147" t="b">
+      <c r="B81" s="196" t="b">
         <v>1</v>
       </c>
       <c r="C81" s="95" t="s">
         <v>235</v>
       </c>
-      <c r="D81" s="150" t="s">
+      <c r="D81" s="209" t="s">
         <v>266</v>
       </c>
-      <c r="E81" s="140"/>
-      <c r="F81" s="140"/>
-      <c r="G81" s="153" t="s">
+      <c r="E81" s="202"/>
+      <c r="F81" s="202"/>
+      <c r="G81" s="195" t="s">
         <v>81</v>
       </c>
-      <c r="H81" s="147" t="b">
+      <c r="H81" s="196" t="b">
         <v>0</v>
       </c>
       <c r="I81" s="95" t="s">
         <v>235</v>
       </c>
-      <c r="J81" s="137"/>
-      <c r="K81" s="137"/>
-      <c r="L81" s="137"/>
-      <c r="M81" s="153" t="s">
+      <c r="J81" s="199"/>
+      <c r="K81" s="199"/>
+      <c r="L81" s="199"/>
+      <c r="M81" s="195" t="s">
         <v>81</v>
       </c>
-      <c r="N81" s="147" t="b">
+      <c r="N81" s="196" t="b">
         <v>0</v>
       </c>
       <c r="O81" s="95" t="s">
         <v>235</v>
       </c>
-      <c r="P81" s="137"/>
-      <c r="Q81" s="137"/>
-      <c r="R81" s="137"/>
+      <c r="P81" s="199"/>
+      <c r="Q81" s="199"/>
+      <c r="R81" s="199"/>
       <c r="S81" s="90"/>
       <c r="T81" s="90"/>
       <c r="U81" s="90"/>
@@ -3818,32 +3830,32 @@
       <c r="W81" s="90"/>
     </row>
     <row r="82" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="153"/>
-      <c r="B82" s="148"/>
+      <c r="A82" s="195"/>
+      <c r="B82" s="197"/>
       <c r="C82" s="96" t="s">
         <v>236</v>
       </c>
-      <c r="D82" s="151" t="s">
+      <c r="D82" s="210" t="s">
         <v>267</v>
       </c>
-      <c r="E82" s="152"/>
-      <c r="F82" s="152"/>
-      <c r="G82" s="153"/>
-      <c r="H82" s="148"/>
+      <c r="E82" s="211"/>
+      <c r="F82" s="211"/>
+      <c r="G82" s="195"/>
+      <c r="H82" s="197"/>
       <c r="I82" s="96" t="s">
         <v>236</v>
       </c>
-      <c r="J82" s="138"/>
-      <c r="K82" s="138"/>
-      <c r="L82" s="138"/>
-      <c r="M82" s="153"/>
-      <c r="N82" s="148"/>
+      <c r="J82" s="200"/>
+      <c r="K82" s="200"/>
+      <c r="L82" s="200"/>
+      <c r="M82" s="195"/>
+      <c r="N82" s="197"/>
       <c r="O82" s="96" t="s">
         <v>236</v>
       </c>
-      <c r="P82" s="138"/>
-      <c r="Q82" s="138"/>
-      <c r="R82" s="138"/>
+      <c r="P82" s="200"/>
+      <c r="Q82" s="200"/>
+      <c r="R82" s="200"/>
       <c r="S82" s="90"/>
       <c r="T82" s="90"/>
       <c r="U82" s="90"/>
@@ -3851,32 +3863,32 @@
       <c r="W82" s="90"/>
     </row>
     <row r="83" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="153"/>
-      <c r="B83" s="149"/>
+      <c r="A83" s="195"/>
+      <c r="B83" s="198"/>
       <c r="C83" s="97" t="s">
         <v>237</v>
       </c>
-      <c r="D83" s="151" t="s">
+      <c r="D83" s="210" t="s">
         <v>268</v>
       </c>
-      <c r="E83" s="152"/>
-      <c r="F83" s="152"/>
-      <c r="G83" s="153"/>
-      <c r="H83" s="149"/>
+      <c r="E83" s="211"/>
+      <c r="F83" s="211"/>
+      <c r="G83" s="195"/>
+      <c r="H83" s="198"/>
       <c r="I83" s="97" t="s">
         <v>237</v>
       </c>
-      <c r="J83" s="138"/>
-      <c r="K83" s="138"/>
-      <c r="L83" s="138"/>
-      <c r="M83" s="153"/>
-      <c r="N83" s="149"/>
+      <c r="J83" s="200"/>
+      <c r="K83" s="200"/>
+      <c r="L83" s="200"/>
+      <c r="M83" s="195"/>
+      <c r="N83" s="198"/>
       <c r="O83" s="97" t="s">
         <v>237</v>
       </c>
-      <c r="P83" s="138"/>
-      <c r="Q83" s="138"/>
-      <c r="R83" s="138"/>
+      <c r="P83" s="200"/>
+      <c r="Q83" s="200"/>
+      <c r="R83" s="200"/>
       <c r="S83" s="90"/>
       <c r="T83" s="90"/>
       <c r="U83" s="90"/>
@@ -3900,13 +3912,13 @@
       <c r="N84" s="91"/>
     </row>
     <row r="85" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="132" t="s">
+      <c r="A85" s="212" t="s">
         <v>247</v>
       </c>
-      <c r="B85" s="133"/>
-      <c r="C85" s="133"/>
-      <c r="D85" s="133"/>
-      <c r="E85" s="134"/>
+      <c r="B85" s="213"/>
+      <c r="C85" s="213"/>
+      <c r="D85" s="213"/>
+      <c r="E85" s="214"/>
       <c r="F85" s="90"/>
       <c r="G85" s="90"/>
       <c r="H85" s="90"/>
@@ -3921,12 +3933,12 @@
       <c r="A86" s="103" t="s">
         <v>146</v>
       </c>
-      <c r="B86" s="135">
+      <c r="B86" s="215">
         <v>1231</v>
       </c>
-      <c r="C86" s="135"/>
-      <c r="D86" s="135"/>
-      <c r="E86" s="136"/>
+      <c r="C86" s="215"/>
+      <c r="D86" s="215"/>
+      <c r="E86" s="216"/>
       <c r="F86" s="90"/>
       <c r="G86" s="90"/>
       <c r="H86" s="90"/>
@@ -3938,17 +3950,17 @@
       <c r="N86" s="90"/>
     </row>
     <row r="87" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="119" t="s">
+      <c r="A87" s="217" t="s">
         <v>248</v>
       </c>
       <c r="B87" s="101" t="s">
         <v>249</v>
       </c>
-      <c r="C87" s="122" t="s">
+      <c r="C87" s="218" t="s">
         <v>272</v>
       </c>
-      <c r="D87" s="122"/>
-      <c r="E87" s="123"/>
+      <c r="D87" s="218"/>
+      <c r="E87" s="219"/>
       <c r="F87" s="90"/>
       <c r="G87" s="90"/>
       <c r="H87" s="90"/>
@@ -3960,15 +3972,15 @@
       <c r="N87" s="90"/>
     </row>
     <row r="88" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="119"/>
+      <c r="A88" s="217"/>
       <c r="B88" s="102" t="s">
         <v>250</v>
       </c>
-      <c r="C88" s="122" t="s">
+      <c r="C88" s="218" t="s">
         <v>271</v>
       </c>
-      <c r="D88" s="122"/>
-      <c r="E88" s="123"/>
+      <c r="D88" s="218"/>
+      <c r="E88" s="219"/>
     </row>
     <row r="89" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="103" t="s">
@@ -3980,546 +3992,476 @@
       <c r="C89" s="100" t="s">
         <v>252</v>
       </c>
-      <c r="D89" s="128" t="s">
+      <c r="D89" s="220" t="s">
         <v>270</v>
       </c>
-      <c r="E89" s="129"/>
+      <c r="E89" s="221"/>
     </row>
     <row r="90" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="119" t="s">
+      <c r="A90" s="217" t="s">
         <v>253</v>
       </c>
-      <c r="B90" s="120" t="s">
+      <c r="B90" s="222" t="s">
         <v>254</v>
       </c>
-      <c r="C90" s="121"/>
-      <c r="D90" s="130" t="b">
-        <v>0</v>
-      </c>
-      <c r="E90" s="131"/>
+      <c r="C90" s="223"/>
+      <c r="D90" s="224" t="b">
+        <v>0</v>
+      </c>
+      <c r="E90" s="225"/>
     </row>
     <row r="91" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="119"/>
-      <c r="B91" s="124" t="s">
+      <c r="A91" s="217"/>
+      <c r="B91" s="226" t="s">
         <v>255</v>
       </c>
-      <c r="C91" s="125"/>
-      <c r="D91" s="130" t="b">
+      <c r="C91" s="227"/>
+      <c r="D91" s="224" t="b">
         <v>1</v>
       </c>
-      <c r="E91" s="131"/>
+      <c r="E91" s="225"/>
     </row>
     <row r="92" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="119"/>
-      <c r="B92" s="124" t="s">
+      <c r="A92" s="217"/>
+      <c r="B92" s="226" t="s">
         <v>256</v>
       </c>
-      <c r="C92" s="125"/>
-      <c r="D92" s="130" t="b">
-        <v>0</v>
-      </c>
-      <c r="E92" s="131"/>
+      <c r="C92" s="227"/>
+      <c r="D92" s="224" t="b">
+        <v>0</v>
+      </c>
+      <c r="E92" s="225"/>
     </row>
     <row r="93" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="119"/>
-      <c r="B93" s="124" t="s">
+      <c r="A93" s="217"/>
+      <c r="B93" s="226" t="s">
         <v>73</v>
       </c>
-      <c r="C93" s="125"/>
-      <c r="D93" s="130" t="b">
-        <v>0</v>
-      </c>
-      <c r="E93" s="131"/>
+      <c r="C93" s="227"/>
+      <c r="D93" s="224" t="b">
+        <v>0</v>
+      </c>
+      <c r="E93" s="225"/>
     </row>
     <row r="94" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="119"/>
-      <c r="B94" s="126" t="s">
+      <c r="A94" s="217"/>
+      <c r="B94" s="228" t="s">
         <v>257</v>
       </c>
-      <c r="C94" s="127"/>
-      <c r="D94" s="130" t="b">
-        <v>0</v>
-      </c>
-      <c r="E94" s="131"/>
+      <c r="C94" s="229"/>
+      <c r="D94" s="224" t="b">
+        <v>0</v>
+      </c>
+      <c r="E94" s="225"/>
     </row>
     <row r="95" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="119" t="s">
+      <c r="A95" s="217" t="s">
         <v>258</v>
       </c>
-      <c r="B95" s="120" t="s">
+      <c r="B95" s="222" t="s">
         <v>259</v>
       </c>
-      <c r="C95" s="121"/>
-      <c r="D95" s="122" t="s">
+      <c r="C95" s="223"/>
+      <c r="D95" s="218" t="s">
         <v>273</v>
       </c>
-      <c r="E95" s="123"/>
+      <c r="E95" s="219"/>
     </row>
     <row r="96" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="119"/>
-      <c r="B96" s="124" t="s">
+      <c r="A96" s="217"/>
+      <c r="B96" s="226" t="s">
         <v>260</v>
       </c>
-      <c r="C96" s="125"/>
-      <c r="D96" s="122" t="s">
+      <c r="C96" s="227"/>
+      <c r="D96" s="218" t="s">
         <v>274</v>
       </c>
-      <c r="E96" s="123"/>
+      <c r="E96" s="219"/>
     </row>
     <row r="97" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="119"/>
-      <c r="B97" s="124" t="s">
+      <c r="A97" s="217"/>
+      <c r="B97" s="226" t="s">
         <v>261</v>
       </c>
-      <c r="C97" s="125"/>
-      <c r="D97" s="122" t="s">
+      <c r="C97" s="227"/>
+      <c r="D97" s="218" t="s">
         <v>275</v>
       </c>
-      <c r="E97" s="123"/>
+      <c r="E97" s="219"/>
     </row>
     <row r="98" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="119"/>
-      <c r="B98" s="126" t="s">
+      <c r="A98" s="217"/>
+      <c r="B98" s="228" t="s">
         <v>262</v>
       </c>
-      <c r="C98" s="127"/>
-      <c r="D98" s="122" t="s">
+      <c r="C98" s="229"/>
+      <c r="D98" s="218" t="s">
         <v>276</v>
       </c>
-      <c r="E98" s="123"/>
+      <c r="E98" s="219"/>
     </row>
     <row r="99" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="103" t="s">
         <v>263</v>
       </c>
-      <c r="B99" s="117" t="s">
+      <c r="B99" s="230" t="s">
         <v>277</v>
       </c>
-      <c r="C99" s="117"/>
-      <c r="D99" s="117"/>
-      <c r="E99" s="118"/>
+      <c r="C99" s="230"/>
+      <c r="D99" s="230"/>
+      <c r="E99" s="231"/>
     </row>
     <row r="100" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="101" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="228" t="s">
+      <c r="A101" s="144" t="s">
         <v>283</v>
       </c>
-      <c r="B101" s="229"/>
-      <c r="C101" s="229"/>
-      <c r="D101" s="230"/>
+      <c r="B101" s="145"/>
+      <c r="C101" s="145"/>
+      <c r="D101" s="146"/>
     </row>
     <row r="102" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="231" t="s">
+      <c r="A102" s="147" t="s">
         <v>101</v>
       </c>
-      <c r="B102" s="232"/>
-      <c r="C102" s="232"/>
-      <c r="D102" s="233"/>
+      <c r="B102" s="142"/>
+      <c r="C102" s="142"/>
+      <c r="D102" s="148"/>
     </row>
     <row r="103" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="212" t="s">
+      <c r="A103" s="117" t="s">
         <v>102</v>
       </c>
-      <c r="B103" s="213" t="s">
+      <c r="B103" s="118" t="s">
         <v>296</v>
       </c>
-      <c r="C103" s="213"/>
-      <c r="D103" s="214"/>
+      <c r="C103" s="118"/>
+      <c r="D103" s="119"/>
     </row>
     <row r="104" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="215" t="s">
+      <c r="A104" s="120" t="s">
         <v>284</v>
       </c>
-      <c r="B104" s="216" t="s">
+      <c r="B104" s="121" t="s">
         <v>297</v>
       </c>
-      <c r="C104" s="216"/>
-      <c r="D104" s="217"/>
+      <c r="C104" s="121"/>
+      <c r="D104" s="122"/>
     </row>
     <row r="105" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="231" t="s">
+      <c r="A105" s="147" t="s">
         <v>125</v>
       </c>
-      <c r="B105" s="232"/>
-      <c r="C105" s="232"/>
-      <c r="D105" s="233"/>
+      <c r="B105" s="142"/>
+      <c r="C105" s="142"/>
+      <c r="D105" s="148"/>
     </row>
     <row r="106" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="212" t="s">
+      <c r="A106" s="117" t="s">
         <v>134</v>
       </c>
-      <c r="B106" s="213" t="s">
+      <c r="B106" s="118" t="s">
         <v>298</v>
       </c>
-      <c r="C106" s="213"/>
-      <c r="D106" s="214"/>
+      <c r="C106" s="118"/>
+      <c r="D106" s="119"/>
     </row>
     <row r="107" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="218" t="s">
+      <c r="A107" s="123" t="s">
         <v>130</v>
       </c>
-      <c r="B107" s="219" t="s">
+      <c r="B107" s="124" t="s">
         <v>299</v>
       </c>
-      <c r="C107" s="219"/>
-      <c r="D107" s="220"/>
+      <c r="C107" s="124"/>
+      <c r="D107" s="125"/>
     </row>
     <row r="108" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="231" t="s">
+      <c r="A108" s="147" t="s">
         <v>126</v>
       </c>
-      <c r="B108" s="232"/>
-      <c r="C108" s="232"/>
-      <c r="D108" s="233"/>
+      <c r="B108" s="142"/>
+      <c r="C108" s="142"/>
+      <c r="D108" s="148"/>
     </row>
     <row r="109" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="212" t="s">
+      <c r="A109" s="117" t="s">
         <v>285</v>
       </c>
-      <c r="B109" s="213" t="s">
+      <c r="B109" s="118" t="s">
         <v>300</v>
       </c>
-      <c r="C109" s="213"/>
-      <c r="D109" s="214"/>
+      <c r="C109" s="118"/>
+      <c r="D109" s="119"/>
     </row>
     <row r="110" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="212" t="s">
+      <c r="A110" s="117" t="s">
         <v>130</v>
       </c>
-      <c r="B110" s="213" t="s">
+      <c r="B110" s="118" t="s">
         <v>301</v>
       </c>
-      <c r="C110" s="213"/>
-      <c r="D110" s="214"/>
+      <c r="C110" s="118"/>
+      <c r="D110" s="119"/>
     </row>
     <row r="111" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="215" t="s">
+      <c r="A111" s="120" t="s">
         <v>109</v>
       </c>
-      <c r="B111" s="216" t="s">
+      <c r="B111" s="121" t="s">
         <v>302</v>
       </c>
-      <c r="C111" s="216"/>
-      <c r="D111" s="217"/>
+      <c r="C111" s="121"/>
+      <c r="D111" s="122"/>
     </row>
     <row r="112" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="231" t="s">
+      <c r="A112" s="147" t="s">
         <v>135</v>
       </c>
-      <c r="B112" s="232"/>
-      <c r="C112" s="232"/>
-      <c r="D112" s="233"/>
+      <c r="B112" s="142"/>
+      <c r="C112" s="142"/>
+      <c r="D112" s="148"/>
     </row>
     <row r="113" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="215" t="s">
+      <c r="A113" s="120" t="s">
         <v>103</v>
       </c>
-      <c r="B113" s="239">
+      <c r="B113" s="133">
         <v>123123</v>
       </c>
-      <c r="C113" s="216"/>
-      <c r="D113" s="217"/>
+      <c r="C113" s="121"/>
+      <c r="D113" s="122"/>
     </row>
     <row r="114" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="212" t="s">
+      <c r="A114" s="117" t="s">
         <v>286</v>
       </c>
-      <c r="B114" s="240" t="s">
+      <c r="B114" s="134" t="s">
         <v>303</v>
       </c>
-      <c r="C114" s="221" t="s">
+      <c r="C114" s="126" t="s">
         <v>287</v>
       </c>
-      <c r="D114" s="240" t="s">
+      <c r="D114" s="134" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="215" t="s">
+      <c r="A115" s="120" t="s">
         <v>288</v>
       </c>
-      <c r="B115" s="241" t="s">
+      <c r="B115" s="135" t="s">
         <v>304</v>
       </c>
-      <c r="C115" s="218" t="s">
+      <c r="C115" s="123" t="s">
         <v>147</v>
       </c>
-      <c r="D115" s="241" t="s">
+      <c r="D115" s="135" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="212" t="s">
+      <c r="A116" s="117" t="s">
         <v>289</v>
       </c>
-      <c r="B116" s="242">
+      <c r="B116" s="136">
         <v>12313</v>
       </c>
-      <c r="C116" s="213"/>
-      <c r="D116" s="214"/>
+      <c r="C116" s="118"/>
+      <c r="D116" s="119"/>
     </row>
     <row r="117" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="212" t="s">
+      <c r="A117" s="117" t="s">
         <v>154</v>
       </c>
-      <c r="B117" s="242" t="s">
+      <c r="B117" s="136" t="s">
         <v>307</v>
       </c>
-      <c r="C117" s="213"/>
-      <c r="D117" s="214"/>
+      <c r="C117" s="118"/>
+      <c r="D117" s="119"/>
     </row>
     <row r="118" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="222" t="s">
+      <c r="A118" s="127" t="s">
         <v>156</v>
       </c>
-      <c r="B118" s="242">
+      <c r="B118" s="136">
         <v>21321</v>
       </c>
-      <c r="C118" s="213"/>
-      <c r="D118" s="214"/>
+      <c r="C118" s="118"/>
+      <c r="D118" s="119"/>
     </row>
     <row r="119" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="215" t="s">
+      <c r="A119" s="120" t="s">
         <v>159</v>
       </c>
-      <c r="B119" s="239" t="s">
+      <c r="B119" s="133" t="s">
         <v>317</v>
       </c>
-      <c r="C119" s="216"/>
-      <c r="D119" s="217"/>
+      <c r="C119" s="121"/>
+      <c r="D119" s="122"/>
     </row>
     <row r="120" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="234" t="s">
+      <c r="A120" s="138" t="s">
         <v>290</v>
       </c>
-      <c r="B120" s="235"/>
-      <c r="C120" s="235"/>
-      <c r="D120" s="236"/>
+      <c r="B120" s="139"/>
+      <c r="C120" s="139"/>
+      <c r="D120" s="140"/>
     </row>
     <row r="121" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="212" t="s">
+      <c r="A121" s="117" t="s">
         <v>291</v>
       </c>
-      <c r="B121" s="243">
+      <c r="B121" s="137">
         <v>3211223</v>
       </c>
-      <c r="C121" s="221" t="s">
+      <c r="C121" s="126" t="s">
         <v>292</v>
       </c>
-      <c r="D121" s="243">
+      <c r="D121" s="137">
         <v>2132312</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="215" t="s">
+      <c r="A122" s="120" t="s">
         <v>293</v>
       </c>
-      <c r="B122" s="241">
+      <c r="B122" s="135">
         <v>1221213</v>
       </c>
-      <c r="C122" s="218" t="s">
+      <c r="C122" s="123" t="s">
         <v>294</v>
       </c>
-      <c r="D122" s="241" t="s">
+      <c r="D122" s="135" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="234" t="s">
+      <c r="A123" s="138" t="s">
         <v>175</v>
       </c>
-      <c r="B123" s="235"/>
-      <c r="C123" s="235"/>
-      <c r="D123" s="236"/>
+      <c r="B123" s="139"/>
+      <c r="C123" s="139"/>
+      <c r="D123" s="140"/>
     </row>
     <row r="124" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="224" t="s">
+      <c r="A124" s="129" t="s">
         <v>295</v>
       </c>
-      <c r="B124" s="219" t="s">
+      <c r="B124" s="124" t="s">
         <v>308</v>
       </c>
-      <c r="C124" s="219"/>
-      <c r="D124" s="220"/>
+      <c r="C124" s="124"/>
+      <c r="D124" s="125"/>
     </row>
     <row r="125" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="237" t="s">
+      <c r="A125" s="141" t="s">
         <v>172</v>
       </c>
-      <c r="B125" s="232"/>
-      <c r="C125" s="232"/>
-      <c r="D125" s="238"/>
+      <c r="B125" s="142"/>
+      <c r="C125" s="142"/>
+      <c r="D125" s="143"/>
     </row>
     <row r="126" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="222" t="s">
+      <c r="A126" s="127" t="s">
         <v>176</v>
       </c>
-      <c r="B126" s="223" t="s">
+      <c r="B126" s="128" t="s">
         <v>309</v>
       </c>
-      <c r="C126" s="225" t="s">
+      <c r="C126" s="130" t="s">
         <v>178</v>
       </c>
-      <c r="D126" s="240">
+      <c r="D126" s="134">
         <v>123</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="226" t="s">
+      <c r="A127" s="131" t="s">
         <v>182</v>
       </c>
-      <c r="B127" s="217" t="s">
+      <c r="B127" s="122" t="s">
         <v>310</v>
       </c>
-      <c r="C127" s="227" t="s">
+      <c r="C127" s="132" t="s">
         <v>183</v>
       </c>
-      <c r="D127" s="241" t="s">
+      <c r="D127" s="135" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="234" t="s">
+      <c r="A128" s="138" t="s">
         <v>186</v>
       </c>
-      <c r="B128" s="235"/>
-      <c r="C128" s="235"/>
-      <c r="D128" s="236"/>
+      <c r="B128" s="139"/>
+      <c r="C128" s="139"/>
+      <c r="D128" s="140"/>
     </row>
     <row r="129" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="222" t="s">
+      <c r="A129" s="127" t="s">
         <v>187</v>
       </c>
-      <c r="B129" s="214" t="s">
+      <c r="B129" s="119" t="s">
         <v>313</v>
       </c>
-      <c r="C129" s="225" t="s">
+      <c r="C129" s="130" t="s">
         <v>189</v>
       </c>
-      <c r="D129" s="214" t="s">
+      <c r="D129" s="119" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="226" t="s">
+      <c r="A130" s="131" t="s">
         <v>191</v>
       </c>
-      <c r="B130" s="220" t="s">
+      <c r="B130" s="125" t="s">
         <v>311</v>
       </c>
-      <c r="C130" s="227" t="s">
+      <c r="C130" s="132" t="s">
         <v>193</v>
       </c>
-      <c r="D130" s="217" t="s">
+      <c r="D130" s="122" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="226" t="s">
+      <c r="A131" s="131" t="s">
         <v>102</v>
       </c>
-      <c r="B131" s="217" t="s">
+      <c r="B131" s="122" t="s">
         <v>296</v>
       </c>
-      <c r="C131" s="227" t="s">
+      <c r="C131" s="132" t="s">
         <v>195</v>
       </c>
-      <c r="D131" s="217" t="s">
+      <c r="D131" s="122" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="226" t="s">
+      <c r="A132" s="131" t="s">
         <v>196</v>
       </c>
-      <c r="B132" s="216" t="s">
+      <c r="B132" s="121" t="s">
         <v>312</v>
       </c>
-      <c r="C132" s="216"/>
-      <c r="D132" s="217"/>
+      <c r="C132" s="121"/>
+      <c r="D132" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="107">
-    <mergeCell ref="A120:D120"/>
-    <mergeCell ref="A123:D123"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="A128:D128"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="A102:D102"/>
-    <mergeCell ref="A105:D105"/>
-    <mergeCell ref="A108:D108"/>
-    <mergeCell ref="A112:D112"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="H64:L64"/>
-    <mergeCell ref="A28:A35"/>
-    <mergeCell ref="A41:A48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="G65:G78"/>
-    <mergeCell ref="H67:H78"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A65:A78"/>
-    <mergeCell ref="B67:B78"/>
-    <mergeCell ref="D28:D35"/>
-    <mergeCell ref="G28:G35"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A22:I22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="C65:F65"/>
-    <mergeCell ref="C66:F66"/>
-    <mergeCell ref="I66:L66"/>
-    <mergeCell ref="O66:R66"/>
-    <mergeCell ref="A62:R62"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="G63:L63"/>
-    <mergeCell ref="M63:R63"/>
-    <mergeCell ref="B64:F64"/>
-    <mergeCell ref="N64:R64"/>
-    <mergeCell ref="O65:R65"/>
-    <mergeCell ref="I65:L65"/>
-    <mergeCell ref="M65:M78"/>
-    <mergeCell ref="N67:N78"/>
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="G81:G83"/>
-    <mergeCell ref="H81:H83"/>
-    <mergeCell ref="M81:M83"/>
-    <mergeCell ref="P81:R81"/>
-    <mergeCell ref="P82:R82"/>
-    <mergeCell ref="P83:R83"/>
-    <mergeCell ref="D80:F80"/>
-    <mergeCell ref="B79:F79"/>
-    <mergeCell ref="J80:L80"/>
-    <mergeCell ref="H79:L79"/>
-    <mergeCell ref="P80:R80"/>
-    <mergeCell ref="N79:R79"/>
-    <mergeCell ref="N81:N83"/>
-    <mergeCell ref="D81:F81"/>
-    <mergeCell ref="D82:F82"/>
-    <mergeCell ref="D83:F83"/>
-    <mergeCell ref="J81:L81"/>
-    <mergeCell ref="J82:L82"/>
-    <mergeCell ref="J83:L83"/>
+    <mergeCell ref="B99:E99"/>
+    <mergeCell ref="A95:A98"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="D98:E98"/>
     <mergeCell ref="A85:E85"/>
     <mergeCell ref="B86:E86"/>
     <mergeCell ref="A87:A88"/>
@@ -4537,16 +4479,86 @@
     <mergeCell ref="D93:E93"/>
     <mergeCell ref="B94:C94"/>
     <mergeCell ref="D94:E94"/>
-    <mergeCell ref="B99:E99"/>
-    <mergeCell ref="A95:A98"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="B79:F79"/>
+    <mergeCell ref="J80:L80"/>
+    <mergeCell ref="H79:L79"/>
+    <mergeCell ref="P80:R80"/>
+    <mergeCell ref="N79:R79"/>
+    <mergeCell ref="N81:N83"/>
+    <mergeCell ref="D81:F81"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="J81:L81"/>
+    <mergeCell ref="J82:L82"/>
+    <mergeCell ref="J83:L83"/>
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="G81:G83"/>
+    <mergeCell ref="H81:H83"/>
+    <mergeCell ref="M81:M83"/>
+    <mergeCell ref="P81:R81"/>
+    <mergeCell ref="P82:R82"/>
+    <mergeCell ref="P83:R83"/>
+    <mergeCell ref="D80:F80"/>
+    <mergeCell ref="O66:R66"/>
+    <mergeCell ref="A62:R62"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="G63:L63"/>
+    <mergeCell ref="M63:R63"/>
+    <mergeCell ref="B64:F64"/>
+    <mergeCell ref="N64:R64"/>
+    <mergeCell ref="O65:R65"/>
+    <mergeCell ref="I65:L65"/>
+    <mergeCell ref="M65:M78"/>
+    <mergeCell ref="N67:N78"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="G65:G78"/>
+    <mergeCell ref="H67:H78"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A65:A78"/>
+    <mergeCell ref="B67:B78"/>
+    <mergeCell ref="D28:D35"/>
+    <mergeCell ref="G28:G35"/>
+    <mergeCell ref="C65:F65"/>
+    <mergeCell ref="C66:F66"/>
+    <mergeCell ref="I66:L66"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="H64:L64"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A41:A48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="A120:D120"/>
+    <mergeCell ref="A123:D123"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="A128:D128"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="A102:D102"/>
+    <mergeCell ref="A105:D105"/>
+    <mergeCell ref="A108:D108"/>
+    <mergeCell ref="A112:D112"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B20" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -4599,421 +4611,421 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="204" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="204" t="s">
+      <c r="A1" s="235" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="157"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="235" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="161"/>
-      <c r="H1" s="161"/>
-      <c r="I1" s="161"/>
-      <c r="J1" s="161"/>
-      <c r="K1" s="161"/>
-      <c r="L1" s="161"/>
-      <c r="M1" s="161"/>
-      <c r="N1" s="161"/>
-      <c r="O1" s="162"/>
-      <c r="P1" s="204" t="s">
+      <c r="E1" s="157"/>
+      <c r="F1" s="157"/>
+      <c r="G1" s="157"/>
+      <c r="H1" s="157"/>
+      <c r="I1" s="157"/>
+      <c r="J1" s="157"/>
+      <c r="K1" s="157"/>
+      <c r="L1" s="157"/>
+      <c r="M1" s="157"/>
+      <c r="N1" s="157"/>
+      <c r="O1" s="158"/>
+      <c r="P1" s="235" t="s">
         <v>82</v>
       </c>
-      <c r="Q1" s="161"/>
-      <c r="R1" s="161"/>
-      <c r="S1" s="162"/>
-      <c r="T1" s="200" t="s">
+      <c r="Q1" s="157"/>
+      <c r="R1" s="157"/>
+      <c r="S1" s="158"/>
+      <c r="T1" s="234" t="s">
         <v>83</v>
       </c>
-      <c r="U1" s="161"/>
-      <c r="V1" s="161"/>
-      <c r="W1" s="161"/>
-      <c r="X1" s="161"/>
-      <c r="Y1" s="161"/>
-      <c r="Z1" s="161"/>
-      <c r="AA1" s="161"/>
-      <c r="AB1" s="161"/>
-      <c r="AC1" s="161"/>
-      <c r="AD1" s="161"/>
-      <c r="AE1" s="161"/>
-      <c r="AF1" s="162"/>
-      <c r="AG1" s="200" t="s">
+      <c r="U1" s="157"/>
+      <c r="V1" s="157"/>
+      <c r="W1" s="157"/>
+      <c r="X1" s="157"/>
+      <c r="Y1" s="157"/>
+      <c r="Z1" s="157"/>
+      <c r="AA1" s="157"/>
+      <c r="AB1" s="157"/>
+      <c r="AC1" s="157"/>
+      <c r="AD1" s="157"/>
+      <c r="AE1" s="157"/>
+      <c r="AF1" s="158"/>
+      <c r="AG1" s="234" t="s">
         <v>84</v>
       </c>
-      <c r="AH1" s="161"/>
-      <c r="AI1" s="161"/>
-      <c r="AJ1" s="161"/>
-      <c r="AK1" s="161"/>
-      <c r="AL1" s="161"/>
-      <c r="AM1" s="161"/>
-      <c r="AN1" s="161"/>
-      <c r="AO1" s="161"/>
-      <c r="AP1" s="161"/>
-      <c r="AQ1" s="161"/>
-      <c r="AR1" s="161"/>
-      <c r="AS1" s="162"/>
-      <c r="AT1" s="200" t="s">
+      <c r="AH1" s="157"/>
+      <c r="AI1" s="157"/>
+      <c r="AJ1" s="157"/>
+      <c r="AK1" s="157"/>
+      <c r="AL1" s="157"/>
+      <c r="AM1" s="157"/>
+      <c r="AN1" s="157"/>
+      <c r="AO1" s="157"/>
+      <c r="AP1" s="157"/>
+      <c r="AQ1" s="157"/>
+      <c r="AR1" s="157"/>
+      <c r="AS1" s="158"/>
+      <c r="AT1" s="234" t="s">
         <v>48</v>
       </c>
-      <c r="AU1" s="161"/>
-      <c r="AV1" s="161"/>
-      <c r="AW1" s="161"/>
-      <c r="AX1" s="161"/>
-      <c r="AY1" s="161"/>
-      <c r="AZ1" s="162"/>
-      <c r="BA1" s="200" t="s">
+      <c r="AU1" s="157"/>
+      <c r="AV1" s="157"/>
+      <c r="AW1" s="157"/>
+      <c r="AX1" s="157"/>
+      <c r="AY1" s="157"/>
+      <c r="AZ1" s="158"/>
+      <c r="BA1" s="234" t="s">
         <v>85</v>
       </c>
-      <c r="BB1" s="161"/>
-      <c r="BC1" s="161"/>
-      <c r="BD1" s="161"/>
-      <c r="BE1" s="161"/>
-      <c r="BF1" s="161"/>
-      <c r="BG1" s="161"/>
-      <c r="BH1" s="161"/>
-      <c r="BI1" s="161"/>
-      <c r="BJ1" s="161"/>
-      <c r="BK1" s="161"/>
-      <c r="BL1" s="161"/>
-      <c r="BM1" s="161"/>
-      <c r="BN1" s="161"/>
-      <c r="BO1" s="161"/>
-      <c r="BP1" s="161"/>
-      <c r="BQ1" s="161"/>
-      <c r="BR1" s="161"/>
-      <c r="BS1" s="161"/>
-      <c r="BT1" s="161"/>
-      <c r="BU1" s="161"/>
-      <c r="BV1" s="161"/>
-      <c r="BW1" s="161"/>
-      <c r="BX1" s="161"/>
-      <c r="BY1" s="161"/>
-      <c r="BZ1" s="161"/>
-      <c r="CA1" s="161"/>
-      <c r="CB1" s="161"/>
-      <c r="CC1" s="161"/>
-      <c r="CD1" s="161"/>
-      <c r="CE1" s="161"/>
-      <c r="CF1" s="161"/>
-      <c r="CG1" s="161"/>
-      <c r="CH1" s="161"/>
-      <c r="CI1" s="161"/>
-      <c r="CJ1" s="161"/>
-      <c r="CK1" s="161"/>
-      <c r="CL1" s="161"/>
-      <c r="CM1" s="162"/>
+      <c r="BB1" s="157"/>
+      <c r="BC1" s="157"/>
+      <c r="BD1" s="157"/>
+      <c r="BE1" s="157"/>
+      <c r="BF1" s="157"/>
+      <c r="BG1" s="157"/>
+      <c r="BH1" s="157"/>
+      <c r="BI1" s="157"/>
+      <c r="BJ1" s="157"/>
+      <c r="BK1" s="157"/>
+      <c r="BL1" s="157"/>
+      <c r="BM1" s="157"/>
+      <c r="BN1" s="157"/>
+      <c r="BO1" s="157"/>
+      <c r="BP1" s="157"/>
+      <c r="BQ1" s="157"/>
+      <c r="BR1" s="157"/>
+      <c r="BS1" s="157"/>
+      <c r="BT1" s="157"/>
+      <c r="BU1" s="157"/>
+      <c r="BV1" s="157"/>
+      <c r="BW1" s="157"/>
+      <c r="BX1" s="157"/>
+      <c r="BY1" s="157"/>
+      <c r="BZ1" s="157"/>
+      <c r="CA1" s="157"/>
+      <c r="CB1" s="157"/>
+      <c r="CC1" s="157"/>
+      <c r="CD1" s="157"/>
+      <c r="CE1" s="157"/>
+      <c r="CF1" s="157"/>
+      <c r="CG1" s="157"/>
+      <c r="CH1" s="157"/>
+      <c r="CI1" s="157"/>
+      <c r="CJ1" s="157"/>
+      <c r="CK1" s="157"/>
+      <c r="CL1" s="157"/>
+      <c r="CM1" s="158"/>
     </row>
     <row r="2" spans="1:175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="205" t="s">
+      <c r="A2" s="236" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="201" t="s">
+      <c r="B2" s="232" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="201" t="s">
+      <c r="C2" s="232" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="201" t="s">
+      <c r="D2" s="232" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="201" t="s">
+      <c r="E2" s="232" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="201" t="s">
+      <c r="F2" s="232" t="s">
         <v>87</v>
       </c>
-      <c r="G2" s="201" t="s">
+      <c r="G2" s="232" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="201" t="s">
+      <c r="H2" s="232" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="201" t="s">
+      <c r="I2" s="232" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="201" t="s">
+      <c r="J2" s="232" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="201" t="s">
+      <c r="K2" s="232" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="201" t="s">
+      <c r="L2" s="232" t="s">
         <v>88</v>
       </c>
-      <c r="M2" s="201" t="s">
+      <c r="M2" s="232" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="201" t="s">
+      <c r="N2" s="232" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="201" t="s">
+      <c r="O2" s="232" t="s">
         <v>89</v>
       </c>
-      <c r="P2" s="201" t="s">
+      <c r="P2" s="232" t="s">
         <v>90</v>
       </c>
-      <c r="Q2" s="201" t="s">
+      <c r="Q2" s="232" t="s">
         <v>91</v>
       </c>
-      <c r="R2" s="201" t="s">
+      <c r="R2" s="232" t="s">
         <v>23</v>
       </c>
-      <c r="S2" s="201" t="s">
+      <c r="S2" s="232" t="s">
         <v>25</v>
       </c>
-      <c r="T2" s="201" t="s">
+      <c r="T2" s="232" t="s">
         <v>30</v>
       </c>
-      <c r="U2" s="201" t="s">
+      <c r="U2" s="232" t="s">
         <v>6</v>
       </c>
-      <c r="V2" s="201" t="s">
+      <c r="V2" s="232" t="s">
         <v>92</v>
       </c>
-      <c r="W2" s="201" t="s">
+      <c r="W2" s="232" t="s">
         <v>93</v>
       </c>
-      <c r="X2" s="200" t="s">
+      <c r="X2" s="234" t="s">
         <v>32</v>
       </c>
-      <c r="Y2" s="161"/>
-      <c r="Z2" s="161"/>
-      <c r="AA2" s="161"/>
-      <c r="AB2" s="161"/>
-      <c r="AC2" s="161"/>
-      <c r="AD2" s="161"/>
-      <c r="AE2" s="162"/>
-      <c r="AF2" s="201" t="s">
+      <c r="Y2" s="157"/>
+      <c r="Z2" s="157"/>
+      <c r="AA2" s="157"/>
+      <c r="AB2" s="157"/>
+      <c r="AC2" s="157"/>
+      <c r="AD2" s="157"/>
+      <c r="AE2" s="158"/>
+      <c r="AF2" s="232" t="s">
         <v>41</v>
       </c>
-      <c r="AG2" s="201" t="s">
+      <c r="AG2" s="232" t="s">
         <v>94</v>
       </c>
-      <c r="AH2" s="201" t="s">
+      <c r="AH2" s="232" t="s">
         <v>44</v>
       </c>
-      <c r="AI2" s="204" t="s">
+      <c r="AI2" s="235" t="s">
         <v>32</v>
       </c>
-      <c r="AJ2" s="161"/>
-      <c r="AK2" s="161"/>
-      <c r="AL2" s="161"/>
-      <c r="AM2" s="161"/>
-      <c r="AN2" s="161"/>
-      <c r="AO2" s="161"/>
-      <c r="AP2" s="162"/>
-      <c r="AQ2" s="201" t="s">
+      <c r="AJ2" s="157"/>
+      <c r="AK2" s="157"/>
+      <c r="AL2" s="157"/>
+      <c r="AM2" s="157"/>
+      <c r="AN2" s="157"/>
+      <c r="AO2" s="157"/>
+      <c r="AP2" s="158"/>
+      <c r="AQ2" s="232" t="s">
         <v>41</v>
       </c>
-      <c r="AR2" s="201" t="s">
+      <c r="AR2" s="232" t="s">
         <v>46</v>
       </c>
-      <c r="AS2" s="201" t="s">
+      <c r="AS2" s="232" t="s">
         <v>47</v>
       </c>
-      <c r="AT2" s="201" t="s">
+      <c r="AT2" s="232" t="s">
         <v>95</v>
       </c>
-      <c r="AU2" s="201" t="s">
+      <c r="AU2" s="232" t="s">
         <v>50</v>
       </c>
-      <c r="AV2" s="201" t="s">
+      <c r="AV2" s="232" t="s">
         <v>51</v>
       </c>
-      <c r="AW2" s="201" t="s">
+      <c r="AW2" s="232" t="s">
         <v>52</v>
       </c>
-      <c r="AX2" s="201" t="s">
+      <c r="AX2" s="232" t="s">
         <v>22</v>
       </c>
-      <c r="AY2" s="201" t="s">
+      <c r="AY2" s="232" t="s">
         <v>53</v>
       </c>
-      <c r="AZ2" s="201" t="s">
+      <c r="AZ2" s="232" t="s">
         <v>54</v>
       </c>
-      <c r="BA2" s="201" t="s">
+      <c r="BA2" s="232" t="s">
         <v>30</v>
       </c>
-      <c r="BB2" s="200" t="s">
+      <c r="BB2" s="234" t="s">
         <v>59</v>
       </c>
-      <c r="BC2" s="161"/>
-      <c r="BD2" s="161"/>
-      <c r="BE2" s="161"/>
-      <c r="BF2" s="161"/>
-      <c r="BG2" s="161"/>
-      <c r="BH2" s="161"/>
-      <c r="BI2" s="161"/>
-      <c r="BJ2" s="161"/>
-      <c r="BK2" s="161"/>
-      <c r="BL2" s="161"/>
-      <c r="BM2" s="161"/>
-      <c r="BN2" s="161"/>
-      <c r="BO2" s="161"/>
-      <c r="BP2" s="161"/>
-      <c r="BQ2" s="161"/>
-      <c r="BR2" s="161"/>
-      <c r="BS2" s="161"/>
-      <c r="BT2" s="161"/>
-      <c r="BU2" s="161"/>
-      <c r="BV2" s="161"/>
-      <c r="BW2" s="161"/>
-      <c r="BX2" s="161"/>
-      <c r="BY2" s="161"/>
-      <c r="BZ2" s="161"/>
-      <c r="CA2" s="161"/>
-      <c r="CB2" s="161"/>
-      <c r="CC2" s="161"/>
-      <c r="CD2" s="161"/>
-      <c r="CE2" s="161"/>
-      <c r="CF2" s="161"/>
-      <c r="CG2" s="161"/>
-      <c r="CH2" s="161"/>
-      <c r="CI2" s="161"/>
-      <c r="CJ2" s="162"/>
-      <c r="CK2" s="201" t="s">
+      <c r="BC2" s="157"/>
+      <c r="BD2" s="157"/>
+      <c r="BE2" s="157"/>
+      <c r="BF2" s="157"/>
+      <c r="BG2" s="157"/>
+      <c r="BH2" s="157"/>
+      <c r="BI2" s="157"/>
+      <c r="BJ2" s="157"/>
+      <c r="BK2" s="157"/>
+      <c r="BL2" s="157"/>
+      <c r="BM2" s="157"/>
+      <c r="BN2" s="157"/>
+      <c r="BO2" s="157"/>
+      <c r="BP2" s="157"/>
+      <c r="BQ2" s="157"/>
+      <c r="BR2" s="157"/>
+      <c r="BS2" s="157"/>
+      <c r="BT2" s="157"/>
+      <c r="BU2" s="157"/>
+      <c r="BV2" s="157"/>
+      <c r="BW2" s="157"/>
+      <c r="BX2" s="157"/>
+      <c r="BY2" s="157"/>
+      <c r="BZ2" s="157"/>
+      <c r="CA2" s="157"/>
+      <c r="CB2" s="157"/>
+      <c r="CC2" s="157"/>
+      <c r="CD2" s="157"/>
+      <c r="CE2" s="157"/>
+      <c r="CF2" s="157"/>
+      <c r="CG2" s="157"/>
+      <c r="CH2" s="157"/>
+      <c r="CI2" s="157"/>
+      <c r="CJ2" s="158"/>
+      <c r="CK2" s="232" t="s">
         <v>79</v>
       </c>
-      <c r="CL2" s="201" t="s">
+      <c r="CL2" s="232" t="s">
         <v>80</v>
       </c>
-      <c r="CM2" s="201" t="s">
+      <c r="CM2" s="232" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="168"/>
-      <c r="B3" s="168"/>
-      <c r="C3" s="168"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168"/>
-      <c r="H3" s="168"/>
-      <c r="I3" s="168"/>
-      <c r="J3" s="168"/>
-      <c r="K3" s="168"/>
-      <c r="L3" s="168"/>
-      <c r="M3" s="168"/>
-      <c r="N3" s="168"/>
-      <c r="O3" s="168"/>
-      <c r="P3" s="168"/>
-      <c r="Q3" s="168"/>
-      <c r="R3" s="168"/>
-      <c r="S3" s="168"/>
-      <c r="T3" s="168"/>
-      <c r="U3" s="168"/>
-      <c r="V3" s="168"/>
-      <c r="W3" s="168"/>
-      <c r="X3" s="201" t="s">
+      <c r="A3" s="175"/>
+      <c r="B3" s="175"/>
+      <c r="C3" s="175"/>
+      <c r="D3" s="175"/>
+      <c r="E3" s="175"/>
+      <c r="F3" s="175"/>
+      <c r="G3" s="175"/>
+      <c r="H3" s="175"/>
+      <c r="I3" s="175"/>
+      <c r="J3" s="175"/>
+      <c r="K3" s="175"/>
+      <c r="L3" s="175"/>
+      <c r="M3" s="175"/>
+      <c r="N3" s="175"/>
+      <c r="O3" s="175"/>
+      <c r="P3" s="175"/>
+      <c r="Q3" s="175"/>
+      <c r="R3" s="175"/>
+      <c r="S3" s="175"/>
+      <c r="T3" s="175"/>
+      <c r="U3" s="175"/>
+      <c r="V3" s="175"/>
+      <c r="W3" s="175"/>
+      <c r="X3" s="232" t="s">
         <v>96</v>
       </c>
-      <c r="Y3" s="201" t="s">
+      <c r="Y3" s="232" t="s">
         <v>34</v>
       </c>
-      <c r="Z3" s="201" t="s">
+      <c r="Z3" s="232" t="s">
         <v>35</v>
       </c>
-      <c r="AA3" s="201" t="s">
+      <c r="AA3" s="232" t="s">
         <v>36</v>
       </c>
-      <c r="AB3" s="201" t="s">
+      <c r="AB3" s="232" t="s">
         <v>37</v>
       </c>
-      <c r="AC3" s="201" t="s">
+      <c r="AC3" s="232" t="s">
         <v>38</v>
       </c>
-      <c r="AD3" s="201" t="s">
+      <c r="AD3" s="232" t="s">
         <v>39</v>
       </c>
-      <c r="AE3" s="201" t="s">
+      <c r="AE3" s="232" t="s">
         <v>40</v>
       </c>
-      <c r="AF3" s="168"/>
-      <c r="AG3" s="168"/>
-      <c r="AH3" s="168"/>
-      <c r="AI3" s="201" t="s">
+      <c r="AF3" s="175"/>
+      <c r="AG3" s="175"/>
+      <c r="AH3" s="175"/>
+      <c r="AI3" s="232" t="s">
         <v>97</v>
       </c>
-      <c r="AJ3" s="201" t="s">
+      <c r="AJ3" s="232" t="s">
         <v>34</v>
       </c>
-      <c r="AK3" s="201" t="s">
+      <c r="AK3" s="232" t="s">
         <v>35</v>
       </c>
-      <c r="AL3" s="201" t="s">
+      <c r="AL3" s="232" t="s">
         <v>36</v>
       </c>
-      <c r="AM3" s="201" t="s">
+      <c r="AM3" s="232" t="s">
         <v>37</v>
       </c>
-      <c r="AN3" s="201" t="s">
+      <c r="AN3" s="232" t="s">
         <v>98</v>
       </c>
-      <c r="AO3" s="201" t="s">
+      <c r="AO3" s="232" t="s">
         <v>39</v>
       </c>
-      <c r="AP3" s="201" t="s">
+      <c r="AP3" s="232" t="s">
         <v>40</v>
       </c>
-      <c r="AQ3" s="168"/>
-      <c r="AR3" s="168"/>
-      <c r="AS3" s="168"/>
-      <c r="AT3" s="168"/>
-      <c r="AU3" s="168"/>
-      <c r="AV3" s="168"/>
-      <c r="AW3" s="168"/>
-      <c r="AX3" s="168"/>
-      <c r="AY3" s="168"/>
-      <c r="AZ3" s="168"/>
-      <c r="BA3" s="168"/>
-      <c r="BB3" s="203" t="s">
+      <c r="AQ3" s="175"/>
+      <c r="AR3" s="175"/>
+      <c r="AS3" s="175"/>
+      <c r="AT3" s="175"/>
+      <c r="AU3" s="175"/>
+      <c r="AV3" s="175"/>
+      <c r="AW3" s="175"/>
+      <c r="AX3" s="175"/>
+      <c r="AY3" s="175"/>
+      <c r="AZ3" s="175"/>
+      <c r="BA3" s="175"/>
+      <c r="BB3" s="237" t="s">
         <v>60</v>
       </c>
-      <c r="BC3" s="203" t="s">
+      <c r="BC3" s="237" t="s">
         <v>61</v>
       </c>
       <c r="BD3" s="31"/>
-      <c r="BE3" s="193" t="s">
+      <c r="BE3" s="167" t="s">
         <v>62</v>
       </c>
-      <c r="BF3" s="158"/>
-      <c r="BG3" s="158"/>
-      <c r="BH3" s="158"/>
-      <c r="BI3" s="158"/>
-      <c r="BJ3" s="158"/>
-      <c r="BK3" s="158"/>
-      <c r="BL3" s="158"/>
-      <c r="BM3" s="158"/>
-      <c r="BN3" s="158"/>
-      <c r="BO3" s="158"/>
-      <c r="BP3" s="158"/>
-      <c r="BQ3" s="158"/>
-      <c r="BR3" s="158"/>
-      <c r="BS3" s="158"/>
-      <c r="BT3" s="158"/>
-      <c r="BU3" s="158"/>
-      <c r="BV3" s="158"/>
-      <c r="BW3" s="158"/>
-      <c r="BX3" s="158"/>
-      <c r="BY3" s="158"/>
-      <c r="BZ3" s="158"/>
-      <c r="CA3" s="158"/>
-      <c r="CB3" s="158"/>
-      <c r="CC3" s="158"/>
-      <c r="CD3" s="158"/>
-      <c r="CE3" s="158"/>
-      <c r="CF3" s="158"/>
-      <c r="CG3" s="158"/>
-      <c r="CH3" s="158"/>
-      <c r="CI3" s="158"/>
-      <c r="CJ3" s="158"/>
-      <c r="CK3" s="168"/>
-      <c r="CL3" s="168"/>
-      <c r="CM3" s="168"/>
+      <c r="BF3" s="190"/>
+      <c r="BG3" s="190"/>
+      <c r="BH3" s="190"/>
+      <c r="BI3" s="190"/>
+      <c r="BJ3" s="190"/>
+      <c r="BK3" s="190"/>
+      <c r="BL3" s="190"/>
+      <c r="BM3" s="190"/>
+      <c r="BN3" s="190"/>
+      <c r="BO3" s="190"/>
+      <c r="BP3" s="190"/>
+      <c r="BQ3" s="190"/>
+      <c r="BR3" s="190"/>
+      <c r="BS3" s="190"/>
+      <c r="BT3" s="190"/>
+      <c r="BU3" s="190"/>
+      <c r="BV3" s="190"/>
+      <c r="BW3" s="190"/>
+      <c r="BX3" s="190"/>
+      <c r="BY3" s="190"/>
+      <c r="BZ3" s="190"/>
+      <c r="CA3" s="190"/>
+      <c r="CB3" s="190"/>
+      <c r="CC3" s="190"/>
+      <c r="CD3" s="190"/>
+      <c r="CE3" s="190"/>
+      <c r="CF3" s="190"/>
+      <c r="CG3" s="190"/>
+      <c r="CH3" s="190"/>
+      <c r="CI3" s="190"/>
+      <c r="CJ3" s="190"/>
+      <c r="CK3" s="175"/>
+      <c r="CL3" s="175"/>
+      <c r="CM3" s="175"/>
       <c r="CN3" s="18"/>
       <c r="CO3" s="18"/>
       <c r="CP3" s="18"/>
@@ -5099,176 +5111,176 @@
       <c r="FS3" s="18"/>
     </row>
     <row r="4" spans="1:175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="168"/>
-      <c r="B4" s="168"/>
-      <c r="C4" s="168"/>
-      <c r="D4" s="168"/>
-      <c r="E4" s="168"/>
-      <c r="F4" s="168"/>
-      <c r="G4" s="168"/>
-      <c r="H4" s="168"/>
-      <c r="I4" s="168"/>
-      <c r="J4" s="168"/>
-      <c r="K4" s="168"/>
-      <c r="L4" s="168"/>
-      <c r="M4" s="168"/>
-      <c r="N4" s="168"/>
-      <c r="O4" s="168"/>
-      <c r="P4" s="168"/>
-      <c r="Q4" s="168"/>
-      <c r="R4" s="168"/>
-      <c r="S4" s="168"/>
-      <c r="T4" s="168"/>
-      <c r="U4" s="168"/>
-      <c r="V4" s="168"/>
-      <c r="W4" s="168"/>
-      <c r="X4" s="168"/>
-      <c r="Y4" s="168"/>
-      <c r="Z4" s="168"/>
-      <c r="AA4" s="168"/>
-      <c r="AB4" s="168"/>
-      <c r="AC4" s="168"/>
-      <c r="AD4" s="168"/>
-      <c r="AE4" s="168"/>
-      <c r="AF4" s="168"/>
-      <c r="AG4" s="168"/>
-      <c r="AH4" s="168"/>
-      <c r="AI4" s="168"/>
-      <c r="AJ4" s="168"/>
-      <c r="AK4" s="168"/>
-      <c r="AL4" s="168"/>
-      <c r="AM4" s="168"/>
-      <c r="AN4" s="168"/>
-      <c r="AO4" s="168"/>
-      <c r="AP4" s="168"/>
-      <c r="AQ4" s="168"/>
-      <c r="AR4" s="168"/>
-      <c r="AS4" s="168"/>
-      <c r="AT4" s="168"/>
-      <c r="AU4" s="168"/>
-      <c r="AV4" s="168"/>
-      <c r="AW4" s="168"/>
-      <c r="AX4" s="168"/>
-      <c r="AY4" s="168"/>
-      <c r="AZ4" s="168"/>
-      <c r="BA4" s="168"/>
-      <c r="BB4" s="168"/>
-      <c r="BC4" s="168"/>
-      <c r="BD4" s="200" t="s">
+      <c r="A4" s="175"/>
+      <c r="B4" s="175"/>
+      <c r="C4" s="175"/>
+      <c r="D4" s="175"/>
+      <c r="E4" s="175"/>
+      <c r="F4" s="175"/>
+      <c r="G4" s="175"/>
+      <c r="H4" s="175"/>
+      <c r="I4" s="175"/>
+      <c r="J4" s="175"/>
+      <c r="K4" s="175"/>
+      <c r="L4" s="175"/>
+      <c r="M4" s="175"/>
+      <c r="N4" s="175"/>
+      <c r="O4" s="175"/>
+      <c r="P4" s="175"/>
+      <c r="Q4" s="175"/>
+      <c r="R4" s="175"/>
+      <c r="S4" s="175"/>
+      <c r="T4" s="175"/>
+      <c r="U4" s="175"/>
+      <c r="V4" s="175"/>
+      <c r="W4" s="175"/>
+      <c r="X4" s="175"/>
+      <c r="Y4" s="175"/>
+      <c r="Z4" s="175"/>
+      <c r="AA4" s="175"/>
+      <c r="AB4" s="175"/>
+      <c r="AC4" s="175"/>
+      <c r="AD4" s="175"/>
+      <c r="AE4" s="175"/>
+      <c r="AF4" s="175"/>
+      <c r="AG4" s="175"/>
+      <c r="AH4" s="175"/>
+      <c r="AI4" s="175"/>
+      <c r="AJ4" s="175"/>
+      <c r="AK4" s="175"/>
+      <c r="AL4" s="175"/>
+      <c r="AM4" s="175"/>
+      <c r="AN4" s="175"/>
+      <c r="AO4" s="175"/>
+      <c r="AP4" s="175"/>
+      <c r="AQ4" s="175"/>
+      <c r="AR4" s="175"/>
+      <c r="AS4" s="175"/>
+      <c r="AT4" s="175"/>
+      <c r="AU4" s="175"/>
+      <c r="AV4" s="175"/>
+      <c r="AW4" s="175"/>
+      <c r="AX4" s="175"/>
+      <c r="AY4" s="175"/>
+      <c r="AZ4" s="175"/>
+      <c r="BA4" s="175"/>
+      <c r="BB4" s="175"/>
+      <c r="BC4" s="175"/>
+      <c r="BD4" s="234" t="s">
         <v>67</v>
       </c>
-      <c r="BE4" s="161"/>
-      <c r="BF4" s="162"/>
-      <c r="BG4" s="200" t="s">
+      <c r="BE4" s="157"/>
+      <c r="BF4" s="158"/>
+      <c r="BG4" s="234" t="s">
         <v>67</v>
       </c>
-      <c r="BH4" s="161"/>
-      <c r="BI4" s="162"/>
-      <c r="BJ4" s="200" t="s">
+      <c r="BH4" s="157"/>
+      <c r="BI4" s="158"/>
+      <c r="BJ4" s="234" t="s">
         <v>70</v>
       </c>
-      <c r="BK4" s="161"/>
-      <c r="BL4" s="162"/>
-      <c r="BM4" s="200" t="s">
+      <c r="BK4" s="157"/>
+      <c r="BL4" s="158"/>
+      <c r="BM4" s="234" t="s">
         <v>71</v>
       </c>
-      <c r="BN4" s="161"/>
-      <c r="BO4" s="162"/>
-      <c r="BP4" s="200" t="s">
+      <c r="BN4" s="157"/>
+      <c r="BO4" s="158"/>
+      <c r="BP4" s="234" t="s">
         <v>72</v>
       </c>
-      <c r="BQ4" s="161"/>
-      <c r="BR4" s="162"/>
-      <c r="BS4" s="200" t="s">
+      <c r="BQ4" s="157"/>
+      <c r="BR4" s="158"/>
+      <c r="BS4" s="234" t="s">
         <v>73</v>
       </c>
-      <c r="BT4" s="161"/>
-      <c r="BU4" s="162"/>
-      <c r="BV4" s="200" t="s">
+      <c r="BT4" s="157"/>
+      <c r="BU4" s="158"/>
+      <c r="BV4" s="234" t="s">
         <v>74</v>
       </c>
-      <c r="BW4" s="161"/>
-      <c r="BX4" s="162"/>
-      <c r="BY4" s="200" t="s">
+      <c r="BW4" s="157"/>
+      <c r="BX4" s="158"/>
+      <c r="BY4" s="234" t="s">
         <v>75</v>
       </c>
-      <c r="BZ4" s="161"/>
-      <c r="CA4" s="162"/>
-      <c r="CB4" s="200" t="s">
+      <c r="BZ4" s="157"/>
+      <c r="CA4" s="158"/>
+      <c r="CB4" s="234" t="s">
         <v>76</v>
       </c>
-      <c r="CC4" s="161"/>
-      <c r="CD4" s="162"/>
-      <c r="CE4" s="200" t="s">
+      <c r="CC4" s="157"/>
+      <c r="CD4" s="158"/>
+      <c r="CE4" s="234" t="s">
         <v>77</v>
       </c>
-      <c r="CF4" s="161"/>
-      <c r="CG4" s="162"/>
-      <c r="CH4" s="200" t="s">
+      <c r="CF4" s="157"/>
+      <c r="CG4" s="158"/>
+      <c r="CH4" s="234" t="s">
         <v>78</v>
       </c>
-      <c r="CI4" s="161"/>
-      <c r="CJ4" s="162"/>
-      <c r="CK4" s="168"/>
-      <c r="CL4" s="168"/>
-      <c r="CM4" s="168"/>
+      <c r="CI4" s="157"/>
+      <c r="CJ4" s="158"/>
+      <c r="CK4" s="175"/>
+      <c r="CL4" s="175"/>
+      <c r="CM4" s="175"/>
     </row>
     <row r="5" spans="1:175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="202"/>
-      <c r="B5" s="202"/>
-      <c r="C5" s="202"/>
-      <c r="D5" s="202"/>
-      <c r="E5" s="202"/>
-      <c r="F5" s="202"/>
-      <c r="G5" s="202"/>
-      <c r="H5" s="202"/>
-      <c r="I5" s="202"/>
-      <c r="J5" s="202"/>
-      <c r="K5" s="202"/>
-      <c r="L5" s="202"/>
-      <c r="M5" s="202"/>
-      <c r="N5" s="202"/>
-      <c r="O5" s="202"/>
-      <c r="P5" s="202"/>
-      <c r="Q5" s="202"/>
-      <c r="R5" s="202"/>
-      <c r="S5" s="202"/>
-      <c r="T5" s="202"/>
-      <c r="U5" s="202"/>
-      <c r="V5" s="202"/>
-      <c r="W5" s="202"/>
-      <c r="X5" s="202"/>
-      <c r="Y5" s="202"/>
-      <c r="Z5" s="202"/>
-      <c r="AA5" s="202"/>
-      <c r="AB5" s="202"/>
-      <c r="AC5" s="202"/>
-      <c r="AD5" s="202"/>
-      <c r="AE5" s="202"/>
-      <c r="AF5" s="202"/>
-      <c r="AG5" s="202"/>
-      <c r="AH5" s="202"/>
-      <c r="AI5" s="202"/>
-      <c r="AJ5" s="202"/>
-      <c r="AK5" s="202"/>
-      <c r="AL5" s="202"/>
-      <c r="AM5" s="202"/>
-      <c r="AN5" s="202"/>
-      <c r="AO5" s="202"/>
-      <c r="AP5" s="202"/>
-      <c r="AQ5" s="202"/>
-      <c r="AR5" s="202"/>
-      <c r="AS5" s="202"/>
-      <c r="AT5" s="202"/>
-      <c r="AU5" s="202"/>
-      <c r="AV5" s="202"/>
-      <c r="AW5" s="202"/>
-      <c r="AX5" s="202"/>
-      <c r="AY5" s="202"/>
-      <c r="AZ5" s="202"/>
-      <c r="BA5" s="202"/>
-      <c r="BB5" s="202"/>
-      <c r="BC5" s="202"/>
+      <c r="A5" s="233"/>
+      <c r="B5" s="233"/>
+      <c r="C5" s="233"/>
+      <c r="D5" s="233"/>
+      <c r="E5" s="233"/>
+      <c r="F5" s="233"/>
+      <c r="G5" s="233"/>
+      <c r="H5" s="233"/>
+      <c r="I5" s="233"/>
+      <c r="J5" s="233"/>
+      <c r="K5" s="233"/>
+      <c r="L5" s="233"/>
+      <c r="M5" s="233"/>
+      <c r="N5" s="233"/>
+      <c r="O5" s="233"/>
+      <c r="P5" s="233"/>
+      <c r="Q5" s="233"/>
+      <c r="R5" s="233"/>
+      <c r="S5" s="233"/>
+      <c r="T5" s="233"/>
+      <c r="U5" s="233"/>
+      <c r="V5" s="233"/>
+      <c r="W5" s="233"/>
+      <c r="X5" s="233"/>
+      <c r="Y5" s="233"/>
+      <c r="Z5" s="233"/>
+      <c r="AA5" s="233"/>
+      <c r="AB5" s="233"/>
+      <c r="AC5" s="233"/>
+      <c r="AD5" s="233"/>
+      <c r="AE5" s="233"/>
+      <c r="AF5" s="233"/>
+      <c r="AG5" s="233"/>
+      <c r="AH5" s="233"/>
+      <c r="AI5" s="233"/>
+      <c r="AJ5" s="233"/>
+      <c r="AK5" s="233"/>
+      <c r="AL5" s="233"/>
+      <c r="AM5" s="233"/>
+      <c r="AN5" s="233"/>
+      <c r="AO5" s="233"/>
+      <c r="AP5" s="233"/>
+      <c r="AQ5" s="233"/>
+      <c r="AR5" s="233"/>
+      <c r="AS5" s="233"/>
+      <c r="AT5" s="233"/>
+      <c r="AU5" s="233"/>
+      <c r="AV5" s="233"/>
+      <c r="AW5" s="233"/>
+      <c r="AX5" s="233"/>
+      <c r="AY5" s="233"/>
+      <c r="AZ5" s="233"/>
+      <c r="BA5" s="233"/>
+      <c r="BB5" s="233"/>
+      <c r="BC5" s="233"/>
       <c r="BD5" s="32" t="s">
         <v>99</v>
       </c>
@@ -5368,9 +5380,9 @@
       <c r="CJ5" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="CK5" s="202"/>
-      <c r="CL5" s="202"/>
-      <c r="CM5" s="202"/>
+      <c r="CK5" s="233"/>
+      <c r="CL5" s="233"/>
+      <c r="CM5" s="233"/>
     </row>
     <row r="6" spans="1:175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="33"/>
@@ -5949,14 +5961,62 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="X3:X5"/>
-    <mergeCell ref="Y3:Y5"/>
-    <mergeCell ref="AL3:AL5"/>
-    <mergeCell ref="Z3:Z5"/>
-    <mergeCell ref="AA3:AA5"/>
-    <mergeCell ref="AB3:AB5"/>
-    <mergeCell ref="AC3:AC5"/>
-    <mergeCell ref="AD3:AD5"/>
+    <mergeCell ref="BM4:BO4"/>
+    <mergeCell ref="AM3:AM5"/>
+    <mergeCell ref="AN3:AN5"/>
+    <mergeCell ref="AO3:AO5"/>
+    <mergeCell ref="AP3:AP5"/>
+    <mergeCell ref="AT2:AT5"/>
+    <mergeCell ref="AU2:AU5"/>
+    <mergeCell ref="AV2:AV5"/>
+    <mergeCell ref="AW2:AW5"/>
+    <mergeCell ref="CE4:CG4"/>
+    <mergeCell ref="CH4:CJ4"/>
+    <mergeCell ref="AX2:AX5"/>
+    <mergeCell ref="AY2:AY5"/>
+    <mergeCell ref="AZ2:AZ5"/>
+    <mergeCell ref="BB3:BB5"/>
+    <mergeCell ref="BC3:BC5"/>
+    <mergeCell ref="BP4:BR4"/>
+    <mergeCell ref="BS4:BU4"/>
+    <mergeCell ref="BV4:BX4"/>
+    <mergeCell ref="BY4:CA4"/>
+    <mergeCell ref="CB4:CD4"/>
+    <mergeCell ref="BA2:BA5"/>
+    <mergeCell ref="BD4:BF4"/>
+    <mergeCell ref="BG4:BI4"/>
+    <mergeCell ref="BJ4:BL4"/>
+    <mergeCell ref="CK2:CK5"/>
+    <mergeCell ref="CL2:CL5"/>
+    <mergeCell ref="CM2:CM5"/>
+    <mergeCell ref="BE3:CJ3"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:O1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="T1:AF1"/>
+    <mergeCell ref="AG1:AS1"/>
+    <mergeCell ref="AT1:AZ1"/>
+    <mergeCell ref="BA1:CM1"/>
+    <mergeCell ref="BB2:CJ2"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="J2:J5"/>
+    <mergeCell ref="K2:K5"/>
+    <mergeCell ref="L2:L5"/>
+    <mergeCell ref="M2:M5"/>
+    <mergeCell ref="N2:N5"/>
+    <mergeCell ref="O2:O5"/>
+    <mergeCell ref="P2:P5"/>
+    <mergeCell ref="Q2:Q5"/>
+    <mergeCell ref="R2:R5"/>
+    <mergeCell ref="S2:S5"/>
     <mergeCell ref="T2:T5"/>
     <mergeCell ref="U2:U5"/>
     <mergeCell ref="AQ2:AQ5"/>
@@ -5973,62 +6033,14 @@
     <mergeCell ref="AI3:AI5"/>
     <mergeCell ref="AJ3:AJ5"/>
     <mergeCell ref="AK3:AK5"/>
-    <mergeCell ref="O2:O5"/>
-    <mergeCell ref="P2:P5"/>
-    <mergeCell ref="Q2:Q5"/>
-    <mergeCell ref="R2:R5"/>
-    <mergeCell ref="S2:S5"/>
-    <mergeCell ref="J2:J5"/>
-    <mergeCell ref="K2:K5"/>
-    <mergeCell ref="L2:L5"/>
-    <mergeCell ref="M2:M5"/>
-    <mergeCell ref="N2:N5"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="I2:I5"/>
-    <mergeCell ref="CK2:CK5"/>
-    <mergeCell ref="CL2:CL5"/>
-    <mergeCell ref="CM2:CM5"/>
-    <mergeCell ref="BE3:CJ3"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:O1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="T1:AF1"/>
-    <mergeCell ref="AG1:AS1"/>
-    <mergeCell ref="AT1:AZ1"/>
-    <mergeCell ref="BA1:CM1"/>
-    <mergeCell ref="BB2:CJ2"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="CE4:CG4"/>
-    <mergeCell ref="CH4:CJ4"/>
-    <mergeCell ref="AX2:AX5"/>
-    <mergeCell ref="AY2:AY5"/>
-    <mergeCell ref="AZ2:AZ5"/>
-    <mergeCell ref="BB3:BB5"/>
-    <mergeCell ref="BC3:BC5"/>
-    <mergeCell ref="BP4:BR4"/>
-    <mergeCell ref="BS4:BU4"/>
-    <mergeCell ref="BV4:BX4"/>
-    <mergeCell ref="BY4:CA4"/>
-    <mergeCell ref="CB4:CD4"/>
-    <mergeCell ref="BA2:BA5"/>
-    <mergeCell ref="BD4:BF4"/>
-    <mergeCell ref="BG4:BI4"/>
-    <mergeCell ref="BJ4:BL4"/>
-    <mergeCell ref="BM4:BO4"/>
-    <mergeCell ref="AM3:AM5"/>
-    <mergeCell ref="AN3:AN5"/>
-    <mergeCell ref="AO3:AO5"/>
-    <mergeCell ref="AP3:AP5"/>
-    <mergeCell ref="AT2:AT5"/>
-    <mergeCell ref="AU2:AU5"/>
-    <mergeCell ref="AV2:AV5"/>
-    <mergeCell ref="AW2:AW5"/>
+    <mergeCell ref="X3:X5"/>
+    <mergeCell ref="Y3:Y5"/>
+    <mergeCell ref="AL3:AL5"/>
+    <mergeCell ref="Z3:Z5"/>
+    <mergeCell ref="AA3:AA5"/>
+    <mergeCell ref="AB3:AB5"/>
+    <mergeCell ref="AC3:AC5"/>
+    <mergeCell ref="AD3:AD5"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="BB6:BB10" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -6062,36 +6074,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="206" t="s">
+      <c r="A1" s="242" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="158"/>
-      <c r="C1" s="158"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="158"/>
-      <c r="F1" s="158"/>
-      <c r="G1" s="158"/>
-      <c r="H1" s="158"/>
-      <c r="I1" s="158"/>
-      <c r="J1" s="158"/>
-      <c r="K1" s="158"/>
-      <c r="L1" s="158"/>
+      <c r="B1" s="190"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
+      <c r="F1" s="190"/>
+      <c r="G1" s="190"/>
+      <c r="H1" s="190"/>
+      <c r="I1" s="190"/>
+      <c r="J1" s="190"/>
+      <c r="K1" s="190"/>
+      <c r="L1" s="190"/>
     </row>
     <row r="3" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="207" t="s">
+      <c r="A3" s="239" t="s">
         <v>101</v>
       </c>
-      <c r="B3" s="158"/>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="158"/>
-      <c r="I3" s="158"/>
-      <c r="J3" s="158"/>
-      <c r="K3" s="158"/>
-      <c r="L3" s="158"/>
+      <c r="B3" s="190"/>
+      <c r="C3" s="190"/>
+      <c r="D3" s="190"/>
+      <c r="E3" s="190"/>
+      <c r="F3" s="190"/>
+      <c r="G3" s="190"/>
+      <c r="H3" s="190"/>
+      <c r="I3" s="190"/>
+      <c r="J3" s="190"/>
+      <c r="K3" s="190"/>
+      <c r="L3" s="190"/>
     </row>
     <row r="4" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
@@ -6128,24 +6140,24 @@
       <c r="L5" s="29"/>
     </row>
     <row r="6" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="208" t="s">
+      <c r="A6" s="243" t="s">
         <v>105</v>
       </c>
-      <c r="B6" s="155"/>
-      <c r="C6" s="155"/>
-      <c r="D6" s="166"/>
-      <c r="E6" s="208" t="s">
+      <c r="B6" s="152"/>
+      <c r="C6" s="152"/>
+      <c r="D6" s="153"/>
+      <c r="E6" s="243" t="s">
         <v>106</v>
       </c>
-      <c r="F6" s="155"/>
-      <c r="G6" s="155"/>
-      <c r="H6" s="166"/>
-      <c r="I6" s="208" t="s">
+      <c r="F6" s="152"/>
+      <c r="G6" s="152"/>
+      <c r="H6" s="153"/>
+      <c r="I6" s="243" t="s">
         <v>107</v>
       </c>
-      <c r="J6" s="155"/>
-      <c r="K6" s="155"/>
-      <c r="L6" s="166"/>
+      <c r="J6" s="152"/>
+      <c r="K6" s="152"/>
+      <c r="L6" s="153"/>
     </row>
     <row r="7" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
@@ -6340,19 +6352,19 @@
       <c r="D16" s="31"/>
     </row>
     <row r="17" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="207" t="s">
+      <c r="A17" s="239" t="s">
         <v>125</v>
       </c>
-      <c r="B17" s="158"/>
-      <c r="C17" s="158"/>
-      <c r="D17" s="158"/>
+      <c r="B17" s="190"/>
+      <c r="C17" s="190"/>
+      <c r="D17" s="190"/>
       <c r="E17" s="43"/>
-      <c r="F17" s="209" t="s">
+      <c r="F17" s="240" t="s">
         <v>126</v>
       </c>
-      <c r="G17" s="210"/>
-      <c r="H17" s="210"/>
-      <c r="I17" s="210"/>
+      <c r="G17" s="241"/>
+      <c r="H17" s="241"/>
+      <c r="I17" s="241"/>
     </row>
     <row r="18" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="44" t="s">
@@ -6437,19 +6449,19 @@
       <c r="D24" s="62"/>
     </row>
     <row r="25" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="207" t="s">
+      <c r="A25" s="239" t="s">
         <v>135</v>
       </c>
-      <c r="B25" s="158"/>
-      <c r="C25" s="158"/>
-      <c r="D25" s="158"/>
+      <c r="B25" s="190"/>
+      <c r="C25" s="190"/>
+      <c r="D25" s="190"/>
       <c r="E25" s="63"/>
-      <c r="F25" s="207" t="s">
+      <c r="F25" s="239" t="s">
         <v>136</v>
       </c>
-      <c r="G25" s="158"/>
-      <c r="H25" s="158"/>
-      <c r="I25" s="158"/>
+      <c r="G25" s="190"/>
+      <c r="H25" s="190"/>
+      <c r="I25" s="190"/>
     </row>
     <row r="26" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="35" t="s">
@@ -6782,16 +6794,16 @@
       <c r="D53" s="29"/>
     </row>
     <row r="55" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A55" s="207" t="s">
+      <c r="A55" s="239" t="s">
         <v>172</v>
       </c>
-      <c r="B55" s="158"/>
-      <c r="C55" s="158"/>
-      <c r="D55" s="158"/>
-      <c r="E55" s="158"/>
-      <c r="F55" s="158"/>
-      <c r="G55" s="158"/>
-      <c r="H55" s="158"/>
+      <c r="B55" s="190"/>
+      <c r="C55" s="190"/>
+      <c r="D55" s="190"/>
+      <c r="E55" s="190"/>
+      <c r="F55" s="190"/>
+      <c r="G55" s="190"/>
+      <c r="H55" s="190"/>
     </row>
     <row r="56" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A56" s="35" t="s">
@@ -6830,18 +6842,18 @@
       <c r="H59" s="29"/>
     </row>
     <row r="60" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A60" s="211" t="s">
+      <c r="A60" s="238" t="s">
         <v>174</v>
       </c>
-      <c r="B60" s="161"/>
-      <c r="C60" s="161"/>
-      <c r="D60" s="162"/>
-      <c r="E60" s="211" t="s">
+      <c r="B60" s="157"/>
+      <c r="C60" s="157"/>
+      <c r="D60" s="158"/>
+      <c r="E60" s="238" t="s">
         <v>175</v>
       </c>
-      <c r="F60" s="161"/>
-      <c r="G60" s="161"/>
-      <c r="H60" s="162"/>
+      <c r="F60" s="157"/>
+      <c r="G60" s="157"/>
+      <c r="H60" s="158"/>
     </row>
     <row r="61" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A61" s="41" t="s">
@@ -6887,16 +6899,16 @@
       <c r="H62" s="29"/>
     </row>
     <row r="63" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A63" s="211" t="s">
+      <c r="A63" s="238" t="s">
         <v>186</v>
       </c>
-      <c r="B63" s="161"/>
-      <c r="C63" s="161"/>
-      <c r="D63" s="161"/>
-      <c r="E63" s="161"/>
-      <c r="F63" s="161"/>
-      <c r="G63" s="161"/>
-      <c r="H63" s="162"/>
+      <c r="B63" s="157"/>
+      <c r="C63" s="157"/>
+      <c r="D63" s="157"/>
+      <c r="E63" s="157"/>
+      <c r="F63" s="157"/>
+      <c r="G63" s="157"/>
+      <c r="H63" s="158"/>
     </row>
     <row r="64" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A64" s="35" t="s">
@@ -6959,18 +6971,18 @@
       <c r="H67" s="6"/>
     </row>
     <row r="68" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A68" s="211" t="s">
+      <c r="A68" s="238" t="s">
         <v>197</v>
       </c>
-      <c r="B68" s="161"/>
-      <c r="C68" s="161"/>
-      <c r="D68" s="162"/>
-      <c r="E68" s="211" t="s">
+      <c r="B68" s="157"/>
+      <c r="C68" s="157"/>
+      <c r="D68" s="158"/>
+      <c r="E68" s="238" t="s">
         <v>198</v>
       </c>
-      <c r="F68" s="161"/>
-      <c r="G68" s="161"/>
-      <c r="H68" s="162"/>
+      <c r="F68" s="157"/>
+      <c r="G68" s="157"/>
+      <c r="H68" s="158"/>
     </row>
     <row r="69" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A69" s="44" t="s">
@@ -7063,18 +7075,18 @@
       <c r="H74" s="29"/>
     </row>
     <row r="75" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A75" s="211" t="s">
+      <c r="A75" s="238" t="s">
         <v>202</v>
       </c>
-      <c r="B75" s="161"/>
-      <c r="C75" s="161"/>
-      <c r="D75" s="162"/>
-      <c r="E75" s="211" t="s">
+      <c r="B75" s="157"/>
+      <c r="C75" s="157"/>
+      <c r="D75" s="158"/>
+      <c r="E75" s="238" t="s">
         <v>203</v>
       </c>
-      <c r="F75" s="161"/>
-      <c r="G75" s="161"/>
-      <c r="H75" s="162"/>
+      <c r="F75" s="157"/>
+      <c r="G75" s="157"/>
+      <c r="H75" s="158"/>
     </row>
     <row r="76" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A76" s="44" t="s">
@@ -7167,18 +7179,18 @@
       <c r="H81" s="29"/>
     </row>
     <row r="82" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A82" s="211" t="s">
+      <c r="A82" s="238" t="s">
         <v>204</v>
       </c>
-      <c r="B82" s="161"/>
-      <c r="C82" s="161"/>
-      <c r="D82" s="162"/>
-      <c r="E82" s="211" t="s">
+      <c r="B82" s="157"/>
+      <c r="C82" s="157"/>
+      <c r="D82" s="158"/>
+      <c r="E82" s="238" t="s">
         <v>205</v>
       </c>
-      <c r="F82" s="161"/>
-      <c r="G82" s="161"/>
-      <c r="H82" s="162"/>
+      <c r="F82" s="157"/>
+      <c r="G82" s="157"/>
+      <c r="H82" s="158"/>
     </row>
     <row r="83" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A83" s="44" t="s">
@@ -7356,6 +7368,16 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="E75:H75"/>
     <mergeCell ref="A82:D82"/>
     <mergeCell ref="E82:H82"/>
     <mergeCell ref="A25:D25"/>
@@ -7365,16 +7387,6 @@
     <mergeCell ref="E60:H60"/>
     <mergeCell ref="A63:H63"/>
     <mergeCell ref="E68:H68"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="A75:D75"/>
-    <mergeCell ref="E75:H75"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="I6:L6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
